--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1D612-EA7C-4A1A-B07C-A681D6742A35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF39719-B9DB-40A0-B63A-4F760C29E29C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="385">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1172,6 +1172,203 @@
   <si>
     <t xml:space="preserve">Gestión de Dotación Incial </t>
   </si>
+  <si>
+    <t>Estado Dotación Inicial</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La alcaldía municipal manifestó su interés en realizar la compra de dotación de este CDI. Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de octubre de 2018.  Actualmente la administración municipal está realizando el proceso de compra de acuerdo a la guía orientadora y el listado de necesidades mínimas que se envió la sede nacional ICBF. Se cuenta con la relación de elementos de dotación pendientes por adquirir.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ver adjuntos: TrazabilidadDotacion_TorrentesSoacha.pdf, MinimosDotacion_TorrentesSoacha.pdf y DotacionPendiente_TorrentesSoacha.xls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Regional ICBF no ha adelantado gestión de dotación con el ente territorial.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>La UNGRD compró una parte de la dotación y se encuentr en el municipio y en Sede Nacional ICBF ( Bodega Barrio 20 de julio) se recibió otra parte de la dotación adquirida por Gestiones de DAPRE.</t>
+  </si>
+  <si>
+    <t>Dotación completa-DAPRE (Abu Dhabi)</t>
+  </si>
+  <si>
+    <t>Dotación compartida Alcaldía-DAPRE (Abu Dhabi)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Regional ICBF no ha adelantado gestión de dotación con el ente territorial ya que la infraestructura presenta condiciones que no permiten un pronto inicio de su operación (falta de vías de acceso seguras, no se cuenta con suministro de agua potable para el funcionamiento. Findeter proyecta la construcción de un puente que asegure el acceso al lugar, proyecto avaluado en 3.800 millones de pesos, de igual manera corresponde al ente territorial destinar recursos para la pavimentación de la vía que conduce al CDI y la construcción de una PETAR para dar solución a la falta de agua y el tratamiento de las mismas- correo del 16 noviembre de 2018.)
+Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial y no se obtuvo respuesta. Por lo tanto, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se priorizó con DAPRE la compra de dotación completa con los fondos de Abu Dhabi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ver adjuntos: TrazabilidadDotacionValleOrtigal-Cauca.pdf y MínimosDotacion_ValleOrtigalCauca.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Dotación compartida  Recursos CONPES-DAPRE (Abu Dhabi)</t>
+  </si>
+  <si>
+    <t>Dotación compartida UNGRD-DAPRE (CEMEX)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En acta de reunión del ICBF y la Secretaria de Educación de Bucaramanga el día 6 de Junio del 2018, la Secretaria de Educación manifiesta que el municipio tiene la responsabilidad de entregar la dotación requerida para el número de usuarios del CDI.
+Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de agosto de 2018.  No se ha dado cumplimiento al compromiso por parte de la Alcaldía y por lo tanto, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ver adjuntos: ActaCampoMadrid_6Junio2018.pdf, MinimosDotacion_CampoMadridSantander.pdf y  TrazabilidadDotacion_CampoMadridSantander.pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Regional  no ha reportado gestión de dotación .
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dotación completa- SGR</t>
+  </si>
+  <si>
+    <t>En acta de reunión con la Alcaldía de San Bernardo de Viento (9 mayo 2018), quedó como compromiso por parte de la Alcaldía remitir propuesta sobre la compra dotación inicial de acuerdo a los recursos disponibles para la puesta en operación del CDI. No se ha obtenido respuesta de la alcaldía.
+Ver adjunto: TrazabilidadDotacionSanBernardo_Cordoba.pdf</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>Dotación Completa- SGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Dotación fue adquirida con recursos del Sistema General de Regalías  en proyecto BPIN 2017000050038 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta dotación se encuentra incluida en el Proyecto de Regalías </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Construcción, terminación y dotación del CDI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en el Municipio de Chita, Boyacá. El CDI será será concluido con recursos de regalías.
+Desde el tema de Dotaciones de Primera Infancia, se harealizado la gesón necesaria para garanzar la articulación entre el Ente territorial y la Regional Boyacá ICBF, conforme a la
+ruta definida y reforzada en el memorando S-2018-148484-0101, y como resultado se logró la revisión de los elementos de dotación y el presupuesto propuesto en el proyecto contra los Mínimos de dotación requeridos con algunas observaciones que ya conoce el Ente Territorial.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dotación parcial DAPRE</t>
+  </si>
+  <si>
+    <t>Existe compromiso de DAPRE de adquirir dotación para completarla con Forndo Abu Dhabi.</t>
+  </si>
 </sst>
 </file>
 
@@ -1181,7 +1378,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,6 +1434,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1474,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,39 +1737,6 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1632,6 +1803,60 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1914,94 +2139,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="52" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="52" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="70.28515625" style="54" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" style="52" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" style="54" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="52" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49" style="52" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="62.140625" style="52" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="52" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="52"/>
+    <col min="1" max="1" width="4.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="41" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="41" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="41" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="41" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="41" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="41" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="70.28515625" style="43" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" style="41" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" style="43" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="41" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="49" style="41" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="49" style="62" customWidth="1"/>
+    <col min="18" max="18" width="94" style="41" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="43" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="N1" s="44"/>
-    </row>
-    <row r="2" spans="1:17" s="46" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="L1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="Q1" s="60"/>
+    </row>
+    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="29" t="s">
         <v>362</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="R2" s="46" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="50" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2016,7 +2246,7 @@
       <c r="E3" s="15">
         <v>65</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="37">
         <f>+E3*1419650</f>
         <v>92277250</v>
       </c>
@@ -2035,23 +2265,26 @@
       <c r="K3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M3" s="20">
         <v>43525</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="38">
         <v>43525</v>
       </c>
       <c r="O3" s="15"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -2066,7 +2299,7 @@
       <c r="E4" s="15">
         <v>300</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="37">
         <f t="shared" ref="F4:F10" si="0">+E4*946485</f>
         <v>283945500</v>
       </c>
@@ -2085,21 +2318,26 @@
       <c r="K4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="25" t="s">
         <v>143</v>
       </c>
       <c r="M4" s="20">
         <v>43525</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="38">
         <v>43435</v>
       </c>
       <c r="O4" s="15"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2114,7 +2352,7 @@
       <c r="E5" s="15">
         <v>160</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="37">
         <f t="shared" si="0"/>
         <v>151437600</v>
       </c>
@@ -2133,23 +2371,22 @@
       <c r="K5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M5" s="20">
         <v>43525</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="38">
         <v>43435</v>
       </c>
       <c r="O5" s="15"/>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+    </row>
+    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2164,7 +2401,7 @@
       <c r="E6" s="15">
         <v>300</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2183,21 +2420,26 @@
       <c r="K6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="20">
         <v>43497</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="38">
         <v>43435</v>
       </c>
       <c r="O6" s="15"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2212,7 +2454,7 @@
       <c r="E7" s="15">
         <v>300</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="37">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2231,21 +2473,24 @@
       <c r="K7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="20">
         <v>43556</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="38">
         <v>43678</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" s="50" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2260,7 +2505,7 @@
       <c r="E8" s="15">
         <v>300</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2279,21 +2524,22 @@
       <c r="K8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="25" t="s">
         <v>142</v>
       </c>
       <c r="M8" s="20">
         <v>43586</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="25" t="s">
         <v>103</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2308,7 +2554,7 @@
       <c r="E9" s="15">
         <v>300</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="37">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2327,21 +2573,26 @@
       <c r="K9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M9" s="20">
         <v>43617</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="38">
         <v>43556</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="P9" s="44"/>
+      <c r="Q9" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2356,7 +2607,7 @@
       <c r="E10" s="15">
         <v>300</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="37">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2375,21 +2626,26 @@
       <c r="K10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M10" s="20">
         <v>43525</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="38">
         <v>43435</v>
       </c>
       <c r="O10" s="15"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2404,7 +2660,7 @@
       <c r="E11" s="15">
         <v>65</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="37">
         <f t="shared" ref="F11" si="1">+E11*1419650</f>
         <v>92277250</v>
       </c>
@@ -2423,21 +2679,26 @@
       <c r="K11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="20">
         <v>43586</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="38">
         <v>43525</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2452,7 +2713,7 @@
       <c r="E12" s="15">
         <v>95</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="37">
         <f t="shared" ref="F12:F24" si="2">+E12*1419650</f>
         <v>134866750</v>
       </c>
@@ -2471,21 +2732,22 @@
       <c r="K12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="25" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="20">
         <v>43525</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O12" s="15"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2500,7 +2762,7 @@
       <c r="E13" s="15">
         <v>95</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2519,21 +2781,22 @@
       <c r="K13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="M13" s="20">
         <v>43617</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O13" s="15"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="P13" s="44"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2548,7 +2811,7 @@
       <c r="E14" s="15">
         <v>95</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2568,21 +2831,26 @@
       <c r="K14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="25" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="20">
         <v>43525</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="P14" s="44"/>
+      <c r="Q14" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2597,7 +2865,7 @@
       <c r="E15" s="15">
         <v>95</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2616,21 +2884,26 @@
       <c r="K15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="25" t="s">
         <v>40</v>
       </c>
       <c r="M15" s="20">
         <v>43525</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O15" s="15"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" s="50" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="R15" s="64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2645,7 +2918,7 @@
       <c r="E16" s="15">
         <v>95</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2664,21 +2937,26 @@
       <c r="K16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="25" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="20">
         <v>43556</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="P16" s="44"/>
+      <c r="Q16" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2693,7 +2971,7 @@
       <c r="E17" s="15">
         <v>95</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2712,21 +2990,22 @@
       <c r="K17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="25" t="s">
         <v>145</v>
       </c>
       <c r="M17" s="20">
         <v>43556</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
+      <c r="P17" s="44"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2741,7 +3020,7 @@
       <c r="E18" s="15">
         <v>95</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2760,21 +3039,22 @@
       <c r="K18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="25" t="s">
         <v>145</v>
       </c>
       <c r="M18" s="20">
         <v>43556</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O18" s="15"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
+      <c r="P18" s="44"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2789,7 +3069,7 @@
       <c r="E19" s="15">
         <v>95</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2808,21 +3088,22 @@
       <c r="K19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="25" t="s">
         <v>146</v>
       </c>
       <c r="M19" s="20">
         <v>43586</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O19" s="15"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="47">
+      <c r="P19" s="44"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2837,7 +3118,7 @@
       <c r="E20" s="15">
         <v>95</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2856,21 +3137,22 @@
       <c r="K20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="25" t="s">
         <v>147</v>
       </c>
       <c r="M20" s="20">
         <v>43586</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O20" s="15"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="P20" s="44"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2885,7 +3167,7 @@
       <c r="E21" s="15">
         <v>95</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2904,21 +3186,22 @@
       <c r="K21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="25" t="s">
         <v>148</v>
       </c>
       <c r="M21" s="20">
         <v>43647</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="N21" s="25" t="s">
         <v>130</v>
       </c>
       <c r="O21" s="15"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="P21" s="44"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -2933,7 +3216,7 @@
       <c r="E22" s="21">
         <v>95</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="37">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2952,21 +3235,22 @@
       <c r="K22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="26" t="s">
         <v>149</v>
       </c>
       <c r="M22" s="22">
         <v>43525</v>
       </c>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="31" t="s">
         <v>130</v>
       </c>
       <c r="O22" s="15"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="P22" s="44"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2981,7 +3265,7 @@
       <c r="E23" s="23">
         <v>110</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="37">
         <f t="shared" si="2"/>
         <v>156161500</v>
       </c>
@@ -3000,21 +3284,26 @@
       <c r="K23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="27" t="s">
         <v>47</v>
       </c>
       <c r="M23" s="24">
         <v>43525</v>
       </c>
-      <c r="N23" s="49">
+      <c r="N23" s="38">
         <v>43556</v>
       </c>
       <c r="O23" s="16"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
+      <c r="P23" s="45"/>
+      <c r="Q23" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -3029,7 +3318,7 @@
       <c r="E24" s="23">
         <v>104</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="37">
         <f t="shared" si="2"/>
         <v>147643600</v>
       </c>
@@ -3048,21 +3337,22 @@
       <c r="K24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="27" t="s">
         <v>100</v>
       </c>
       <c r="M24" s="24">
         <v>43739</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="38">
         <v>43800</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="P24" s="45"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="36">
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -3093,21 +3383,22 @@
       <c r="K25" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M25" s="20">
         <v>43497</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25" s="38">
         <v>43435</v>
       </c>
       <c r="O25" s="16"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="P25" s="45"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="16"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -3138,21 +3429,22 @@
       <c r="K26" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M26" s="20">
         <v>43497</v>
       </c>
-      <c r="N26" s="49">
+      <c r="N26" s="38">
         <v>43408</v>
       </c>
       <c r="O26" s="16"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="P26" s="45"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="16"/>
+    </row>
+    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -3183,21 +3475,22 @@
       <c r="K27" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M27" s="24">
         <v>43739</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="38">
         <v>43617</v>
       </c>
       <c r="O27" s="16"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
+      <c r="P27" s="45"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3228,21 +3521,22 @@
       <c r="K28" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="20">
         <v>43497</v>
       </c>
-      <c r="N28" s="49">
+      <c r="N28" s="38">
         <v>43466</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -3273,23 +3567,24 @@
       <c r="K29" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M29" s="20">
         <v>43497</v>
       </c>
-      <c r="N29" s="49">
+      <c r="N29" s="38">
         <v>43405</v>
       </c>
       <c r="O29" s="16"/>
-      <c r="P29" s="56" t="s">
+      <c r="P29" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="Q29" s="61"/>
+      <c r="R29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -3320,21 +3615,22 @@
       <c r="K30" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M30" s="20">
         <v>43497</v>
       </c>
-      <c r="N30" s="49">
+      <c r="N30" s="38">
         <v>43419</v>
       </c>
       <c r="O30" s="16"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
+      <c r="P30" s="45"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -3365,21 +3661,22 @@
       <c r="K31" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M31" s="20">
         <v>43497</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="38">
         <v>43419</v>
       </c>
       <c r="O31" s="16"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="47">
+      <c r="P31" s="45"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="16"/>
+    </row>
+    <row r="32" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -3410,21 +3707,22 @@
       <c r="K32" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M32" s="20">
         <v>43497</v>
       </c>
-      <c r="N32" s="49">
+      <c r="N32" s="38">
         <v>43419</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+      <c r="P32" s="45"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="36">
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -3455,21 +3753,22 @@
       <c r="K33" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M33" s="20">
         <v>43497</v>
       </c>
-      <c r="N33" s="49">
+      <c r="N33" s="38">
         <v>43419</v>
       </c>
       <c r="O33" s="16"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="47">
+      <c r="P33" s="45"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -3500,21 +3799,22 @@
       <c r="K34" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L34" s="38" t="s">
+      <c r="L34" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M34" s="20">
         <v>43497</v>
       </c>
-      <c r="N34" s="49">
+      <c r="N34" s="38">
         <v>43419</v>
       </c>
       <c r="O34" s="16"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+      <c r="P34" s="45"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="36">
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -3546,23 +3846,24 @@
       <c r="K35" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M35" s="24">
         <v>43739</v>
       </c>
-      <c r="N35" s="49">
+      <c r="N35" s="38">
         <v>43620</v>
       </c>
       <c r="O35" s="16"/>
-      <c r="P35" s="56" t="s">
+      <c r="P35" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="47">
+      <c r="Q35" s="61"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -3593,23 +3894,24 @@
       <c r="K36" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M36" s="24">
         <v>43739</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36" s="38">
         <v>43559</v>
       </c>
       <c r="O36" s="16"/>
-      <c r="P36" s="56" t="s">
+      <c r="P36" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="47">
+      <c r="Q36" s="61"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -3640,23 +3942,24 @@
       <c r="K37" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="L37" s="38" t="s">
+      <c r="L37" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M37" s="24">
         <v>43739</v>
       </c>
-      <c r="N37" s="49">
+      <c r="N37" s="38">
         <v>43559</v>
       </c>
       <c r="O37" s="16"/>
-      <c r="P37" s="56" t="s">
+      <c r="P37" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="47">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="36">
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -3687,23 +3990,24 @@
       <c r="K38" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="L38" s="38" t="s">
+      <c r="L38" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M38" s="24">
         <v>43739</v>
       </c>
-      <c r="N38" s="49">
+      <c r="N38" s="38">
         <v>43559</v>
       </c>
       <c r="O38" s="16"/>
-      <c r="P38" s="56" t="s">
+      <c r="P38" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="47">
+      <c r="Q38" s="61"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -3734,23 +4038,24 @@
       <c r="K39" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="L39" s="38" t="s">
+      <c r="L39" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M39" s="24">
         <v>43739</v>
       </c>
-      <c r="N39" s="49">
+      <c r="N39" s="38">
         <v>43589</v>
       </c>
       <c r="O39" s="16"/>
-      <c r="P39" s="56" t="s">
+      <c r="P39" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q39" s="16"/>
-    </row>
-    <row r="40" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="47">
+      <c r="Q39" s="61"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -3782,23 +4087,24 @@
       <c r="K40" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M40" s="24">
         <v>43739</v>
       </c>
-      <c r="N40" s="49">
+      <c r="N40" s="38">
         <v>43589</v>
       </c>
       <c r="O40" s="16"/>
-      <c r="P40" s="56" t="s">
+      <c r="P40" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="47">
+      <c r="Q40" s="61"/>
+      <c r="R40" s="16"/>
+    </row>
+    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="36">
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -3829,23 +4135,24 @@
       <c r="K41" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="L41" s="38" t="s">
+      <c r="L41" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M41" s="24">
         <v>43739</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N41" s="38">
         <v>43620</v>
       </c>
       <c r="O41" s="16"/>
-      <c r="P41" s="56" t="s">
+      <c r="P41" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="47">
+      <c r="Q41" s="61"/>
+      <c r="R41" s="16"/>
+    </row>
+    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -3876,23 +4183,24 @@
       <c r="K42" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M42" s="24">
         <v>43739</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N42" s="38">
         <v>43559</v>
       </c>
       <c r="O42" s="16"/>
-      <c r="P42" s="56" t="s">
+      <c r="P42" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="47">
+      <c r="Q42" s="61"/>
+      <c r="R42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -3924,23 +4232,24 @@
       <c r="K43" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M43" s="24">
         <v>43739</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N43" s="38">
         <v>43620</v>
       </c>
       <c r="O43" s="16"/>
-      <c r="P43" s="56" t="s">
+      <c r="P43" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="47">
+      <c r="Q43" s="61"/>
+      <c r="R43" s="16"/>
+    </row>
+    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="36">
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -3971,23 +4280,24 @@
       <c r="K44" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M44" s="24">
         <v>43739</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N44" s="38">
         <v>43559</v>
       </c>
       <c r="O44" s="16"/>
-      <c r="P44" s="56" t="s">
+      <c r="P44" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="47">
+      <c r="Q44" s="61"/>
+      <c r="R44" s="16"/>
+    </row>
+    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="36">
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -4019,23 +4329,24 @@
       <c r="K45" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M45" s="24">
         <v>43739</v>
       </c>
-      <c r="N45" s="49">
+      <c r="N45" s="38">
         <v>43739</v>
       </c>
       <c r="O45" s="16"/>
-      <c r="P45" s="56" t="s">
+      <c r="P45" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="47">
+      <c r="Q45" s="61"/>
+      <c r="R45" s="16"/>
+    </row>
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="36">
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -4066,23 +4377,24 @@
       <c r="K46" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="L46" s="38" t="s">
+      <c r="L46" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M46" s="24">
         <v>43739</v>
       </c>
-      <c r="N46" s="49">
+      <c r="N46" s="38">
         <v>43620</v>
       </c>
       <c r="O46" s="16"/>
-      <c r="P46" s="56" t="s">
+      <c r="P46" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="47">
+      <c r="Q46" s="61"/>
+      <c r="R46" s="16"/>
+    </row>
+    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="36">
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -4113,23 +4425,24 @@
       <c r="K47" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="L47" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M47" s="24">
         <v>43739</v>
       </c>
-      <c r="N47" s="49">
+      <c r="N47" s="38">
         <v>43589</v>
       </c>
       <c r="O47" s="16"/>
-      <c r="P47" s="56" t="s">
+      <c r="P47" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="47">
+      <c r="Q47" s="61"/>
+      <c r="R47" s="16"/>
+    </row>
+    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="36">
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4160,23 +4473,24 @@
       <c r="K48" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="L48" s="38" t="s">
+      <c r="L48" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M48" s="24">
         <v>43739</v>
       </c>
-      <c r="N48" s="49">
+      <c r="N48" s="38">
         <v>43589</v>
       </c>
       <c r="O48" s="16"/>
-      <c r="P48" s="56" t="s">
+      <c r="P48" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="47">
+      <c r="Q48" s="61"/>
+      <c r="R48" s="16"/>
+    </row>
+    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="36">
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -4201,23 +4515,24 @@
       <c r="K49" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="L49" s="38" t="s">
+      <c r="L49" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M49" s="24">
         <v>43739</v>
       </c>
-      <c r="N49" s="49">
+      <c r="N49" s="38">
         <v>43559</v>
       </c>
       <c r="O49" s="16"/>
-      <c r="P49" s="56" t="s">
+      <c r="P49" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="47">
+      <c r="Q49" s="61"/>
+      <c r="R49" s="16"/>
+    </row>
+    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="36">
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -4249,23 +4564,24 @@
       <c r="K50" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="L50" s="38" t="s">
+      <c r="L50" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M50" s="24">
         <v>43739</v>
       </c>
-      <c r="N50" s="49">
+      <c r="N50" s="38">
         <v>43511</v>
       </c>
       <c r="O50" s="16"/>
-      <c r="P50" s="56" t="s">
+      <c r="P50" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="47">
+      <c r="Q50" s="61"/>
+      <c r="R50" s="16"/>
+    </row>
+    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="36">
         <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -4296,23 +4612,24 @@
       <c r="K51" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="L51" s="38" t="s">
+      <c r="L51" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M51" s="24">
         <v>43739</v>
       </c>
-      <c r="N51" s="49">
+      <c r="N51" s="38">
         <v>43559</v>
       </c>
       <c r="O51" s="16"/>
-      <c r="P51" s="56" t="s">
+      <c r="P51" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q51" s="16"/>
-    </row>
-    <row r="52" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="47">
+      <c r="Q51" s="61"/>
+      <c r="R51" s="16"/>
+    </row>
+    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="36">
         <v>50</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -4343,23 +4660,24 @@
       <c r="K52" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M52" s="24">
         <v>43739</v>
       </c>
-      <c r="N52" s="49">
+      <c r="N52" s="38">
         <v>43589</v>
       </c>
       <c r="O52" s="16"/>
-      <c r="P52" s="56" t="s">
+      <c r="P52" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="47">
+      <c r="Q52" s="61"/>
+      <c r="R52" s="16"/>
+    </row>
+    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="36">
         <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -4390,23 +4708,24 @@
       <c r="K53" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="L53" s="38" t="s">
+      <c r="L53" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M53" s="24">
         <v>43739</v>
       </c>
-      <c r="N53" s="49">
+      <c r="N53" s="38">
         <v>43559</v>
       </c>
       <c r="O53" s="16"/>
-      <c r="P53" s="56" t="s">
+      <c r="P53" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="47">
+      <c r="Q53" s="61"/>
+      <c r="R53" s="16"/>
+    </row>
+    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="36">
         <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -4437,23 +4756,24 @@
       <c r="K54" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="L54" s="38" t="s">
+      <c r="L54" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M54" s="24">
         <v>43739</v>
       </c>
-      <c r="N54" s="49">
+      <c r="N54" s="38">
         <v>43589</v>
       </c>
       <c r="O54" s="16"/>
-      <c r="P54" s="56" t="s">
+      <c r="P54" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="47">
+      <c r="Q54" s="61"/>
+      <c r="R54" s="16"/>
+    </row>
+    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="36">
         <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -4484,23 +4804,24 @@
       <c r="K55" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="L55" s="38" t="s">
+      <c r="L55" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M55" s="24">
         <v>43739</v>
       </c>
-      <c r="N55" s="49">
+      <c r="N55" s="38">
         <v>43559</v>
       </c>
       <c r="O55" s="16"/>
-      <c r="P55" s="56" t="s">
+      <c r="P55" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="47">
+      <c r="Q55" s="61"/>
+      <c r="R55" s="16"/>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="36">
         <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -4531,23 +4852,24 @@
       <c r="K56" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="L56" s="38" t="s">
+      <c r="L56" s="27" t="s">
         <v>150</v>
       </c>
       <c r="M56" s="24">
         <v>43739</v>
       </c>
-      <c r="N56" s="49">
+      <c r="N56" s="38">
         <v>43589</v>
       </c>
       <c r="O56" s="16"/>
-      <c r="P56" s="56" t="s">
+      <c r="P56" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47">
+      <c r="Q56" s="61"/>
+      <c r="R56" s="16"/>
+    </row>
+    <row r="57" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36">
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -4579,21 +4901,24 @@
       <c r="K57" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="38" t="s">
+      <c r="L57" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M57" s="20">
         <v>43525</v>
       </c>
-      <c r="N57" s="49">
+      <c r="N57" s="38">
         <v>43497</v>
       </c>
       <c r="O57" s="16"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47">
+      <c r="P57" s="45"/>
+      <c r="Q57" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="R57" s="16"/>
+    </row>
+    <row r="58" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36">
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
@@ -4624,21 +4949,22 @@
       <c r="K58" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L58" s="38" t="s">
+      <c r="L58" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M58" s="20">
         <v>43556</v>
       </c>
-      <c r="N58" s="49">
+      <c r="N58" s="38">
         <v>43497</v>
       </c>
       <c r="O58" s="16"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="47">
+      <c r="P58" s="45"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="16"/>
+    </row>
+    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
         <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -4669,23 +4995,28 @@
       <c r="K59" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L59" s="38" t="s">
+      <c r="L59" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M59" s="20">
         <v>43497</v>
       </c>
-      <c r="N59" s="49">
+      <c r="N59" s="38">
         <v>43373</v>
       </c>
       <c r="O59" s="16"/>
-      <c r="P59" s="56" t="s">
+      <c r="P59" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="Q59" s="16"/>
-    </row>
-    <row r="60" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47">
+      <c r="Q59" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="R59" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36">
         <v>58</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -4716,21 +5047,22 @@
       <c r="K60" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="38" t="s">
+      <c r="L60" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M60" s="20">
         <v>43556</v>
       </c>
-      <c r="N60" s="49">
+      <c r="N60" s="38">
         <v>43497</v>
       </c>
       <c r="O60" s="16"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="16"/>
-    </row>
-    <row r="61" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47">
+      <c r="P60" s="45"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="16"/>
+    </row>
+    <row r="61" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36">
         <v>59</v>
       </c>
       <c r="B61" s="23" t="s">
@@ -4745,7 +5077,7 @@
       <c r="E61" s="23">
         <v>160</v>
       </c>
-      <c r="F61" s="48">
+      <c r="F61" s="37">
         <f t="shared" ref="F61" si="3">+E61*946485</f>
         <v>151437600</v>
       </c>
@@ -4764,21 +5096,22 @@
       <c r="K61" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L61" s="38" t="s">
+      <c r="L61" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M61" s="20">
         <v>43525</v>
       </c>
-      <c r="N61" s="49">
+      <c r="N61" s="38">
         <v>43497</v>
       </c>
       <c r="O61" s="16"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="16"/>
-    </row>
-    <row r="62" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="47">
+      <c r="P61" s="45"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="16"/>
+    </row>
+    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="36">
         <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
@@ -4793,7 +5126,7 @@
       <c r="E62" s="23">
         <v>65</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="37">
         <f>+E62*1419650</f>
         <v>92277250</v>
       </c>
@@ -4813,21 +5146,22 @@
       <c r="K62" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L62" s="38" t="s">
+      <c r="L62" s="27" t="s">
         <v>151</v>
       </c>
       <c r="M62" s="20">
         <v>43525</v>
       </c>
-      <c r="N62" s="49" t="s">
+      <c r="N62" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O62" s="16"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="16"/>
-    </row>
-    <row r="63" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47">
+      <c r="P62" s="45"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="16"/>
+    </row>
+    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
         <v>61</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -4842,7 +5176,7 @@
       <c r="E63" s="23">
         <v>95</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="37">
         <f t="shared" ref="F63" si="4">+E63*1419650</f>
         <v>134866750</v>
       </c>
@@ -4861,21 +5195,22 @@
       <c r="K63" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L63" s="38" t="s">
+      <c r="L63" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M63" s="20">
         <v>43556</v>
       </c>
-      <c r="N63" s="49">
+      <c r="N63" s="38">
         <v>43497</v>
       </c>
       <c r="O63" s="16"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="16"/>
-    </row>
-    <row r="64" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47">
+      <c r="P63" s="45"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="16"/>
+    </row>
+    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
         <v>62</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -4906,23 +5241,24 @@
       <c r="K64" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L64" s="38" t="s">
+      <c r="L64" s="27" t="s">
         <v>261</v>
       </c>
       <c r="M64" s="20">
         <v>43497</v>
       </c>
-      <c r="N64" s="49">
+      <c r="N64" s="38">
         <v>43344</v>
       </c>
       <c r="O64" s="16"/>
-      <c r="P64" s="56" t="s">
+      <c r="P64" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="Q64" s="16"/>
-    </row>
-    <row r="65" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47">
+      <c r="Q64" s="61"/>
+      <c r="R64" s="16"/>
+    </row>
+    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
@@ -4954,21 +5290,22 @@
       <c r="K65" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L65" s="38" t="s">
+      <c r="L65" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M65" s="20">
         <v>43556</v>
       </c>
-      <c r="N65" s="49">
+      <c r="N65" s="38">
         <v>43497</v>
       </c>
       <c r="O65" s="16"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="47">
+      <c r="P65" s="45"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="16"/>
+    </row>
+    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="36">
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
@@ -4999,21 +5336,22 @@
       <c r="K66" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="38" t="s">
+      <c r="L66" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M66" s="20">
         <v>43586</v>
       </c>
-      <c r="N66" s="49">
+      <c r="N66" s="38">
         <v>43525</v>
       </c>
       <c r="O66" s="16"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="16"/>
-    </row>
-    <row r="67" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47">
+      <c r="P66" s="45"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="16"/>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36">
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
@@ -5045,23 +5383,24 @@
       <c r="K67" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L67" s="38" t="s">
+      <c r="L67" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M67" s="20">
         <v>43586</v>
       </c>
-      <c r="N67" s="49">
+      <c r="N67" s="38">
         <v>43525</v>
       </c>
       <c r="O67" s="16"/>
-      <c r="P67" s="56" t="s">
+      <c r="P67" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="Q67" s="16"/>
-    </row>
-    <row r="68" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47">
+      <c r="Q67" s="61"/>
+      <c r="R67" s="16"/>
+    </row>
+    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36">
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
@@ -5092,21 +5431,22 @@
       <c r="K68" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L68" s="38" t="s">
+      <c r="L68" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M68" s="20">
         <v>43556</v>
       </c>
-      <c r="N68" s="49">
+      <c r="N68" s="38">
         <v>43497</v>
       </c>
       <c r="O68" s="16"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="16"/>
-    </row>
-    <row r="69" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47">
+      <c r="P68" s="45"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="16"/>
+    </row>
+    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36">
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
@@ -5137,21 +5477,22 @@
       <c r="K69" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L69" s="38" t="s">
+      <c r="L69" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M69" s="20">
         <v>43525</v>
       </c>
-      <c r="N69" s="49">
+      <c r="N69" s="38">
         <v>43466</v>
       </c>
       <c r="O69" s="16"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="16"/>
-    </row>
-    <row r="70" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="47">
+      <c r="P69" s="45"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="16"/>
+    </row>
+    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="36">
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
@@ -5166,7 +5507,7 @@
       <c r="E70" s="23">
         <v>300</v>
       </c>
-      <c r="F70" s="48">
+      <c r="F70" s="37">
         <f t="shared" ref="F70" si="5">+E70*946485</f>
         <v>283945500</v>
       </c>
@@ -5185,23 +5526,24 @@
       <c r="K70" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L70" s="38" t="s">
+      <c r="L70" s="27" t="s">
         <v>261</v>
       </c>
       <c r="M70" s="20">
         <v>43497</v>
       </c>
-      <c r="N70" s="49">
+      <c r="N70" s="38">
         <v>43313</v>
       </c>
       <c r="O70" s="16"/>
-      <c r="P70" s="56" t="s">
+      <c r="P70" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="Q70" s="16"/>
-    </row>
-    <row r="71" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="47">
+      <c r="Q70" s="61"/>
+      <c r="R70" s="16"/>
+    </row>
+    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36">
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
@@ -5216,7 +5558,7 @@
       <c r="E71" s="23">
         <v>60</v>
       </c>
-      <c r="F71" s="48">
+      <c r="F71" s="37">
         <f t="shared" ref="F71:F113" si="6">+E71*1419650</f>
         <v>85179000</v>
       </c>
@@ -5235,21 +5577,22 @@
       <c r="K71" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L71" s="38" t="s">
+      <c r="L71" s="27" t="s">
         <v>161</v>
       </c>
       <c r="M71" s="20">
         <v>43525</v>
       </c>
-      <c r="N71" s="49">
+      <c r="N71" s="38">
         <v>43466</v>
       </c>
       <c r="O71" s="16"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="16"/>
-    </row>
-    <row r="72" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="47">
+      <c r="P71" s="45"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="16"/>
+    </row>
+    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="36">
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
@@ -5264,7 +5607,7 @@
       <c r="E72" s="23">
         <v>60</v>
       </c>
-      <c r="F72" s="48">
+      <c r="F72" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5283,21 +5626,22 @@
       <c r="K72" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L72" s="38" t="s">
+      <c r="L72" s="27" t="s">
         <v>161</v>
       </c>
       <c r="M72" s="20">
         <v>43525</v>
       </c>
-      <c r="N72" s="49">
+      <c r="N72" s="38">
         <v>43466</v>
       </c>
       <c r="O72" s="16"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="16"/>
-    </row>
-    <row r="73" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="47">
+      <c r="P72" s="45"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="16"/>
+    </row>
+    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -5312,7 +5656,7 @@
       <c r="E73" s="23">
         <v>60</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5331,21 +5675,22 @@
       <c r="K73" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L73" s="38" t="s">
+      <c r="L73" s="27" t="s">
         <v>161</v>
       </c>
       <c r="M73" s="20">
         <v>43525</v>
       </c>
-      <c r="N73" s="49">
+      <c r="N73" s="38">
         <v>43466</v>
       </c>
       <c r="O73" s="16"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="16"/>
-    </row>
-    <row r="74" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="47">
+      <c r="P73" s="45"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="16"/>
+    </row>
+    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -5360,7 +5705,7 @@
       <c r="E74" s="23">
         <v>60</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F74" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5379,21 +5724,22 @@
       <c r="K74" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L74" s="38" t="s">
+      <c r="L74" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M74" s="20">
         <v>43556</v>
       </c>
-      <c r="N74" s="49">
+      <c r="N74" s="38">
         <v>43556</v>
       </c>
       <c r="O74" s="16"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="16"/>
-    </row>
-    <row r="75" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="47">
+      <c r="P74" s="45"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="16"/>
+    </row>
+    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="36">
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
@@ -5408,7 +5754,7 @@
       <c r="E75" s="23">
         <v>60</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5427,21 +5773,22 @@
       <c r="K75" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L75" s="38" t="s">
+      <c r="L75" s="27" t="s">
         <v>166</v>
       </c>
       <c r="M75" s="20">
         <v>43556</v>
       </c>
-      <c r="N75" s="49">
+      <c r="N75" s="38">
         <v>43466</v>
       </c>
       <c r="O75" s="16"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="16"/>
-    </row>
-    <row r="76" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="47">
+      <c r="P75" s="45"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="16"/>
+    </row>
+    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="36">
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
@@ -5456,7 +5803,7 @@
       <c r="E76" s="23">
         <v>60</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5475,21 +5822,22 @@
       <c r="K76" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L76" s="38" t="s">
+      <c r="L76" s="27" t="s">
         <v>169</v>
       </c>
       <c r="M76" s="20">
         <v>43556</v>
       </c>
-      <c r="N76" s="49">
+      <c r="N76" s="38">
         <v>43466</v>
       </c>
       <c r="O76" s="16"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="16"/>
-    </row>
-    <row r="77" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47">
+      <c r="P76" s="45"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="16"/>
+    </row>
+    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36">
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
@@ -5504,7 +5852,7 @@
       <c r="E77" s="23">
         <v>60</v>
       </c>
-      <c r="F77" s="48">
+      <c r="F77" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5523,21 +5871,22 @@
       <c r="K77" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L77" s="38" t="s">
+      <c r="L77" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M77" s="20">
         <v>43556</v>
       </c>
-      <c r="N77" s="49">
+      <c r="N77" s="38">
         <v>43556</v>
       </c>
       <c r="O77" s="16"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="16"/>
-    </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="47">
+      <c r="P77" s="45"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="16"/>
+    </row>
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="36">
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
@@ -5552,7 +5901,7 @@
       <c r="E78" s="23">
         <v>60</v>
       </c>
-      <c r="F78" s="48">
+      <c r="F78" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5571,21 +5920,22 @@
       <c r="K78" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L78" s="38" t="s">
+      <c r="L78" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M78" s="20">
         <v>43556</v>
       </c>
-      <c r="N78" s="49">
+      <c r="N78" s="38">
         <v>43556</v>
       </c>
       <c r="O78" s="16"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="16"/>
-    </row>
-    <row r="79" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="47">
+      <c r="P78" s="45"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="16"/>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="36">
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
@@ -5600,7 +5950,7 @@
       <c r="E79" s="23">
         <v>60</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F79" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5619,21 +5969,22 @@
       <c r="K79" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L79" s="38" t="s">
+      <c r="L79" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M79" s="20">
         <v>43556</v>
       </c>
-      <c r="N79" s="49">
+      <c r="N79" s="38">
         <v>43556</v>
       </c>
       <c r="O79" s="16"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="16"/>
-    </row>
-    <row r="80" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="47">
+      <c r="P79" s="45"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="16"/>
+    </row>
+    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="36">
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -5648,7 +5999,7 @@
       <c r="E80" s="23">
         <v>60</v>
       </c>
-      <c r="F80" s="48">
+      <c r="F80" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5667,21 +6018,22 @@
       <c r="K80" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L80" s="38" t="s">
+      <c r="L80" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M80" s="20">
         <v>43556</v>
       </c>
-      <c r="N80" s="49">
+      <c r="N80" s="38">
         <v>43556</v>
       </c>
       <c r="O80" s="16"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="16"/>
-    </row>
-    <row r="81" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47">
+      <c r="P80" s="45"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="16"/>
+    </row>
+    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36">
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -5696,7 +6048,7 @@
       <c r="E81" s="23">
         <v>54</v>
       </c>
-      <c r="F81" s="48">
+      <c r="F81" s="37">
         <f t="shared" si="6"/>
         <v>76661100</v>
       </c>
@@ -5715,21 +6067,22 @@
       <c r="K81" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L81" s="38" t="s">
+      <c r="L81" s="27" t="s">
         <v>178</v>
       </c>
       <c r="M81" s="20">
         <v>43525</v>
       </c>
-      <c r="N81" s="49">
+      <c r="N81" s="38">
         <v>43497</v>
       </c>
       <c r="O81" s="16"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="16"/>
-    </row>
-    <row r="82" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="47">
+      <c r="P81" s="45"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="16"/>
+    </row>
+    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="36">
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -5744,7 +6097,7 @@
       <c r="E82" s="23">
         <v>80</v>
       </c>
-      <c r="F82" s="48">
+      <c r="F82" s="37">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -5764,21 +6117,22 @@
       <c r="K82" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L82" s="39" t="s">
+      <c r="L82" s="28" t="s">
         <v>181</v>
       </c>
       <c r="M82" s="20">
         <v>43556</v>
       </c>
-      <c r="N82" s="49">
+      <c r="N82" s="38">
         <v>43497</v>
       </c>
       <c r="O82" s="16"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="16"/>
-    </row>
-    <row r="83" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47">
+      <c r="P82" s="45"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="16"/>
+    </row>
+    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36">
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -5793,7 +6147,7 @@
       <c r="E83" s="23">
         <v>60</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F83" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5812,21 +6166,22 @@
       <c r="K83" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L83" s="39" t="s">
+      <c r="L83" s="28" t="s">
         <v>181</v>
       </c>
       <c r="M83" s="20">
         <v>43556</v>
       </c>
-      <c r="N83" s="49">
+      <c r="N83" s="38">
         <v>43497</v>
       </c>
       <c r="O83" s="16"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="16"/>
-    </row>
-    <row r="84" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47">
+      <c r="P83" s="45"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="16"/>
+    </row>
+    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36">
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
@@ -5841,7 +6196,7 @@
       <c r="E84" s="23">
         <v>80</v>
       </c>
-      <c r="F84" s="48">
+      <c r="F84" s="37">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -5860,21 +6215,22 @@
       <c r="K84" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L84" s="39" t="s">
+      <c r="L84" s="28" t="s">
         <v>181</v>
       </c>
       <c r="M84" s="20">
         <v>43556</v>
       </c>
-      <c r="N84" s="49">
+      <c r="N84" s="38">
         <v>43497</v>
       </c>
       <c r="O84" s="16"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="16"/>
-    </row>
-    <row r="85" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47">
+      <c r="P84" s="45"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="16"/>
+    </row>
+    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36">
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
@@ -5889,7 +6245,7 @@
       <c r="E85" s="23">
         <v>60</v>
       </c>
-      <c r="F85" s="48">
+      <c r="F85" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5908,21 +6264,22 @@
       <c r="K85" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L85" s="38" t="s">
+      <c r="L85" s="27" t="s">
         <v>181</v>
       </c>
       <c r="M85" s="20">
         <v>43556</v>
       </c>
-      <c r="N85" s="49">
+      <c r="N85" s="38">
         <v>43497</v>
       </c>
       <c r="O85" s="16"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="16"/>
-    </row>
-    <row r="86" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47">
+      <c r="P85" s="45"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="16"/>
+    </row>
+    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36">
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
@@ -5937,7 +6294,7 @@
       <c r="E86" s="23">
         <v>60</v>
       </c>
-      <c r="F86" s="48">
+      <c r="F86" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5956,21 +6313,22 @@
       <c r="K86" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L86" s="38" t="s">
+      <c r="L86" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M86" s="20">
         <v>43586</v>
       </c>
-      <c r="N86" s="49">
+      <c r="N86" s="38">
         <v>43586</v>
       </c>
       <c r="O86" s="16"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="16"/>
-    </row>
-    <row r="87" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47">
+      <c r="P86" s="45"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="16"/>
+    </row>
+    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="36">
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -5985,7 +6343,7 @@
       <c r="E87" s="23">
         <v>60</v>
       </c>
-      <c r="F87" s="48">
+      <c r="F87" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6004,21 +6362,22 @@
       <c r="K87" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L87" s="38" t="s">
+      <c r="L87" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M87" s="20">
         <v>43617</v>
       </c>
-      <c r="N87" s="49">
+      <c r="N87" s="38">
         <v>43617</v>
       </c>
       <c r="O87" s="16"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="16"/>
-    </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47">
+      <c r="P87" s="45"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="16"/>
+    </row>
+    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36">
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
@@ -6033,7 +6392,7 @@
       <c r="E88" s="23">
         <v>60</v>
       </c>
-      <c r="F88" s="48">
+      <c r="F88" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6052,21 +6411,22 @@
       <c r="K88" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L88" s="38" t="s">
+      <c r="L88" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M88" s="20">
         <v>43556</v>
       </c>
-      <c r="N88" s="49">
+      <c r="N88" s="38">
         <v>43497</v>
       </c>
       <c r="O88" s="16"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="16"/>
-    </row>
-    <row r="89" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="47">
+      <c r="P88" s="45"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="16"/>
+    </row>
+    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="36">
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -6081,7 +6441,7 @@
       <c r="E89" s="23">
         <v>60</v>
       </c>
-      <c r="F89" s="48">
+      <c r="F89" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6100,21 +6460,22 @@
       <c r="K89" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L89" s="38" t="s">
+      <c r="L89" s="27" t="s">
         <v>161</v>
       </c>
       <c r="M89" s="20">
         <v>43525</v>
       </c>
-      <c r="N89" s="49">
+      <c r="N89" s="38">
         <v>43466</v>
       </c>
       <c r="O89" s="16"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="16"/>
-    </row>
-    <row r="90" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="47">
+      <c r="P89" s="45"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="16"/>
+    </row>
+    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="36">
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -6129,7 +6490,7 @@
       <c r="E90" s="23">
         <v>54</v>
       </c>
-      <c r="F90" s="48">
+      <c r="F90" s="37">
         <f t="shared" si="6"/>
         <v>76661100</v>
       </c>
@@ -6148,21 +6509,22 @@
       <c r="K90" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L90" s="38" t="s">
+      <c r="L90" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M90" s="20">
         <v>43617</v>
       </c>
-      <c r="N90" s="49">
+      <c r="N90" s="38">
         <v>43617</v>
       </c>
       <c r="O90" s="16"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="16"/>
-    </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="47">
+      <c r="P90" s="45"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="16"/>
+    </row>
+    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="36">
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
@@ -6177,7 +6539,7 @@
       <c r="E91" s="23">
         <v>80</v>
       </c>
-      <c r="F91" s="48">
+      <c r="F91" s="37">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6196,21 +6558,22 @@
       <c r="K91" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L91" s="38" t="s">
+      <c r="L91" s="27" t="s">
         <v>161</v>
       </c>
       <c r="M91" s="20">
         <v>43739</v>
       </c>
-      <c r="N91" s="49">
+      <c r="N91" s="38">
         <v>43739</v>
       </c>
       <c r="O91" s="16"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="16"/>
-    </row>
-    <row r="92" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="47">
+      <c r="P91" s="45"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="16"/>
+    </row>
+    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="36">
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
@@ -6225,7 +6588,7 @@
       <c r="E92" s="23">
         <v>80</v>
       </c>
-      <c r="F92" s="48">
+      <c r="F92" s="37">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6244,21 +6607,22 @@
       <c r="K92" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L92" s="38" t="s">
+      <c r="L92" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M92" s="20">
         <v>43617</v>
       </c>
-      <c r="N92" s="49">
+      <c r="N92" s="38">
         <v>43617</v>
       </c>
       <c r="O92" s="16"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="16"/>
-    </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47">
+      <c r="P92" s="45"/>
+      <c r="Q92" s="61"/>
+      <c r="R92" s="16"/>
+    </row>
+    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36">
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -6273,7 +6637,7 @@
       <c r="E93" s="23">
         <v>65</v>
       </c>
-      <c r="F93" s="48">
+      <c r="F93" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6286,19 +6650,20 @@
       <c r="K93" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L93" s="38" t="s">
+      <c r="L93" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M93" s="20"/>
-      <c r="N93" s="49" t="s">
+      <c r="N93" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O93" s="16"/>
-      <c r="P93" s="56"/>
-      <c r="Q93" s="16"/>
-    </row>
-    <row r="94" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="47">
+      <c r="P93" s="45"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="16"/>
+    </row>
+    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="36">
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
@@ -6313,7 +6678,7 @@
       <c r="E94" s="23">
         <v>65</v>
       </c>
-      <c r="F94" s="48">
+      <c r="F94" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6326,19 +6691,20 @@
       <c r="K94" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L94" s="38" t="s">
+      <c r="L94" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M94" s="20"/>
-      <c r="N94" s="49" t="s">
+      <c r="N94" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O94" s="16"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="16"/>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47">
+      <c r="P94" s="45"/>
+      <c r="Q94" s="61"/>
+      <c r="R94" s="16"/>
+    </row>
+    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36">
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
@@ -6353,7 +6719,7 @@
       <c r="E95" s="23">
         <v>65</v>
       </c>
-      <c r="F95" s="48">
+      <c r="F95" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6366,19 +6732,20 @@
       <c r="K95" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L95" s="38" t="s">
+      <c r="L95" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M95" s="20"/>
-      <c r="N95" s="49" t="s">
+      <c r="N95" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O95" s="16"/>
-      <c r="P95" s="56"/>
-      <c r="Q95" s="16"/>
-    </row>
-    <row r="96" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="47">
+      <c r="P95" s="45"/>
+      <c r="Q95" s="61"/>
+      <c r="R95" s="16"/>
+    </row>
+    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="36">
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -6393,7 +6760,7 @@
       <c r="E96" s="23">
         <v>65</v>
       </c>
-      <c r="F96" s="48">
+      <c r="F96" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6406,19 +6773,20 @@
       <c r="K96" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L96" s="38" t="s">
+      <c r="L96" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M96" s="20"/>
-      <c r="N96" s="49" t="s">
+      <c r="N96" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O96" s="16"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="16"/>
-    </row>
-    <row r="97" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47">
+      <c r="P96" s="45"/>
+      <c r="Q96" s="61"/>
+      <c r="R96" s="16"/>
+    </row>
+    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36">
         <v>96</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -6433,7 +6801,7 @@
       <c r="E97" s="23">
         <v>65</v>
       </c>
-      <c r="F97" s="48">
+      <c r="F97" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6446,19 +6814,20 @@
       <c r="K97" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L97" s="38" t="s">
+      <c r="L97" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M97" s="20"/>
-      <c r="N97" s="49" t="s">
+      <c r="N97" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O97" s="16"/>
-      <c r="P97" s="56"/>
-      <c r="Q97" s="16"/>
-    </row>
-    <row r="98" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47">
+      <c r="P97" s="45"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="16"/>
+    </row>
+    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36">
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
@@ -6473,7 +6842,7 @@
       <c r="E98" s="23">
         <v>50</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="37">
         <f t="shared" si="6"/>
         <v>70982500</v>
       </c>
@@ -6486,19 +6855,20 @@
       <c r="K98" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L98" s="38" t="s">
+      <c r="L98" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M98" s="20"/>
-      <c r="N98" s="49" t="s">
+      <c r="N98" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O98" s="16"/>
-      <c r="P98" s="56"/>
-      <c r="Q98" s="16"/>
-    </row>
-    <row r="99" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="47">
+      <c r="P98" s="45"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="16"/>
+    </row>
+    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="36">
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
@@ -6513,7 +6883,7 @@
       <c r="E99" s="23">
         <v>65</v>
       </c>
-      <c r="F99" s="48">
+      <c r="F99" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6526,19 +6896,20 @@
       <c r="K99" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L99" s="38" t="s">
+      <c r="L99" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M99" s="20"/>
-      <c r="N99" s="49" t="s">
+      <c r="N99" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O99" s="16"/>
-      <c r="P99" s="56"/>
-      <c r="Q99" s="16"/>
-    </row>
-    <row r="100" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47">
+      <c r="P99" s="45"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="16"/>
+    </row>
+    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="36">
         <v>99</v>
       </c>
       <c r="B100" s="23" t="s">
@@ -6553,7 +6924,7 @@
       <c r="E100" s="23">
         <v>65</v>
       </c>
-      <c r="F100" s="48">
+      <c r="F100" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6566,19 +6937,20 @@
       <c r="K100" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L100" s="38" t="s">
+      <c r="L100" s="27" t="s">
         <v>243</v>
       </c>
       <c r="M100" s="20"/>
-      <c r="N100" s="49" t="s">
+      <c r="N100" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O100" s="16"/>
-      <c r="P100" s="56"/>
-      <c r="Q100" s="16"/>
-    </row>
-    <row r="101" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47">
+      <c r="P100" s="45"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="16"/>
+    </row>
+    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="36">
         <v>100</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -6593,7 +6965,7 @@
       <c r="E101" s="23">
         <v>104</v>
       </c>
-      <c r="F101" s="48">
+      <c r="F101" s="37">
         <f t="shared" si="6"/>
         <v>147643600</v>
       </c>
@@ -6612,23 +6984,24 @@
       <c r="K101" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L101" s="38" t="s">
+      <c r="L101" s="27" t="s">
         <v>261</v>
       </c>
       <c r="M101" s="20">
         <v>43525</v>
       </c>
-      <c r="N101" s="49">
+      <c r="N101" s="38">
         <v>43405</v>
       </c>
       <c r="O101" s="16"/>
-      <c r="P101" s="56" t="s">
+      <c r="P101" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="Q101" s="16"/>
-    </row>
-    <row r="102" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47">
+      <c r="Q101" s="61"/>
+      <c r="R101" s="16"/>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="36">
         <v>101</v>
       </c>
       <c r="B102" s="23" t="s">
@@ -6643,7 +7016,7 @@
       <c r="E102" s="23">
         <v>70</v>
       </c>
-      <c r="F102" s="48">
+      <c r="F102" s="37">
         <f t="shared" si="6"/>
         <v>99375500</v>
       </c>
@@ -6662,21 +7035,22 @@
       <c r="K102" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L102" s="38" t="s">
+      <c r="L102" s="27" t="s">
         <v>238</v>
       </c>
       <c r="M102" s="20">
         <v>43497</v>
       </c>
-      <c r="N102" s="49">
+      <c r="N102" s="38">
         <v>43480</v>
       </c>
       <c r="O102" s="16"/>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="16"/>
-    </row>
-    <row r="103" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47">
+      <c r="P102" s="45"/>
+      <c r="Q102" s="61"/>
+      <c r="R102" s="16"/>
+    </row>
+    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="36">
         <v>102</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -6691,7 +7065,7 @@
       <c r="E103" s="23">
         <v>90</v>
       </c>
-      <c r="F103" s="48">
+      <c r="F103" s="37">
         <f t="shared" si="6"/>
         <v>127768500</v>
       </c>
@@ -6710,21 +7084,22 @@
       <c r="K103" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L103" s="38" t="s">
+      <c r="L103" s="27" t="s">
         <v>244</v>
       </c>
       <c r="M103" s="20">
         <v>43525</v>
       </c>
-      <c r="N103" s="49">
+      <c r="N103" s="38">
         <v>43497</v>
       </c>
       <c r="O103" s="16"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="16"/>
-    </row>
-    <row r="104" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47">
+      <c r="P103" s="45"/>
+      <c r="Q103" s="61"/>
+      <c r="R103" s="16"/>
+    </row>
+    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="36">
         <v>103</v>
       </c>
       <c r="B104" s="23" t="s">
@@ -6739,7 +7114,7 @@
       <c r="E104" s="23">
         <v>110</v>
       </c>
-      <c r="F104" s="48">
+      <c r="F104" s="37">
         <f t="shared" si="6"/>
         <v>156161500</v>
       </c>
@@ -6758,21 +7133,22 @@
       <c r="K104" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L104" s="38" t="s">
+      <c r="L104" s="27" t="s">
         <v>240</v>
       </c>
       <c r="M104" s="20">
         <v>43525</v>
       </c>
-      <c r="N104" s="49">
+      <c r="N104" s="38">
         <v>43497</v>
       </c>
       <c r="O104" s="16"/>
-      <c r="P104" s="56"/>
-      <c r="Q104" s="16"/>
-    </row>
-    <row r="105" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="47">
+      <c r="P104" s="45"/>
+      <c r="Q104" s="61"/>
+      <c r="R104" s="16"/>
+    </row>
+    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="36">
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -6787,7 +7163,7 @@
       <c r="E105" s="23">
         <v>80</v>
       </c>
-      <c r="F105" s="48">
+      <c r="F105" s="37">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6806,21 +7182,22 @@
       <c r="K105" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L105" s="38" t="s">
+      <c r="L105" s="27" t="s">
         <v>178</v>
       </c>
       <c r="M105" s="20">
         <v>43556</v>
       </c>
-      <c r="N105" s="49">
+      <c r="N105" s="38">
         <v>43466</v>
       </c>
       <c r="O105" s="16"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="16"/>
-    </row>
-    <row r="106" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47">
+      <c r="P105" s="45"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="16"/>
+    </row>
+    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="36">
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
@@ -6835,7 +7212,7 @@
       <c r="E106" s="23">
         <v>200</v>
       </c>
-      <c r="F106" s="48">
+      <c r="F106" s="37">
         <f t="shared" si="6"/>
         <v>283930000</v>
       </c>
@@ -6855,21 +7232,22 @@
       <c r="K106" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L106" s="38" t="s">
+      <c r="L106" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M106" s="20">
         <v>43556</v>
       </c>
-      <c r="N106" s="49">
+      <c r="N106" s="38">
         <v>43497</v>
       </c>
       <c r="O106" s="16"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="16"/>
-    </row>
-    <row r="107" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="47">
+      <c r="P106" s="45"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="16"/>
+    </row>
+    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="36">
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
@@ -6884,7 +7262,7 @@
       <c r="E107" s="23">
         <v>60</v>
       </c>
-      <c r="F107" s="48">
+      <c r="F107" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6903,21 +7281,22 @@
       <c r="K107" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L107" s="38" t="s">
+      <c r="L107" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M107" s="20">
         <v>43556</v>
       </c>
-      <c r="N107" s="49">
+      <c r="N107" s="38">
         <v>43497</v>
       </c>
       <c r="O107" s="16"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="16"/>
-    </row>
-    <row r="108" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="47">
+      <c r="P107" s="45"/>
+      <c r="Q107" s="61"/>
+      <c r="R107" s="16"/>
+    </row>
+    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="36">
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
@@ -6932,7 +7311,7 @@
       <c r="E108" s="23">
         <v>76</v>
       </c>
-      <c r="F108" s="48">
+      <c r="F108" s="37">
         <f t="shared" si="6"/>
         <v>107893400</v>
       </c>
@@ -6951,21 +7330,22 @@
       <c r="K108" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L108" s="38" t="s">
+      <c r="L108" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M108" s="20">
         <v>43556</v>
       </c>
-      <c r="N108" s="49" t="s">
+      <c r="N108" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O108" s="16"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="16"/>
-    </row>
-    <row r="109" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="47">
+      <c r="P108" s="45"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="16"/>
+    </row>
+    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="36">
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -6980,7 +7360,7 @@
       <c r="E109" s="23">
         <v>60</v>
       </c>
-      <c r="F109" s="48">
+      <c r="F109" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6999,21 +7379,22 @@
       <c r="K109" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L109" s="38" t="s">
+      <c r="L109" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M109" s="20">
         <v>43739</v>
       </c>
-      <c r="N109" s="49" t="s">
+      <c r="N109" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O109" s="16"/>
-      <c r="P109" s="56"/>
-      <c r="Q109" s="16"/>
-    </row>
-    <row r="110" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="47">
+      <c r="P109" s="45"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="16"/>
+    </row>
+    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="36">
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
@@ -7028,7 +7409,7 @@
       <c r="E110" s="23">
         <v>60</v>
       </c>
-      <c r="F110" s="48">
+      <c r="F110" s="37">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -7047,21 +7428,22 @@
       <c r="K110" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L110" s="38" t="s">
+      <c r="L110" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M110" s="20">
         <v>43617</v>
       </c>
-      <c r="N110" s="49" t="s">
+      <c r="N110" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O110" s="16"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="16"/>
-    </row>
-    <row r="111" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="47">
+      <c r="P110" s="45"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="16"/>
+    </row>
+    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="36">
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
@@ -7076,7 +7458,7 @@
       <c r="E111" s="23">
         <v>36</v>
       </c>
-      <c r="F111" s="48">
+      <c r="F111" s="37">
         <f t="shared" si="6"/>
         <v>51107400</v>
       </c>
@@ -7095,21 +7477,22 @@
       <c r="K111" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L111" s="38" t="s">
+      <c r="L111" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M111" s="20">
         <v>43647</v>
       </c>
-      <c r="N111" s="49" t="s">
+      <c r="N111" s="38" t="s">
         <v>130</v>
       </c>
       <c r="O111" s="16"/>
-      <c r="P111" s="56"/>
-      <c r="Q111" s="16"/>
-    </row>
-    <row r="112" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="47">
+      <c r="P111" s="45"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="16"/>
+    </row>
+    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="36">
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
@@ -7124,7 +7507,7 @@
       <c r="E112" s="23">
         <v>65</v>
       </c>
-      <c r="F112" s="48">
+      <c r="F112" s="37">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -7143,21 +7526,22 @@
       <c r="K112" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L112" s="38" t="s">
+      <c r="L112" s="27" t="s">
         <v>235</v>
       </c>
       <c r="M112" s="20">
         <v>43497</v>
       </c>
-      <c r="N112" s="49">
+      <c r="N112" s="38">
         <v>43435</v>
       </c>
       <c r="O112" s="16"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="16"/>
-    </row>
-    <row r="113" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47">
+      <c r="P112" s="45"/>
+      <c r="Q112" s="61"/>
+      <c r="R112" s="16"/>
+    </row>
+    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="36">
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
@@ -7172,7 +7556,7 @@
       <c r="E113" s="23">
         <v>92</v>
       </c>
-      <c r="F113" s="48">
+      <c r="F113" s="37">
         <f t="shared" si="6"/>
         <v>130607800</v>
       </c>
@@ -7191,23 +7575,24 @@
       <c r="K113" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L113" s="38" t="s">
+      <c r="L113" s="27" t="s">
         <v>261</v>
       </c>
       <c r="M113" s="20">
         <v>43556</v>
       </c>
-      <c r="N113" s="49">
+      <c r="N113" s="38">
         <v>43405</v>
       </c>
       <c r="O113" s="16"/>
-      <c r="P113" s="56" t="s">
+      <c r="P113" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="Q113" s="16"/>
-    </row>
-    <row r="114" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="47">
+      <c r="Q113" s="61"/>
+      <c r="R113" s="16"/>
+    </row>
+    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="36">
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -7222,7 +7607,7 @@
       <c r="E114" s="23">
         <v>160</v>
       </c>
-      <c r="F114" s="48">
+      <c r="F114" s="37">
         <f t="shared" ref="F114:F115" si="7">+E114*946485</f>
         <v>151437600</v>
       </c>
@@ -7242,23 +7627,24 @@
       <c r="K114" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L114" s="38" t="s">
+      <c r="L114" s="27" t="s">
         <v>264</v>
       </c>
       <c r="M114" s="20">
         <v>43525</v>
       </c>
-      <c r="N114" s="49">
+      <c r="N114" s="38">
         <v>43405</v>
       </c>
       <c r="O114" s="16"/>
-      <c r="P114" s="56" t="s">
+      <c r="P114" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="Q114" s="16"/>
-    </row>
-    <row r="115" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47">
+      <c r="Q114" s="61"/>
+      <c r="R114" s="16"/>
+    </row>
+    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="36">
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
@@ -7273,7 +7659,7 @@
       <c r="E115" s="23">
         <v>300</v>
       </c>
-      <c r="F115" s="48">
+      <c r="F115" s="37">
         <f t="shared" si="7"/>
         <v>283945500</v>
       </c>
@@ -7292,21 +7678,22 @@
       <c r="K115" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L115" s="38" t="s">
+      <c r="L115" s="27" t="s">
         <v>325</v>
       </c>
       <c r="M115" s="20">
         <v>43525</v>
       </c>
-      <c r="N115" s="49">
+      <c r="N115" s="38">
         <v>43435</v>
       </c>
-      <c r="O115" s="47"/>
-      <c r="P115" s="56"/>
-      <c r="Q115" s="16"/>
-    </row>
-    <row r="116" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47">
+      <c r="O115" s="36"/>
+      <c r="P115" s="45"/>
+      <c r="Q115" s="61"/>
+      <c r="R115" s="16"/>
+    </row>
+    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="36">
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
@@ -7321,7 +7708,7 @@
       <c r="E116" s="23">
         <v>100</v>
       </c>
-      <c r="F116" s="48"/>
+      <c r="F116" s="37"/>
       <c r="G116" s="23">
         <v>0</v>
       </c>
@@ -7337,19 +7724,20 @@
       <c r="K116" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="L116" s="38" t="s">
+      <c r="L116" s="27" t="s">
         <v>334</v>
       </c>
       <c r="M116" s="20">
         <v>43525</v>
       </c>
-      <c r="N116" s="49"/>
-      <c r="O116" s="47"/>
-      <c r="P116" s="56"/>
-      <c r="Q116" s="16"/>
-    </row>
-    <row r="117" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47">
+      <c r="N116" s="38"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="45"/>
+      <c r="Q116" s="61"/>
+      <c r="R116" s="16"/>
+    </row>
+    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="36">
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
@@ -7364,7 +7752,7 @@
       <c r="E117" s="23">
         <v>36</v>
       </c>
-      <c r="F117" s="48"/>
+      <c r="F117" s="37"/>
       <c r="G117" s="23">
         <v>0</v>
       </c>
@@ -7380,19 +7768,20 @@
       <c r="K117" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L117" s="38" t="s">
+      <c r="L117" s="27" t="s">
         <v>337</v>
       </c>
       <c r="M117" s="20">
         <v>43739</v>
       </c>
-      <c r="N117" s="49"/>
-      <c r="O117" s="47"/>
-      <c r="P117" s="56"/>
-      <c r="Q117" s="16"/>
-    </row>
-    <row r="118" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="47">
+      <c r="N117" s="38"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="16"/>
+    </row>
+    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="36">
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
@@ -7407,7 +7796,7 @@
       <c r="E118" s="23">
         <v>320</v>
       </c>
-      <c r="F118" s="48"/>
+      <c r="F118" s="37"/>
       <c r="G118" s="23">
         <v>0</v>
       </c>
@@ -7423,19 +7812,20 @@
       <c r="K118" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L118" s="38" t="s">
+      <c r="L118" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M118" s="20">
         <v>43709</v>
       </c>
-      <c r="N118" s="49"/>
-      <c r="O118" s="47"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="16"/>
-    </row>
-    <row r="119" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="47">
+      <c r="N118" s="38"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="45"/>
+      <c r="Q118" s="61"/>
+      <c r="R118" s="16"/>
+    </row>
+    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="36">
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
@@ -7450,7 +7840,7 @@
       <c r="E119" s="23">
         <v>320</v>
       </c>
-      <c r="F119" s="48"/>
+      <c r="F119" s="37"/>
       <c r="G119" s="23">
         <v>0</v>
       </c>
@@ -7466,19 +7856,20 @@
       <c r="K119" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L119" s="38" t="s">
+      <c r="L119" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M119" s="20">
         <v>43678</v>
       </c>
-      <c r="N119" s="49"/>
-      <c r="O119" s="47"/>
-      <c r="P119" s="56"/>
-      <c r="Q119" s="16"/>
-    </row>
-    <row r="120" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="47">
+      <c r="N119" s="38"/>
+      <c r="O119" s="36"/>
+      <c r="P119" s="45"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="16"/>
+    </row>
+    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="36">
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -7493,7 +7884,7 @@
       <c r="E120" s="23">
         <v>65</v>
       </c>
-      <c r="F120" s="48"/>
+      <c r="F120" s="37"/>
       <c r="G120" s="23">
         <v>0</v>
       </c>
@@ -7509,19 +7900,20 @@
       <c r="K120" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L120" s="38" t="s">
+      <c r="L120" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M120" s="20">
         <v>43739</v>
       </c>
-      <c r="N120" s="49"/>
-      <c r="O120" s="47"/>
-      <c r="P120" s="56"/>
-      <c r="Q120" s="16"/>
-    </row>
-    <row r="121" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="47">
+      <c r="N120" s="38"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="45"/>
+      <c r="Q120" s="61"/>
+      <c r="R120" s="16"/>
+    </row>
+    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="36">
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
@@ -7536,7 +7928,7 @@
       <c r="E121" s="23">
         <v>90</v>
       </c>
-      <c r="F121" s="48"/>
+      <c r="F121" s="37"/>
       <c r="G121" s="23">
         <v>0</v>
       </c>
@@ -7552,107 +7944,110 @@
       <c r="K121" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L121" s="38" t="s">
+      <c r="L121" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M121" s="20">
         <v>43739</v>
       </c>
-      <c r="N121" s="49"/>
-      <c r="O121" s="47"/>
-      <c r="P121" s="56"/>
-      <c r="Q121" s="16"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="51" t="s">
+      <c r="N121" s="38"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="16"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51"/>
-      <c r="L122" s="51"/>
-      <c r="M122" s="51"/>
-      <c r="N122" s="51"/>
-      <c r="O122" s="51"/>
-      <c r="P122" s="51"/>
-    </row>
-    <row r="123" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="47"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="47"/>
+      <c r="M122" s="47"/>
+      <c r="N122" s="47"/>
+      <c r="O122" s="47"/>
+      <c r="P122" s="47"/>
+      <c r="Q122" s="40"/>
+    </row>
+    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="51"/>
-      <c r="M123" s="51"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
-      <c r="P123" s="51"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="47"/>
+      <c r="K123" s="47"/>
+      <c r="L123" s="47"/>
+      <c r="M123" s="47"/>
+      <c r="N123" s="47"/>
+      <c r="O123" s="47"/>
+      <c r="P123" s="47"/>
+      <c r="Q123" s="40"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="42"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="42"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="42"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="42"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
+      <c r="A129" s="42"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
+      <c r="A130" s="42"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
+      <c r="A131" s="42"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
+      <c r="A132" s="42"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
+      <c r="A133" s="42"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
+      <c r="A134" s="42"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
+      <c r="A135" s="42"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
+      <c r="A136" s="42"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
+      <c r="A137" s="42"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
+      <c r="A138" s="42"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
+      <c r="A139" s="42"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
+      <c r="A140" s="42"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
+      <c r="A141" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8059,15 +8454,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8521,15 +8916,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -8555,15 +8950,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -8635,15 +9030,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -8876,15 +9271,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -8979,15 +9374,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -9186,18 +9581,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -9234,10 +9629,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -9276,16 +9671,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -9304,10 +9699,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF39719-B9DB-40A0-B63A-4F760C29E29C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E5E06-BD6F-46C0-916B-003A1FF084AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$P$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$S$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="393">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">CDI San Antonio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDI EL Retén </t>
   </si>
   <si>
     <t>Orito</t>
@@ -1368,6 +1365,36 @@
   </si>
   <si>
     <t>Existe compromiso de DAPRE de adquirir dotación para completarla con Forndo Abu Dhabi.</t>
+  </si>
+  <si>
+    <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 88.674 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. 
+No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019</t>
+  </si>
+  <si>
+    <t>Dotación compartida Alcaldía- DAPRE (Abu Dhabi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDI El Retén </t>
+  </si>
+  <si>
+    <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 87.548 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. 
+No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019</t>
+  </si>
+  <si>
+    <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 64,481 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. 
+No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1Abril 2019</t>
+  </si>
+  <si>
+    <t>Dotación CODAPRE</t>
+  </si>
+  <si>
+    <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes por adquirir 1177 elementos por un valor aproximdo de $90.320.180</t>
+  </si>
+  <si>
+    <t>Dotación parcial DAPRE- PENDIENTE COMPLETAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes </t>
   </si>
 </sst>
 </file>
@@ -1804,6 +1831,24 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1839,24 +1884,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2141,9 +2168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,14 +2184,14 @@
     <col min="7" max="7" width="34.5703125" style="41" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="41" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="41" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="41" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="41" customWidth="1"/>
     <col min="11" max="11" width="32.5703125" style="41" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="70.28515625" style="43" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37.140625" style="41" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="47.42578125" style="43" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="41" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="49" style="41" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="49" style="62" customWidth="1"/>
+    <col min="17" max="17" width="49" style="50" customWidth="1"/>
     <col min="18" max="18" width="94" style="41" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="41" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="41"/>
@@ -2172,11 +2199,11 @@
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
-      <c r="Q1" s="60"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
@@ -2194,13 +2221,13 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>250</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>3</v>
@@ -2212,22 +2239,22 @@
         <v>5</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R2" s="46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E3" s="15">
         <v>65</v>
@@ -2263,10 +2290,10 @@
         <v>9</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M3" s="20">
         <v>43525</v>
@@ -2277,13 +2304,13 @@
       <c r="O3" s="15"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -2291,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>12</v>
@@ -2316,10 +2343,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="20">
         <v>43525</v>
@@ -2329,11 +2356,11 @@
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="44"/>
-      <c r="Q4" s="59" t="s">
-        <v>370</v>
+      <c r="Q4" s="47" t="s">
+        <v>369</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2344,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>13</v>
@@ -2369,10 +2396,10 @@
         <v>9</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="20">
         <v>43525</v>
@@ -2382,7 +2409,7 @@
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2418,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="20">
         <v>43497</v>
@@ -2431,11 +2458,11 @@
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="44"/>
-      <c r="Q6" s="59" t="s">
-        <v>371</v>
+      <c r="Q6" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2471,10 +2498,10 @@
         <v>9</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="20">
         <v>43556</v>
@@ -2484,9 +2511,9 @@
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="44"/>
-      <c r="Q7" s="59"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2522,20 +2549,20 @@
         <v>9</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M8" s="20">
         <v>43586</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="44"/>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,10 +2598,10 @@
         <v>9</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="20">
         <v>43617</v>
@@ -2584,11 +2611,11 @@
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="44"/>
-      <c r="Q9" s="59" t="s">
-        <v>374</v>
+      <c r="Q9" s="47" t="s">
+        <v>373</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -2624,10 +2651,10 @@
         <v>9</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="20">
         <v>43525</v>
@@ -2637,11 +2664,11 @@
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="44"/>
-      <c r="Q10" s="59" t="s">
-        <v>370</v>
+      <c r="Q10" s="47" t="s">
+        <v>369</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="15">
         <v>65</v>
@@ -2677,10 +2704,10 @@
         <v>9</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="20">
         <v>43586</v>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="44"/>
-      <c r="Q11" s="63" t="s">
-        <v>370</v>
+      <c r="Q11" s="51" t="s">
+        <v>369</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2730,7 +2757,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>31</v>
@@ -2739,11 +2766,11 @@
         <v>43525</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="44"/>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="47"/>
       <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2779,20 +2806,20 @@
         <v>30</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M13" s="20">
         <v>43617</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="59"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2829,7 +2856,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="25" t="s">
         <v>40</v>
@@ -2838,15 +2865,15 @@
         <v>43525</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>381</v>
+      <c r="Q14" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="R14" s="52" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2882,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="25" t="s">
         <v>40</v>
@@ -2891,18 +2918,18 @@
         <v>43525</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="R15" s="64" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q15" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="R15" s="52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -2935,7 +2962,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="25" t="s">
         <v>50</v>
@@ -2944,15 +2971,15 @@
         <v>43556</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="44"/>
-      <c r="Q16" s="59" t="s">
-        <v>379</v>
+      <c r="Q16" s="47" t="s">
+        <v>378</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2988,20 +3015,20 @@
         <v>30</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="20">
         <v>43556</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="44"/>
-      <c r="Q17" s="59"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3015,7 +3042,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="E18" s="15">
         <v>95</v>
@@ -3037,20 +3064,20 @@
         <v>30</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M18" s="20">
         <v>43556</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3061,10 +3088,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="15">
         <v>95</v>
@@ -3086,20 +3113,20 @@
         <v>30</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M19" s="20">
         <v>43586</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="44"/>
-      <c r="Q19" s="59"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3110,10 +3137,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="15">
         <v>95</v>
@@ -3135,20 +3162,20 @@
         <v>30</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M20" s="20">
         <v>43586</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="44"/>
-      <c r="Q20" s="59"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3159,10 +3186,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="15">
         <v>95</v>
@@ -3184,20 +3211,20 @@
         <v>30</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M21" s="20">
         <v>43647</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="44"/>
-      <c r="Q21" s="59"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3205,13 +3232,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="21">
         <v>95</v>
@@ -3233,20 +3260,20 @@
         <v>30</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" s="22">
         <v>43525</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="44"/>
-      <c r="Q22" s="59"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,7 +3309,7 @@
         <v>45</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="27" t="s">
         <v>47</v>
@@ -3295,11 +3322,11 @@
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="45"/>
-      <c r="Q23" s="61" t="s">
-        <v>380</v>
+      <c r="Q23" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -3310,10 +3337,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="23">
         <v>104</v>
@@ -3335,10 +3362,10 @@
         <v>45</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M24" s="24">
         <v>43739</v>
@@ -3348,7 +3375,7 @@
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="45"/>
-      <c r="Q24" s="61"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="16"/>
     </row>
     <row r="25" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3356,13 +3383,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="D25" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E25" s="23">
         <v>300</v>
@@ -3378,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="20">
         <v>43497</v>
@@ -3394,7 +3421,7 @@
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="45"/>
-      <c r="Q25" s="61"/>
+      <c r="Q25" s="49"/>
       <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3402,13 +3429,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" s="23">
         <v>300</v>
@@ -3424,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M26" s="20">
         <v>43497</v>
@@ -3440,7 +3467,7 @@
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="45"/>
-      <c r="Q26" s="61"/>
+      <c r="Q26" s="49"/>
       <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3448,13 +3475,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="E27" s="23">
         <v>300</v>
@@ -3470,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="24">
         <v>43739</v>
@@ -3486,7 +3513,7 @@
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="45"/>
-      <c r="Q27" s="61"/>
+      <c r="Q27" s="49"/>
       <c r="R27" s="16"/>
     </row>
     <row r="28" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3494,13 +3521,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="23">
         <v>300</v>
@@ -3516,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M28" s="20">
         <v>43497</v>
@@ -3532,7 +3559,7 @@
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="45"/>
-      <c r="Q28" s="61"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3540,13 +3567,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E29" s="23">
         <v>282</v>
@@ -3562,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" s="20">
         <v>43497</v>
@@ -3578,9 +3605,9 @@
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q29" s="61"/>
+        <v>296</v>
+      </c>
+      <c r="Q29" s="49"/>
       <c r="R29" s="16"/>
     </row>
     <row r="30" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3588,13 +3615,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="23">
         <v>200</v>
@@ -3610,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M30" s="20">
         <v>43497</v>
@@ -3626,7 +3653,7 @@
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="45"/>
-      <c r="Q30" s="61"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="16"/>
     </row>
     <row r="31" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3634,13 +3661,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="23">
         <v>300</v>
@@ -3656,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="20">
         <v>43497</v>
@@ -3672,7 +3699,7 @@
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="45"/>
-      <c r="Q31" s="61"/>
+      <c r="Q31" s="49"/>
       <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3680,13 +3707,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" s="23">
         <v>160</v>
@@ -3702,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M32" s="20">
         <v>43497</v>
@@ -3718,7 +3745,7 @@
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="45"/>
-      <c r="Q32" s="61"/>
+      <c r="Q32" s="49"/>
       <c r="R32" s="16"/>
     </row>
     <row r="33" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3726,13 +3753,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="23">
         <v>200</v>
@@ -3748,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M33" s="20">
         <v>43497</v>
@@ -3764,7 +3791,7 @@
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="45"/>
-      <c r="Q33" s="61"/>
+      <c r="Q33" s="49"/>
       <c r="R33" s="16"/>
     </row>
     <row r="34" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3772,13 +3799,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E34" s="23">
         <v>300</v>
@@ -3794,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M34" s="20">
         <v>43497</v>
@@ -3810,7 +3837,7 @@
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="45"/>
-      <c r="Q34" s="61"/>
+      <c r="Q34" s="49"/>
       <c r="R34" s="16"/>
     </row>
     <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3818,13 +3845,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>79</v>
-      </c>
       <c r="D35" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E35" s="23">
         <v>300</v>
@@ -3841,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M35" s="24">
         <v>43739</v>
@@ -3857,9 +3884,9 @@
       </c>
       <c r="O35" s="16"/>
       <c r="P35" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q35" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q35" s="49"/>
       <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3867,13 +3894,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="23">
         <v>160</v>
@@ -3889,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M36" s="24">
         <v>43739</v>
@@ -3905,9 +3932,9 @@
       </c>
       <c r="O36" s="16"/>
       <c r="P36" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q36" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="Q36" s="49"/>
       <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3915,13 +3942,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="23">
         <v>300</v>
@@ -3937,13 +3964,13 @@
         <v>104</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M37" s="24">
         <v>43739</v>
@@ -3953,9 +3980,9 @@
       </c>
       <c r="O37" s="16"/>
       <c r="P37" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q37" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q37" s="49"/>
       <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3963,13 +3990,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="23">
         <v>300</v>
@@ -3985,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M38" s="24">
         <v>43739</v>
@@ -4001,9 +4028,9 @@
       </c>
       <c r="O38" s="16"/>
       <c r="P38" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q38" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q38" s="49"/>
       <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4011,13 +4038,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="23">
         <v>300</v>
@@ -4033,13 +4060,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M39" s="24">
         <v>43739</v>
@@ -4049,9 +4076,9 @@
       </c>
       <c r="O39" s="16"/>
       <c r="P39" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q39" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q39" s="49"/>
       <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4059,13 +4086,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="E40" s="23">
         <v>300</v>
@@ -4082,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M40" s="24">
         <v>43739</v>
@@ -4098,9 +4125,9 @@
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q40" s="61"/>
+        <v>307</v>
+      </c>
+      <c r="Q40" s="49"/>
       <c r="R40" s="16"/>
     </row>
     <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4108,13 +4135,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E41" s="23">
         <v>300</v>
@@ -4130,13 +4157,13 @@
         <v>100</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M41" s="24">
         <v>43739</v>
@@ -4146,9 +4173,9 @@
       </c>
       <c r="O41" s="16"/>
       <c r="P41" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q41" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q41" s="49"/>
       <c r="R41" s="16"/>
     </row>
     <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4156,13 +4183,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="23">
         <v>300</v>
@@ -4178,13 +4205,13 @@
         <v>80</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M42" s="24">
         <v>43739</v>
@@ -4194,9 +4221,9 @@
       </c>
       <c r="O42" s="16"/>
       <c r="P42" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q42" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q42" s="49"/>
       <c r="R42" s="16"/>
     </row>
     <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4204,13 +4231,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E43" s="23">
         <v>300</v>
@@ -4227,13 +4254,13 @@
         <v>150</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M43" s="24">
         <v>43739</v>
@@ -4243,9 +4270,9 @@
       </c>
       <c r="O43" s="16"/>
       <c r="P43" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q43" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q43" s="49"/>
       <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4253,13 +4280,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E44" s="23">
         <v>300</v>
@@ -4275,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L44" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M44" s="24">
         <v>43739</v>
@@ -4291,9 +4318,9 @@
       </c>
       <c r="O44" s="16"/>
       <c r="P44" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q44" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q44" s="49"/>
       <c r="R44" s="16"/>
     </row>
     <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4301,13 +4328,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="23">
         <v>300</v>
@@ -4324,13 +4351,13 @@
         <v>273</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M45" s="24">
         <v>43739</v>
@@ -4340,9 +4367,9 @@
       </c>
       <c r="O45" s="16"/>
       <c r="P45" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q45" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q45" s="49"/>
       <c r="R45" s="16"/>
     </row>
     <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4350,13 +4377,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="23">
         <v>300</v>
@@ -4372,13 +4399,13 @@
         <v>220</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M46" s="24">
         <v>43739</v>
@@ -4388,9 +4415,9 @@
       </c>
       <c r="O46" s="16"/>
       <c r="P46" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q46" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q46" s="49"/>
       <c r="R46" s="16"/>
     </row>
     <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4398,13 +4425,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="23">
         <v>300</v>
@@ -4420,13 +4447,13 @@
         <v>155</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M47" s="24">
         <v>43739</v>
@@ -4436,9 +4463,9 @@
       </c>
       <c r="O47" s="16"/>
       <c r="P47" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q47" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q47" s="49"/>
       <c r="R47" s="16"/>
     </row>
     <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4446,13 +4473,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="23">
         <v>300</v>
@@ -4468,13 +4495,13 @@
         <v>300</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M48" s="24">
         <v>43739</v>
@@ -4484,9 +4511,9 @@
       </c>
       <c r="O48" s="16"/>
       <c r="P48" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q48" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q48" s="49"/>
       <c r="R48" s="16"/>
     </row>
     <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4494,13 +4521,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="23">
         <v>300</v>
@@ -4510,13 +4537,13 @@
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M49" s="24">
         <v>43739</v>
@@ -4526,9 +4553,9 @@
       </c>
       <c r="O49" s="16"/>
       <c r="P49" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q49" s="61"/>
+        <v>315</v>
+      </c>
+      <c r="Q49" s="49"/>
       <c r="R49" s="16"/>
     </row>
     <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4536,13 +4563,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="23">
         <v>95</v>
@@ -4559,13 +4586,13 @@
         <v>81</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M50" s="24">
         <v>43739</v>
@@ -4575,9 +4602,9 @@
       </c>
       <c r="O50" s="16"/>
       <c r="P50" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q50" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q50" s="49"/>
       <c r="R50" s="16"/>
     </row>
     <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4585,13 +4612,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="23">
         <v>95</v>
@@ -4607,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M51" s="24">
         <v>43739</v>
@@ -4623,9 +4650,9 @@
       </c>
       <c r="O51" s="16"/>
       <c r="P51" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q51" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q51" s="49"/>
       <c r="R51" s="16"/>
     </row>
     <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4633,13 +4660,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="23">
         <v>160</v>
@@ -4655,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M52" s="24">
         <v>43739</v>
@@ -4671,9 +4698,9 @@
       </c>
       <c r="O52" s="16"/>
       <c r="P52" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q52" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q52" s="49"/>
       <c r="R52" s="16"/>
     </row>
     <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4681,13 +4708,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="23">
         <v>160</v>
@@ -4703,13 +4730,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L53" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M53" s="24">
         <v>43739</v>
@@ -4719,9 +4746,9 @@
       </c>
       <c r="O53" s="16"/>
       <c r="P53" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q53" s="61"/>
+        <v>318</v>
+      </c>
+      <c r="Q53" s="49"/>
       <c r="R53" s="16"/>
     </row>
     <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4729,13 +4756,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="23">
         <v>160</v>
@@ -4751,13 +4778,13 @@
         <v>100</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L54" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M54" s="24">
         <v>43739</v>
@@ -4767,9 +4794,9 @@
       </c>
       <c r="O54" s="16"/>
       <c r="P54" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q54" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q54" s="49"/>
       <c r="R54" s="16"/>
     </row>
     <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4777,13 +4804,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="23">
         <v>160</v>
@@ -4799,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L55" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M55" s="24">
         <v>43739</v>
@@ -4815,9 +4842,9 @@
       </c>
       <c r="O55" s="16"/>
       <c r="P55" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q55" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q55" s="49"/>
       <c r="R55" s="16"/>
     </row>
     <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4825,13 +4852,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="23">
         <v>300</v>
@@ -4847,13 +4874,13 @@
         <v>200</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L56" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M56" s="24">
         <v>43739</v>
@@ -4863,23 +4890,23 @@
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q56" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="Q56" s="49"/>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" s="23">
         <v>160</v>
@@ -4896,13 +4923,13 @@
         <v>69</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L57" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M57" s="20">
         <v>43525</v>
@@ -4912,23 +4939,25 @@
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="45"/>
-      <c r="Q57" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="R57" s="16"/>
-    </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q57" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>107</v>
-      </c>
       <c r="D58" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" s="23">
         <v>160</v>
@@ -4944,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M58" s="20">
         <v>43556</v>
@@ -4960,21 +4989,25 @@
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="45"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="16"/>
+      <c r="Q58" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E59" s="23">
         <v>160</v>
@@ -4990,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L59" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M59" s="20">
         <v>43497</v>
@@ -5006,27 +5039,27 @@
       </c>
       <c r="O59" s="16"/>
       <c r="P59" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q59" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q59" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="R59" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="R59" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>58</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E60" s="23">
         <v>100</v>
@@ -5042,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L60" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M60" s="20">
         <v>43556</v>
@@ -5058,10 +5091,14 @@
       </c>
       <c r="O60" s="16"/>
       <c r="P60" s="45"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="16"/>
-    </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="R60" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -5069,10 +5106,10 @@
         <v>41</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E61" s="23">
         <v>160</v>
@@ -5091,13 +5128,13 @@
         <v>160</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L61" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M61" s="20">
         <v>43525</v>
@@ -5107,8 +5144,12 @@
       </c>
       <c r="O61" s="16"/>
       <c r="P61" s="45"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="16"/>
+      <c r="Q61" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="R61" s="16" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
@@ -5118,10 +5159,10 @@
         <v>41</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="23">
         <v>65</v>
@@ -5141,24 +5182,28 @@
         <v>43</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L62" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M62" s="20">
         <v>43525</v>
       </c>
       <c r="N62" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O62" s="16"/>
       <c r="P62" s="45"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="16"/>
+      <c r="Q62" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="R62" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
@@ -5168,10 +5213,10 @@
         <v>15</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E63" s="23">
         <v>95</v>
@@ -5190,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L63" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M63" s="20">
         <v>43556</v>
@@ -5206,7 +5251,7 @@
       </c>
       <c r="O63" s="16"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="61"/>
+      <c r="Q63" s="49"/>
       <c r="R63" s="16"/>
     </row>
     <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -5214,13 +5259,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>114</v>
-      </c>
       <c r="D64" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="23">
         <v>50</v>
@@ -5236,13 +5281,13 @@
         <v>50</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L64" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M64" s="20">
         <v>43497</v>
@@ -5252,9 +5297,9 @@
       </c>
       <c r="O64" s="16"/>
       <c r="P64" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q64" s="61"/>
+        <v>262</v>
+      </c>
+      <c r="Q64" s="49"/>
       <c r="R64" s="16"/>
     </row>
     <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -5262,13 +5307,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>116</v>
-      </c>
       <c r="D65" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" s="23">
         <v>40</v>
@@ -5285,13 +5330,13 @@
         <v>17</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L65" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M65" s="20">
         <v>43556</v>
@@ -5301,7 +5346,7 @@
       </c>
       <c r="O65" s="16"/>
       <c r="P65" s="45"/>
-      <c r="Q65" s="61"/>
+      <c r="Q65" s="49"/>
       <c r="R65" s="16"/>
     </row>
     <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5309,13 +5354,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="D66" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" s="23">
         <v>65</v>
@@ -5331,13 +5376,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L66" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M66" s="20">
         <v>43586</v>
@@ -5347,7 +5392,7 @@
       </c>
       <c r="O66" s="16"/>
       <c r="P66" s="45"/>
-      <c r="Q66" s="61"/>
+      <c r="Q66" s="49"/>
       <c r="R66" s="16"/>
     </row>
     <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -5355,13 +5400,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="D67" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E67" s="23">
         <v>160</v>
@@ -5378,13 +5423,13 @@
         <v>95</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L67" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M67" s="20">
         <v>43586</v>
@@ -5394,9 +5439,9 @@
       </c>
       <c r="O67" s="16"/>
       <c r="P67" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q67" s="61"/>
+        <v>257</v>
+      </c>
+      <c r="Q67" s="49"/>
       <c r="R67" s="16"/>
     </row>
     <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -5404,13 +5449,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" s="23">
         <v>95</v>
@@ -5426,13 +5471,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L68" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" s="20">
         <v>43556</v>
@@ -5442,7 +5487,7 @@
       </c>
       <c r="O68" s="16"/>
       <c r="P68" s="45"/>
-      <c r="Q68" s="61"/>
+      <c r="Q68" s="49"/>
       <c r="R68" s="16"/>
     </row>
     <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -5450,13 +5495,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>123</v>
-      </c>
       <c r="D69" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E69" s="23">
         <v>95</v>
@@ -5472,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L69" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M69" s="20">
         <v>43525</v>
@@ -5488,7 +5533,7 @@
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="45"/>
-      <c r="Q69" s="61"/>
+      <c r="Q69" s="49"/>
       <c r="R69" s="16"/>
     </row>
     <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5499,10 +5544,10 @@
         <v>32</v>
       </c>
       <c r="C70" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="23" t="s">
         <v>265</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>266</v>
       </c>
       <c r="E70" s="23">
         <v>300</v>
@@ -5521,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L70" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M70" s="20">
         <v>43497</v>
@@ -5537,9 +5582,9 @@
       </c>
       <c r="O70" s="16"/>
       <c r="P70" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q70" s="61"/>
+        <v>267</v>
+      </c>
+      <c r="Q70" s="49"/>
       <c r="R70" s="16"/>
     </row>
     <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5547,13 +5592,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="D71" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" s="23">
         <v>60</v>
@@ -5572,13 +5617,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="L71" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="M71" s="20">
         <v>43525</v>
@@ -5588,7 +5633,7 @@
       </c>
       <c r="O71" s="16"/>
       <c r="P71" s="45"/>
-      <c r="Q71" s="61"/>
+      <c r="Q71" s="49"/>
       <c r="R71" s="16"/>
     </row>
     <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5596,13 +5641,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="D72" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E72" s="23">
         <v>60</v>
@@ -5621,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="L72" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="K72" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="M72" s="20">
         <v>43525</v>
@@ -5637,7 +5682,7 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="45"/>
-      <c r="Q72" s="61"/>
+      <c r="Q72" s="49"/>
       <c r="R72" s="16"/>
     </row>
     <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5645,13 +5690,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="D73" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E73" s="23">
         <v>60</v>
@@ -5670,13 +5715,13 @@
         <v>60</v>
       </c>
       <c r="J73" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="L73" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="K73" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="M73" s="20">
         <v>43525</v>
@@ -5686,7 +5731,7 @@
       </c>
       <c r="O73" s="16"/>
       <c r="P73" s="45"/>
-      <c r="Q73" s="61"/>
+      <c r="Q73" s="49"/>
       <c r="R73" s="16"/>
     </row>
     <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5694,13 +5739,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" s="23">
         <v>60</v>
@@ -5719,13 +5764,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L74" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M74" s="20">
         <v>43556</v>
@@ -5735,7 +5780,7 @@
       </c>
       <c r="O74" s="16"/>
       <c r="P74" s="45"/>
-      <c r="Q74" s="61"/>
+      <c r="Q74" s="49"/>
       <c r="R74" s="16"/>
     </row>
     <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5743,13 +5788,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75" s="23">
         <v>60</v>
@@ -5768,13 +5813,13 @@
         <v>60</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K75" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L75" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M75" s="20">
         <v>43556</v>
@@ -5784,7 +5829,7 @@
       </c>
       <c r="O75" s="16"/>
       <c r="P75" s="45"/>
-      <c r="Q75" s="61"/>
+      <c r="Q75" s="49"/>
       <c r="R75" s="16"/>
     </row>
     <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5792,13 +5837,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="E76" s="23">
         <v>60</v>
@@ -5817,13 +5862,13 @@
         <v>56</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K76" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L76" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M76" s="20">
         <v>43556</v>
@@ -5833,7 +5878,7 @@
       </c>
       <c r="O76" s="16"/>
       <c r="P76" s="45"/>
-      <c r="Q76" s="61"/>
+      <c r="Q76" s="49"/>
       <c r="R76" s="16"/>
     </row>
     <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -5841,13 +5886,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="E77" s="23">
         <v>60</v>
@@ -5866,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K77" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L77" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M77" s="20">
         <v>43556</v>
@@ -5882,7 +5927,7 @@
       </c>
       <c r="O77" s="16"/>
       <c r="P77" s="45"/>
-      <c r="Q77" s="61"/>
+      <c r="Q77" s="49"/>
       <c r="R77" s="16"/>
     </row>
     <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5890,13 +5935,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E78" s="23">
         <v>60</v>
@@ -5915,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K78" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L78" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M78" s="20">
         <v>43556</v>
@@ -5931,7 +5976,7 @@
       </c>
       <c r="O78" s="16"/>
       <c r="P78" s="45"/>
-      <c r="Q78" s="61"/>
+      <c r="Q78" s="49"/>
       <c r="R78" s="16"/>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5939,13 +5984,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="E79" s="23">
         <v>60</v>
@@ -5964,13 +6009,13 @@
         <v>10</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K79" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L79" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M79" s="20">
         <v>43556</v>
@@ -5980,7 +6025,7 @@
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="45"/>
-      <c r="Q79" s="61"/>
+      <c r="Q79" s="49"/>
       <c r="R79" s="16"/>
     </row>
     <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5988,13 +6033,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80" s="23">
         <v>60</v>
@@ -6013,13 +6058,13 @@
         <v>10</v>
       </c>
       <c r="J80" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K80" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L80" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M80" s="20">
         <v>43556</v>
@@ -6029,7 +6074,7 @@
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="45"/>
-      <c r="Q80" s="61"/>
+      <c r="Q80" s="49"/>
       <c r="R80" s="16"/>
     </row>
     <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6040,10 +6085,10 @@
         <v>41</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E81" s="23">
         <v>54</v>
@@ -6062,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L81" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M81" s="20">
         <v>43525</v>
@@ -6078,7 +6123,7 @@
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="45"/>
-      <c r="Q81" s="61"/>
+      <c r="Q81" s="49"/>
       <c r="R81" s="16"/>
     </row>
     <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6089,10 +6134,10 @@
         <v>19</v>
       </c>
       <c r="C82" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="E82" s="23">
         <v>80</v>
@@ -6112,13 +6157,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K82" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M82" s="20">
         <v>43556</v>
@@ -6128,7 +6173,7 @@
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="45"/>
-      <c r="Q82" s="61"/>
+      <c r="Q82" s="49"/>
       <c r="R82" s="16"/>
     </row>
     <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6139,10 +6184,10 @@
         <v>19</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" s="23">
         <v>60</v>
@@ -6161,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K83" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L83" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M83" s="20">
         <v>43556</v>
@@ -6177,7 +6222,7 @@
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="45"/>
-      <c r="Q83" s="61"/>
+      <c r="Q83" s="49"/>
       <c r="R83" s="16"/>
     </row>
     <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6188,10 +6233,10 @@
         <v>19</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E84" s="23">
         <v>80</v>
@@ -6210,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L84" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M84" s="20">
         <v>43556</v>
@@ -6226,7 +6271,7 @@
       </c>
       <c r="O84" s="16"/>
       <c r="P84" s="45"/>
-      <c r="Q84" s="61"/>
+      <c r="Q84" s="49"/>
       <c r="R84" s="16"/>
     </row>
     <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6237,10 +6282,10 @@
         <v>19</v>
       </c>
       <c r="C85" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>185</v>
       </c>
       <c r="E85" s="23">
         <v>60</v>
@@ -6259,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L85" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M85" s="20">
         <v>43556</v>
@@ -6275,7 +6320,7 @@
       </c>
       <c r="O85" s="16"/>
       <c r="P85" s="45"/>
-      <c r="Q85" s="61"/>
+      <c r="Q85" s="49"/>
       <c r="R85" s="16"/>
     </row>
     <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6286,10 +6331,10 @@
         <v>19</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E86" s="23">
         <v>60</v>
@@ -6308,13 +6353,13 @@
         <v>60</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K86" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L86" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M86" s="20">
         <v>43586</v>
@@ -6324,7 +6369,7 @@
       </c>
       <c r="O86" s="16"/>
       <c r="P86" s="45"/>
-      <c r="Q86" s="61"/>
+      <c r="Q86" s="49"/>
       <c r="R86" s="16"/>
     </row>
     <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6335,10 +6380,10 @@
         <v>19</v>
       </c>
       <c r="C87" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="E87" s="23">
         <v>60</v>
@@ -6357,13 +6402,13 @@
         <v>10</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K87" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L87" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M87" s="20">
         <v>43617</v>
@@ -6373,7 +6418,7 @@
       </c>
       <c r="O87" s="16"/>
       <c r="P87" s="45"/>
-      <c r="Q87" s="61"/>
+      <c r="Q87" s="49"/>
       <c r="R87" s="16"/>
     </row>
     <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6384,10 +6429,10 @@
         <v>19</v>
       </c>
       <c r="C88" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="E88" s="23">
         <v>60</v>
@@ -6406,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="J88" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K88" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L88" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M88" s="20">
         <v>43556</v>
@@ -6422,7 +6467,7 @@
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="45"/>
-      <c r="Q88" s="61"/>
+      <c r="Q88" s="49"/>
       <c r="R88" s="16"/>
     </row>
     <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6430,13 +6475,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E89" s="23">
         <v>60</v>
@@ -6455,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L89" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="K89" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L89" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="M89" s="20">
         <v>43525</v>
@@ -6471,7 +6516,7 @@
       </c>
       <c r="O89" s="16"/>
       <c r="P89" s="45"/>
-      <c r="Q89" s="61"/>
+      <c r="Q89" s="49"/>
       <c r="R89" s="16"/>
     </row>
     <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6479,13 +6524,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C90" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="23" t="s">
         <v>192</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>193</v>
       </c>
       <c r="E90" s="23">
         <v>54</v>
@@ -6504,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L90" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M90" s="20">
         <v>43617</v>
@@ -6520,7 +6565,7 @@
       </c>
       <c r="O90" s="16"/>
       <c r="P90" s="45"/>
-      <c r="Q90" s="61"/>
+      <c r="Q90" s="49"/>
       <c r="R90" s="16"/>
     </row>
     <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6528,13 +6573,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="23" t="s">
         <v>194</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>195</v>
       </c>
       <c r="E91" s="23">
         <v>80</v>
@@ -6553,13 +6598,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K91" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L91" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="K91" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L91" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="M91" s="20">
         <v>43739</v>
@@ -6569,7 +6614,7 @@
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="45"/>
-      <c r="Q91" s="61"/>
+      <c r="Q91" s="49"/>
       <c r="R91" s="16"/>
     </row>
     <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6577,13 +6622,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>197</v>
       </c>
       <c r="E92" s="23">
         <v>80</v>
@@ -6602,13 +6647,13 @@
         <v>0</v>
       </c>
       <c r="J92" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K92" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L92" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M92" s="20">
         <v>43617</v>
@@ -6618,7 +6663,7 @@
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="45"/>
-      <c r="Q92" s="61"/>
+      <c r="Q92" s="49"/>
       <c r="R92" s="16"/>
     </row>
     <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6626,13 +6671,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="D93" s="23" t="s">
         <v>200</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="E93" s="23">
         <v>65</v>
@@ -6645,21 +6690,21 @@
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
       <c r="J93" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K93" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L93" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M93" s="20"/>
       <c r="N93" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="45"/>
-      <c r="Q93" s="61"/>
+      <c r="Q93" s="49"/>
       <c r="R93" s="16"/>
     </row>
     <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6667,13 +6712,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="E94" s="23">
         <v>65</v>
@@ -6686,21 +6731,21 @@
       <c r="H94" s="23"/>
       <c r="I94" s="23"/>
       <c r="J94" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K94" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L94" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M94" s="20"/>
       <c r="N94" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O94" s="16"/>
       <c r="P94" s="45"/>
-      <c r="Q94" s="61"/>
+      <c r="Q94" s="49"/>
       <c r="R94" s="16"/>
     </row>
     <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6708,13 +6753,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C95" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>206</v>
       </c>
       <c r="E95" s="23">
         <v>65</v>
@@ -6727,21 +6772,21 @@
       <c r="H95" s="23"/>
       <c r="I95" s="23"/>
       <c r="J95" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K95" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L95" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M95" s="20"/>
       <c r="N95" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O95" s="16"/>
       <c r="P95" s="45"/>
-      <c r="Q95" s="61"/>
+      <c r="Q95" s="49"/>
       <c r="R95" s="16"/>
     </row>
     <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6749,13 +6794,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C96" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="E96" s="23">
         <v>65</v>
@@ -6768,21 +6813,21 @@
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K96" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L96" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M96" s="20"/>
       <c r="N96" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O96" s="16"/>
       <c r="P96" s="45"/>
-      <c r="Q96" s="61"/>
+      <c r="Q96" s="49"/>
       <c r="R96" s="16"/>
     </row>
     <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6790,13 +6835,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>210</v>
       </c>
       <c r="E97" s="23">
         <v>65</v>
@@ -6809,21 +6854,21 @@
       <c r="H97" s="23"/>
       <c r="I97" s="23"/>
       <c r="J97" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K97" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L97" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M97" s="20"/>
       <c r="N97" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O97" s="16"/>
       <c r="P97" s="45"/>
-      <c r="Q97" s="61"/>
+      <c r="Q97" s="49"/>
       <c r="R97" s="16"/>
     </row>
     <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6831,13 +6876,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="E98" s="23">
         <v>50</v>
@@ -6850,21 +6895,21 @@
       <c r="H98" s="23"/>
       <c r="I98" s="23"/>
       <c r="J98" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K98" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L98" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M98" s="20"/>
       <c r="N98" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O98" s="16"/>
       <c r="P98" s="45"/>
-      <c r="Q98" s="61"/>
+      <c r="Q98" s="49"/>
       <c r="R98" s="16"/>
     </row>
     <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6872,13 +6917,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="23" t="s">
         <v>213</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>214</v>
       </c>
       <c r="E99" s="23">
         <v>65</v>
@@ -6891,21 +6936,21 @@
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
       <c r="J99" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K99" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L99" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M99" s="20"/>
       <c r="N99" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O99" s="16"/>
       <c r="P99" s="45"/>
-      <c r="Q99" s="61"/>
+      <c r="Q99" s="49"/>
       <c r="R99" s="16"/>
     </row>
     <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6913,13 +6958,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="E100" s="23">
         <v>65</v>
@@ -6932,21 +6977,21 @@
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K100" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L100" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M100" s="20"/>
       <c r="N100" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O100" s="16"/>
       <c r="P100" s="45"/>
-      <c r="Q100" s="61"/>
+      <c r="Q100" s="49"/>
       <c r="R100" s="16"/>
     </row>
     <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6954,13 +6999,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="E101" s="23">
         <v>104</v>
@@ -6979,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="J101" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L101" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M101" s="20">
         <v>43525</v>
@@ -6995,9 +7040,9 @@
       </c>
       <c r="O101" s="16"/>
       <c r="P101" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q101" s="61"/>
+        <v>258</v>
+      </c>
+      <c r="Q101" s="49"/>
       <c r="R101" s="16"/>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7005,13 +7050,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>218</v>
       </c>
       <c r="E102" s="23">
         <v>70</v>
@@ -7030,13 +7075,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K102" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L102" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M102" s="20">
         <v>43497</v>
@@ -7046,7 +7091,7 @@
       </c>
       <c r="O102" s="16"/>
       <c r="P102" s="45"/>
-      <c r="Q102" s="61"/>
+      <c r="Q102" s="49"/>
       <c r="R102" s="16"/>
     </row>
     <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7057,10 +7102,10 @@
         <v>41</v>
       </c>
       <c r="C103" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>220</v>
       </c>
       <c r="E103" s="23">
         <v>90</v>
@@ -7079,13 +7124,13 @@
         <v>0</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K103" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L103" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M103" s="20">
         <v>43525</v>
@@ -7095,7 +7140,7 @@
       </c>
       <c r="O103" s="16"/>
       <c r="P103" s="45"/>
-      <c r="Q103" s="61"/>
+      <c r="Q103" s="49"/>
       <c r="R103" s="16"/>
     </row>
     <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7106,10 +7151,10 @@
         <v>41</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" s="23">
         <v>110</v>
@@ -7128,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="J104" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K104" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L104" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M104" s="20">
         <v>43525</v>
@@ -7144,7 +7189,7 @@
       </c>
       <c r="O104" s="16"/>
       <c r="P104" s="45"/>
-      <c r="Q104" s="61"/>
+      <c r="Q104" s="49"/>
       <c r="R104" s="16"/>
     </row>
     <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7155,10 +7200,10 @@
         <v>41</v>
       </c>
       <c r="C105" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="23" t="s">
         <v>222</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="E105" s="23">
         <v>80</v>
@@ -7177,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="J105" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K105" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L105" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M105" s="20">
         <v>43556</v>
@@ -7193,7 +7238,7 @@
       </c>
       <c r="O105" s="16"/>
       <c r="P105" s="45"/>
-      <c r="Q105" s="61"/>
+      <c r="Q105" s="49"/>
       <c r="R105" s="16"/>
     </row>
     <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7204,10 +7249,10 @@
         <v>41</v>
       </c>
       <c r="C106" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>225</v>
       </c>
       <c r="E106" s="23">
         <v>200</v>
@@ -7227,7 +7272,7 @@
         <v>143</v>
       </c>
       <c r="J106" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K106" s="23" t="s">
         <v>46</v>
@@ -7243,7 +7288,7 @@
       </c>
       <c r="O106" s="16"/>
       <c r="P106" s="45"/>
-      <c r="Q106" s="61"/>
+      <c r="Q106" s="49"/>
       <c r="R106" s="16"/>
     </row>
     <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7254,10 +7299,10 @@
         <v>41</v>
       </c>
       <c r="C107" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="23" t="s">
         <v>226</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>227</v>
       </c>
       <c r="E107" s="23">
         <v>60</v>
@@ -7276,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K107" s="23" t="s">
         <v>46</v>
@@ -7292,7 +7337,7 @@
       </c>
       <c r="O107" s="16"/>
       <c r="P107" s="45"/>
-      <c r="Q107" s="61"/>
+      <c r="Q107" s="49"/>
       <c r="R107" s="16"/>
     </row>
     <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7303,10 +7348,10 @@
         <v>19</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E108" s="23">
         <v>76</v>
@@ -7325,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K108" s="23" t="s">
         <v>46</v>
@@ -7337,11 +7382,11 @@
         <v>43556</v>
       </c>
       <c r="N108" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="45"/>
-      <c r="Q108" s="61"/>
+      <c r="Q108" s="49"/>
       <c r="R108" s="16"/>
     </row>
     <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7352,10 +7397,10 @@
         <v>19</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109" s="23">
         <v>60</v>
@@ -7374,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K109" s="23" t="s">
         <v>46</v>
@@ -7386,11 +7431,11 @@
         <v>43739</v>
       </c>
       <c r="N109" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O109" s="16"/>
       <c r="P109" s="45"/>
-      <c r="Q109" s="61"/>
+      <c r="Q109" s="49"/>
       <c r="R109" s="16"/>
     </row>
     <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7398,13 +7443,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>116</v>
-      </c>
       <c r="D110" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E110" s="23">
         <v>60</v>
@@ -7423,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K110" s="23" t="s">
         <v>46</v>
@@ -7435,11 +7480,11 @@
         <v>43617</v>
       </c>
       <c r="N110" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O110" s="16"/>
       <c r="P110" s="45"/>
-      <c r="Q110" s="61"/>
+      <c r="Q110" s="49"/>
       <c r="R110" s="16"/>
     </row>
     <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7447,13 +7492,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="23" t="s">
         <v>231</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>232</v>
       </c>
       <c r="E111" s="23">
         <v>36</v>
@@ -7472,7 +7517,7 @@
         <v>36</v>
       </c>
       <c r="J111" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K111" s="23" t="s">
         <v>46</v>
@@ -7484,11 +7529,11 @@
         <v>43647</v>
       </c>
       <c r="N111" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O111" s="16"/>
       <c r="P111" s="45"/>
-      <c r="Q111" s="61"/>
+      <c r="Q111" s="49"/>
       <c r="R111" s="16"/>
     </row>
     <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7496,13 +7541,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="23" t="s">
         <v>233</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>234</v>
       </c>
       <c r="E112" s="23">
         <v>65</v>
@@ -7521,13 +7566,13 @@
         <v>3</v>
       </c>
       <c r="J112" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K112" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L112" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M112" s="20">
         <v>43497</v>
@@ -7537,7 +7582,7 @@
       </c>
       <c r="O112" s="16"/>
       <c r="P112" s="45"/>
-      <c r="Q112" s="61"/>
+      <c r="Q112" s="49"/>
       <c r="R112" s="16"/>
     </row>
     <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7545,13 +7590,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C113" s="23" t="s">
-        <v>252</v>
-      </c>
       <c r="D113" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E113" s="23">
         <v>92</v>
@@ -7570,13 +7615,13 @@
         <v>92</v>
       </c>
       <c r="J113" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L113" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M113" s="20">
         <v>43556</v>
@@ -7586,9 +7631,9 @@
       </c>
       <c r="O113" s="16"/>
       <c r="P113" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q113" s="61"/>
+        <v>258</v>
+      </c>
+      <c r="Q113" s="49"/>
       <c r="R113" s="16"/>
     </row>
     <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7599,10 +7644,10 @@
         <v>15</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E114" s="23">
         <v>160</v>
@@ -7622,13 +7667,13 @@
         <v>135</v>
       </c>
       <c r="J114" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K114" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L114" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M114" s="20">
         <v>43525</v>
@@ -7638,9 +7683,9 @@
       </c>
       <c r="O114" s="16"/>
       <c r="P114" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q114" s="61"/>
+        <v>266</v>
+      </c>
+      <c r="Q114" s="49"/>
       <c r="R114" s="16"/>
     </row>
     <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7648,13 +7693,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C115" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D115" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="E115" s="23">
         <v>300</v>
@@ -7676,10 +7721,10 @@
         <v>9</v>
       </c>
       <c r="K115" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L115" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M115" s="20">
         <v>43525</v>
@@ -7689,7 +7734,7 @@
       </c>
       <c r="O115" s="36"/>
       <c r="P115" s="45"/>
-      <c r="Q115" s="61"/>
+      <c r="Q115" s="49"/>
       <c r="R115" s="16"/>
     </row>
     <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7700,10 +7745,10 @@
         <v>42</v>
       </c>
       <c r="C116" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" s="23" t="s">
         <v>332</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>333</v>
       </c>
       <c r="E116" s="23">
         <v>100</v>
@@ -7719,13 +7764,13 @@
         <v>0</v>
       </c>
       <c r="J116" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L116" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M116" s="20">
         <v>43525</v>
@@ -7733,7 +7778,7 @@
       <c r="N116" s="38"/>
       <c r="O116" s="36"/>
       <c r="P116" s="45"/>
-      <c r="Q116" s="61"/>
+      <c r="Q116" s="49"/>
       <c r="R116" s="16"/>
     </row>
     <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -7744,10 +7789,10 @@
         <v>42</v>
       </c>
       <c r="C117" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D117" s="23" t="s">
         <v>335</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>336</v>
       </c>
       <c r="E117" s="23">
         <v>36</v>
@@ -7763,13 +7808,13 @@
         <v>36</v>
       </c>
       <c r="J117" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K117" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L117" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M117" s="20">
         <v>43739</v>
@@ -7777,7 +7822,7 @@
       <c r="N117" s="38"/>
       <c r="O117" s="36"/>
       <c r="P117" s="45"/>
-      <c r="Q117" s="61"/>
+      <c r="Q117" s="49"/>
       <c r="R117" s="16"/>
     </row>
     <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7788,10 +7833,10 @@
         <v>32</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E118" s="23">
         <v>320</v>
@@ -7807,7 +7852,7 @@
         <v>320</v>
       </c>
       <c r="J118" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K118" s="23" t="s">
         <v>46</v>
@@ -7821,7 +7866,7 @@
       <c r="N118" s="38"/>
       <c r="O118" s="36"/>
       <c r="P118" s="45"/>
-      <c r="Q118" s="61"/>
+      <c r="Q118" s="49"/>
       <c r="R118" s="16"/>
     </row>
     <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7832,10 +7877,10 @@
         <v>32</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E119" s="23">
         <v>320</v>
@@ -7851,7 +7896,7 @@
         <v>320</v>
       </c>
       <c r="J119" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K119" s="23" t="s">
         <v>46</v>
@@ -7865,7 +7910,7 @@
       <c r="N119" s="38"/>
       <c r="O119" s="36"/>
       <c r="P119" s="45"/>
-      <c r="Q119" s="61"/>
+      <c r="Q119" s="49"/>
       <c r="R119" s="16"/>
     </row>
     <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7876,10 +7921,10 @@
         <v>32</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E120" s="23">
         <v>65</v>
@@ -7895,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K120" s="23" t="s">
         <v>46</v>
@@ -7909,7 +7954,7 @@
       <c r="N120" s="38"/>
       <c r="O120" s="36"/>
       <c r="P120" s="45"/>
-      <c r="Q120" s="61"/>
+      <c r="Q120" s="49"/>
       <c r="R120" s="16"/>
     </row>
     <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7920,10 +7965,10 @@
         <v>32</v>
       </c>
       <c r="C121" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D121" s="23" t="s">
         <v>357</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>358</v>
       </c>
       <c r="E121" s="23">
         <v>90</v>
@@ -7939,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K121" s="23" t="s">
         <v>46</v>
@@ -7953,49 +7998,49 @@
       <c r="N121" s="38"/>
       <c r="O121" s="36"/>
       <c r="P121" s="45"/>
-      <c r="Q121" s="61"/>
+      <c r="Q121" s="49"/>
       <c r="R121" s="16"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
-      <c r="I122" s="47"/>
-      <c r="J122" s="47"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="47"/>
-      <c r="M122" s="47"/>
-      <c r="N122" s="47"/>
-      <c r="O122" s="47"/>
-      <c r="P122" s="47"/>
+      <c r="A122" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="53"/>
+      <c r="M122" s="53"/>
+      <c r="N122" s="53"/>
+      <c r="O122" s="53"/>
+      <c r="P122" s="53"/>
       <c r="Q122" s="40"/>
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="47"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="47"/>
-      <c r="M123" s="47"/>
-      <c r="N123" s="47"/>
-      <c r="O123" s="47"/>
-      <c r="P123" s="47"/>
+      <c r="A123" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="53"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="53"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="53"/>
+      <c r="K123" s="53"/>
+      <c r="L123" s="53"/>
+      <c r="M123" s="53"/>
+      <c r="N123" s="53"/>
+      <c r="O123" s="53"/>
+      <c r="P123" s="53"/>
       <c r="Q123" s="40"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8050,6 +8095,7 @@
       <c r="A141" s="42"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}"/>
   <mergeCells count="2">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>
@@ -8075,27 +8121,27 @@
   <sheetData>
     <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="16">
         <v>15</v>
@@ -8115,7 +8161,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="16">
         <v>24</v>
@@ -8135,7 +8181,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6" s="16">
         <v>26</v>
@@ -8155,7 +8201,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" s="16">
         <v>7</v>
@@ -8175,7 +8221,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="16">
         <v>6</v>
@@ -8195,7 +8241,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" s="16">
         <v>2</v>
@@ -8215,7 +8261,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -8235,7 +8281,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -8255,7 +8301,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C12" s="16">
         <v>29</v>
@@ -8276,7 +8322,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="16">
         <v>8</v>
@@ -8290,7 +8336,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" s="19">
         <f>SUM(C4:C13)</f>
@@ -8363,243 +8409,243 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2">
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2">
         <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2">
         <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="A6" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2">
         <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D8" s="2">
         <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D9" s="2">
         <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D10" s="2">
         <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D11" s="2">
         <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="2">
         <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8607,22 +8653,22 @@
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2">
         <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8630,22 +8676,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D14" s="2">
         <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8653,22 +8699,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2">
         <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8676,22 +8722,22 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2">
         <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8699,22 +8745,22 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D17" s="2">
         <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8722,22 +8768,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2">
         <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8745,22 +8791,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D19" s="2">
         <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8768,114 +8814,114 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D20" s="2">
         <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2">
         <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D22" s="2">
         <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D23" s="2">
         <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D24" s="2">
         <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8916,15 +8962,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -8950,60 +8996,60 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -9011,148 +9057,148 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3">
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="3">
         <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D9" s="3">
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D10" s="3">
         <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D11" s="3">
         <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3">
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9160,22 +9206,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9183,22 +9229,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D14" s="3">
         <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9206,102 +9252,102 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D15" s="3">
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D16" s="3">
         <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="A18" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D19" s="3">
         <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9309,22 +9355,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="3">
         <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9332,22 +9378,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="3">
         <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9355,148 +9401,148 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D22" s="3">
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="A23" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3">
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3">
         <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="3">
         <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3">
         <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D28" s="3">
         <v>80</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -9528,15 +9574,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="5">
         <v>12</v>
@@ -9544,7 +9590,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="5">
         <v>9</v>
@@ -9552,7 +9598,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="5">
         <v>22</v>
@@ -9560,7 +9606,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -9568,7 +9614,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="5">
         <v>22</v>
@@ -9576,33 +9622,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="54"/>
+      <c r="D7" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="55"/>
+      <c r="D8" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="5">
         <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="10">
         <v>28</v>
@@ -9610,13 +9656,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="5">
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="10">
         <v>211</v>
@@ -9624,19 +9670,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="56"/>
+      <c r="D11" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="11">
         <v>10</v>
@@ -9644,7 +9690,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" s="11">
         <v>16</v>
@@ -9652,7 +9698,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="11">
         <v>156</v>
@@ -9660,7 +9706,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" s="11">
         <v>2124</v>
@@ -9671,20 +9717,20 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="57"/>
+      <c r="D17" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="58"/>
+      <c r="D18" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="12">
         <v>23</v>
@@ -9692,21 +9738,21 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="12">
         <v>856</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" s="53"/>
+      <c r="D21" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="13">
         <v>22</v>
@@ -9714,7 +9760,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E23" s="13">
         <v>836</v>
@@ -9722,7 +9768,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E24" s="13">
         <f>+E23*13</f>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E5E06-BD6F-46C0-916B-003A1FF084AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300A628-28F3-4EA2-A835-7C1A2A3ED9D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,7 +1473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,6 +1551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1783,9 +1789,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1803,9 +1806,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1884,6 +1884,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2168,45 +2198,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="41" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="41" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="70.28515625" style="43" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" style="41" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="41" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49" style="41" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="49" style="50" customWidth="1"/>
-    <col min="18" max="18" width="94" style="41" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="41"/>
+    <col min="1" max="1" width="4.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="70.28515625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" style="48" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="49" style="39" customWidth="1"/>
+    <col min="17" max="17" width="49" style="48" customWidth="1"/>
+    <col min="18" max="18" width="94" style="39" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="39" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="Q1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="46"/>
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="1:18" s="34" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2250,15 +2280,15 @@
       <c r="P2" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="44" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+    <row r="3" spans="1:18" s="37" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2273,7 +2303,7 @@
       <c r="E3" s="15">
         <v>65</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <f>+E3*1419650</f>
         <v>92277250</v>
       </c>
@@ -2298,20 +2328,20 @@
       <c r="M3" s="20">
         <v>43525</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="20">
         <v>43525</v>
       </c>
       <c r="O3" s="15"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="36" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="35" t="s">
         <v>372</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+    <row r="4" spans="1:18" s="37" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -2326,7 +2356,7 @@
       <c r="E4" s="15">
         <v>300</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <f t="shared" ref="F4:F10" si="0">+E4*946485</f>
         <v>283945500</v>
       </c>
@@ -2351,20 +2381,20 @@
       <c r="M4" s="20">
         <v>43525</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="20">
         <v>43435</v>
       </c>
       <c r="O4" s="15"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="47" t="s">
+      <c r="P4" s="42"/>
+      <c r="Q4" s="45" t="s">
         <v>369</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+    <row r="5" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2379,7 +2409,7 @@
       <c r="E5" s="15">
         <v>160</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <f t="shared" si="0"/>
         <v>151437600</v>
       </c>
@@ -2404,16 +2434,16 @@
       <c r="M5" s="20">
         <v>43525</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="20">
         <v>43435</v>
       </c>
       <c r="O5" s="15"/>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="42" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+    <row r="6" spans="1:18" s="37" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2428,7 +2458,7 @@
       <c r="E6" s="15">
         <v>300</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2453,20 +2483,20 @@
       <c r="M6" s="20">
         <v>43497</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="20">
         <v>43435</v>
       </c>
       <c r="O6" s="15"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="47" t="s">
+      <c r="P6" s="42"/>
+      <c r="Q6" s="45" t="s">
         <v>370</v>
       </c>
       <c r="R6" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+    <row r="7" spans="1:18" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2481,7 +2511,7 @@
       <c r="E7" s="15">
         <v>300</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2506,18 +2536,18 @@
       <c r="M7" s="20">
         <v>43556</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="20">
         <v>43678</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="45"/>
       <c r="R7" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+    <row r="8" spans="1:18" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2532,7 +2562,7 @@
       <c r="E8" s="15">
         <v>300</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2557,16 +2587,16 @@
       <c r="M8" s="20">
         <v>43586</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="15" t="s">
         <v>102</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="45"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+    <row r="9" spans="1:18" s="37" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2581,7 +2611,7 @@
       <c r="E9" s="15">
         <v>300</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2606,20 +2636,20 @@
       <c r="M9" s="20">
         <v>43617</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="20">
         <v>43556</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="47" t="s">
+      <c r="P9" s="42"/>
+      <c r="Q9" s="45" t="s">
         <v>373</v>
       </c>
       <c r="R9" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+    <row r="10" spans="1:18" s="37" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2634,7 +2664,7 @@
       <c r="E10" s="15">
         <v>300</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
@@ -2659,20 +2689,20 @@
       <c r="M10" s="20">
         <v>43525</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="20">
         <v>43435</v>
       </c>
       <c r="O10" s="15"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="47" t="s">
+      <c r="P10" s="42"/>
+      <c r="Q10" s="45" t="s">
         <v>369</v>
       </c>
       <c r="R10" s="16" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+    <row r="11" spans="1:18" s="37" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2687,7 +2717,7 @@
       <c r="E11" s="15">
         <v>65</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f t="shared" ref="F11" si="1">+E11*1419650</f>
         <v>92277250</v>
       </c>
@@ -2712,20 +2742,20 @@
       <c r="M11" s="20">
         <v>43586</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="20">
         <v>43525</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="51" t="s">
+      <c r="P11" s="42"/>
+      <c r="Q11" s="49" t="s">
         <v>369</v>
       </c>
       <c r="R11" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+    <row r="12" spans="1:18" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2740,7 +2770,7 @@
       <c r="E12" s="15">
         <v>95</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <f t="shared" ref="F12:F24" si="2">+E12*1419650</f>
         <v>134866750</v>
       </c>
@@ -2765,16 +2795,16 @@
       <c r="M12" s="20">
         <v>43525</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O12" s="15"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="47"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+    <row r="13" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2789,7 +2819,7 @@
       <c r="E13" s="15">
         <v>95</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2814,16 +2844,16 @@
       <c r="M13" s="20">
         <v>43617</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O13" s="15"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="47"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="45"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+    <row r="14" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2838,7 +2868,7 @@
       <c r="E14" s="15">
         <v>95</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2864,20 +2894,20 @@
       <c r="M14" s="20">
         <v>43525</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="51" t="s">
+      <c r="P14" s="42"/>
+      <c r="Q14" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="R14" s="52" t="s">
+      <c r="R14" s="50" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+    <row r="15" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2892,7 +2922,7 @@
       <c r="E15" s="15">
         <v>95</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2917,20 +2947,20 @@
       <c r="M15" s="20">
         <v>43525</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O15" s="15"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="51" t="s">
+      <c r="P15" s="42"/>
+      <c r="Q15" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="R15" s="50" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+    <row r="16" spans="1:18" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2945,7 +2975,7 @@
       <c r="E16" s="15">
         <v>95</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -2970,20 +3000,20 @@
       <c r="M16" s="20">
         <v>43556</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="47" t="s">
+      <c r="P16" s="42"/>
+      <c r="Q16" s="45" t="s">
         <v>378</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+    <row r="17" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2998,7 +3028,7 @@
       <c r="E17" s="15">
         <v>95</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -3023,16 +3053,16 @@
       <c r="M17" s="20">
         <v>43556</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="47"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+    <row r="18" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -3047,7 +3077,7 @@
       <c r="E18" s="15">
         <v>95</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -3072,16 +3102,16 @@
       <c r="M18" s="20">
         <v>43556</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O18" s="15"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="47"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+    <row r="19" spans="1:18" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -3096,7 +3126,7 @@
       <c r="E19" s="15">
         <v>95</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -3121,16 +3151,16 @@
       <c r="M19" s="20">
         <v>43586</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O19" s="15"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="47"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+    <row r="20" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -3145,7 +3175,7 @@
       <c r="E20" s="15">
         <v>95</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -3170,16 +3200,16 @@
       <c r="M20" s="20">
         <v>43586</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O20" s="15"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="47"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="45"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+    <row r="21" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -3194,7 +3224,7 @@
       <c r="E21" s="15">
         <v>95</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -3219,16 +3249,16 @@
       <c r="M21" s="20">
         <v>43647</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O21" s="15"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="47"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+    <row r="22" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -3243,7 +3273,7 @@
       <c r="E22" s="21">
         <v>95</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f t="shared" si="2"/>
         <v>134866750</v>
       </c>
@@ -3268,16 +3298,16 @@
       <c r="M22" s="22">
         <v>43525</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="72" t="s">
         <v>129</v>
       </c>
       <c r="O22" s="15"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="47"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="45"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+    <row r="23" spans="1:18" s="37" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -3292,7 +3322,7 @@
       <c r="E23" s="23">
         <v>110</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <f t="shared" si="2"/>
         <v>156161500</v>
       </c>
@@ -3317,20 +3347,20 @@
       <c r="M23" s="24">
         <v>43525</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="20">
         <v>43556</v>
       </c>
       <c r="O23" s="16"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="49" t="s">
+      <c r="P23" s="43"/>
+      <c r="Q23" s="47" t="s">
         <v>379</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+    <row r="24" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -3345,7 +3375,7 @@
       <c r="E24" s="23">
         <v>104</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <f t="shared" si="2"/>
         <v>147643600</v>
       </c>
@@ -3370,16 +3400,16 @@
       <c r="M24" s="24">
         <v>43739</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="20">
         <v>43800</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="49"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -3416,16 +3446,16 @@
       <c r="M25" s="20">
         <v>43497</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="20">
         <v>43435</v>
       </c>
       <c r="O25" s="16"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="49"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+    <row r="26" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="35">
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -3462,16 +3492,16 @@
       <c r="M26" s="20">
         <v>43497</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="20">
         <v>43408</v>
       </c>
       <c r="O26" s="16"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="49"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+    <row r="27" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="35">
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -3508,16 +3538,16 @@
       <c r="M27" s="24">
         <v>43739</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="20">
         <v>43617</v>
       </c>
       <c r="O27" s="16"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="49"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+    <row r="28" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="35">
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3554,16 +3584,16 @@
       <c r="M28" s="20">
         <v>43497</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="20">
         <v>43466</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="49"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+    <row r="29" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="35">
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -3600,18 +3630,18 @@
       <c r="M29" s="20">
         <v>43497</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="20">
         <v>43405</v>
       </c>
       <c r="O29" s="16"/>
-      <c r="P29" s="45" t="s">
+      <c r="P29" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+    <row r="30" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -3648,16 +3678,16 @@
       <c r="M30" s="20">
         <v>43497</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="20">
         <v>43419</v>
       </c>
       <c r="O30" s="16"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="49"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+    <row r="31" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -3694,16 +3724,16 @@
       <c r="M31" s="20">
         <v>43497</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="20">
         <v>43419</v>
       </c>
       <c r="O31" s="16"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="49"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+    <row r="32" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -3740,16 +3770,16 @@
       <c r="M32" s="20">
         <v>43497</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="20">
         <v>43419</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="49"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="47"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+    <row r="33" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -3786,16 +3816,16 @@
       <c r="M33" s="20">
         <v>43497</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="20">
         <v>43419</v>
       </c>
       <c r="O33" s="16"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="49"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="47"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+    <row r="34" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="35">
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -3832,16 +3862,16 @@
       <c r="M34" s="20">
         <v>43497</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="20">
         <v>43419</v>
       </c>
       <c r="O34" s="16"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="49"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="47"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+    <row r="35" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -3879,18 +3909,18 @@
       <c r="M35" s="24">
         <v>43739</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="20">
         <v>43620</v>
       </c>
       <c r="O35" s="16"/>
-      <c r="P35" s="45" t="s">
+      <c r="P35" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q35" s="49"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+    <row r="36" spans="1:18" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="35">
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -3927,18 +3957,18 @@
       <c r="M36" s="24">
         <v>43739</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="20">
         <v>43559</v>
       </c>
       <c r="O36" s="16"/>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="Q36" s="49"/>
+      <c r="Q36" s="47"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+    <row r="37" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="35">
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -3975,18 +4005,18 @@
       <c r="M37" s="24">
         <v>43739</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="20">
         <v>43559</v>
       </c>
       <c r="O37" s="16"/>
-      <c r="P37" s="45" t="s">
+      <c r="P37" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q37" s="49"/>
+      <c r="Q37" s="47"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+    <row r="38" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -4023,18 +4053,18 @@
       <c r="M38" s="24">
         <v>43739</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="20">
         <v>43559</v>
       </c>
       <c r="O38" s="16"/>
-      <c r="P38" s="45" t="s">
+      <c r="P38" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q38" s="49"/>
+      <c r="Q38" s="47"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+    <row r="39" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="35">
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -4071,18 +4101,18 @@
       <c r="M39" s="24">
         <v>43739</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="20">
         <v>43589</v>
       </c>
       <c r="O39" s="16"/>
-      <c r="P39" s="45" t="s">
+      <c r="P39" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="49"/>
+      <c r="Q39" s="47"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+    <row r="40" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="35">
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -4120,18 +4150,18 @@
       <c r="M40" s="24">
         <v>43739</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="20">
         <v>43589</v>
       </c>
       <c r="O40" s="16"/>
-      <c r="P40" s="45" t="s">
+      <c r="P40" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="Q40" s="49"/>
+      <c r="Q40" s="47"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+    <row r="41" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="35">
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -4168,18 +4198,18 @@
       <c r="M41" s="24">
         <v>43739</v>
       </c>
-      <c r="N41" s="38">
+      <c r="N41" s="20">
         <v>43620</v>
       </c>
       <c r="O41" s="16"/>
-      <c r="P41" s="45" t="s">
+      <c r="P41" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q41" s="49"/>
+      <c r="Q41" s="47"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+    <row r="42" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="35">
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -4216,18 +4246,18 @@
       <c r="M42" s="24">
         <v>43739</v>
       </c>
-      <c r="N42" s="38">
+      <c r="N42" s="20">
         <v>43559</v>
       </c>
       <c r="O42" s="16"/>
-      <c r="P42" s="45" t="s">
+      <c r="P42" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q42" s="49"/>
+      <c r="Q42" s="47"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
+    <row r="43" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="35">
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -4265,18 +4295,18 @@
       <c r="M43" s="24">
         <v>43739</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43" s="20">
         <v>43620</v>
       </c>
       <c r="O43" s="16"/>
-      <c r="P43" s="45" t="s">
+      <c r="P43" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q43" s="49"/>
+      <c r="Q43" s="47"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+    <row r="44" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="35">
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -4313,18 +4343,18 @@
       <c r="M44" s="24">
         <v>43739</v>
       </c>
-      <c r="N44" s="38">
+      <c r="N44" s="20">
         <v>43559</v>
       </c>
       <c r="O44" s="16"/>
-      <c r="P44" s="45" t="s">
+      <c r="P44" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q44" s="49"/>
+      <c r="Q44" s="47"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -4362,18 +4392,18 @@
       <c r="M45" s="24">
         <v>43739</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45" s="20">
         <v>43739</v>
       </c>
       <c r="O45" s="16"/>
-      <c r="P45" s="45" t="s">
+      <c r="P45" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q45" s="49"/>
+      <c r="Q45" s="47"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+    <row r="46" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="35">
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -4410,18 +4440,18 @@
       <c r="M46" s="24">
         <v>43739</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="20">
         <v>43620</v>
       </c>
       <c r="O46" s="16"/>
-      <c r="P46" s="45" t="s">
+      <c r="P46" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q46" s="49"/>
+      <c r="Q46" s="47"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+    <row r="47" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="35">
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -4458,18 +4488,18 @@
       <c r="M47" s="24">
         <v>43739</v>
       </c>
-      <c r="N47" s="38">
+      <c r="N47" s="20">
         <v>43589</v>
       </c>
       <c r="O47" s="16"/>
-      <c r="P47" s="45" t="s">
+      <c r="P47" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q47" s="49"/>
+      <c r="Q47" s="47"/>
       <c r="R47" s="16"/>
     </row>
-    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+    <row r="48" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="35">
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4506,18 +4536,18 @@
       <c r="M48" s="24">
         <v>43739</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="20">
         <v>43589</v>
       </c>
       <c r="O48" s="16"/>
-      <c r="P48" s="45" t="s">
+      <c r="P48" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q48" s="49"/>
+      <c r="Q48" s="47"/>
       <c r="R48" s="16"/>
     </row>
-    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+    <row r="49" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="35">
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -4548,18 +4578,18 @@
       <c r="M49" s="24">
         <v>43739</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="20">
         <v>43559</v>
       </c>
       <c r="O49" s="16"/>
-      <c r="P49" s="45" t="s">
+      <c r="P49" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="Q49" s="49"/>
+      <c r="Q49" s="47"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
+    <row r="50" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -4597,18 +4627,18 @@
       <c r="M50" s="24">
         <v>43739</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N50" s="20">
         <v>43511</v>
       </c>
       <c r="O50" s="16"/>
-      <c r="P50" s="45" t="s">
+      <c r="P50" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q50" s="49"/>
+      <c r="Q50" s="47"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+    <row r="51" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="35">
         <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -4645,18 +4675,18 @@
       <c r="M51" s="24">
         <v>43739</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51" s="20">
         <v>43559</v>
       </c>
       <c r="O51" s="16"/>
-      <c r="P51" s="45" t="s">
+      <c r="P51" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q51" s="49"/>
+      <c r="Q51" s="47"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+    <row r="52" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="35">
         <v>50</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -4693,18 +4723,18 @@
       <c r="M52" s="24">
         <v>43739</v>
       </c>
-      <c r="N52" s="38">
+      <c r="N52" s="20">
         <v>43589</v>
       </c>
       <c r="O52" s="16"/>
-      <c r="P52" s="45" t="s">
+      <c r="P52" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q52" s="49"/>
+      <c r="Q52" s="47"/>
       <c r="R52" s="16"/>
     </row>
-    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
+    <row r="53" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="35">
         <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -4741,18 +4771,18 @@
       <c r="M53" s="24">
         <v>43739</v>
       </c>
-      <c r="N53" s="38">
+      <c r="N53" s="20">
         <v>43559</v>
       </c>
       <c r="O53" s="16"/>
-      <c r="P53" s="45" t="s">
+      <c r="P53" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="Q53" s="49"/>
+      <c r="Q53" s="47"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+    <row r="54" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="35">
         <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -4789,18 +4819,18 @@
       <c r="M54" s="24">
         <v>43739</v>
       </c>
-      <c r="N54" s="38">
+      <c r="N54" s="20">
         <v>43589</v>
       </c>
       <c r="O54" s="16"/>
-      <c r="P54" s="45" t="s">
+      <c r="P54" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q54" s="49"/>
+      <c r="Q54" s="47"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="35">
         <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -4837,18 +4867,18 @@
       <c r="M55" s="24">
         <v>43739</v>
       </c>
-      <c r="N55" s="38">
+      <c r="N55" s="20">
         <v>43559</v>
       </c>
       <c r="O55" s="16"/>
-      <c r="P55" s="45" t="s">
+      <c r="P55" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q55" s="49"/>
+      <c r="Q55" s="47"/>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
+    <row r="56" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="35">
         <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -4885,18 +4915,18 @@
       <c r="M56" s="24">
         <v>43739</v>
       </c>
-      <c r="N56" s="38">
+      <c r="N56" s="20">
         <v>43589</v>
       </c>
       <c r="O56" s="16"/>
-      <c r="P56" s="45" t="s">
+      <c r="P56" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="Q56" s="49"/>
+      <c r="Q56" s="47"/>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+    <row r="57" spans="1:18" s="37" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="35">
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -4934,20 +4964,20 @@
       <c r="M57" s="20">
         <v>43525</v>
       </c>
-      <c r="N57" s="38">
+      <c r="N57" s="20">
         <v>43497</v>
       </c>
       <c r="O57" s="16"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="49" t="s">
+      <c r="P57" s="43"/>
+      <c r="Q57" s="47" t="s">
         <v>382</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+    <row r="58" spans="1:18" s="37" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="35">
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
@@ -4984,20 +5014,20 @@
       <c r="M58" s="20">
         <v>43556</v>
       </c>
-      <c r="N58" s="38">
+      <c r="N58" s="20">
         <v>43497</v>
       </c>
       <c r="O58" s="16"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="49" t="s">
+      <c r="P58" s="43"/>
+      <c r="Q58" s="47" t="s">
         <v>385</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
+    <row r="59" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="35">
         <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -5034,22 +5064,22 @@
       <c r="M59" s="20">
         <v>43497</v>
       </c>
-      <c r="N59" s="38">
+      <c r="N59" s="20">
         <v>43373</v>
       </c>
       <c r="O59" s="16"/>
-      <c r="P59" s="45" t="s">
+      <c r="P59" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="Q59" s="49" t="s">
+      <c r="Q59" s="47" t="s">
         <v>389</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
+    <row r="60" spans="1:18" s="37" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="35">
         <v>58</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -5086,20 +5116,20 @@
       <c r="M60" s="20">
         <v>43556</v>
       </c>
-      <c r="N60" s="38">
+      <c r="N60" s="20">
         <v>43497</v>
       </c>
       <c r="O60" s="16"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="49" t="s">
+      <c r="P60" s="43"/>
+      <c r="Q60" s="47" t="s">
         <v>382</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="36">
+    <row r="61" spans="1:18" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="35">
         <v>59</v>
       </c>
       <c r="B61" s="23" t="s">
@@ -5114,7 +5144,7 @@
       <c r="E61" s="23">
         <v>160</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="36">
         <f t="shared" ref="F61" si="3">+E61*946485</f>
         <v>151437600</v>
       </c>
@@ -5139,20 +5169,20 @@
       <c r="M61" s="20">
         <v>43525</v>
       </c>
-      <c r="N61" s="38">
+      <c r="N61" s="20">
         <v>43497</v>
       </c>
       <c r="O61" s="16"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="51" t="s">
+      <c r="P61" s="43"/>
+      <c r="Q61" s="49" t="s">
         <v>391</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+    <row r="62" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="35">
         <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
@@ -5167,7 +5197,7 @@
       <c r="E62" s="23">
         <v>65</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="36">
         <f>+E62*1419650</f>
         <v>92277250</v>
       </c>
@@ -5193,20 +5223,20 @@
       <c r="M62" s="20">
         <v>43525</v>
       </c>
-      <c r="N62" s="38" t="s">
+      <c r="N62" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O62" s="16"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="51" t="s">
+      <c r="P62" s="43"/>
+      <c r="Q62" s="49" t="s">
         <v>391</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+    <row r="63" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="35">
         <v>61</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -5221,7 +5251,7 @@
       <c r="E63" s="23">
         <v>95</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="36">
         <f t="shared" ref="F63" si="4">+E63*1419650</f>
         <v>134866750</v>
       </c>
@@ -5246,16 +5276,16 @@
       <c r="M63" s="20">
         <v>43556</v>
       </c>
-      <c r="N63" s="38">
+      <c r="N63" s="20">
         <v>43497</v>
       </c>
       <c r="O63" s="16"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="49"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="47"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+    <row r="64" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="35">
         <v>62</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -5292,18 +5322,18 @@
       <c r="M64" s="20">
         <v>43497</v>
       </c>
-      <c r="N64" s="38">
+      <c r="N64" s="20">
         <v>43344</v>
       </c>
       <c r="O64" s="16"/>
-      <c r="P64" s="45" t="s">
+      <c r="P64" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="Q64" s="49"/>
+      <c r="Q64" s="47"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+    <row r="65" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="35">
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
@@ -5341,16 +5371,16 @@
       <c r="M65" s="20">
         <v>43556</v>
       </c>
-      <c r="N65" s="38">
+      <c r="N65" s="20">
         <v>43497</v>
       </c>
       <c r="O65" s="16"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="49"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="47"/>
       <c r="R65" s="16"/>
     </row>
-    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="36">
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="35">
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
@@ -5387,16 +5417,16 @@
       <c r="M66" s="20">
         <v>43586</v>
       </c>
-      <c r="N66" s="38">
+      <c r="N66" s="20">
         <v>43525</v>
       </c>
       <c r="O66" s="16"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="49"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="47"/>
       <c r="R66" s="16"/>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+    <row r="67" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35">
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
@@ -5434,18 +5464,18 @@
       <c r="M67" s="20">
         <v>43586</v>
       </c>
-      <c r="N67" s="38">
+      <c r="N67" s="20">
         <v>43525</v>
       </c>
       <c r="O67" s="16"/>
-      <c r="P67" s="45" t="s">
+      <c r="P67" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="Q67" s="49"/>
+      <c r="Q67" s="47"/>
       <c r="R67" s="16"/>
     </row>
-    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+    <row r="68" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="35">
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
@@ -5482,16 +5512,16 @@
       <c r="M68" s="20">
         <v>43556</v>
       </c>
-      <c r="N68" s="38">
+      <c r="N68" s="20">
         <v>43497</v>
       </c>
       <c r="O68" s="16"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="49"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="47"/>
       <c r="R68" s="16"/>
     </row>
-    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36">
+    <row r="69" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="35">
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
@@ -5528,16 +5558,16 @@
       <c r="M69" s="20">
         <v>43525</v>
       </c>
-      <c r="N69" s="38">
+      <c r="N69" s="20">
         <v>43466</v>
       </c>
       <c r="O69" s="16"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="49"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="47"/>
       <c r="R69" s="16"/>
     </row>
-    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+    <row r="70" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="35">
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
@@ -5552,7 +5582,7 @@
       <c r="E70" s="23">
         <v>300</v>
       </c>
-      <c r="F70" s="37">
+      <c r="F70" s="36">
         <f t="shared" ref="F70" si="5">+E70*946485</f>
         <v>283945500</v>
       </c>
@@ -5577,18 +5607,18 @@
       <c r="M70" s="20">
         <v>43497</v>
       </c>
-      <c r="N70" s="38">
+      <c r="N70" s="20">
         <v>43313</v>
       </c>
       <c r="O70" s="16"/>
-      <c r="P70" s="45" t="s">
+      <c r="P70" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="Q70" s="49"/>
+      <c r="Q70" s="47"/>
       <c r="R70" s="16"/>
     </row>
-    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+    <row r="71" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="35">
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
@@ -5603,7 +5633,7 @@
       <c r="E71" s="23">
         <v>60</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="36">
         <f t="shared" ref="F71:F113" si="6">+E71*1419650</f>
         <v>85179000</v>
       </c>
@@ -5628,16 +5658,16 @@
       <c r="M71" s="20">
         <v>43525</v>
       </c>
-      <c r="N71" s="38">
+      <c r="N71" s="20">
         <v>43466</v>
       </c>
       <c r="O71" s="16"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="49"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="47"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+    <row r="72" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="35">
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
@@ -5652,7 +5682,7 @@
       <c r="E72" s="23">
         <v>60</v>
       </c>
-      <c r="F72" s="37">
+      <c r="F72" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5677,16 +5707,16 @@
       <c r="M72" s="20">
         <v>43525</v>
       </c>
-      <c r="N72" s="38">
+      <c r="N72" s="20">
         <v>43466</v>
       </c>
       <c r="O72" s="16"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="49"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="47"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+    <row r="73" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="35">
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -5701,7 +5731,7 @@
       <c r="E73" s="23">
         <v>60</v>
       </c>
-      <c r="F73" s="37">
+      <c r="F73" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5726,16 +5756,16 @@
       <c r="M73" s="20">
         <v>43525</v>
       </c>
-      <c r="N73" s="38">
+      <c r="N73" s="20">
         <v>43466</v>
       </c>
       <c r="O73" s="16"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="49"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="47"/>
       <c r="R73" s="16"/>
     </row>
-    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+    <row r="74" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="35">
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -5750,7 +5780,7 @@
       <c r="E74" s="23">
         <v>60</v>
       </c>
-      <c r="F74" s="37">
+      <c r="F74" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5775,114 +5805,114 @@
       <c r="M74" s="20">
         <v>43556</v>
       </c>
-      <c r="N74" s="38">
+      <c r="N74" s="20">
         <v>43556</v>
       </c>
       <c r="O74" s="16"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="49"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="47"/>
       <c r="R74" s="16"/>
     </row>
-    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="36">
+    <row r="75" spans="1:18" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="63">
         <v>74</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="64">
         <v>60</v>
       </c>
-      <c r="F75" s="37">
+      <c r="F75" s="65">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
-      <c r="G75" s="23">
-        <v>0</v>
-      </c>
-      <c r="H75" s="23">
-        <v>0</v>
-      </c>
-      <c r="I75" s="23">
+      <c r="G75" s="64">
+        <v>0</v>
+      </c>
+      <c r="H75" s="64">
+        <v>0</v>
+      </c>
+      <c r="I75" s="64">
         <v>60</v>
       </c>
-      <c r="J75" s="23" t="s">
+      <c r="J75" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="K75" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L75" s="27" t="s">
+      <c r="K75" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="L75" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="67">
         <v>43556</v>
       </c>
-      <c r="N75" s="38">
+      <c r="N75" s="67">
         <v>43466</v>
       </c>
-      <c r="O75" s="16"/>
-      <c r="P75" s="45"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="16"/>
-    </row>
-    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="36">
+      <c r="O75" s="68"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="68"/>
+    </row>
+    <row r="76" spans="1:18" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="63">
         <v>75</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="64">
         <v>60</v>
       </c>
-      <c r="F76" s="37">
+      <c r="F76" s="65">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="64">
         <v>4</v>
       </c>
-      <c r="H76" s="23">
-        <v>0</v>
-      </c>
-      <c r="I76" s="23">
+      <c r="H76" s="64">
+        <v>0</v>
+      </c>
+      <c r="I76" s="64">
         <v>56</v>
       </c>
-      <c r="J76" s="23" t="s">
+      <c r="J76" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="K76" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L76" s="27" t="s">
+      <c r="K76" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="L76" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="67">
         <v>43556</v>
       </c>
-      <c r="N76" s="38">
+      <c r="N76" s="67">
         <v>43466</v>
       </c>
-      <c r="O76" s="16"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="16"/>
-    </row>
-    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36">
+      <c r="O76" s="68"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="70"/>
+      <c r="R76" s="68"/>
+    </row>
+    <row r="77" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="35">
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
@@ -5897,7 +5927,7 @@
       <c r="E77" s="23">
         <v>60</v>
       </c>
-      <c r="F77" s="37">
+      <c r="F77" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5922,16 +5952,16 @@
       <c r="M77" s="20">
         <v>43556</v>
       </c>
-      <c r="N77" s="38">
+      <c r="N77" s="20">
         <v>43556</v>
       </c>
       <c r="O77" s="16"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="49"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="47"/>
       <c r="R77" s="16"/>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="36">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="35">
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
@@ -5946,7 +5976,7 @@
       <c r="E78" s="23">
         <v>60</v>
       </c>
-      <c r="F78" s="37">
+      <c r="F78" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -5971,16 +6001,16 @@
       <c r="M78" s="20">
         <v>43556</v>
       </c>
-      <c r="N78" s="38">
+      <c r="N78" s="20">
         <v>43556</v>
       </c>
       <c r="O78" s="16"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="49"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="47"/>
       <c r="R78" s="16"/>
     </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="36">
+    <row r="79" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="35">
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
@@ -5995,7 +6025,7 @@
       <c r="E79" s="23">
         <v>60</v>
       </c>
-      <c r="F79" s="37">
+      <c r="F79" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6020,16 +6050,16 @@
       <c r="M79" s="20">
         <v>43556</v>
       </c>
-      <c r="N79" s="38">
+      <c r="N79" s="20">
         <v>43556</v>
       </c>
       <c r="O79" s="16"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="49"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="47"/>
       <c r="R79" s="16"/>
     </row>
-    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="36">
+    <row r="80" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="35">
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -6044,7 +6074,7 @@
       <c r="E80" s="23">
         <v>60</v>
       </c>
-      <c r="F80" s="37">
+      <c r="F80" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6069,16 +6099,16 @@
       <c r="M80" s="20">
         <v>43556</v>
       </c>
-      <c r="N80" s="38">
+      <c r="N80" s="20">
         <v>43556</v>
       </c>
       <c r="O80" s="16"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="49"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="47"/>
       <c r="R80" s="16"/>
     </row>
-    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36">
+    <row r="81" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35">
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -6093,7 +6123,7 @@
       <c r="E81" s="23">
         <v>54</v>
       </c>
-      <c r="F81" s="37">
+      <c r="F81" s="36">
         <f t="shared" si="6"/>
         <v>76661100</v>
       </c>
@@ -6118,16 +6148,16 @@
       <c r="M81" s="20">
         <v>43525</v>
       </c>
-      <c r="N81" s="38">
+      <c r="N81" s="20">
         <v>43497</v>
       </c>
       <c r="O81" s="16"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="49"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="47"/>
       <c r="R81" s="16"/>
     </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+    <row r="82" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="35">
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -6142,7 +6172,7 @@
       <c r="E82" s="23">
         <v>80</v>
       </c>
-      <c r="F82" s="37">
+      <c r="F82" s="36">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6168,16 +6198,16 @@
       <c r="M82" s="20">
         <v>43556</v>
       </c>
-      <c r="N82" s="38">
+      <c r="N82" s="20">
         <v>43497</v>
       </c>
       <c r="O82" s="16"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="49"/>
+      <c r="P82" s="43"/>
+      <c r="Q82" s="47"/>
       <c r="R82" s="16"/>
     </row>
-    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36">
+    <row r="83" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="35">
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -6192,7 +6222,7 @@
       <c r="E83" s="23">
         <v>60</v>
       </c>
-      <c r="F83" s="37">
+      <c r="F83" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6217,16 +6247,16 @@
       <c r="M83" s="20">
         <v>43556</v>
       </c>
-      <c r="N83" s="38">
+      <c r="N83" s="20">
         <v>43497</v>
       </c>
       <c r="O83" s="16"/>
-      <c r="P83" s="45"/>
-      <c r="Q83" s="49"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="47"/>
       <c r="R83" s="16"/>
     </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36">
+    <row r="84" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="35">
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
@@ -6241,7 +6271,7 @@
       <c r="E84" s="23">
         <v>80</v>
       </c>
-      <c r="F84" s="37">
+      <c r="F84" s="36">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6266,16 +6296,16 @@
       <c r="M84" s="20">
         <v>43556</v>
       </c>
-      <c r="N84" s="38">
+      <c r="N84" s="20">
         <v>43497</v>
       </c>
       <c r="O84" s="16"/>
-      <c r="P84" s="45"/>
-      <c r="Q84" s="49"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="47"/>
       <c r="R84" s="16"/>
     </row>
-    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36">
+    <row r="85" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="35">
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
@@ -6290,7 +6320,7 @@
       <c r="E85" s="23">
         <v>60</v>
       </c>
-      <c r="F85" s="37">
+      <c r="F85" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6315,16 +6345,16 @@
       <c r="M85" s="20">
         <v>43556</v>
       </c>
-      <c r="N85" s="38">
+      <c r="N85" s="20">
         <v>43497</v>
       </c>
       <c r="O85" s="16"/>
-      <c r="P85" s="45"/>
-      <c r="Q85" s="49"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="47"/>
       <c r="R85" s="16"/>
     </row>
-    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36">
+    <row r="86" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="35">
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
@@ -6339,7 +6369,7 @@
       <c r="E86" s="23">
         <v>60</v>
       </c>
-      <c r="F86" s="37">
+      <c r="F86" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6364,16 +6394,16 @@
       <c r="M86" s="20">
         <v>43586</v>
       </c>
-      <c r="N86" s="38">
+      <c r="N86" s="20">
         <v>43586</v>
       </c>
       <c r="O86" s="16"/>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="49"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="47"/>
       <c r="R86" s="16"/>
     </row>
-    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36">
+    <row r="87" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="35">
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -6388,7 +6418,7 @@
       <c r="E87" s="23">
         <v>60</v>
       </c>
-      <c r="F87" s="37">
+      <c r="F87" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6413,16 +6443,16 @@
       <c r="M87" s="20">
         <v>43617</v>
       </c>
-      <c r="N87" s="38">
+      <c r="N87" s="20">
         <v>43617</v>
       </c>
       <c r="O87" s="16"/>
-      <c r="P87" s="45"/>
-      <c r="Q87" s="49"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="47"/>
       <c r="R87" s="16"/>
     </row>
-    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36">
+    <row r="88" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="35">
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
@@ -6437,7 +6467,7 @@
       <c r="E88" s="23">
         <v>60</v>
       </c>
-      <c r="F88" s="37">
+      <c r="F88" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6462,16 +6492,16 @@
       <c r="M88" s="20">
         <v>43556</v>
       </c>
-      <c r="N88" s="38">
+      <c r="N88" s="20">
         <v>43497</v>
       </c>
       <c r="O88" s="16"/>
-      <c r="P88" s="45"/>
-      <c r="Q88" s="49"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="47"/>
       <c r="R88" s="16"/>
     </row>
-    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="36">
+    <row r="89" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="35">
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -6486,7 +6516,7 @@
       <c r="E89" s="23">
         <v>60</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -6511,16 +6541,16 @@
       <c r="M89" s="20">
         <v>43525</v>
       </c>
-      <c r="N89" s="38">
+      <c r="N89" s="20">
         <v>43466</v>
       </c>
       <c r="O89" s="16"/>
-      <c r="P89" s="45"/>
-      <c r="Q89" s="49"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="47"/>
       <c r="R89" s="16"/>
     </row>
-    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="36">
+    <row r="90" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="35">
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -6535,7 +6565,7 @@
       <c r="E90" s="23">
         <v>54</v>
       </c>
-      <c r="F90" s="37">
+      <c r="F90" s="36">
         <f t="shared" si="6"/>
         <v>76661100</v>
       </c>
@@ -6560,16 +6590,16 @@
       <c r="M90" s="20">
         <v>43617</v>
       </c>
-      <c r="N90" s="38">
+      <c r="N90" s="20">
         <v>43617</v>
       </c>
       <c r="O90" s="16"/>
-      <c r="P90" s="45"/>
-      <c r="Q90" s="49"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="47"/>
       <c r="R90" s="16"/>
     </row>
-    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="36">
+    <row r="91" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="35">
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
@@ -6584,7 +6614,7 @@
       <c r="E91" s="23">
         <v>80</v>
       </c>
-      <c r="F91" s="37">
+      <c r="F91" s="36">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6609,16 +6639,16 @@
       <c r="M91" s="20">
         <v>43739</v>
       </c>
-      <c r="N91" s="38">
+      <c r="N91" s="20">
         <v>43739</v>
       </c>
       <c r="O91" s="16"/>
-      <c r="P91" s="45"/>
-      <c r="Q91" s="49"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="47"/>
       <c r="R91" s="16"/>
     </row>
-    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
+    <row r="92" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="35">
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
@@ -6633,7 +6663,7 @@
       <c r="E92" s="23">
         <v>80</v>
       </c>
-      <c r="F92" s="37">
+      <c r="F92" s="36">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -6658,16 +6688,16 @@
       <c r="M92" s="20">
         <v>43617</v>
       </c>
-      <c r="N92" s="38">
+      <c r="N92" s="20">
         <v>43617</v>
       </c>
       <c r="O92" s="16"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="49"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="47"/>
       <c r="R92" s="16"/>
     </row>
-    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36">
+    <row r="93" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="35">
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -6682,7 +6712,7 @@
       <c r="E93" s="23">
         <v>65</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6699,16 +6729,16 @@
         <v>242</v>
       </c>
       <c r="M93" s="20"/>
-      <c r="N93" s="38" t="s">
+      <c r="N93" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O93" s="16"/>
-      <c r="P93" s="45"/>
-      <c r="Q93" s="49"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="47"/>
       <c r="R93" s="16"/>
     </row>
-    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36">
+    <row r="94" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="35">
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
@@ -6723,7 +6753,7 @@
       <c r="E94" s="23">
         <v>65</v>
       </c>
-      <c r="F94" s="37">
+      <c r="F94" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6740,16 +6770,16 @@
         <v>242</v>
       </c>
       <c r="M94" s="20"/>
-      <c r="N94" s="38" t="s">
+      <c r="N94" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O94" s="16"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="49"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="47"/>
       <c r="R94" s="16"/>
     </row>
-    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
+    <row r="95" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="35">
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
@@ -6764,7 +6794,7 @@
       <c r="E95" s="23">
         <v>65</v>
       </c>
-      <c r="F95" s="37">
+      <c r="F95" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6781,16 +6811,16 @@
         <v>242</v>
       </c>
       <c r="M95" s="20"/>
-      <c r="N95" s="38" t="s">
+      <c r="N95" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O95" s="16"/>
-      <c r="P95" s="45"/>
-      <c r="Q95" s="49"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="47"/>
       <c r="R95" s="16"/>
     </row>
-    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36">
+    <row r="96" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="35">
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -6805,7 +6835,7 @@
       <c r="E96" s="23">
         <v>65</v>
       </c>
-      <c r="F96" s="37">
+      <c r="F96" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6822,16 +6852,16 @@
         <v>242</v>
       </c>
       <c r="M96" s="20"/>
-      <c r="N96" s="38" t="s">
+      <c r="N96" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O96" s="16"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="49"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="47"/>
       <c r="R96" s="16"/>
     </row>
-    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36">
+    <row r="97" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="35">
         <v>96</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -6846,7 +6876,7 @@
       <c r="E97" s="23">
         <v>65</v>
       </c>
-      <c r="F97" s="37">
+      <c r="F97" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6863,16 +6893,16 @@
         <v>242</v>
       </c>
       <c r="M97" s="20"/>
-      <c r="N97" s="38" t="s">
+      <c r="N97" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O97" s="16"/>
-      <c r="P97" s="45"/>
-      <c r="Q97" s="49"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="47"/>
       <c r="R97" s="16"/>
     </row>
-    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36">
+    <row r="98" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="35">
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
@@ -6887,7 +6917,7 @@
       <c r="E98" s="23">
         <v>50</v>
       </c>
-      <c r="F98" s="37">
+      <c r="F98" s="36">
         <f t="shared" si="6"/>
         <v>70982500</v>
       </c>
@@ -6904,16 +6934,16 @@
         <v>242</v>
       </c>
       <c r="M98" s="20"/>
-      <c r="N98" s="38" t="s">
+      <c r="N98" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O98" s="16"/>
-      <c r="P98" s="45"/>
-      <c r="Q98" s="49"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="47"/>
       <c r="R98" s="16"/>
     </row>
-    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36">
+    <row r="99" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="35">
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
@@ -6928,7 +6958,7 @@
       <c r="E99" s="23">
         <v>65</v>
       </c>
-      <c r="F99" s="37">
+      <c r="F99" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6945,16 +6975,16 @@
         <v>242</v>
       </c>
       <c r="M99" s="20"/>
-      <c r="N99" s="38" t="s">
+      <c r="N99" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O99" s="16"/>
-      <c r="P99" s="45"/>
-      <c r="Q99" s="49"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="47"/>
       <c r="R99" s="16"/>
     </row>
-    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36">
+    <row r="100" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="35">
         <v>99</v>
       </c>
       <c r="B100" s="23" t="s">
@@ -6969,7 +6999,7 @@
       <c r="E100" s="23">
         <v>65</v>
       </c>
-      <c r="F100" s="37">
+      <c r="F100" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -6986,16 +7016,16 @@
         <v>242</v>
       </c>
       <c r="M100" s="20"/>
-      <c r="N100" s="38" t="s">
+      <c r="N100" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O100" s="16"/>
-      <c r="P100" s="45"/>
-      <c r="Q100" s="49"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="47"/>
       <c r="R100" s="16"/>
     </row>
-    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36">
+    <row r="101" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="35">
         <v>100</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -7010,7 +7040,7 @@
       <c r="E101" s="23">
         <v>104</v>
       </c>
-      <c r="F101" s="37">
+      <c r="F101" s="36">
         <f t="shared" si="6"/>
         <v>147643600</v>
       </c>
@@ -7035,18 +7065,18 @@
       <c r="M101" s="20">
         <v>43525</v>
       </c>
-      <c r="N101" s="38">
+      <c r="N101" s="20">
         <v>43405</v>
       </c>
       <c r="O101" s="16"/>
-      <c r="P101" s="45" t="s">
+      <c r="P101" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="Q101" s="49"/>
+      <c r="Q101" s="47"/>
       <c r="R101" s="16"/>
     </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36">
+    <row r="102" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="35">
         <v>101</v>
       </c>
       <c r="B102" s="23" t="s">
@@ -7061,7 +7091,7 @@
       <c r="E102" s="23">
         <v>70</v>
       </c>
-      <c r="F102" s="37">
+      <c r="F102" s="36">
         <f t="shared" si="6"/>
         <v>99375500</v>
       </c>
@@ -7086,16 +7116,16 @@
       <c r="M102" s="20">
         <v>43497</v>
       </c>
-      <c r="N102" s="38">
+      <c r="N102" s="20">
         <v>43480</v>
       </c>
       <c r="O102" s="16"/>
-      <c r="P102" s="45"/>
-      <c r="Q102" s="49"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="47"/>
       <c r="R102" s="16"/>
     </row>
-    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36">
+    <row r="103" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="35">
         <v>102</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -7110,7 +7140,7 @@
       <c r="E103" s="23">
         <v>90</v>
       </c>
-      <c r="F103" s="37">
+      <c r="F103" s="36">
         <f t="shared" si="6"/>
         <v>127768500</v>
       </c>
@@ -7135,16 +7165,16 @@
       <c r="M103" s="20">
         <v>43525</v>
       </c>
-      <c r="N103" s="38">
+      <c r="N103" s="20">
         <v>43497</v>
       </c>
       <c r="O103" s="16"/>
-      <c r="P103" s="45"/>
-      <c r="Q103" s="49"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="47"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36">
+    <row r="104" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="35">
         <v>103</v>
       </c>
       <c r="B104" s="23" t="s">
@@ -7159,7 +7189,7 @@
       <c r="E104" s="23">
         <v>110</v>
       </c>
-      <c r="F104" s="37">
+      <c r="F104" s="36">
         <f t="shared" si="6"/>
         <v>156161500</v>
       </c>
@@ -7184,16 +7214,16 @@
       <c r="M104" s="20">
         <v>43525</v>
       </c>
-      <c r="N104" s="38">
+      <c r="N104" s="20">
         <v>43497</v>
       </c>
       <c r="O104" s="16"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="49"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="47"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36">
+    <row r="105" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="35">
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -7208,7 +7238,7 @@
       <c r="E105" s="23">
         <v>80</v>
       </c>
-      <c r="F105" s="37">
+      <c r="F105" s="36">
         <f t="shared" si="6"/>
         <v>113572000</v>
       </c>
@@ -7233,16 +7263,16 @@
       <c r="M105" s="20">
         <v>43556</v>
       </c>
-      <c r="N105" s="38">
+      <c r="N105" s="20">
         <v>43466</v>
       </c>
       <c r="O105" s="16"/>
-      <c r="P105" s="45"/>
-      <c r="Q105" s="49"/>
+      <c r="P105" s="43"/>
+      <c r="Q105" s="47"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36">
+    <row r="106" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="35">
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
@@ -7257,7 +7287,7 @@
       <c r="E106" s="23">
         <v>200</v>
       </c>
-      <c r="F106" s="37">
+      <c r="F106" s="36">
         <f t="shared" si="6"/>
         <v>283930000</v>
       </c>
@@ -7283,16 +7313,16 @@
       <c r="M106" s="20">
         <v>43556</v>
       </c>
-      <c r="N106" s="38">
+      <c r="N106" s="20">
         <v>43497</v>
       </c>
       <c r="O106" s="16"/>
-      <c r="P106" s="45"/>
-      <c r="Q106" s="49"/>
+      <c r="P106" s="43"/>
+      <c r="Q106" s="47"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36">
+    <row r="107" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="35">
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
@@ -7307,7 +7337,7 @@
       <c r="E107" s="23">
         <v>60</v>
       </c>
-      <c r="F107" s="37">
+      <c r="F107" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -7332,16 +7362,16 @@
       <c r="M107" s="20">
         <v>43556</v>
       </c>
-      <c r="N107" s="38">
+      <c r="N107" s="20">
         <v>43497</v>
       </c>
       <c r="O107" s="16"/>
-      <c r="P107" s="45"/>
-      <c r="Q107" s="49"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="47"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36">
+    <row r="108" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="35">
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
@@ -7356,7 +7386,7 @@
       <c r="E108" s="23">
         <v>76</v>
       </c>
-      <c r="F108" s="37">
+      <c r="F108" s="36">
         <f t="shared" si="6"/>
         <v>107893400</v>
       </c>
@@ -7381,16 +7411,16 @@
       <c r="M108" s="20">
         <v>43556</v>
       </c>
-      <c r="N108" s="38" t="s">
+      <c r="N108" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O108" s="16"/>
-      <c r="P108" s="45"/>
-      <c r="Q108" s="49"/>
+      <c r="P108" s="43"/>
+      <c r="Q108" s="47"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36">
+    <row r="109" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="35">
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -7405,7 +7435,7 @@
       <c r="E109" s="23">
         <v>60</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -7430,16 +7460,16 @@
       <c r="M109" s="20">
         <v>43739</v>
       </c>
-      <c r="N109" s="38" t="s">
+      <c r="N109" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O109" s="16"/>
-      <c r="P109" s="45"/>
-      <c r="Q109" s="49"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="47"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36">
+    <row r="110" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="35">
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
@@ -7454,7 +7484,7 @@
       <c r="E110" s="23">
         <v>60</v>
       </c>
-      <c r="F110" s="37">
+      <c r="F110" s="36">
         <f t="shared" si="6"/>
         <v>85179000</v>
       </c>
@@ -7479,16 +7509,16 @@
       <c r="M110" s="20">
         <v>43617</v>
       </c>
-      <c r="N110" s="38" t="s">
+      <c r="N110" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O110" s="16"/>
-      <c r="P110" s="45"/>
-      <c r="Q110" s="49"/>
+      <c r="P110" s="43"/>
+      <c r="Q110" s="47"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36">
+    <row r="111" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="35">
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
@@ -7503,7 +7533,7 @@
       <c r="E111" s="23">
         <v>36</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="36">
         <f t="shared" si="6"/>
         <v>51107400</v>
       </c>
@@ -7528,16 +7558,16 @@
       <c r="M111" s="20">
         <v>43647</v>
       </c>
-      <c r="N111" s="38" t="s">
+      <c r="N111" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O111" s="16"/>
-      <c r="P111" s="45"/>
-      <c r="Q111" s="49"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="47"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="36">
+    <row r="112" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="35">
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
@@ -7552,7 +7582,7 @@
       <c r="E112" s="23">
         <v>65</v>
       </c>
-      <c r="F112" s="37">
+      <c r="F112" s="36">
         <f t="shared" si="6"/>
         <v>92277250</v>
       </c>
@@ -7577,16 +7607,16 @@
       <c r="M112" s="20">
         <v>43497</v>
       </c>
-      <c r="N112" s="38">
+      <c r="N112" s="20">
         <v>43435</v>
       </c>
       <c r="O112" s="16"/>
-      <c r="P112" s="45"/>
-      <c r="Q112" s="49"/>
+      <c r="P112" s="43"/>
+      <c r="Q112" s="47"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36">
+    <row r="113" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="35">
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
@@ -7601,7 +7631,7 @@
       <c r="E113" s="23">
         <v>92</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="36">
         <f t="shared" si="6"/>
         <v>130607800</v>
       </c>
@@ -7626,18 +7656,18 @@
       <c r="M113" s="20">
         <v>43556</v>
       </c>
-      <c r="N113" s="38">
+      <c r="N113" s="20">
         <v>43405</v>
       </c>
       <c r="O113" s="16"/>
-      <c r="P113" s="45" t="s">
+      <c r="P113" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="Q113" s="49"/>
+      <c r="Q113" s="47"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
+    <row r="114" spans="1:18" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="35">
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -7652,7 +7682,7 @@
       <c r="E114" s="23">
         <v>160</v>
       </c>
-      <c r="F114" s="37">
+      <c r="F114" s="36">
         <f t="shared" ref="F114:F115" si="7">+E114*946485</f>
         <v>151437600</v>
       </c>
@@ -7678,18 +7708,18 @@
       <c r="M114" s="20">
         <v>43525</v>
       </c>
-      <c r="N114" s="38">
+      <c r="N114" s="20">
         <v>43405</v>
       </c>
       <c r="O114" s="16"/>
-      <c r="P114" s="45" t="s">
+      <c r="P114" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="Q114" s="49"/>
+      <c r="Q114" s="47"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
+    <row r="115" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="35">
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
@@ -7704,7 +7734,7 @@
       <c r="E115" s="23">
         <v>300</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F115" s="36">
         <f t="shared" si="7"/>
         <v>283945500</v>
       </c>
@@ -7729,16 +7759,16 @@
       <c r="M115" s="20">
         <v>43525</v>
       </c>
-      <c r="N115" s="38">
+      <c r="N115" s="20">
         <v>43435</v>
       </c>
-      <c r="O115" s="36"/>
-      <c r="P115" s="45"/>
-      <c r="Q115" s="49"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="43"/>
+      <c r="Q115" s="47"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
+    <row r="116" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="35">
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
@@ -7753,7 +7783,7 @@
       <c r="E116" s="23">
         <v>100</v>
       </c>
-      <c r="F116" s="37"/>
+      <c r="F116" s="36"/>
       <c r="G116" s="23">
         <v>0</v>
       </c>
@@ -7775,14 +7805,14 @@
       <c r="M116" s="20">
         <v>43525</v>
       </c>
-      <c r="N116" s="38"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="45"/>
-      <c r="Q116" s="49"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="35"/>
+      <c r="P116" s="43"/>
+      <c r="Q116" s="47"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36">
+    <row r="117" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="35">
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
@@ -7797,7 +7827,7 @@
       <c r="E117" s="23">
         <v>36</v>
       </c>
-      <c r="F117" s="37"/>
+      <c r="F117" s="36"/>
       <c r="G117" s="23">
         <v>0</v>
       </c>
@@ -7819,14 +7849,14 @@
       <c r="M117" s="20">
         <v>43739</v>
       </c>
-      <c r="N117" s="38"/>
-      <c r="O117" s="36"/>
-      <c r="P117" s="45"/>
-      <c r="Q117" s="49"/>
+      <c r="N117" s="20"/>
+      <c r="O117" s="35"/>
+      <c r="P117" s="43"/>
+      <c r="Q117" s="47"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="36">
+    <row r="118" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="35">
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
@@ -7841,7 +7871,7 @@
       <c r="E118" s="23">
         <v>320</v>
       </c>
-      <c r="F118" s="37"/>
+      <c r="F118" s="36"/>
       <c r="G118" s="23">
         <v>0</v>
       </c>
@@ -7863,14 +7893,14 @@
       <c r="M118" s="20">
         <v>43709</v>
       </c>
-      <c r="N118" s="38"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="45"/>
-      <c r="Q118" s="49"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="35"/>
+      <c r="P118" s="43"/>
+      <c r="Q118" s="47"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="36">
+    <row r="119" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="35">
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
@@ -7885,7 +7915,7 @@
       <c r="E119" s="23">
         <v>320</v>
       </c>
-      <c r="F119" s="37"/>
+      <c r="F119" s="36"/>
       <c r="G119" s="23">
         <v>0</v>
       </c>
@@ -7907,14 +7937,14 @@
       <c r="M119" s="20">
         <v>43678</v>
       </c>
-      <c r="N119" s="38"/>
-      <c r="O119" s="36"/>
-      <c r="P119" s="45"/>
-      <c r="Q119" s="49"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="43"/>
+      <c r="Q119" s="47"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="36">
+    <row r="120" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="35">
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -7929,7 +7959,7 @@
       <c r="E120" s="23">
         <v>65</v>
       </c>
-      <c r="F120" s="37"/>
+      <c r="F120" s="36"/>
       <c r="G120" s="23">
         <v>0</v>
       </c>
@@ -7951,14 +7981,14 @@
       <c r="M120" s="20">
         <v>43739</v>
       </c>
-      <c r="N120" s="38"/>
-      <c r="O120" s="36"/>
-      <c r="P120" s="45"/>
-      <c r="Q120" s="49"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="43"/>
+      <c r="Q120" s="47"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="36">
+    <row r="121" spans="1:18" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="35">
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
@@ -7973,7 +8003,7 @@
       <c r="E121" s="23">
         <v>90</v>
       </c>
-      <c r="F121" s="37"/>
+      <c r="F121" s="36"/>
       <c r="G121" s="23">
         <v>0</v>
       </c>
@@ -7995,104 +8025,104 @@
       <c r="M121" s="20">
         <v>43739</v>
       </c>
-      <c r="N121" s="38"/>
-      <c r="O121" s="36"/>
-      <c r="P121" s="45"/>
-      <c r="Q121" s="49"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="43"/>
+      <c r="Q121" s="47"/>
       <c r="R121" s="16"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="53" t="s">
+      <c r="A122" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="53"/>
-      <c r="M122" s="53"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="53"/>
-      <c r="P122" s="53"/>
-      <c r="Q122" s="40"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="51"/>
+      <c r="O122" s="51"/>
+      <c r="P122" s="51"/>
+      <c r="Q122" s="38"/>
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="53"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="53"/>
-      <c r="P123" s="53"/>
-      <c r="Q123" s="40"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="51"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
+      <c r="P123" s="51"/>
+      <c r="Q123" s="38"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
+      <c r="A125" s="40"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
+      <c r="A126" s="40"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
+      <c r="A127" s="40"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
+      <c r="A128" s="40"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="40"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
+      <c r="A130" s="40"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
+      <c r="A131" s="40"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
+      <c r="A132" s="40"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
+      <c r="A133" s="40"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
+      <c r="A134" s="40"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
+      <c r="A135" s="40"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
+      <c r="A136" s="40"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
+      <c r="A137" s="40"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
+      <c r="A138" s="40"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
+      <c r="A139" s="40"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
+      <c r="A140" s="40"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
+      <c r="A141" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}"/>
@@ -8500,15 +8530,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8962,15 +8992,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -8996,15 +9026,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -9076,15 +9106,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9317,15 +9347,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -9420,15 +9450,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -9627,18 +9657,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -9675,10 +9705,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="62"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -9717,16 +9747,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="64"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -9745,10 +9775,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E5E06-BD6F-46C0-916B-003A1FF084AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D5F828-E7E5-BF4F-8492-9720D1068A3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="394">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1396,6 +1395,9 @@
   <si>
     <t xml:space="preserve">Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes </t>
   </si>
+  <si>
+    <t>El Fondo de Adaptacion reporta que la dotacion la entrega la Gobernación de Bolívar, verificar con la regional</t>
+  </si>
 </sst>
 </file>
 
@@ -1405,7 +1407,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,6 +1473,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1705,7 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1885,6 +1893,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1901,6 +1912,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="CARLOS EDUARDO MADRID GOMEZ" id="{635DB611-C8C0-F041-97E8-AAC1CBABEC36}" userId="S::cmadrid97@upc.edu.co::d9b6251e-160e-43aa-b446-4c5392a2f64c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2166,38 +2183,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q129" sqref="Q129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="41" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="41" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="70.28515625" style="43" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" style="41" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="41" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49" style="41" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="41" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="70.33203125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="37.1640625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="47.5" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="49" style="41" customWidth="1"/>
     <col min="17" max="17" width="49" style="50" customWidth="1"/>
     <col min="18" max="18" width="94" style="41" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="41"/>
+    <col min="19" max="19" width="11.5" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="11.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>359</v>
       </c>
@@ -2205,7 +2223,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
     </row>
-    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -2257,7 +2275,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="176" hidden="1">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -2412,7 +2430,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="39" customFormat="1" ht="128" hidden="1">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -2465,7 +2483,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="39" customFormat="1" ht="48" hidden="1">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -2516,7 +2534,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="39" customFormat="1" ht="64" hidden="1">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -2565,7 +2583,7 @@
       <c r="Q8" s="47"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -2618,7 +2636,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="160" hidden="1">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -2773,7 +2791,7 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -2822,7 +2840,7 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -2929,7 +2947,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="80" hidden="1">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -2982,7 +3000,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -3031,7 +3049,7 @@
       <c r="Q17" s="47"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -3080,7 +3098,7 @@
       <c r="Q18" s="47"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="39" customFormat="1" ht="48" hidden="1">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -3129,7 +3147,7 @@
       <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -3178,7 +3196,7 @@
       <c r="Q20" s="47"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -3227,7 +3245,7 @@
       <c r="Q21" s="47"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -3276,7 +3294,7 @@
       <c r="Q22" s="47"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -3329,7 +3347,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -3378,7 +3396,7 @@
       <c r="Q24" s="49"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -3424,7 +3442,7 @@
       <c r="Q25" s="49"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -3470,7 +3488,7 @@
       <c r="Q26" s="49"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -3516,7 +3534,7 @@
       <c r="Q27" s="49"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -3562,7 +3580,7 @@
       <c r="Q28" s="49"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -3610,7 +3628,7 @@
       <c r="Q29" s="49"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -3656,7 +3674,7 @@
       <c r="Q30" s="49"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -3702,7 +3720,7 @@
       <c r="Q31" s="49"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -3748,7 +3766,7 @@
       <c r="Q32" s="49"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -3794,7 +3812,7 @@
       <c r="Q33" s="49"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -3840,7 +3858,7 @@
       <c r="Q34" s="49"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -3889,7 +3907,7 @@
       <c r="Q35" s="49"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="39" customFormat="1" ht="48" hidden="1">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -3937,7 +3955,7 @@
       <c r="Q36" s="49"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -3985,7 +4003,7 @@
       <c r="Q37" s="49"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -4033,7 +4051,7 @@
       <c r="Q38" s="49"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -4081,7 +4099,7 @@
       <c r="Q39" s="49"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -4130,7 +4148,7 @@
       <c r="Q40" s="49"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -4178,7 +4196,7 @@
       <c r="Q41" s="49"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -4226,7 +4244,7 @@
       <c r="Q42" s="49"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -4275,7 +4293,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -4323,7 +4341,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -4372,7 +4390,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -4420,7 +4438,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -4468,7 +4486,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="16"/>
     </row>
-    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -4516,7 +4534,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="16"/>
     </row>
-    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -4558,7 +4576,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -4607,7 +4625,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -4655,7 +4673,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -4703,7 +4721,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="16"/>
     </row>
-    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -4751,7 +4769,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -4799,7 +4817,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -4847,7 +4865,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -4895,7 +4913,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="39" customFormat="1" ht="96" hidden="1">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -4946,7 +4964,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="39" customFormat="1" ht="96" hidden="1">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -5048,7 +5066,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="39" customFormat="1" ht="96" hidden="1">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -5098,7 +5116,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -5151,7 +5169,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -5205,7 +5223,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -5254,7 +5272,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -5302,7 +5320,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A65" s="36">
         <v>64</v>
       </c>
@@ -5349,7 +5367,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="16"/>
     </row>
-    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -5395,7 +5413,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="16"/>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -5444,7 +5462,7 @@
       <c r="Q67" s="49"/>
       <c r="R67" s="16"/>
     </row>
-    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A68" s="36">
         <v>67</v>
       </c>
@@ -5490,7 +5508,7 @@
       <c r="Q68" s="49"/>
       <c r="R68" s="16"/>
     </row>
-    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A69" s="36">
         <v>68</v>
       </c>
@@ -5536,7 +5554,7 @@
       <c r="Q69" s="49"/>
       <c r="R69" s="16"/>
     </row>
-    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -5587,7 +5605,7 @@
       <c r="Q70" s="49"/>
       <c r="R70" s="16"/>
     </row>
-    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A71" s="36">
         <v>70</v>
       </c>
@@ -5636,7 +5654,7 @@
       <c r="Q71" s="49"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A72" s="36">
         <v>71</v>
       </c>
@@ -5685,7 +5703,7 @@
       <c r="Q72" s="49"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A73" s="36">
         <v>72</v>
       </c>
@@ -5734,7 +5752,7 @@
       <c r="Q73" s="49"/>
       <c r="R73" s="16"/>
     </row>
-    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A74" s="36">
         <v>73</v>
       </c>
@@ -5783,7 +5801,7 @@
       <c r="Q74" s="49"/>
       <c r="R74" s="16"/>
     </row>
-    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="39" customFormat="1" ht="34">
       <c r="A75" s="36">
         <v>74</v>
       </c>
@@ -5830,9 +5848,11 @@
       <c r="O75" s="16"/>
       <c r="P75" s="45"/>
       <c r="Q75" s="49"/>
-      <c r="R75" s="16"/>
-    </row>
-    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R75" s="65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="39" customFormat="1" ht="48">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -5879,9 +5899,11 @@
       <c r="O76" s="16"/>
       <c r="P76" s="45"/>
       <c r="Q76" s="49"/>
-      <c r="R76" s="16"/>
-    </row>
-    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -5930,7 +5952,7 @@
       <c r="Q77" s="49"/>
       <c r="R77" s="16"/>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A78" s="36">
         <v>77</v>
       </c>
@@ -5979,7 +6001,7 @@
       <c r="Q78" s="49"/>
       <c r="R78" s="16"/>
     </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A79" s="36">
         <v>78</v>
       </c>
@@ -6028,7 +6050,7 @@
       <c r="Q79" s="49"/>
       <c r="R79" s="16"/>
     </row>
-    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A80" s="36">
         <v>79</v>
       </c>
@@ -6077,7 +6099,7 @@
       <c r="Q80" s="49"/>
       <c r="R80" s="16"/>
     </row>
-    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A81" s="36">
         <v>80</v>
       </c>
@@ -6126,7 +6148,7 @@
       <c r="Q81" s="49"/>
       <c r="R81" s="16"/>
     </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A82" s="36">
         <v>81</v>
       </c>
@@ -6176,7 +6198,7 @@
       <c r="Q82" s="49"/>
       <c r="R82" s="16"/>
     </row>
-    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A83" s="36">
         <v>82</v>
       </c>
@@ -6225,7 +6247,7 @@
       <c r="Q83" s="49"/>
       <c r="R83" s="16"/>
     </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A84" s="36">
         <v>83</v>
       </c>
@@ -6274,7 +6296,7 @@
       <c r="Q84" s="49"/>
       <c r="R84" s="16"/>
     </row>
-    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A85" s="36">
         <v>84</v>
       </c>
@@ -6323,7 +6345,7 @@
       <c r="Q85" s="49"/>
       <c r="R85" s="16"/>
     </row>
-    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A86" s="36">
         <v>85</v>
       </c>
@@ -6372,7 +6394,7 @@
       <c r="Q86" s="49"/>
       <c r="R86" s="16"/>
     </row>
-    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A87" s="36">
         <v>86</v>
       </c>
@@ -6421,7 +6443,7 @@
       <c r="Q87" s="49"/>
       <c r="R87" s="16"/>
     </row>
-    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A88" s="36">
         <v>87</v>
       </c>
@@ -6470,7 +6492,7 @@
       <c r="Q88" s="49"/>
       <c r="R88" s="16"/>
     </row>
-    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6519,7 +6541,7 @@
       <c r="Q89" s="49"/>
       <c r="R89" s="16"/>
     </row>
-    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A90" s="36">
         <v>89</v>
       </c>
@@ -6568,7 +6590,7 @@
       <c r="Q90" s="49"/>
       <c r="R90" s="16"/>
     </row>
-    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A91" s="36">
         <v>90</v>
       </c>
@@ -6617,7 +6639,7 @@
       <c r="Q91" s="49"/>
       <c r="R91" s="16"/>
     </row>
-    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A92" s="36">
         <v>91</v>
       </c>
@@ -6666,7 +6688,7 @@
       <c r="Q92" s="49"/>
       <c r="R92" s="16"/>
     </row>
-    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A93" s="36">
         <v>92</v>
       </c>
@@ -6707,7 +6729,7 @@
       <c r="Q93" s="49"/>
       <c r="R93" s="16"/>
     </row>
-    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A94" s="36">
         <v>93</v>
       </c>
@@ -6748,7 +6770,7 @@
       <c r="Q94" s="49"/>
       <c r="R94" s="16"/>
     </row>
-    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -6789,7 +6811,7 @@
       <c r="Q95" s="49"/>
       <c r="R95" s="16"/>
     </row>
-    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A96" s="36">
         <v>95</v>
       </c>
@@ -6830,7 +6852,7 @@
       <c r="Q96" s="49"/>
       <c r="R96" s="16"/>
     </row>
-    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A97" s="36">
         <v>96</v>
       </c>
@@ -6871,7 +6893,7 @@
       <c r="Q97" s="49"/>
       <c r="R97" s="16"/>
     </row>
-    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A98" s="36">
         <v>97</v>
       </c>
@@ -6912,7 +6934,7 @@
       <c r="Q98" s="49"/>
       <c r="R98" s="16"/>
     </row>
-    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6953,7 +6975,7 @@
       <c r="Q99" s="49"/>
       <c r="R99" s="16"/>
     </row>
-    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -6994,7 +7016,7 @@
       <c r="Q100" s="49"/>
       <c r="R100" s="16"/>
     </row>
-    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -7045,7 +7067,7 @@
       <c r="Q101" s="49"/>
       <c r="R101" s="16"/>
     </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -7094,7 +7116,7 @@
       <c r="Q102" s="49"/>
       <c r="R102" s="16"/>
     </row>
-    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -7143,7 +7165,7 @@
       <c r="Q103" s="49"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -7192,7 +7214,7 @@
       <c r="Q104" s="49"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -7241,7 +7263,7 @@
       <c r="Q105" s="49"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -7291,7 +7313,7 @@
       <c r="Q106" s="49"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -7340,7 +7362,7 @@
       <c r="Q107" s="49"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -7389,7 +7411,7 @@
       <c r="Q108" s="49"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -7438,7 +7460,7 @@
       <c r="Q109" s="49"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -7487,7 +7509,7 @@
       <c r="Q110" s="49"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -7536,7 +7558,7 @@
       <c r="Q111" s="49"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A112" s="36">
         <v>111</v>
       </c>
@@ -7585,7 +7607,7 @@
       <c r="Q112" s="49"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A113" s="36">
         <v>112</v>
       </c>
@@ -7636,7 +7658,7 @@
       <c r="Q113" s="49"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A114" s="36">
         <v>113</v>
       </c>
@@ -7688,7 +7710,7 @@
       <c r="Q114" s="49"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A115" s="36">
         <v>114</v>
       </c>
@@ -7737,7 +7759,7 @@
       <c r="Q115" s="49"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A116" s="36">
         <v>115</v>
       </c>
@@ -7781,7 +7803,7 @@
       <c r="Q116" s="49"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A117" s="36">
         <v>116</v>
       </c>
@@ -7825,7 +7847,7 @@
       <c r="Q117" s="49"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A118" s="36">
         <v>117</v>
       </c>
@@ -7869,7 +7891,7 @@
       <c r="Q118" s="49"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A119" s="36">
         <v>118</v>
       </c>
@@ -7913,7 +7935,7 @@
       <c r="Q119" s="49"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A120" s="36">
         <v>119</v>
       </c>
@@ -7957,7 +7979,7 @@
       <c r="Q120" s="49"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
       <c r="A121" s="36">
         <v>120</v>
       </c>
@@ -8001,7 +8023,7 @@
       <c r="Q121" s="49"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1">
       <c r="A122" s="53" t="s">
         <v>241</v>
       </c>
@@ -8022,7 +8044,7 @@
       <c r="P122" s="53"/>
       <c r="Q122" s="40"/>
     </row>
-    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="53" t="s">
         <v>240</v>
       </c>
@@ -8043,59 +8065,66 @@
       <c r="P123" s="53"/>
       <c r="Q123" s="40"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" s="42"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" s="42"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" s="42"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" s="42"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="42"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="42"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="42"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="42"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="42"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="42"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="42"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="42"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="42"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="42"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="42"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="42"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}"/>
+  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Calamar"/>
+        <filter val="Soplaviento"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>
@@ -8114,12 +8143,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="64">
       <c r="B3" s="17" t="s">
         <v>358</v>
       </c>
@@ -8139,7 +8168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="16">
       <c r="B4" s="16" t="s">
         <v>345</v>
       </c>
@@ -8159,7 +8188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="16">
       <c r="B5" s="16" t="s">
         <v>346</v>
       </c>
@@ -8179,7 +8208,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="16">
       <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
@@ -8199,7 +8228,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="16">
       <c r="B7" s="16" t="s">
         <v>348</v>
       </c>
@@ -8219,7 +8248,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="16">
       <c r="B8" s="16" t="s">
         <v>349</v>
       </c>
@@ -8239,7 +8268,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="16">
       <c r="B9" s="16" t="s">
         <v>350</v>
       </c>
@@ -8259,7 +8288,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="16">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -8279,7 +8308,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="16">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -8299,7 +8328,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="16">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -8320,7 +8349,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="16">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -8334,7 +8363,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="16">
       <c r="B14" s="17" t="s">
         <v>329</v>
       </c>
@@ -8373,18 +8402,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +8436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="48">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -8430,7 +8459,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -8453,7 +8482,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -8476,7 +8505,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="32" hidden="1">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -8499,7 +8528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>277</v>
       </c>
@@ -8510,7 +8539,7 @@
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32" hidden="1">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -8533,7 +8562,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" hidden="1">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -8556,7 +8585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32" hidden="1">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -8579,7 +8608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32" hidden="1">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -8602,7 +8631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32" hidden="1">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -8625,7 +8654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32" hidden="1">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -8648,7 +8677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" hidden="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -8671,7 +8700,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" hidden="1">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8694,7 +8723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" hidden="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -8717,7 +8746,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" hidden="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -8740,7 +8769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" hidden="1">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -8763,7 +8792,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="32" hidden="1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -8786,7 +8815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32" hidden="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -8809,7 +8838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32" hidden="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8832,7 +8861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -8855,7 +8884,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32" hidden="1">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -8878,7 +8907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -8901,7 +8930,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="32" hidden="1">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -8951,17 +8980,17 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="57" t="s">
         <v>269</v>
       </c>
@@ -8972,7 +9001,7 @@
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -8995,7 +9024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="56" t="s">
         <v>278</v>
       </c>
@@ -9006,7 +9035,7 @@
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -9029,7 +9058,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -9052,7 +9081,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -9075,7 +9104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="56" t="s">
         <v>279</v>
       </c>
@@ -9086,7 +9115,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="32">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -9109,7 +9138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -9132,7 +9161,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -9155,7 +9184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -9178,7 +9207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -9201,7 +9230,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -9224,7 +9253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -9247,7 +9276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -9270,7 +9299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -9293,7 +9322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -9316,7 +9345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="56" t="s">
         <v>280</v>
       </c>
@@ -9327,7 +9356,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -9350,7 +9379,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -9373,7 +9402,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="32">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -9396,7 +9425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -9419,7 +9448,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="56" t="s">
         <v>281</v>
       </c>
@@ -9430,7 +9459,7 @@
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="64">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -9453,7 +9482,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="64">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -9476,7 +9505,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="64">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -9499,7 +9528,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="64">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -9522,7 +9551,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="64">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
@@ -9566,13 +9595,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>275</v>
       </c>
@@ -9580,7 +9609,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -9588,7 +9617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
@@ -9596,7 +9625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -9604,7 +9633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
@@ -9612,7 +9641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
@@ -9620,7 +9649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
@@ -9632,7 +9661,7 @@
       </c>
       <c r="E7" s="60"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="61" t="s">
@@ -9640,7 +9669,7 @@
       </c>
       <c r="E8" s="61"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>273</v>
       </c>
@@ -9654,7 +9683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
@@ -9668,7 +9697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
@@ -9680,7 +9709,7 @@
       </c>
       <c r="E11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
         <v>287</v>
       </c>
@@ -9688,7 +9717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
         <v>288</v>
       </c>
@@ -9696,7 +9725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
         <v>289</v>
       </c>
@@ -9704,7 +9733,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
         <v>290</v>
       </c>
@@ -9712,23 +9741,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="3" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5">
       <c r="D17" s="63" t="s">
         <v>270</v>
       </c>
       <c r="E17" s="63"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5">
       <c r="D18" s="64" t="s">
         <v>283</v>
       </c>
       <c r="E18" s="64"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>285</v>
       </c>
@@ -9736,7 +9765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>291</v>
       </c>
@@ -9744,13 +9773,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5">
       <c r="D21" s="59" t="s">
         <v>286</v>
       </c>
       <c r="E21" s="59"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5">
       <c r="D22" s="13" t="s">
         <v>288</v>
       </c>
@@ -9758,7 +9787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5">
       <c r="D23" s="13" t="s">
         <v>289</v>
       </c>
@@ -9766,7 +9795,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5">
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D5F828-E7E5-BF4F-8492-9720D1068A3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8968B3C-3AFF-4B90-88C0-9A381250E113}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1407,7 +1408,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1857,6 +1858,9 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1892,9 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2183,39 +2184,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q129" sqref="Q129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="41" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="32.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="70.33203125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="37.1640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="47.5" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="70.28515625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="41" customWidth="1"/>
     <col min="16" max="16" width="49" style="41" customWidth="1"/>
     <col min="17" max="17" width="49" style="50" customWidth="1"/>
     <col min="18" max="18" width="94" style="41" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="11.5" style="41"/>
+    <col min="19" max="19" width="11.42578125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1">
+    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>359</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
     </row>
-    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1">
+    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1">
+    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="176" hidden="1">
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" ht="128" hidden="1">
+    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="39" customFormat="1" ht="48" hidden="1">
+    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="39" customFormat="1" ht="64" hidden="1">
+    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="Q8" s="47"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="160" hidden="1">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" hidden="1" customHeight="1">
+    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="80" hidden="1">
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="Q17" s="47"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="Q18" s="47"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="48" hidden="1">
+    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="Q20" s="47"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="Q21" s="47"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="Q22" s="47"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="Q24" s="49"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="25" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>292</v>
       </c>
       <c r="E25" s="23">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23">
@@ -3442,7 +3442,7 @@
       <c r="Q25" s="49"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>254</v>
       </c>
       <c r="E26" s="23">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23">
@@ -3488,7 +3488,7 @@
       <c r="Q26" s="49"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="Q27" s="49"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="28" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>72</v>
       </c>
       <c r="E28" s="23">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23">
@@ -3580,7 +3580,7 @@
       <c r="Q28" s="49"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="29" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="Q29" s="49"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="30" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="23">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23">
@@ -3674,7 +3674,7 @@
       <c r="Q30" s="49"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="31" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>74</v>
       </c>
       <c r="E31" s="23">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23">
@@ -3720,7 +3720,7 @@
       <c r="Q31" s="49"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="32" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>297</v>
       </c>
       <c r="E32" s="23">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23">
@@ -3766,7 +3766,7 @@
       <c r="Q32" s="49"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="33" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="23">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23">
@@ -3812,7 +3812,7 @@
       <c r="Q33" s="49"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="34" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>298</v>
       </c>
       <c r="E34" s="23">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23">
@@ -3858,7 +3858,7 @@
       <c r="Q34" s="49"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="Q35" s="49"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="39" customFormat="1" ht="48" hidden="1">
+    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="Q36" s="49"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="Q37" s="49"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="Q38" s="49"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="Q39" s="49"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="Q40" s="49"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="Q41" s="49"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="Q42" s="49"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -4486,7 +4486,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="16"/>
     </row>
-    <row r="48" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="16"/>
     </row>
-    <row r="49" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="16"/>
     </row>
-    <row r="53" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" ht="96" hidden="1">
+    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" ht="96" hidden="1">
+    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" ht="96" hidden="1">
+    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>64</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="16"/>
     </row>
-    <row r="66" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="16"/>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="Q67" s="49"/>
       <c r="R67" s="16"/>
     </row>
-    <row r="68" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>67</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="Q68" s="49"/>
       <c r="R68" s="16"/>
     </row>
-    <row r="69" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>68</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="Q69" s="49"/>
       <c r="R69" s="16"/>
     </row>
-    <row r="70" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="Q70" s="49"/>
       <c r="R70" s="16"/>
     </row>
-    <row r="71" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>70</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="Q71" s="49"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>71</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="Q72" s="49"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>72</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="Q73" s="49"/>
       <c r="R73" s="16"/>
     </row>
-    <row r="74" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>73</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="Q74" s="49"/>
       <c r="R74" s="16"/>
     </row>
-    <row r="75" spans="1:18" s="39" customFormat="1" ht="34">
+    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>74</v>
       </c>
@@ -5848,11 +5848,11 @@
       <c r="O75" s="16"/>
       <c r="P75" s="45"/>
       <c r="Q75" s="49"/>
-      <c r="R75" s="65" t="s">
+      <c r="R75" s="53" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="39" customFormat="1" ht="48">
+    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -5899,11 +5899,11 @@
       <c r="O76" s="16"/>
       <c r="P76" s="45"/>
       <c r="Q76" s="49"/>
-      <c r="R76" s="65" t="s">
+      <c r="R76" s="53" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="Q77" s="49"/>
       <c r="R77" s="16"/>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>77</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="Q78" s="49"/>
       <c r="R78" s="16"/>
     </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>78</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="Q79" s="49"/>
       <c r="R79" s="16"/>
     </row>
-    <row r="80" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>79</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="Q80" s="49"/>
       <c r="R80" s="16"/>
     </row>
-    <row r="81" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>80</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="Q81" s="49"/>
       <c r="R81" s="16"/>
     </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>81</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="Q82" s="49"/>
       <c r="R82" s="16"/>
     </row>
-    <row r="83" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>82</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="Q83" s="49"/>
       <c r="R83" s="16"/>
     </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>83</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="Q84" s="49"/>
       <c r="R84" s="16"/>
     </row>
-    <row r="85" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>84</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="Q85" s="49"/>
       <c r="R85" s="16"/>
     </row>
-    <row r="86" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>85</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="Q86" s="49"/>
       <c r="R86" s="16"/>
     </row>
-    <row r="87" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>86</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="Q87" s="49"/>
       <c r="R87" s="16"/>
     </row>
-    <row r="88" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>87</v>
       </c>
@@ -6492,7 +6492,7 @@
       <c r="Q88" s="49"/>
       <c r="R88" s="16"/>
     </row>
-    <row r="89" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="Q89" s="49"/>
       <c r="R89" s="16"/>
     </row>
-    <row r="90" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>89</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="Q90" s="49"/>
       <c r="R90" s="16"/>
     </row>
-    <row r="91" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>90</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="Q91" s="49"/>
       <c r="R91" s="16"/>
     </row>
-    <row r="92" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>91</v>
       </c>
@@ -6688,7 +6688,7 @@
       <c r="Q92" s="49"/>
       <c r="R92" s="16"/>
     </row>
-    <row r="93" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>92</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="Q93" s="49"/>
       <c r="R93" s="16"/>
     </row>
-    <row r="94" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>93</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="Q94" s="49"/>
       <c r="R94" s="16"/>
     </row>
-    <row r="95" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="Q95" s="49"/>
       <c r="R95" s="16"/>
     </row>
-    <row r="96" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>95</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="Q96" s="49"/>
       <c r="R96" s="16"/>
     </row>
-    <row r="97" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>96</v>
       </c>
@@ -6893,7 +6893,7 @@
       <c r="Q97" s="49"/>
       <c r="R97" s="16"/>
     </row>
-    <row r="98" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>97</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="Q98" s="49"/>
       <c r="R98" s="16"/>
     </row>
-    <row r="99" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6975,7 +6975,7 @@
       <c r="Q99" s="49"/>
       <c r="R99" s="16"/>
     </row>
-    <row r="100" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="Q100" s="49"/>
       <c r="R100" s="16"/>
     </row>
-    <row r="101" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="Q101" s="49"/>
       <c r="R101" s="16"/>
     </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="Q102" s="49"/>
       <c r="R102" s="16"/>
     </row>
-    <row r="103" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="Q103" s="49"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -7214,7 +7214,7 @@
       <c r="Q104" s="49"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="Q105" s="49"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="Q106" s="49"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="Q107" s="49"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="Q108" s="49"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -7460,7 +7460,7 @@
       <c r="Q109" s="49"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="Q110" s="49"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="Q111" s="49"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <v>111</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="Q112" s="49"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>112</v>
       </c>
@@ -7658,7 +7658,7 @@
       <c r="Q113" s="49"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>113</v>
       </c>
@@ -7710,7 +7710,7 @@
       <c r="Q114" s="49"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
         <v>114</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="Q115" s="49"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>115</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="Q116" s="49"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>116</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="Q117" s="49"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>117</v>
       </c>
@@ -7891,7 +7891,7 @@
       <c r="Q118" s="49"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <v>118</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="Q119" s="49"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <v>119</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="Q120" s="49"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18" s="39" customFormat="1" ht="16" hidden="1">
+    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <v>120</v>
       </c>
@@ -8023,108 +8023,101 @@
       <c r="Q121" s="49"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18" hidden="1">
-      <c r="A122" s="53" t="s">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="53"/>
-      <c r="M122" s="53"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="53"/>
-      <c r="P122" s="53"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="54"/>
+      <c r="O122" s="54"/>
+      <c r="P122" s="54"/>
       <c r="Q122" s="40"/>
     </row>
-    <row r="123" spans="1:18" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="53" t="s">
+    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="53"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="53"/>
-      <c r="P123" s="53"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
+      <c r="P123" s="54"/>
       <c r="Q123" s="40"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Calamar"/>
-        <filter val="Soplaviento"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}"/>
   <mergeCells count="2">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>
@@ -8143,12 +8136,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="64">
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>358</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>345</v>
       </c>
@@ -8188,7 +8181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>346</v>
       </c>
@@ -8208,7 +8201,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
@@ -8228,7 +8221,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>348</v>
       </c>
@@ -8248,7 +8241,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>349</v>
       </c>
@@ -8268,7 +8261,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>350</v>
       </c>
@@ -8288,7 +8281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -8308,7 +8301,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -8328,7 +8321,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -8349,7 +8342,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -8363,7 +8356,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" ht="16">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>329</v>
       </c>
@@ -8402,18 +8395,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8436,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -8459,7 +8452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -8482,7 +8475,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -8505,7 +8498,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" hidden="1">
+    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -8528,18 +8521,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" hidden="1">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -8562,7 +8555,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" hidden="1">
+    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -8585,7 +8578,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" hidden="1">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -8608,7 +8601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" hidden="1">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -8631,7 +8624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32" hidden="1">
+    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -8654,7 +8647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" hidden="1">
+    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -8677,7 +8670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" hidden="1">
+    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -8700,7 +8693,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" hidden="1">
+    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8723,7 +8716,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32" hidden="1">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -8746,7 +8739,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" hidden="1">
+    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -8769,7 +8762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" hidden="1">
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -8792,7 +8785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32" hidden="1">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -8815,7 +8808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" hidden="1">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -8838,7 +8831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32" hidden="1">
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8861,7 +8854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -8884,7 +8877,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" hidden="1">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -8907,7 +8900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="48">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -8930,7 +8923,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" hidden="1">
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -8980,28 +8973,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="2" spans="1:7" ht="32">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -9024,18 +9017,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:7" ht="32">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -9058,7 +9051,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -9081,7 +9074,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -9104,18 +9097,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:7" ht="32">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -9138,7 +9131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -9161,7 +9154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -9184,7 +9177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -9207,7 +9200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -9230,7 +9223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -9253,7 +9246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -9276,7 +9269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -9299,7 +9292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -9322,7 +9315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -9345,18 +9338,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-    </row>
-    <row r="19" spans="1:7" ht="32">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -9379,7 +9372,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -9402,7 +9395,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -9425,7 +9418,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -9448,18 +9441,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-    </row>
-    <row r="24" spans="1:7" ht="64">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -9482,7 +9475,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="64">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -9505,7 +9498,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="64">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -9528,7 +9521,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="64">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -9551,7 +9544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="64">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
@@ -9595,13 +9588,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>275</v>
       </c>
@@ -9609,7 +9602,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -9617,7 +9610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
@@ -9625,7 +9618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -9633,7 +9626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
@@ -9641,7 +9634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
@@ -9649,27 +9642,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>273</v>
       </c>
@@ -9683,7 +9676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
@@ -9697,19 +9690,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="62"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="63"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
         <v>287</v>
       </c>
@@ -9717,7 +9710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
         <v>288</v>
       </c>
@@ -9725,7 +9718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>289</v>
       </c>
@@ -9733,7 +9726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>290</v>
       </c>
@@ -9741,23 +9734,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1">
+    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="63" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="63"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="64" t="s">
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="64"/>
-    </row>
-    <row r="19" spans="4:5">
+      <c r="E18" s="65"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
         <v>285</v>
       </c>
@@ -9765,7 +9758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>291</v>
       </c>
@@ -9773,13 +9766,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="59" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="59"/>
-    </row>
-    <row r="22" spans="4:5">
+      <c r="E21" s="60"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>288</v>
       </c>
@@ -9787,7 +9780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>289</v>
       </c>
@@ -9795,7 +9788,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8968B3C-3AFF-4B90-88C0-9A381250E113}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22876CA0-F21C-4F23-A59E-4C89E022449B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$S$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$R$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1714,7 +1714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1862,6 +1862,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2187,8 +2190,8 @@
   <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,9 +2219,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="55" t="s">
         <v>359</v>
       </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
@@ -5610,7 +5618,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>152</v>
@@ -5659,7 +5667,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>152</v>
@@ -5708,7 +5716,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>152</v>
@@ -5757,7 +5765,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>153</v>
@@ -8117,10 +8125,11 @@
       <c r="A141" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}"/>
-  <mergeCells count="2">
+  <autoFilter ref="A2:R123" xr:uid="{68249E32-9CD4-4657-B53C-CD840D4778EF}"/>
+  <mergeCells count="3">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8522,15 +8531,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8984,15 +8993,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9018,15 +9027,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -9098,15 +9107,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9339,15 +9348,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -9442,15 +9451,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -9649,18 +9658,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -9697,10 +9706,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="63"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -9739,16 +9748,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="64"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -9767,10 +9776,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="60"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8968B3C-3AFF-4B90-88C0-9A381250E113}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666159AF-CDAF-464E-83A8-BECA1B54962C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,7 +1714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1896,6 +1896,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2184,11 +2187,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2279,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -2483,7 +2487,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -2583,7 +2587,7 @@
       <c r="Q8" s="47"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -2840,7 +2844,7 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -2894,7 +2898,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -3049,7 +3053,7 @@
       <c r="Q17" s="47"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -3098,7 +3102,7 @@
       <c r="Q18" s="47"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -3147,7 +3151,7 @@
       <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -3196,7 +3200,7 @@
       <c r="Q20" s="47"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -3245,7 +3249,7 @@
       <c r="Q21" s="47"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -3294,7 +3298,7 @@
       <c r="Q22" s="47"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -3452,7 +3456,7 @@
       <c r="C26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="66" t="s">
         <v>254</v>
       </c>
       <c r="E26" s="23">
@@ -3488,7 +3492,7 @@
       <c r="Q26" s="49"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -3858,7 +3862,7 @@
       <c r="Q34" s="49"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -3907,7 +3911,7 @@
       <c r="Q35" s="49"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -3955,7 +3959,7 @@
       <c r="Q36" s="49"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -4003,7 +4007,7 @@
       <c r="Q37" s="49"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -4051,7 +4055,7 @@
       <c r="Q38" s="49"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -4099,7 +4103,7 @@
       <c r="Q39" s="49"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -4148,7 +4152,7 @@
       <c r="Q40" s="49"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -4196,7 +4200,7 @@
       <c r="Q41" s="49"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="Q42" s="49"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -4293,7 +4297,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -4341,7 +4345,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -4390,7 +4394,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -4438,7 +4442,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -4486,7 +4490,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="16"/>
     </row>
-    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -4534,7 +4538,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="16"/>
     </row>
-    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -4576,7 +4580,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -4625,7 +4629,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -4673,7 +4677,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -4721,7 +4725,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="16"/>
     </row>
-    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -4769,7 +4773,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -4817,7 +4821,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -4865,7 +4869,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -4913,7 +4917,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -5014,7 +5018,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -5223,7 +5227,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -5272,7 +5276,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -5320,7 +5324,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>64</v>
       </c>
@@ -5367,7 +5371,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="16"/>
     </row>
-    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -5413,7 +5417,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="16"/>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -5462,7 +5466,7 @@
       <c r="Q67" s="49"/>
       <c r="R67" s="16"/>
     </row>
-    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>67</v>
       </c>
@@ -5508,7 +5512,7 @@
       <c r="Q68" s="49"/>
       <c r="R68" s="16"/>
     </row>
-    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>68</v>
       </c>
@@ -5554,7 +5558,7 @@
       <c r="Q69" s="49"/>
       <c r="R69" s="16"/>
     </row>
-    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -5605,7 +5609,7 @@
       <c r="Q70" s="49"/>
       <c r="R70" s="16"/>
     </row>
-    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>70</v>
       </c>
@@ -5654,7 +5658,7 @@
       <c r="Q71" s="49"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>71</v>
       </c>
@@ -5703,7 +5707,7 @@
       <c r="Q72" s="49"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>72</v>
       </c>
@@ -5752,7 +5756,7 @@
       <c r="Q73" s="49"/>
       <c r="R73" s="16"/>
     </row>
-    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>73</v>
       </c>
@@ -5801,7 +5805,7 @@
       <c r="Q74" s="49"/>
       <c r="R74" s="16"/>
     </row>
-    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>74</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -5952,7 +5956,7 @@
       <c r="Q77" s="49"/>
       <c r="R77" s="16"/>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>77</v>
       </c>
@@ -6001,7 +6005,7 @@
       <c r="Q78" s="49"/>
       <c r="R78" s="16"/>
     </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>78</v>
       </c>
@@ -6050,7 +6054,7 @@
       <c r="Q79" s="49"/>
       <c r="R79" s="16"/>
     </row>
-    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>79</v>
       </c>
@@ -6099,7 +6103,7 @@
       <c r="Q80" s="49"/>
       <c r="R80" s="16"/>
     </row>
-    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>80</v>
       </c>
@@ -6148,7 +6152,7 @@
       <c r="Q81" s="49"/>
       <c r="R81" s="16"/>
     </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>81</v>
       </c>
@@ -6198,7 +6202,7 @@
       <c r="Q82" s="49"/>
       <c r="R82" s="16"/>
     </row>
-    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>82</v>
       </c>
@@ -6247,7 +6251,7 @@
       <c r="Q83" s="49"/>
       <c r="R83" s="16"/>
     </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>83</v>
       </c>
@@ -6296,7 +6300,7 @@
       <c r="Q84" s="49"/>
       <c r="R84" s="16"/>
     </row>
-    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>84</v>
       </c>
@@ -6345,7 +6349,7 @@
       <c r="Q85" s="49"/>
       <c r="R85" s="16"/>
     </row>
-    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>85</v>
       </c>
@@ -6394,7 +6398,7 @@
       <c r="Q86" s="49"/>
       <c r="R86" s="16"/>
     </row>
-    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>86</v>
       </c>
@@ -6443,7 +6447,7 @@
       <c r="Q87" s="49"/>
       <c r="R87" s="16"/>
     </row>
-    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>87</v>
       </c>
@@ -6492,7 +6496,7 @@
       <c r="Q88" s="49"/>
       <c r="R88" s="16"/>
     </row>
-    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6541,7 +6545,7 @@
       <c r="Q89" s="49"/>
       <c r="R89" s="16"/>
     </row>
-    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>89</v>
       </c>
@@ -6590,7 +6594,7 @@
       <c r="Q90" s="49"/>
       <c r="R90" s="16"/>
     </row>
-    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>90</v>
       </c>
@@ -6639,7 +6643,7 @@
       <c r="Q91" s="49"/>
       <c r="R91" s="16"/>
     </row>
-    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>91</v>
       </c>
@@ -6688,7 +6692,7 @@
       <c r="Q92" s="49"/>
       <c r="R92" s="16"/>
     </row>
-    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>92</v>
       </c>
@@ -6729,7 +6733,7 @@
       <c r="Q93" s="49"/>
       <c r="R93" s="16"/>
     </row>
-    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>93</v>
       </c>
@@ -6770,7 +6774,7 @@
       <c r="Q94" s="49"/>
       <c r="R94" s="16"/>
     </row>
-    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -6811,7 +6815,7 @@
       <c r="Q95" s="49"/>
       <c r="R95" s="16"/>
     </row>
-    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>95</v>
       </c>
@@ -6852,7 +6856,7 @@
       <c r="Q96" s="49"/>
       <c r="R96" s="16"/>
     </row>
-    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>96</v>
       </c>
@@ -6893,7 +6897,7 @@
       <c r="Q97" s="49"/>
       <c r="R97" s="16"/>
     </row>
-    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>97</v>
       </c>
@@ -6934,7 +6938,7 @@
       <c r="Q98" s="49"/>
       <c r="R98" s="16"/>
     </row>
-    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6975,7 +6979,7 @@
       <c r="Q99" s="49"/>
       <c r="R99" s="16"/>
     </row>
-    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -7016,7 +7020,7 @@
       <c r="Q100" s="49"/>
       <c r="R100" s="16"/>
     </row>
-    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -7067,7 +7071,7 @@
       <c r="Q101" s="49"/>
       <c r="R101" s="16"/>
     </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -7116,7 +7120,7 @@
       <c r="Q102" s="49"/>
       <c r="R102" s="16"/>
     </row>
-    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -7165,7 +7169,7 @@
       <c r="Q103" s="49"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -7214,7 +7218,7 @@
       <c r="Q104" s="49"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -7263,7 +7267,7 @@
       <c r="Q105" s="49"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -7313,7 +7317,7 @@
       <c r="Q106" s="49"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -7362,7 +7366,7 @@
       <c r="Q107" s="49"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -7411,7 +7415,7 @@
       <c r="Q108" s="49"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -7460,7 +7464,7 @@
       <c r="Q109" s="49"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -7509,7 +7513,7 @@
       <c r="Q110" s="49"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -7558,7 +7562,7 @@
       <c r="Q111" s="49"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <v>111</v>
       </c>
@@ -7607,7 +7611,7 @@
       <c r="Q112" s="49"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>112</v>
       </c>
@@ -7658,7 +7662,7 @@
       <c r="Q113" s="49"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>113</v>
       </c>
@@ -7710,7 +7714,7 @@
       <c r="Q114" s="49"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
         <v>114</v>
       </c>
@@ -7759,7 +7763,7 @@
       <c r="Q115" s="49"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>115</v>
       </c>
@@ -7803,7 +7807,7 @@
       <c r="Q116" s="49"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>116</v>
       </c>
@@ -7847,7 +7851,7 @@
       <c r="Q117" s="49"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>117</v>
       </c>
@@ -7891,7 +7895,7 @@
       <c r="Q118" s="49"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <v>118</v>
       </c>
@@ -7935,7 +7939,7 @@
       <c r="Q119" s="49"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <v>119</v>
       </c>
@@ -7979,7 +7983,7 @@
       <c r="Q120" s="49"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <v>120</v>
       </c>
@@ -8023,7 +8027,7 @@
       <c r="Q121" s="49"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="54" t="s">
         <v>241</v>
       </c>
@@ -8044,7 +8048,7 @@
       <c r="P122" s="54"/>
       <c r="Q122" s="40"/>
     </row>
-    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>240</v>
       </c>
@@ -8117,7 +8121,21 @@
       <c r="A141" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}"/>
+  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Atlántico"/>
+        <filter val="Atlántico "/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Malambo"/>
+        <filter val="Palmar de Varela"/>
+        <filter val="Soledad"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666159AF-CDAF-464E-83A8-BECA1B54962C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E5C2B-D0C0-438A-9B50-936311521DCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,7 +1714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1861,6 +1861,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1897,7 +1900,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2190,9 +2193,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,9 +2223,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="67" t="s">
         <v>359</v>
       </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
@@ -3456,7 +3463,7 @@
       <c r="C26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="54" t="s">
         <v>254</v>
       </c>
       <c r="E26" s="23">
@@ -3492,7 +3499,7 @@
       <c r="Q26" s="49"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -5609,12 +5616,12 @@
       <c r="Q70" s="49"/>
       <c r="R70" s="16"/>
     </row>
-    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>152</v>
@@ -5658,12 +5665,12 @@
       <c r="Q71" s="49"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>152</v>
@@ -5707,12 +5714,12 @@
       <c r="Q72" s="49"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>152</v>
@@ -5756,12 +5763,12 @@
       <c r="Q73" s="49"/>
       <c r="R73" s="16"/>
     </row>
-    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>153</v>
@@ -8028,45 +8035,45 @@
       <c r="R121" s="16"/>
     </row>
     <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="54" t="s">
+      <c r="A122" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="54"/>
-      <c r="O122" s="54"/>
-      <c r="P122" s="54"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="55"/>
+      <c r="M122" s="55"/>
+      <c r="N122" s="55"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="55"/>
       <c r="Q122" s="40"/>
     </row>
     <row r="123" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="54"/>
-      <c r="P123" s="54"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
+      <c r="L123" s="55"/>
+      <c r="M123" s="55"/>
+      <c r="N123" s="55"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="55"/>
       <c r="Q123" s="40"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8121,24 +8128,18 @@
       <c r="A141" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S123" xr:uid="{7F8CB040-DDD9-4DAB-9E38-C8DD9F64E630}">
+  <autoFilter ref="A2:S123" xr:uid="{86055434-BEF0-4C37-8FD0-1DD243E3A7C1}">
     <filterColumn colId="1">
       <filters>
         <filter val="Atlántico"/>
         <filter val="Atlántico "/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Malambo"/>
-        <filter val="Palmar de Varela"/>
-        <filter val="Soledad"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8540,15 +8541,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9002,15 +9003,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9036,15 +9037,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -9116,15 +9117,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9357,15 +9358,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -9460,15 +9461,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -9667,18 +9668,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -9715,10 +9716,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="63"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -9757,16 +9758,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="64"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -9785,10 +9786,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="60"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E5C2B-D0C0-438A-9B50-936311521DCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C3CD-7845-45DA-9F65-C3670D374829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="396">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1398,6 +1398,12 @@
   </si>
   <si>
     <t>El Fondo de Adaptacion reporta que la dotacion la entrega la Gobernación de Bolívar, verificar con la regional</t>
+  </si>
+  <si>
+    <t>Solicitada a Capital social</t>
+  </si>
+  <si>
+    <t>Existe una carta de compromiso de la Gobernación</t>
   </si>
 </sst>
 </file>
@@ -1867,6 +1873,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,9 +1908,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2190,12 +2196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,13 +2228,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
@@ -2286,7 +2291,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -2339,7 +2344,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -2594,7 +2599,7 @@
       <c r="Q8" s="47"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -2802,7 +2807,7 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -2851,7 +2856,7 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -3011,7 +3016,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -3060,7 +3065,7 @@
       <c r="Q17" s="47"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -3109,7 +3114,7 @@
       <c r="Q18" s="47"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -3158,7 +3163,7 @@
       <c r="Q19" s="47"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -3207,7 +3212,7 @@
       <c r="Q20" s="47"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -3256,7 +3261,7 @@
       <c r="Q21" s="47"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -3305,7 +3310,7 @@
       <c r="Q22" s="47"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -3869,7 +3874,7 @@
       <c r="Q34" s="49"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -3918,7 +3923,7 @@
       <c r="Q35" s="49"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -3966,7 +3971,7 @@
       <c r="Q36" s="49"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -4014,7 +4019,7 @@
       <c r="Q37" s="49"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -4062,7 +4067,7 @@
       <c r="Q38" s="49"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -4110,7 +4115,7 @@
       <c r="Q39" s="49"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -4159,7 +4164,7 @@
       <c r="Q40" s="49"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -4207,7 +4212,7 @@
       <c r="Q41" s="49"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -4255,7 +4260,7 @@
       <c r="Q42" s="49"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -4304,7 +4309,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -4352,7 +4357,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -4401,7 +4406,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -4449,7 +4454,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -4497,7 +4502,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="16"/>
     </row>
-    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -4545,7 +4550,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="16"/>
     </row>
-    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -4587,7 +4592,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="16"/>
     </row>
-    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -4636,7 +4641,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -4684,7 +4689,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -4732,7 +4737,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="16"/>
     </row>
-    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -4780,7 +4785,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -4828,7 +4833,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -4876,7 +4881,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -4924,7 +4929,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -4975,7 +4980,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -5127,7 +5132,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -5283,7 +5288,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -5331,7 +5336,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>64</v>
       </c>
@@ -5378,7 +5383,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="16"/>
     </row>
-    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -5424,7 +5429,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="16"/>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -5473,7 +5478,7 @@
       <c r="Q67" s="49"/>
       <c r="R67" s="16"/>
     </row>
-    <row r="68" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>67</v>
       </c>
@@ -5519,7 +5524,7 @@
       <c r="Q68" s="49"/>
       <c r="R68" s="16"/>
     </row>
-    <row r="69" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>68</v>
       </c>
@@ -5565,7 +5570,7 @@
       <c r="Q69" s="49"/>
       <c r="R69" s="16"/>
     </row>
-    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -5662,8 +5667,12 @@
       </c>
       <c r="O71" s="16"/>
       <c r="P71" s="45"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="16"/>
+      <c r="Q71" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R71" s="16" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
@@ -5711,8 +5720,12 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="45"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="16"/>
+      <c r="Q72" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R72" s="16" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
@@ -5760,8 +5773,12 @@
       </c>
       <c r="O73" s="16"/>
       <c r="P73" s="45"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="16"/>
+      <c r="Q73" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R73" s="16" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
@@ -5809,10 +5826,14 @@
       </c>
       <c r="O74" s="16"/>
       <c r="P74" s="45"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="16"/>
-    </row>
-    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R74" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>74</v>
       </c>
@@ -5863,7 +5884,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -5914,7 +5935,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -5963,7 +5984,7 @@
       <c r="Q77" s="49"/>
       <c r="R77" s="16"/>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>77</v>
       </c>
@@ -6012,7 +6033,7 @@
       <c r="Q78" s="49"/>
       <c r="R78" s="16"/>
     </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>78</v>
       </c>
@@ -6061,7 +6082,7 @@
       <c r="Q79" s="49"/>
       <c r="R79" s="16"/>
     </row>
-    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>79</v>
       </c>
@@ -6110,7 +6131,7 @@
       <c r="Q80" s="49"/>
       <c r="R80" s="16"/>
     </row>
-    <row r="81" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>80</v>
       </c>
@@ -6159,7 +6180,7 @@
       <c r="Q81" s="49"/>
       <c r="R81" s="16"/>
     </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>81</v>
       </c>
@@ -6209,7 +6230,7 @@
       <c r="Q82" s="49"/>
       <c r="R82" s="16"/>
     </row>
-    <row r="83" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>82</v>
       </c>
@@ -6258,7 +6279,7 @@
       <c r="Q83" s="49"/>
       <c r="R83" s="16"/>
     </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>83</v>
       </c>
@@ -6307,7 +6328,7 @@
       <c r="Q84" s="49"/>
       <c r="R84" s="16"/>
     </row>
-    <row r="85" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>84</v>
       </c>
@@ -6356,7 +6377,7 @@
       <c r="Q85" s="49"/>
       <c r="R85" s="16"/>
     </row>
-    <row r="86" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>85</v>
       </c>
@@ -6405,7 +6426,7 @@
       <c r="Q86" s="49"/>
       <c r="R86" s="16"/>
     </row>
-    <row r="87" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>86</v>
       </c>
@@ -6454,7 +6475,7 @@
       <c r="Q87" s="49"/>
       <c r="R87" s="16"/>
     </row>
-    <row r="88" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>87</v>
       </c>
@@ -6503,7 +6524,7 @@
       <c r="Q88" s="49"/>
       <c r="R88" s="16"/>
     </row>
-    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6552,7 +6573,7 @@
       <c r="Q89" s="49"/>
       <c r="R89" s="16"/>
     </row>
-    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>89</v>
       </c>
@@ -6601,7 +6622,7 @@
       <c r="Q90" s="49"/>
       <c r="R90" s="16"/>
     </row>
-    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>90</v>
       </c>
@@ -6650,7 +6671,7 @@
       <c r="Q91" s="49"/>
       <c r="R91" s="16"/>
     </row>
-    <row r="92" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>91</v>
       </c>
@@ -6699,7 +6720,7 @@
       <c r="Q92" s="49"/>
       <c r="R92" s="16"/>
     </row>
-    <row r="93" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>92</v>
       </c>
@@ -6740,7 +6761,7 @@
       <c r="Q93" s="49"/>
       <c r="R93" s="16"/>
     </row>
-    <row r="94" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>93</v>
       </c>
@@ -6781,7 +6802,7 @@
       <c r="Q94" s="49"/>
       <c r="R94" s="16"/>
     </row>
-    <row r="95" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -6822,7 +6843,7 @@
       <c r="Q95" s="49"/>
       <c r="R95" s="16"/>
     </row>
-    <row r="96" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>95</v>
       </c>
@@ -6863,7 +6884,7 @@
       <c r="Q96" s="49"/>
       <c r="R96" s="16"/>
     </row>
-    <row r="97" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>96</v>
       </c>
@@ -6904,7 +6925,7 @@
       <c r="Q97" s="49"/>
       <c r="R97" s="16"/>
     </row>
-    <row r="98" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>97</v>
       </c>
@@ -6945,7 +6966,7 @@
       <c r="Q98" s="49"/>
       <c r="R98" s="16"/>
     </row>
-    <row r="99" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6986,7 +7007,7 @@
       <c r="Q99" s="49"/>
       <c r="R99" s="16"/>
     </row>
-    <row r="100" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -7027,7 +7048,7 @@
       <c r="Q100" s="49"/>
       <c r="R100" s="16"/>
     </row>
-    <row r="101" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -7078,7 +7099,7 @@
       <c r="Q101" s="49"/>
       <c r="R101" s="16"/>
     </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -7127,7 +7148,7 @@
       <c r="Q102" s="49"/>
       <c r="R102" s="16"/>
     </row>
-    <row r="103" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -7176,7 +7197,7 @@
       <c r="Q103" s="49"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -7225,7 +7246,7 @@
       <c r="Q104" s="49"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -7274,7 +7295,7 @@
       <c r="Q105" s="49"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -7324,7 +7345,7 @@
       <c r="Q106" s="49"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -7373,7 +7394,7 @@
       <c r="Q107" s="49"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -7422,7 +7443,7 @@
       <c r="Q108" s="49"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -7471,7 +7492,7 @@
       <c r="Q109" s="49"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -7520,7 +7541,7 @@
       <c r="Q110" s="49"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -7569,7 +7590,7 @@
       <c r="Q111" s="49"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <v>111</v>
       </c>
@@ -7618,7 +7639,7 @@
       <c r="Q112" s="49"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>112</v>
       </c>
@@ -7669,7 +7690,7 @@
       <c r="Q113" s="49"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>113</v>
       </c>
@@ -7721,7 +7742,7 @@
       <c r="Q114" s="49"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
         <v>114</v>
       </c>
@@ -7770,7 +7791,7 @@
       <c r="Q115" s="49"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>115</v>
       </c>
@@ -7814,7 +7835,7 @@
       <c r="Q116" s="49"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>116</v>
       </c>
@@ -7858,7 +7879,7 @@
       <c r="Q117" s="49"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>117</v>
       </c>
@@ -7902,7 +7923,7 @@
       <c r="Q118" s="49"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <v>118</v>
       </c>
@@ -7946,7 +7967,7 @@
       <c r="Q119" s="49"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <v>119</v>
       </c>
@@ -7990,7 +8011,7 @@
       <c r="Q120" s="49"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <v>120</v>
       </c>
@@ -8034,7 +8055,7 @@
       <c r="Q121" s="49"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="55" t="s">
         <v>241</v>
       </c>
@@ -8055,7 +8076,7 @@
       <c r="P122" s="55"/>
       <c r="Q122" s="40"/>
     </row>
-    <row r="123" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="55" t="s">
         <v>240</v>
       </c>
@@ -8128,14 +8149,6 @@
       <c r="A141" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S123" xr:uid="{86055434-BEF0-4C37-8FD0-1DD243E3A7C1}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Atlántico"/>
-        <filter val="Atlántico "/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A123:P123"/>
     <mergeCell ref="A122:P122"/>
@@ -8541,15 +8554,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9003,15 +9016,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9037,15 +9050,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -9117,15 +9130,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9358,15 +9371,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -9461,15 +9474,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -9668,18 +9681,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -9716,10 +9729,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -9758,16 +9771,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -9786,10 +9799,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C3CD-7845-45DA-9F65-C3670D374829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FBA20F-A92C-43ED-A8BC-733CFFC1A1A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="400">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1404,6 +1404,18 @@
   </si>
   <si>
     <t>Existe una carta de compromiso de la Gobernación</t>
+  </si>
+  <si>
+    <t>Entregada</t>
+  </si>
+  <si>
+    <t>Compromiso de la Alcaldía</t>
+  </si>
+  <si>
+    <t>Dotación ICBF</t>
+  </si>
+  <si>
+    <t>Se asignaros recursos para compra de dotación inicial mediante Resol. 12218  de septiembre de 2018</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1500,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1566,6 +1578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,7 +1738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1908,6 +1926,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,9 +2219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,7 +4085,9 @@
       <c r="P38" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q38" s="49"/>
+      <c r="Q38" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5338,7 +5361,7 @@
     </row>
     <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>114</v>
@@ -5385,7 +5408,7 @@
     </row>
     <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>116</v>
@@ -5431,7 +5454,7 @@
     </row>
     <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="23" t="s">
         <v>118</v>
@@ -5480,7 +5503,7 @@
     </row>
     <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>59</v>
@@ -5526,7 +5549,7 @@
     </row>
     <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>121</v>
@@ -5572,7 +5595,7 @@
     </row>
     <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="23" t="s">
         <v>32</v>
@@ -5623,7 +5646,7 @@
     </row>
     <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>65</v>
@@ -5676,7 +5699,7 @@
     </row>
     <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>65</v>
@@ -5729,7 +5752,7 @@
     </row>
     <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>65</v>
@@ -5782,7 +5805,7 @@
     </row>
     <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="23" t="s">
         <v>65</v>
@@ -5835,7 +5858,7 @@
     </row>
     <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>77</v>
@@ -5878,7 +5901,9 @@
         <v>43466</v>
       </c>
       <c r="O75" s="16"/>
-      <c r="P75" s="45"/>
+      <c r="P75" s="45" t="s">
+        <v>396</v>
+      </c>
       <c r="Q75" s="49"/>
       <c r="R75" s="53" t="s">
         <v>393</v>
@@ -5886,7 +5911,7 @@
     </row>
     <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="23" t="s">
         <v>77</v>
@@ -5929,7 +5954,9 @@
         <v>43466</v>
       </c>
       <c r="O76" s="16"/>
-      <c r="P76" s="45"/>
+      <c r="P76" s="45" t="s">
+        <v>396</v>
+      </c>
       <c r="Q76" s="49"/>
       <c r="R76" s="53" t="s">
         <v>393</v>
@@ -5937,7 +5964,7 @@
     </row>
     <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="23" t="s">
         <v>77</v>
@@ -5981,12 +6008,14 @@
       </c>
       <c r="O77" s="16"/>
       <c r="P77" s="45"/>
-      <c r="Q77" s="49"/>
+      <c r="Q77" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R77" s="16"/>
     </row>
     <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="23" t="s">
         <v>77</v>
@@ -6030,12 +6059,16 @@
       </c>
       <c r="O78" s="16"/>
       <c r="P78" s="45"/>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="16"/>
+      <c r="Q78" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R78" s="16" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>77</v>
@@ -6079,12 +6112,16 @@
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="45"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="16"/>
+      <c r="Q79" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R79" s="16" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>77</v>
@@ -6128,12 +6165,14 @@
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="45"/>
-      <c r="Q80" s="49"/>
+      <c r="Q80" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R80" s="16"/>
     </row>
     <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="23" t="s">
         <v>41</v>
@@ -6177,12 +6216,14 @@
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="45"/>
-      <c r="Q81" s="49"/>
+      <c r="Q81" s="49" t="s">
+        <v>378</v>
+      </c>
       <c r="R81" s="16"/>
     </row>
     <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>19</v>
@@ -6227,12 +6268,14 @@
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="45"/>
-      <c r="Q82" s="49"/>
+      <c r="Q82" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R82" s="16"/>
     </row>
     <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>19</v>
@@ -6276,12 +6319,14 @@
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="45"/>
-      <c r="Q83" s="49"/>
+      <c r="Q83" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R83" s="16"/>
     </row>
     <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>19</v>
@@ -6326,11 +6371,13 @@
       <c r="O84" s="16"/>
       <c r="P84" s="45"/>
       <c r="Q84" s="49"/>
-      <c r="R84" s="16"/>
+      <c r="R84" s="16" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>19</v>
@@ -6374,12 +6421,14 @@
       </c>
       <c r="O85" s="16"/>
       <c r="P85" s="45"/>
-      <c r="Q85" s="49"/>
+      <c r="Q85" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R85" s="16"/>
     </row>
     <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>19</v>
@@ -6423,12 +6472,14 @@
       </c>
       <c r="O86" s="16"/>
       <c r="P86" s="45"/>
-      <c r="Q86" s="49"/>
+      <c r="Q86" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R86" s="16"/>
     </row>
     <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>19</v>
@@ -6477,7 +6528,7 @@
     </row>
     <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="23" t="s">
         <v>19</v>
@@ -6521,12 +6572,14 @@
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="45"/>
-      <c r="Q88" s="49"/>
+      <c r="Q88" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R88" s="16"/>
     </row>
     <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="23" t="s">
         <v>197</v>
@@ -6570,12 +6623,14 @@
       </c>
       <c r="O89" s="16"/>
       <c r="P89" s="45"/>
-      <c r="Q89" s="49"/>
+      <c r="Q89" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R89" s="16"/>
     </row>
     <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>197</v>
@@ -6620,11 +6675,13 @@
       <c r="O90" s="16"/>
       <c r="P90" s="45"/>
       <c r="Q90" s="49"/>
-      <c r="R90" s="16"/>
+      <c r="R90" s="16" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>197</v>
@@ -6668,12 +6725,16 @@
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="45"/>
-      <c r="Q91" s="49"/>
-      <c r="R91" s="16"/>
+      <c r="Q91" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="R91" s="16" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="23" t="s">
         <v>59</v>
@@ -6717,12 +6778,14 @@
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="45"/>
-      <c r="Q92" s="49"/>
+      <c r="Q92" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R92" s="16"/>
     </row>
     <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>198</v>
@@ -6763,7 +6826,7 @@
     </row>
     <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="23" t="s">
         <v>198</v>
@@ -6804,7 +6867,7 @@
     </row>
     <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="23" t="s">
         <v>198</v>
@@ -6845,7 +6908,7 @@
     </row>
     <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
         <v>198</v>
@@ -6886,7 +6949,7 @@
     </row>
     <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="23" t="s">
         <v>198</v>
@@ -6927,7 +6990,7 @@
     </row>
     <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>198</v>
@@ -6968,7 +7031,7 @@
     </row>
     <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>198</v>
@@ -7009,7 +7072,7 @@
     </row>
     <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>198</v>
@@ -7050,7 +7113,7 @@
     </row>
     <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>77</v>
@@ -7101,7 +7164,7 @@
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>216</v>
@@ -7150,7 +7213,7 @@
     </row>
     <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="23" t="s">
         <v>41</v>
@@ -7199,7 +7262,7 @@
     </row>
     <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>41</v>
@@ -7248,7 +7311,7 @@
     </row>
     <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>41</v>
@@ -7297,7 +7360,7 @@
     </row>
     <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="23" t="s">
         <v>41</v>
@@ -7347,7 +7410,7 @@
     </row>
     <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="23" t="s">
         <v>41</v>
@@ -7396,7 +7459,7 @@
     </row>
     <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="23" t="s">
         <v>19</v>
@@ -7440,12 +7503,14 @@
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="45"/>
-      <c r="Q108" s="49"/>
+      <c r="Q108" s="51" t="s">
+        <v>378</v>
+      </c>
       <c r="R108" s="16"/>
     </row>
     <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>19</v>
@@ -7494,7 +7559,7 @@
     </row>
     <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="23" t="s">
         <v>114</v>
@@ -7543,7 +7608,7 @@
     </row>
     <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>114</v>
@@ -7592,7 +7657,7 @@
     </row>
     <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="23" t="s">
         <v>116</v>
@@ -7641,7 +7706,7 @@
     </row>
     <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>250</v>
@@ -7692,7 +7757,7 @@
     </row>
     <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="23" t="s">
         <v>15</v>
@@ -7740,11 +7805,11 @@
         <v>266</v>
       </c>
       <c r="Q114" s="49"/>
-      <c r="R114" s="16"/>
+      <c r="R114" s="68"/>
     </row>
     <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="23" t="s">
         <v>121</v>
@@ -7793,7 +7858,7 @@
     </row>
     <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="23" t="s">
         <v>42</v>
@@ -7837,7 +7902,7 @@
     </row>
     <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>42</v>
@@ -7881,7 +7946,7 @@
     </row>
     <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>32</v>
@@ -7925,7 +7990,7 @@
     </row>
     <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>32</v>
@@ -7969,7 +8034,7 @@
     </row>
     <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>32</v>
@@ -8013,7 +8078,7 @@
     </row>
     <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>32</v>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FBA20F-A92C-43ED-A8BC-733CFFC1A1A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389270A7-6271-427C-90DD-DAF42C7CBD7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Matriz" sheetId="1" r:id="rId1"/>
+    <sheet name="porAportante" sheetId="7" r:id="rId2"/>
+    <sheet name="porRegion" sheetId="6" r:id="rId3"/>
+    <sheet name="FechaEntrega" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$S$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$S$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="407">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1416,6 +1421,27 @@
   </si>
   <si>
     <t>Se asignaros recursos para compra de dotación inicial mediante Resol. 12218  de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>Inversión infraestructura</t>
+  </si>
+  <si>
+    <t>n°</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Aportante</t>
+  </si>
+  <si>
+    <t>APORTANTE</t>
+  </si>
+  <si>
+    <t>N° Infraestructuras</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1526,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,6 +1610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1888,6 +1920,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,9 +1962,22 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1952,6 +2000,2902 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="CARLOS EDUARDO MADRID GOMEZ" id="{635DB611-C8C0-F041-97E8-AAC1CBABEC36}" userId="S::cmadrid97@upc.edu.co::d9b6251e-160e-43aa-b446-4c5392a2f64c" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43501.629931365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="119" xr:uid="{DD7BC76C-4883-47C0-AA66-B69E28C93103}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:R121" sheet="Matriz"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="n°" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="119"/>
+    </cacheField>
+    <cacheField name="Regional " numFmtId="0">
+      <sharedItems count="25">
+        <s v="Amazonas "/>
+        <s v="Cauca "/>
+        <s v="Chocó "/>
+        <s v="Cundinamarca"/>
+        <s v="Magdalena"/>
+        <s v="Putumayo "/>
+        <s v="Santander "/>
+        <s v="Antioquia"/>
+        <s v="Boyacá "/>
+        <s v="Córdoba"/>
+        <s v="Sucre"/>
+        <s v="Boyacá"/>
+        <s v="Arauca"/>
+        <s v="Atlántico"/>
+        <s v="Bolívar"/>
+        <s v="Caquetá"/>
+        <s v="La Guajira"/>
+        <s v="Nariño"/>
+        <s v="Norte de Santander"/>
+        <s v="Santander"/>
+        <s v="Valle del Cauca"/>
+        <s v="Magdalena "/>
+        <s v="Amazonas"/>
+        <s v="Cauca"/>
+        <s v="Tolima"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Municipio " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nombre UDS" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Capacidad Proyectada" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="36" maxValue="320"/>
+    </cacheField>
+    <cacheField name="Inversión infraestructura" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="51107400" maxValue="283945500"/>
+    </cacheField>
+    <cacheField name="Cupos Ampliación de Cobertura" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="300"/>
+    </cacheField>
+    <cacheField name="Cupos Tránsito" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="300"/>
+    </cacheField>
+    <cacheField name="Cupos Traslado" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="320"/>
+    </cacheField>
+    <cacheField name="Aportante" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Ministerio de Vivienda "/>
+        <s v="Convenio 3374 (ICBF- FND-FONADE)"/>
+        <s v="Regalias"/>
+        <s v="Gobernación del Atlantico- Regalias"/>
+        <s v="Gobernación de Bolivar"/>
+        <s v="DAPRE"/>
+        <s v="Fondo de Adaptación "/>
+        <s v="Conpes"/>
+        <s v="ICBF"/>
+        <s v="Municipio + Gobernación"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estado de Infraestructura " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Observaciones Infraestructura " numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Fecha prevista inicio de operación" numFmtId="17">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-02-01T00:00:00" maxDate="2019-10-02T00:00:00"/>
+    </cacheField>
+    <cacheField name="Fecha probable de entrega*" numFmtId="0">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2018-08-01T00:00:00" maxDate="2019-12-02T00:00:00"/>
+    </cacheField>
+    <cacheField name="Responsable del Equipo de Infraestructura y Dotaciones 2019" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Observaciones" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estado Dotación Inicial" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Gestión de Dotación Incial " numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="119">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Leticia"/>
+    <s v="CDI Ñae Meche"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="40"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-03-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación compartida  Recursos CONPES-DAPRE (Abu Dhabi)"/>
+    <s v="La Alcaldía manifestó mediante oficio de respuesta a la solicitud de la Subdirección de Operación de la Dirección de Primera Infancia, que invertiría recursos CONPES en la adquisición de la dotación completa para este CDI y desde el mes de septiembre de 2018, el Equipo de dotaciones ha realizado la articulación de la Regional con la Alcaldía para la compra de la dotación._x000a__x000a_Ver adjuntos: RespuestaCONPES_ÑaeMecheAmazonas. Pdf y TrazabilidadGestionDotacion_ÑaeMecheAmazonas.pdf"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Popayán"/>
+    <s v="CDI Valle del Ortigal "/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="Se debe remover cable de media tensión que se encuentra al interior del CDI. En proceso de aprobación de vertimiento de aguas residuales al río Cauca, se está a la espera de la construcción de vía de acceso.  "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación completa-DAPRE (Abu Dhabi)"/>
+    <s v="La Regional ICBF no ha adelantado gestión de dotación con el ente territorial ya que la infraestructura presenta condiciones que no permiten un pronto inicio de su operación (falta de vías de acceso seguras, no se cuenta con suministro de agua potable para el funcionamiento. Findeter proyecta la construcción de un puente que asegure el acceso al lugar, proyecto avaluado en 3.800 millones de pesos, de igual manera corresponde al ente territorial destinar recursos para la pavimentación de la vía que conduce al CDI y la construcción de una PETAR para dar solución a la falta de agua y el tratamiento de las mismas- correo del 16 noviembre de 2018.)_x000a_Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial y no se obtuvo respuesta. Por lo tanto, se priorizó con DAPRE la compra de dotación completa con los fondos de Abu Dhabi._x000a__x000a_Ver adjuntos: TrazabilidadDotacionValleOrtigal-Cauca.pdf y MínimosDotacion_ValleOrtigalCauca.pdf"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Quibdó"/>
+    <s v="CDI Ciudadela Mía "/>
+    <n v="160"/>
+    <n v="151437600"/>
+    <n v="0"/>
+    <n v="160"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <s v="Aun se esta estudiando si se realizará ampliación. "/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Soacha "/>
+    <s v="CDI Torrentes "/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación compartida Alcaldía-DAPRE (Abu Dhabi)"/>
+    <s v="La alcaldía municipal manifestó su interés en realizar la compra de dotación de este CDI. Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de octubre de 2018.  Actualmente la administración municipal está realizando el proceso de compra de acuerdo a la guía orientadora y el listado de necesidades mínimas que se envió la sede nacional ICBF. Se cuenta con la relación de elementos de dotación pendientes por adquirir._x000a_Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi._x000a_Ver adjuntos: TrazabilidadDotacion_TorrentesSoacha.pdf, MinimosDotacion_TorrentesSoacha.pdf y DotacionPendiente_TorrentesSoacha.xls"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <s v="Soacha "/>
+    <s v="CDI Vida Nueva "/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-08-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="La Regional ICBF no ha adelantado gestión de dotación con el ente territorial._x000a_Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi._x000a_"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <s v="Santa Marta"/>
+    <s v="CDI Ciudad Equidad"/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="A la Fecha no se ha puesto en operación por  problemas de inundación derivadas del lote aledaño, por lo cual se están adelando gestiones desde la Alcaldía, se tiene previsto la construcción de obras hidráhulicas que recojan el agua lluvia, una vez el propietario del predio vecino construya el canal para el manejo de aguas lluvias de su urbanización."/>
+    <d v="2019-05-01T00:00:00"/>
+    <s v="De acuerdo a cuplimiento de compromisos."/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <s v="Mocoa "/>
+    <s v="CDI Los Sauces"/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="200"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-06-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación compartida UNGRD-DAPRE (CEMEX)"/>
+    <s v="La UNGRD compró una parte de la dotación y se encuentr en el municipio y en Sede Nacional ICBF ( Bodega Barrio 20 de julio) se recibió otra parte de la dotación adquirida por Gestiones de DAPRE."/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <s v="Bucaramanga"/>
+    <s v="CDI Campo Madrid"/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="250"/>
+    <n v="50"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación completa-DAPRE (Abu Dhabi)"/>
+    <s v="En acta de reunión del ICBF y la Secretaria de Educación de Bucaramanga el día 6 de Junio del 2018, la Secretaria de Educación manifiesta que el municipio tiene la responsabilidad de entregar la dotación requerida para el número de usuarios del CDI._x000a__x000a_Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de agosto de 2018.  No se ha dado cumplimiento al compromiso por parte de la Alcaldía y por lo tanto,  se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi._x000a__x000a_Ver adjuntos: ActaCampoMadrid_6Junio2018.pdf, MinimosDotacion_CampoMadridSantander.pdf y  TrazabilidadDotacion_CampoMadridSantander.pdf"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="6"/>
+    <s v="Bucaramanga"/>
+    <s v="CDI La Inmaculada "/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-05-01T00:00:00"/>
+    <d v="2019-03-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación completa-DAPRE (Abu Dhabi)"/>
+    <s v="La Regional  no ha reportado gestión de dotación ._x000a_ Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi."/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="Puerto Nariño "/>
+    <s v="CDI Puerto Nariño "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="60"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendientes de Obra por subsanar y falta conexión servicio de energía.Pendiente por parte de FONADE  entrega de acta de recibo del proyecto"/>
+    <d v="2019-03-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="7"/>
+    <s v="Necoclí"/>
+    <s v="CDI Necoclí"/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="95"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Falta una de las bombas contratadas para el CDI. Pendiente por parte de FONADE  entrega de acta de recibo del proyecto."/>
+    <d v="2019-06-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="8"/>
+    <s v="Belén "/>
+    <s v="CDI Belén "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="17"/>
+    <n v="78"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente subsanaciones mínimas de obra.Pendiente la entrega de FONADE de acta de recibo del proyecto"/>
+    <d v="2019-03-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <s v="Dotación completa- SGR"/>
+    <s v="La Dotación fue adquirida con recursos del Sistema General de Regalías  en proyecto BPIN 2017000050038 "/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="8"/>
+    <s v="Tota"/>
+    <s v="CDI Tota"/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="4"/>
+    <n v="91"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente subsanaciones mínimas de obra.Pendiente la entrega de FONADE de acta de recibo del proyecto"/>
+    <d v="2019-03-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <s v="Dotación completa- SGR"/>
+    <s v="La Dotación fue adquirida con recursos del Sistema General de Regalías  en proyecto BPIN 2017000050038 "/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="9"/>
+    <s v="San Bernardo del Viento "/>
+    <s v="CDI San Bernardo del Viento "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="15"/>
+    <n v="80"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente subsanaciones establecidas en acta de reunión por parte del Municipio. Pendiente verificación funcionamiento adecuado  redes de servicios públicos, limpieza y mantenimiento general por parte del ente territoral. Pendiente la entrega de FONADE de documentos soporte anexos al acta de recibo del proyecto."/>
+    <d v="2019-04-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="En acta de reunión con la Alcaldía de San Bernardo de Viento (9 mayo 2018), quedó como compromiso por parte de la Alcaldía remitir propuesta sobre la compra dotación inicial de acuerdo a los recursos disponibles para la puesta en operación del CDI. No se ha obtenido respuesta de la alcaldía._x000a__x000a_Ver adjunto: TrazabilidadDotacionSanBernardo_Cordoba.pdf"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="4"/>
+    <s v="Cerro San Antonio "/>
+    <s v="CDI San Antonio "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente conexión definitiva del servicio de energía "/>
+    <d v="2019-04-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="4"/>
+    <s v="El Retén "/>
+    <s v="CDI El Retén "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente conexión definitiva del servicio de energía "/>
+    <d v="2019-04-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="5"/>
+    <s v="Orito"/>
+    <s v="CDI Orito "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="95"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Se requiere la atención de observaciones relacionadas con los desagües del proyecto y de acabados, por parte del contratista. No cuenta con conexión definitiva al servicio de energía elétrica."/>
+    <d v="2019-05-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="5"/>
+    <s v="Puerto Asis"/>
+    <s v="CDI Puerto Asis"/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="95"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente conexión definitiva de servicios públicos: Agua y energia. "/>
+    <d v="2019-05-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="6"/>
+    <s v="San Gil "/>
+    <s v="CDI San Gil "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="95"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Existen problemas técnicos relacionados con escorrentía de aguas lluvias que inundan el terreno del CDI que provienen del predio aledaño."/>
+    <d v="2019-07-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="10"/>
+    <s v="San Juan de Betulia "/>
+    <s v="CDI San Juan de Betulia "/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="En Ejecución"/>
+    <s v="Existen problemas técnicos relacionados con escorrentía de aguas lluvias que inundan el terreno del CDI, que provienen del predio aledaño."/>
+    <d v="2019-03-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="11"/>
+    <s v="Chita"/>
+    <s v="CDI Chita "/>
+    <n v="110"/>
+    <n v="156161500"/>
+    <n v="10"/>
+    <n v="100"/>
+    <n v="0"/>
+    <x v="2"/>
+    <s v="En Ejecución"/>
+    <s v="En obra de comedor y cocina"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación completa- SGR"/>
+    <s v="Esta dotación se encuentra incluida en el Proyecto de Regalías &quot;Construcción, terminación y dotación del CDI&quot; en el Municipio de Chita, Boyacá. El CDI será será concluido con recursos de regalías._x000a_Desde el tema de Dotaciones de Primera Infancia, se harealizado la gesón necesaria para garanzar la articulación entre el Ente territorial y la Regional Boyacá ICBF, conforme a la_x000a_ruta definida y reforzada en el memorando S-2018-148484-0101, y como resultado se logró la revisión de los elementos de dotación y el presupuesto propuesto en el proyecto contra los Mínimos de dotación requeridos con algunas observaciones que ya conoce el Ente Territorial."/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="12"/>
+    <s v="Saravena"/>
+    <s v="CDI 20 de Julio"/>
+    <n v="104"/>
+    <n v="147643600"/>
+    <n v="8"/>
+    <n v="96"/>
+    <n v="0"/>
+    <x v="2"/>
+    <s v="En Ejecución"/>
+    <s v="A la espera de acta de reinicio de obra por mal tiempo "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="13"/>
+    <s v="Malambo"/>
+    <s v="Juan XXIII"/>
+    <n v="290"/>
+    <m/>
+    <n v="107"/>
+    <n v="193"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="13"/>
+    <s v="Malambo"/>
+    <s v="CDI Candelaria"/>
+    <n v="290"/>
+    <m/>
+    <n v="119"/>
+    <n v="181"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-04T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="13"/>
+    <s v="Santo Tomás"/>
+    <s v="El Carmen"/>
+    <n v="300"/>
+    <m/>
+    <n v="8"/>
+    <n v="292"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="En Ejecución, Avance de obra del 5%"/>
+    <s v="En Ejecución"/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-06-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="13"/>
+    <s v="Soledad"/>
+    <s v="Barrio los Robles"/>
+    <n v="180"/>
+    <m/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="13"/>
+    <s v="Palmar de Varela"/>
+    <s v="Sagrado Corazón"/>
+    <n v="282"/>
+    <m/>
+    <n v="0"/>
+    <n v="282"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <m/>
+    <s v="286 niños y niñas"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="13"/>
+    <s v="Soledad"/>
+    <s v="Centenario"/>
+    <n v="180"/>
+    <m/>
+    <n v="96"/>
+    <n v="104"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-15T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="13"/>
+    <s v="Soledad"/>
+    <s v="La Central"/>
+    <n v="290"/>
+    <m/>
+    <n v="235"/>
+    <n v="65"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-15T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="13"/>
+    <s v="Soledad"/>
+    <s v="Candelaria 2"/>
+    <n v="150"/>
+    <m/>
+    <n v="160"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-15T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="13"/>
+    <s v="Soledad"/>
+    <s v="Villa Estadio"/>
+    <n v="290"/>
+    <m/>
+    <n v="8"/>
+    <n v="192"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-15T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="13"/>
+    <s v="Soledad"/>
+    <s v="Los Almendros"/>
+    <n v="290"/>
+    <m/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-11-15T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="14"/>
+    <s v="Altos del Rosario"/>
+    <s v="CDI Altos del Rosario"/>
+    <n v="300"/>
+    <m/>
+    <n v="108"/>
+    <n v="192"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución 30% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-06-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="14"/>
+    <s v="Barranco de Loba"/>
+    <s v="CDII Barranco de Loba"/>
+    <n v="160"/>
+    <m/>
+    <n v="10"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución 76% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="Traslado de 2 UDS DIMF con arriendo 100.Traslado 1 uds CDI con arriendo 60- Ampliación de 12 n/n= OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="14"/>
+    <s v="El Peñon"/>
+    <s v="CDI El Peñon"/>
+    <n v="300"/>
+    <m/>
+    <n v="59"/>
+    <n v="137"/>
+    <n v="104"/>
+    <x v="4"/>
+    <s v="En Ejecución 88% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="14"/>
+    <s v="Hatillo de Loba"/>
+    <s v="CDI Hatillo de Loba"/>
+    <n v="300"/>
+    <m/>
+    <n v="7"/>
+    <n v="293"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución, 85% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="14"/>
+    <s v="Magangue"/>
+    <s v="CDI Magangue"/>
+    <n v="300"/>
+    <m/>
+    <n v="170"/>
+    <n v="130"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución,  63% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="14"/>
+    <s v="Simití"/>
+    <s v="CDI Simití"/>
+    <n v="300"/>
+    <m/>
+    <n v="108"/>
+    <n v="192"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución,  50% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="CZ debe enviar los listados de los niños y niñas a transitar-OK Concepto de focalizacion"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="14"/>
+    <s v="Norosi"/>
+    <s v="CDI Norosí"/>
+    <n v="300"/>
+    <m/>
+    <n v="0"/>
+    <n v="200"/>
+    <n v="100"/>
+    <x v="4"/>
+    <s v="En Ejecución,  5% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-06-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="14"/>
+    <s v="San Estanislao de Kostka"/>
+    <s v="CDI San Estanislao de Kostka"/>
+    <n v="300"/>
+    <m/>
+    <n v="164"/>
+    <n v="56"/>
+    <n v="80"/>
+    <x v="4"/>
+    <s v="En Ejecución, 88% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="14"/>
+    <s v="San Pablo"/>
+    <s v="CDI San Pablo"/>
+    <n v="300"/>
+    <m/>
+    <n v="66"/>
+    <n v="84"/>
+    <n v="150"/>
+    <x v="4"/>
+    <s v="En Ejecución,50% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-06-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="14"/>
+    <s v="Villa Nueva"/>
+    <s v="CDI Villa Nueva"/>
+    <n v="300"/>
+    <m/>
+    <n v="0"/>
+    <n v="300"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución, 88% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="14"/>
+    <s v="Zambrano"/>
+    <s v="CDI Zambrano "/>
+    <n v="300"/>
+    <m/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="273"/>
+    <x v="4"/>
+    <s v="En Ejecución, 3% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-10-01T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="14"/>
+    <s v="Carmen de Bolivar"/>
+    <s v="CDI Institucional"/>
+    <n v="300"/>
+    <m/>
+    <n v="8"/>
+    <n v="72"/>
+    <n v="220"/>
+    <x v="4"/>
+    <s v="En Ejecución, 4%  Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-06-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="14"/>
+    <s v="Córdoba"/>
+    <s v="CDI Institucional"/>
+    <n v="300"/>
+    <m/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="155"/>
+    <x v="4"/>
+    <s v="En Ejecución, 65% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="14"/>
+    <s v="San Juan de Nepumoceno"/>
+    <s v="CDI Institucional"/>
+    <n v="300"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="300"/>
+    <x v="4"/>
+    <s v="En Ejecución,60% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="14"/>
+    <s v="Santa Rosa de Lima"/>
+    <s v="CDI Institucional"/>
+    <n v="300"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <s v="En Ejecución, 85% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="Esta en Subsanación"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="14"/>
+    <s v="Arroyo Hondo"/>
+    <s v="CDI Institucional"/>
+    <n v="95"/>
+    <m/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="81"/>
+    <x v="4"/>
+    <s v="En Ejecución, 92% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-02-15T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="14"/>
+    <s v="Santa Rosa del Sur"/>
+    <s v="CDI Institucional"/>
+    <n v="95"/>
+    <m/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución 88% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="14"/>
+    <s v="Canta Gallo"/>
+    <s v="CDI Institucional"/>
+    <n v="160"/>
+    <m/>
+    <n v="0"/>
+    <n v="160"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución 50% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="14"/>
+    <s v="Morales"/>
+    <s v="CDI Institucional"/>
+    <n v="160"/>
+    <m/>
+    <n v="63"/>
+    <n v="97"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución, 75% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="pendiente loslistados de los niños y niñas que van a transitar y van realizar traslado"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="14"/>
+    <s v="Regidor"/>
+    <s v="CDI Institucional"/>
+    <n v="160"/>
+    <m/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="100"/>
+    <x v="4"/>
+    <s v="En Ejecución, 63% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="14"/>
+    <s v="Rio Viejo"/>
+    <s v="CDI Institucional"/>
+    <n v="160"/>
+    <m/>
+    <n v="10"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="En Ejecución, 90% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="14"/>
+    <s v="Arjona"/>
+    <s v="CDI Institucional"/>
+    <n v="300"/>
+    <m/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="200"/>
+    <x v="4"/>
+    <s v="En Ejecución, 57% Avance"/>
+    <s v="Esta en comité evaluador por parte de la OCAD "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-05-04T00:00:00"/>
+    <m/>
+    <s v="OK Concepto de focalización"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="14"/>
+    <s v="Clemencia"/>
+    <s v="CDI Clemencia"/>
+    <n v="160"/>
+    <m/>
+    <n v="0"/>
+    <n v="91"/>
+    <n v="69"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación parcial DAPRE"/>
+    <s v="Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 87.548 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. _x000a_No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="15"/>
+    <s v="El Doncello"/>
+    <s v="CDI - Modalidad Institucional"/>
+    <n v="160"/>
+    <m/>
+    <n v="0"/>
+    <n v="160"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación compartida Alcaldía- DAPRE (Abu Dhabi)"/>
+    <s v="Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 88.674 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. _x000a_No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="15"/>
+    <s v="Belén de los Andaquiés"/>
+    <s v="CDI - Modalidad Institucional"/>
+    <n v="160"/>
+    <m/>
+    <n v="0"/>
+    <n v="160"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="Terminada"/>
+    <s v="En Ejecución"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-09-30T00:00:00"/>
+    <m/>
+    <s v="En confirmación de la regional para el inicio de operación, pues faltan unos elementos de dotación."/>
+    <s v="Dotación CODAPRE"/>
+    <s v="Existe compromiso de DAPRE de adquirir dotación para completarla con Forndo Abu Dhabi."/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="15"/>
+    <s v="Paujil"/>
+    <s v="CDI - Modalidad Institucional"/>
+    <n v="100"/>
+    <m/>
+    <n v="20"/>
+    <n v="80"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación parcial DAPRE"/>
+    <s v="Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 64,481 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. _x000a_No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1Abril 2019"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="9"/>
+    <s v="Tierralta"/>
+    <s v="CDI Tierralta"/>
+    <n v="160"/>
+    <n v="151437600"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="160"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación parcial DAPRE- PENDIENTE COMPLETAR"/>
+    <s v="Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes por adquirir 1177 elementos por un valor aproximdo de $90.320.180"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="9"/>
+    <s v="Valencia"/>
+    <s v="CDI Valencia"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="43"/>
+    <x v="5"/>
+    <s v="Terminada"/>
+    <s v="Terminada. Falta energizar por parte de la Alcaldía y Electricaribe. Se están adelantando las gestiones por parte de la Presidencia de la República."/>
+    <d v="2019-03-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <s v="Dotación parcial DAPRE- PENDIENTE COMPLETAR"/>
+    <s v="Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes "/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="3"/>
+    <s v="Anapoima"/>
+    <s v="CDI Anapoima"/>
+    <n v="95"/>
+    <n v="134866750"/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="16"/>
+    <s v="Uribia - Bahía Portete"/>
+    <s v="CDI"/>
+    <n v="50"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="50"/>
+    <x v="5"/>
+    <s v="Terminada"/>
+    <s v="Terminada"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-09-01T00:00:00"/>
+    <m/>
+    <s v="Modalidad Propia"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="17"/>
+    <s v="Policarpa"/>
+    <s v="CDI Mis angelitos"/>
+    <n v="40"/>
+    <m/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="17"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="18"/>
+    <s v="Teorama"/>
+    <s v="CDI"/>
+    <n v="65"/>
+    <m/>
+    <n v="5"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-05-01T00:00:00"/>
+    <d v="2019-03-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="19"/>
+    <s v="Vélez"/>
+    <s v="HI El Clan de los Pilluelos"/>
+    <n v="160"/>
+    <m/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="95"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-05-01T00:00:00"/>
+    <d v="2019-03-01T00:00:00"/>
+    <m/>
+    <s v="HI"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="10"/>
+    <s v="San Pedro"/>
+    <s v="CDI San Pedro"/>
+    <n v="95"/>
+    <m/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="20"/>
+    <s v="Yotoco"/>
+    <s v="CDI Yotoco"/>
+    <n v="95"/>
+    <m/>
+    <n v="11"/>
+    <n v="84"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="7"/>
+    <s v="Apartadó"/>
+    <s v="CDI Semillitas del Futuro"/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="0"/>
+    <n v="300"/>
+    <n v="0"/>
+    <x v="5"/>
+    <s v="Terminada"/>
+    <s v="Terminada"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-08-01T00:00:00"/>
+    <m/>
+    <s v="En confirmación de la regional para el inicio de operación, pues faltan unos elementos de dotación."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="13"/>
+    <s v="Campo de la Cruz"/>
+    <s v="CDI Técnica Cormercial La Inmaculada"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="60"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="Terminada"/>
+    <s v="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="Solicitada a Capital social"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="13"/>
+    <s v="Campo de la Cruz"/>
+    <s v="CDI Bohórquez"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="60"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="Terminada"/>
+    <s v="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="Solicitada a Capital social"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="13"/>
+    <s v="Campo de la Cruz"/>
+    <s v="CDI Campo de la Cruz- Instituto Educativo "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="60"/>
+    <x v="6"/>
+    <s v="Terminada"/>
+    <s v="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="Solicitada a Capital social"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="13"/>
+    <s v="Manatí"/>
+    <s v="CDI I.E Agropiscicola Las Compuertas"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="8"/>
+    <n v="52"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="Existe una carta de compromiso de la Gobernación"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="14"/>
+    <s v="Calamar"/>
+    <s v="I.E Agropecuaria el Yucal. C.E Barranca Vieja"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="60"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Ajustes menores por parte de la Alcaldía"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <s v="Entregada"/>
+    <m/>
+    <s v="El Fondo de Adaptacion reporta que la dotacion la entrega la Gobernación de Bolívar, verificar con la regional"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="14"/>
+    <s v="Soplaviento "/>
+    <s v="I.E Agropiscicola Liceo del Dique Enrique Castillo Jiménez Sede Santiago Amor + Socorro Pérez"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="56"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En contratación de ajustes menores por parte de la Alcaldía"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <s v="Entregada"/>
+    <m/>
+    <s v="El Fondo de Adaptacion reporta que la dotacion la entrega la Gobernación de Bolívar, verificar con la regional"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="14"/>
+    <s v="Pinillos "/>
+    <s v="Armenia Sede Principal "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="14"/>
+    <s v="Hatillo de Loba "/>
+    <s v="I.E De la Victoria Sede ERM Maria Auxiliadora "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="Compromiso de la Alcaldía"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="14"/>
+    <s v="Cicuco "/>
+    <s v="San Francisco de Loba Sede la Peña "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="10"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <s v="Compromiso de la Alcaldía"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="14"/>
+    <s v="Barranco de Loba"/>
+    <s v="Delicias Minas de Santa Cruz Sede ER Mixta Simón Bolívar "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="10"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="9"/>
+    <s v="Puerto Libertador "/>
+    <s v="Pablo VI"/>
+    <n v="54"/>
+    <n v="76661100"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente arreglos menores por parte de la Alcaldía "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="4"/>
+    <s v="Condordia "/>
+    <s v="Luz Marina Caballero Sede ERM NRO 1- ERM Bella Vista"/>
+    <n v="80"/>
+    <n v="113572000"/>
+    <n v="24"/>
+    <n v="56"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente contratar terminación "/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="4"/>
+    <s v="Pedraza"/>
+    <s v="C.E. Ampliado Básico La Bomba "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente contratar terminación "/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="4"/>
+    <s v="Pijiño del Carmen "/>
+    <s v="Pijiño del Carmen "/>
+    <n v="80"/>
+    <n v="113572000"/>
+    <n v="0"/>
+    <n v="80"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente contratar terminación "/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Compromiso de la Alcaldía"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="4"/>
+    <s v="San Zenón "/>
+    <s v="I.E El Horno "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente contratar terminación "/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="4"/>
+    <s v="San Zenón "/>
+    <s v="I.E María Auxiliadora "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="60"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-05-01T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="4"/>
+    <s v="Zona Bananera "/>
+    <s v="Thelma Rosa"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="10"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-06-01T00:00:00"/>
+    <d v="2019-06-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="4"/>
+    <s v="El Banco "/>
+    <s v="Minsuli Campell Sede San Felipe "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="21"/>
+    <s v="El Banco "/>
+    <s v="I.E Anaximedes Torres - Antiguo Julían Mejía Alvarado "/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="21"/>
+    <s v="Santa Ana "/>
+    <s v="Antonio Brujes Carmona- Rur de Jaraba"/>
+    <n v="54"/>
+    <n v="76661100"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-06-01T00:00:00"/>
+    <d v="2019-06-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Compromiso de la Alcaldía"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="21"/>
+    <s v="Gramalote "/>
+    <s v="Sangrado Corazón de Jesús"/>
+    <n v="80"/>
+    <n v="113572000"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación "/>
+    <d v="2019-10-01T00:00:00"/>
+    <d v="2019-10-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="Dotación ICBF"/>
+    <s v="Se asignaros recursos para compra de dotación inicial mediante Resol. 12218  de septiembre de 2018"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="10"/>
+    <s v="Guaranda "/>
+    <s v="I.E de Guaranda"/>
+    <n v="80"/>
+    <n v="113572000"/>
+    <n v="0"/>
+    <n v="80"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-06-01T00:00:00"/>
+    <d v="2019-06-01T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="22"/>
+    <s v="Chorrera"/>
+    <s v="CDI La Chorrera"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="22"/>
+    <s v="Pedrera"/>
+    <s v="CDI Pedrera"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="22"/>
+    <s v="Victoria"/>
+    <s v="CDI La Victoria"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="22"/>
+    <s v="Mirití-Parana"/>
+    <s v="CDI Miriti-Parana"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="22"/>
+    <s v="Puerto Alegria"/>
+    <s v="CDI Puerto Alegria"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="22"/>
+    <s v="Puerto Arica"/>
+    <s v="CDI Puerto Arica"/>
+    <n v="50"/>
+    <n v="70982500"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="22"/>
+    <s v="Puerto Santander"/>
+    <s v="CDI Puerto Santander"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="22"/>
+    <s v="Tarapacá"/>
+    <s v="CDI Tarapacá"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Revisando disponibilidad de servicios públicos "/>
+    <m/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="14"/>
+    <s v="Simití"/>
+    <s v="CDI Simití"/>
+    <n v="104"/>
+    <n v="147643600"/>
+    <n v="0"/>
+    <n v="104"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="Terminada"/>
+    <s v="Terminada"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <m/>
+    <s v="Recurso en la regional"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="23"/>
+    <s v="Popayán"/>
+    <s v="CDI Pandiguando"/>
+    <n v="70"/>
+    <n v="99375500"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Esta en licitación de dotación por parte de la Alcaldía"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2019-01-15T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="9"/>
+    <s v="Lorica"/>
+    <s v="CDI San Sebastián"/>
+    <n v="90"/>
+    <n v="127768500"/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Esta en contratación de obrapor parte de la Alcaldía"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="9"/>
+    <s v="Lorica"/>
+    <s v="CDI Portal del Norte"/>
+    <n v="110"/>
+    <n v="156161500"/>
+    <n v="0"/>
+    <n v="110"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Falta subsanaciones por parte de la Alcaldía y servicios públicos"/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="9"/>
+    <s v="Puerto Libertador"/>
+    <s v="CDI Santafé de las Claras"/>
+    <n v="80"/>
+    <n v="113572000"/>
+    <n v="0"/>
+    <n v="80"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Pendiente arreglos menores por parte de la Alcaldía "/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="9"/>
+    <s v="Tierra alta"/>
+    <s v="CDI Campamento"/>
+    <n v="200"/>
+    <n v="283930000"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="143"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="9"/>
+    <s v="San Pelayo"/>
+    <s v="CDI Puerto nuevo"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="24"/>
+    <n v="36"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2019-02-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="4"/>
+    <s v="Zona Bananera"/>
+    <s v="CDI Guacamayal"/>
+    <n v="76"/>
+    <n v="107893400"/>
+    <n v="0"/>
+    <n v="76"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-04-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <s v="PENDIENTE"/>
+    <m/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="4"/>
+    <s v="Chivolo"/>
+    <s v="CDI La china"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-10-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="17"/>
+    <s v="Policarpa"/>
+    <s v="CDI Madrigal"/>
+    <n v="60"/>
+    <n v="85179000"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-06-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="17"/>
+    <s v="Guachucal"/>
+    <s v="CDI Guachucal"/>
+    <n v="36"/>
+    <n v="51107400"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="36"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="En Ejecución"/>
+    <d v="2019-07-01T00:00:00"/>
+    <s v="Sujeto a compromisos por parte del Ente Territorial "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="18"/>
+    <s v="Zulia"/>
+    <s v="CDI Vereda de Astilleros"/>
+    <n v="65"/>
+    <n v="92277250"/>
+    <n v="38"/>
+    <n v="24"/>
+    <n v="3"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Falta construcción de área de Administración y cocina"/>
+    <d v="2019-02-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="24"/>
+    <s v="San Luis"/>
+    <s v="CDI MI bohio"/>
+    <n v="92"/>
+    <n v="130607800"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="92"/>
+    <x v="7"/>
+    <s v="Terminada"/>
+    <s v="Terminada"/>
+    <d v="2019-04-01T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <m/>
+    <s v="Recurso en la regional"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="3"/>
+    <s v="Pacho "/>
+    <s v="HI Nuevo Amanecer"/>
+    <n v="160"/>
+    <n v="151437600"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="135"/>
+    <x v="8"/>
+    <s v="En Ejecución"/>
+    <s v="Falta energizar "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2018-11-01T00:00:00"/>
+    <m/>
+    <s v="Modalidad: HI, se realizara la ampliación de cobertura en enero, en espera de gestion para tránsito a CDI"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="113"/>
+    <x v="20"/>
+    <s v="Jamundí"/>
+    <s v="CDI El Rodeo"/>
+    <n v="300"/>
+    <n v="283945500"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="Terminada"/>
+    <s v="Falta dotación "/>
+    <d v="2019-03-01T00:00:00"/>
+    <d v="2018-12-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="114"/>
+    <x v="11"/>
+    <s v="Aquitania"/>
+    <s v="CDI Aquitania"/>
+    <n v="100"/>
+    <m/>
+    <n v="0"/>
+    <n v="100"/>
+    <n v="0"/>
+    <x v="7"/>
+    <s v="Terminada"/>
+    <s v="Pendiente aval tecnico"/>
+    <d v="2019-03-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="11"/>
+    <s v="Santana"/>
+    <s v="HA Santana"/>
+    <n v="36"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="36"/>
+    <x v="7"/>
+    <s v="En Ejecución"/>
+    <s v="Inconclusa"/>
+    <d v="2019-10-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="7"/>
+    <s v="La Ceja"/>
+    <s v="CDI Mundo de Colores"/>
+    <n v="320"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="320"/>
+    <x v="9"/>
+    <s v="En Ejecución"/>
+    <s v="En ejecución"/>
+    <d v="2019-09-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="7"/>
+    <s v="El Retiro"/>
+    <s v="CDI El Guarceñito"/>
+    <n v="320"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="320"/>
+    <x v="9"/>
+    <s v="En Ejecución"/>
+    <s v="En ejecución"/>
+    <d v="2019-08-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="7"/>
+    <s v="Sabanalarga"/>
+    <s v="CDI San Gabriel"/>
+    <n v="65"/>
+    <m/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="0"/>
+    <x v="9"/>
+    <s v="En Ejecución"/>
+    <s v="En ejecución"/>
+    <d v="2019-10-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="7"/>
+    <s v="San Andrés de Cuerquia"/>
+    <s v="CDI Mi Mundo Feliz"/>
+    <n v="90"/>
+    <m/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="0"/>
+    <x v="9"/>
+    <s v="En Ejecución"/>
+    <s v="En ejecución"/>
+    <d v="2019-10-01T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0AA14C6-7466-4F5A-8134-F8F6CD4422BE}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Aportante" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF304B68-5ED3-4C61-837F-7AB5C7EE9454}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="22"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="74">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Aportante" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2219,9 +5163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,19 +5193,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
+      <c r="A2" s="34" t="s">
+        <v>401</v>
+      </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +5220,9 @@
       <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>400</v>
+      </c>
       <c r="G2" s="29" t="s">
         <v>247</v>
       </c>
@@ -7805,7 +10753,7 @@
         <v>266</v>
       </c>
       <c r="Q114" s="49"/>
-      <c r="R114" s="68"/>
+      <c r="R114" s="55"/>
     </row>
     <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
@@ -8121,45 +11069,45 @@
       <c r="R121" s="16"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="55" t="s">
+      <c r="A122" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
-      <c r="L122" s="55"/>
-      <c r="M122" s="55"/>
-      <c r="N122" s="55"/>
-      <c r="O122" s="55"/>
-      <c r="P122" s="55"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="56"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="56"/>
+      <c r="P122" s="56"/>
       <c r="Q122" s="40"/>
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="55"/>
-      <c r="L123" s="55"/>
-      <c r="M123" s="55"/>
-      <c r="N123" s="55"/>
-      <c r="O123" s="55"/>
-      <c r="P123" s="55"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="56"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="56"/>
+      <c r="P123" s="56"/>
       <c r="Q123" s="40"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8226,6 +11174,839 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB80494-F984-49C0-B6C5-D450DF8FDA4A}">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="72">
+        <v>23</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="74">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="72">
+        <v>11</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="72">
+        <v>14</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="72">
+        <v>22</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="72">
+        <v>22</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="72">
+        <v>10</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="72">
+        <v>1</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="72">
+        <v>10</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="72">
+        <v>4</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="72">
+        <v>2</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="72">
+        <v>119</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" s="75">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF83616A-AE60-4F15-82A3-EDD8906161CD}">
+  <dimension ref="A3:B77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="72">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" s="72">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4B4E93-6AB9-4BD8-8821-A65BA2550265}">
   <dimension ref="B3:G14"/>
   <sheetViews>
@@ -8483,7 +12264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G24"/>
@@ -8619,15 +12400,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9059,7 +12840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9081,15 +12862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9115,15 +12896,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -9195,15 +12976,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9436,15 +13217,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -9539,15 +13320,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -9677,7 +13458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -9746,18 +13527,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -9794,10 +13575,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -9836,16 +13617,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="68"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -9864,10 +13645,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389270A7-6271-427C-90DD-DAF42C7CBD7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2006B8B-7527-4A56-B837-72EDB4D3209A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1923,6 +1923,22 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1962,22 +1978,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4494,7 +4494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0AA14C6-7466-4F5A-8134-F8F6CD4422BE}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0AA14C6-7466-4F5A-8134-F8F6CD4422BE}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4587,7 +4587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF304B68-5ED3-4C61-837F-7AB5C7EE9454}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF304B68-5ED3-4C61-837F-7AB5C7EE9454}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -5165,7 +5165,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R121"/>
+      <selection pane="bottomLeft" activeCell="Q120" sqref="Q120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,13 +5193,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
@@ -11069,45 +11069,45 @@
       <c r="R121" s="16"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="56" t="s">
+      <c r="A122" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="56"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="56"/>
-      <c r="N122" s="56"/>
-      <c r="O122" s="56"/>
-      <c r="P122" s="56"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
+      <c r="L122" s="64"/>
+      <c r="M122" s="64"/>
+      <c r="N122" s="64"/>
+      <c r="O122" s="64"/>
+      <c r="P122" s="64"/>
       <c r="Q122" s="40"/>
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="56" t="s">
+      <c r="A123" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
-      <c r="L123" s="56"/>
-      <c r="M123" s="56"/>
-      <c r="N123" s="56"/>
-      <c r="O123" s="56"/>
-      <c r="P123" s="56"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="64"/>
+      <c r="L123" s="64"/>
+      <c r="M123" s="64"/>
+      <c r="N123" s="64"/>
+      <c r="O123" s="64"/>
+      <c r="P123" s="64"/>
       <c r="Q123" s="40"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -11190,170 +11190,170 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="56" t="s">
         <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>404</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="62" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="59">
         <v>23</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="61">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="59">
         <v>11</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="61">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="59">
         <v>14</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="61">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="59">
         <v>22</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="61">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="59">
         <v>22</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="61">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="59">
         <v>10</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="59">
         <v>1</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="59">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="59">
         <v>4</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="59">
         <v>2</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="59">
         <v>119</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="62">
         <v>119</v>
       </c>
     </row>
@@ -11402,7 +11402,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="56" t="s">
         <v>402</v>
       </c>
       <c r="B3" t="s">
@@ -11410,594 +11410,594 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="59">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="59">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="59">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="59">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="59">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="59">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="59">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="59">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="59">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="59">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="72">
+      <c r="B35" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="72">
+      <c r="B36" s="59">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="72">
+      <c r="B37" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="72">
+      <c r="B38" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="72">
+      <c r="B40" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="72">
+      <c r="B41" s="59">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="72">
+      <c r="B42" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="72">
+      <c r="B43" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="72">
+      <c r="B45" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="72">
+      <c r="B47" s="59">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="72">
+      <c r="B48" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="72">
+      <c r="B49" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="72">
+      <c r="B50" s="59">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="72">
+      <c r="B51" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="72">
+      <c r="B52" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="72">
+      <c r="B53" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="72">
+      <c r="B54" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="72">
+      <c r="B55" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="72">
+      <c r="B56" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="72">
+      <c r="B57" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="72">
+      <c r="B58" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="72">
+      <c r="B59" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="72">
+      <c r="B60" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="72">
+      <c r="B61" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="72">
+      <c r="B62" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="72">
+      <c r="B63" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="72">
+      <c r="B64" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="72">
+      <c r="B65" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="72">
+      <c r="B66" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="72">
+      <c r="B67" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="72">
+      <c r="B68" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="72">
+      <c r="B69" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="72">
+      <c r="B70" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="72">
+      <c r="B71" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="B72" s="72">
+      <c r="B72" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="72">
+      <c r="B73" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="72">
+      <c r="B74" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="72">
+      <c r="B75" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="72">
+      <c r="B76" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="B77" s="72">
+      <c r="B77" s="59">
         <v>119</v>
       </c>
     </row>
@@ -12400,15 +12400,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -12862,15 +12862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -12896,15 +12896,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12976,15 +12976,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -13217,15 +13217,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -13320,15 +13320,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -13527,18 +13527,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -13575,10 +13575,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
@@ -13617,16 +13617,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="68"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
@@ -13645,10 +13645,10 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="63"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2006B8B-7527-4A56-B837-72EDB4D3209A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -23,13 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$S$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$T$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="415">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1376,9 +1373,6 @@
 No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019</t>
   </si>
   <si>
-    <t>Dotación compartida Alcaldía- DAPRE (Abu Dhabi)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDI El Retén </t>
   </si>
   <si>
@@ -1390,9 +1384,6 @@
 No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1Abril 2019</t>
   </si>
   <si>
-    <t>Dotación CODAPRE</t>
-  </si>
-  <si>
     <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes por adquirir 1177 elementos por un valor aproximdo de $90.320.180</t>
   </si>
   <si>
@@ -1442,17 +1433,47 @@
   </si>
   <si>
     <t>N° Infraestructuras</t>
+  </si>
+  <si>
+    <t>Dotacion completa</t>
+  </si>
+  <si>
+    <t>Parcial por despachar en febrero desde Sede Nacional y se asignaron recursos ICBF para comprar la dotación restante en el marco del contrato de aporte firmado en enero 2019.</t>
+  </si>
+  <si>
+    <t>La Montañita</t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Terminada?</t>
+  </si>
+  <si>
+    <t>Dotación gestionada por la Consejería Presidencial de Primera Infancia con aportes de Entes Territoriales.</t>
+  </si>
+  <si>
+    <t>ALCALDIA</t>
+  </si>
+  <si>
+    <t>DOTACION PARCIAL</t>
+  </si>
+  <si>
+    <t>Dotación CDAPRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1545,22 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1630,28 +1667,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1687,26 +1724,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,11 +1803,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1945,6 +1984,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1978,9 +2023,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1996,16 +2046,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="CARLOS EDUARDO MADRID GOMEZ" id="{635DB611-C8C0-F041-97E8-AAC1CBABEC36}" userId="S::cmadrid97@upc.edu.co::d9b6251e-160e-43aa-b446-4c5392a2f64c" providerId="AD"/>
-</personList>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43501.629931365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="119" xr:uid="{DD7BC76C-4883-47C0-AA66-B69E28C93103}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43501.629931365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="119">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:R121" sheet="Matriz"/>
+    <worksheetSource ref="A2:S122" sheet="Matriz"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="n°" numFmtId="0">
@@ -4494,7 +4538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0AA14C6-7466-4F5A-8134-F8F6CD4422BE}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4587,7 +4631,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF304B68-5ED3-4C61-837F-7AB5C7EE9454}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4941,7 +4985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4976,7 +5020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5153,60 +5197,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q120" sqref="Q120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="70.28515625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="41" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="70.33203125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="37.1640625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="47.5" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="41" customWidth="1"/>
     <col min="16" max="16" width="49" style="41" customWidth="1"/>
     <col min="17" max="17" width="49" style="50" customWidth="1"/>
-    <col min="18" max="18" width="94" style="41" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="41"/>
+    <col min="18" max="18" width="19" style="50" customWidth="1"/>
+    <col min="19" max="19" width="94" style="41" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="41" customWidth="1"/>
+    <col min="21" max="16384" width="11.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:19" s="32" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
       <c r="Q1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="65"/>
+    </row>
+    <row r="2" spans="1:19" s="35" customFormat="1" ht="72.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -5221,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>247</v>
@@ -5257,10 +5304,13 @@
         <v>365</v>
       </c>
       <c r="R2" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="S2" s="46" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -5309,11 +5359,12 @@
       <c r="Q3" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="36"/>
+      <c r="S3" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="39" customFormat="1" ht="154" hidden="1">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -5362,11 +5413,12 @@
       <c r="Q4" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="47"/>
+      <c r="S4" s="16" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -5415,7 +5467,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="39" customFormat="1" ht="98" hidden="1">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -5464,11 +5516,12 @@
       <c r="Q6" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -5515,11 +5568,12 @@
       <c r="O7" s="15"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="47"/>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="47"/>
+      <c r="S7" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="39" customFormat="1" ht="56" hidden="1">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -5566,9 +5620,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="47"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -5617,11 +5672,12 @@
       <c r="Q9" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="39" customFormat="1" ht="140" hidden="1">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -5670,11 +5726,12 @@
       <c r="Q10" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="47"/>
+      <c r="S10" s="16" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="39" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -5723,11 +5780,12 @@
       <c r="Q11" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="51"/>
+      <c r="S11" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -5774,9 +5832,10 @@
       <c r="O12" s="15"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="47"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R12" s="47"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -5823,9 +5882,10 @@
       <c r="O13" s="15"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="47"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R13" s="47"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -5875,11 +5935,12 @@
       <c r="Q14" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="R14" s="52" t="s">
+      <c r="R14" s="51"/>
+      <c r="S14" s="52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -5928,11 +5989,12 @@
       <c r="Q15" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="R15" s="51"/>
+      <c r="S15" s="52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="39" customFormat="1" ht="70" hidden="1">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -5981,11 +6043,12 @@
       <c r="Q16" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="47"/>
+      <c r="S16" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -6032,9 +6095,10 @@
       <c r="O17" s="15"/>
       <c r="P17" s="44"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R17" s="47"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -6045,7 +6109,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E18" s="15">
         <v>95</v>
@@ -6081,9 +6145,10 @@
       <c r="O18" s="15"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R18" s="47"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -6130,9 +6195,10 @@
       <c r="O19" s="15"/>
       <c r="P19" s="44"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R19" s="47"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -6179,9 +6245,10 @@
       <c r="O20" s="15"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R20" s="47"/>
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -6228,9 +6295,10 @@
       <c r="O21" s="15"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R21" s="47"/>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -6277,9 +6345,10 @@
       <c r="O22" s="15"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="47"/>
+      <c r="S22" s="16"/>
+    </row>
+    <row r="23" spans="1:19" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -6328,11 +6397,12 @@
       <c r="Q23" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="R23" s="49"/>
+      <c r="S23" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -6379,9 +6449,10 @@
       <c r="O24" s="16"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="49"/>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R24" s="49"/>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -6425,9 +6496,10 @@
       <c r="O25" s="16"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="49"/>
-      <c r="R25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R25" s="49"/>
+      <c r="S25" s="16"/>
+    </row>
+    <row r="26" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -6471,9 +6543,10 @@
       <c r="O26" s="16"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R26" s="49"/>
+      <c r="S26" s="16"/>
+    </row>
+    <row r="27" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -6517,9 +6590,10 @@
       <c r="O27" s="16"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="49"/>
-      <c r="R27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R27" s="49"/>
+      <c r="S27" s="16"/>
+    </row>
+    <row r="28" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -6563,9 +6637,10 @@
       <c r="O28" s="16"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="49"/>
-      <c r="R28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R28" s="49"/>
+      <c r="S28" s="16"/>
+    </row>
+    <row r="29" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -6611,9 +6686,10 @@
         <v>296</v>
       </c>
       <c r="Q29" s="49"/>
-      <c r="R29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R29" s="49"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -6657,9 +6733,10 @@
       <c r="O30" s="16"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R30" s="49"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -6703,9 +6780,10 @@
       <c r="O31" s="16"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="49"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R31" s="49"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -6749,9 +6827,10 @@
       <c r="O32" s="16"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="49"/>
-      <c r="R32" s="16"/>
-    </row>
-    <row r="33" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R32" s="49"/>
+      <c r="S32" s="16"/>
+    </row>
+    <row r="33" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -6795,9 +6874,10 @@
       <c r="O33" s="16"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="16"/>
-    </row>
-    <row r="34" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R33" s="49"/>
+      <c r="S33" s="16"/>
+    </row>
+    <row r="34" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -6841,9 +6921,10 @@
       <c r="O34" s="16"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="49"/>
-      <c r="R34" s="16"/>
-    </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R34" s="49"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -6890,9 +6971,10 @@
         <v>300</v>
       </c>
       <c r="Q35" s="49"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R35" s="49"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -6938,9 +7020,10 @@
         <v>302</v>
       </c>
       <c r="Q36" s="49"/>
-      <c r="R36" s="16"/>
-    </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R36" s="49"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -6986,9 +7069,10 @@
         <v>300</v>
       </c>
       <c r="Q37" s="49"/>
-      <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R37" s="49"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -7036,9 +7120,10 @@
       <c r="Q38" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R38" s="16"/>
-    </row>
-    <row r="39" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R38" s="51"/>
+      <c r="S38" s="16"/>
+    </row>
+    <row r="39" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -7084,9 +7169,10 @@
         <v>300</v>
       </c>
       <c r="Q39" s="49"/>
-      <c r="R39" s="16"/>
-    </row>
-    <row r="40" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R39" s="49"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -7133,9 +7219,10 @@
         <v>307</v>
       </c>
       <c r="Q40" s="49"/>
-      <c r="R40" s="16"/>
-    </row>
-    <row r="41" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R40" s="49"/>
+      <c r="S40" s="16"/>
+    </row>
+    <row r="41" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -7181,9 +7268,10 @@
         <v>300</v>
       </c>
       <c r="Q41" s="49"/>
-      <c r="R41" s="16"/>
-    </row>
-    <row r="42" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R41" s="49"/>
+      <c r="S41" s="16"/>
+    </row>
+    <row r="42" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -7229,9 +7317,10 @@
         <v>300</v>
       </c>
       <c r="Q42" s="49"/>
-      <c r="R42" s="16"/>
-    </row>
-    <row r="43" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R42" s="49"/>
+      <c r="S42" s="16"/>
+    </row>
+    <row r="43" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -7278,9 +7367,10 @@
         <v>300</v>
       </c>
       <c r="Q43" s="49"/>
-      <c r="R43" s="16"/>
-    </row>
-    <row r="44" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R43" s="49"/>
+      <c r="S43" s="16"/>
+    </row>
+    <row r="44" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -7326,9 +7416,10 @@
         <v>300</v>
       </c>
       <c r="Q44" s="49"/>
-      <c r="R44" s="16"/>
-    </row>
-    <row r="45" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R44" s="49"/>
+      <c r="S44" s="16"/>
+    </row>
+    <row r="45" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -7375,9 +7466,10 @@
         <v>300</v>
       </c>
       <c r="Q45" s="49"/>
-      <c r="R45" s="16"/>
-    </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R45" s="49"/>
+      <c r="S45" s="16"/>
+    </row>
+    <row r="46" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -7423,9 +7515,10 @@
         <v>300</v>
       </c>
       <c r="Q46" s="49"/>
-      <c r="R46" s="16"/>
-    </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R46" s="49"/>
+      <c r="S46" s="16"/>
+    </row>
+    <row r="47" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -7471,9 +7564,10 @@
         <v>300</v>
       </c>
       <c r="Q47" s="49"/>
-      <c r="R47" s="16"/>
-    </row>
-    <row r="48" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R47" s="49"/>
+      <c r="S47" s="16"/>
+    </row>
+    <row r="48" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -7519,9 +7613,10 @@
         <v>300</v>
       </c>
       <c r="Q48" s="49"/>
-      <c r="R48" s="16"/>
-    </row>
-    <row r="49" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R48" s="49"/>
+      <c r="S48" s="16"/>
+    </row>
+    <row r="49" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -7561,9 +7656,10 @@
         <v>315</v>
       </c>
       <c r="Q49" s="49"/>
-      <c r="R49" s="16"/>
-    </row>
-    <row r="50" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R49" s="49"/>
+      <c r="S49" s="16"/>
+    </row>
+    <row r="50" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -7610,9 +7706,10 @@
         <v>300</v>
       </c>
       <c r="Q50" s="49"/>
-      <c r="R50" s="16"/>
-    </row>
-    <row r="51" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R50" s="49"/>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -7658,9 +7755,10 @@
         <v>300</v>
       </c>
       <c r="Q51" s="49"/>
-      <c r="R51" s="16"/>
-    </row>
-    <row r="52" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R51" s="49"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -7706,9 +7804,10 @@
         <v>300</v>
       </c>
       <c r="Q52" s="49"/>
-      <c r="R52" s="16"/>
-    </row>
-    <row r="53" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R52" s="49"/>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -7754,9 +7853,10 @@
         <v>318</v>
       </c>
       <c r="Q53" s="49"/>
-      <c r="R53" s="16"/>
-    </row>
-    <row r="54" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R53" s="49"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -7802,9 +7902,10 @@
         <v>300</v>
       </c>
       <c r="Q54" s="49"/>
-      <c r="R54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R54" s="49"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -7850,9 +7951,10 @@
         <v>300</v>
       </c>
       <c r="Q55" s="49"/>
-      <c r="R55" s="16"/>
-    </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R55" s="49"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -7898,9 +8000,10 @@
         <v>300</v>
       </c>
       <c r="Q56" s="49"/>
-      <c r="R56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="R56" s="49"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="1:19" s="39" customFormat="1" ht="84">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -7947,11 +8050,14 @@
       <c r="Q57" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="R57" s="16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="R57" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="39" customFormat="1">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -7959,57 +8065,60 @@
         <v>105</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="E58" s="23">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23">
         <v>0</v>
       </c>
-      <c r="H58" s="23">
-        <v>160</v>
-      </c>
-      <c r="I58" s="23">
-        <v>0</v>
+      <c r="H58" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>409</v>
       </c>
       <c r="J58" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>64</v>
+        <v>410</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="M58" s="20">
-        <v>43556</v>
-      </c>
-      <c r="N58" s="38">
-        <v>43497</v>
+        <v>410</v>
+      </c>
+      <c r="M58" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>409</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="R58" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="R58" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="39" customFormat="1" ht="84">
       <c r="A59" s="36">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>105</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>125</v>
@@ -8031,50 +8140,51 @@
         <v>103</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="L59" s="27" t="s">
         <v>64</v>
       </c>
       <c r="M59" s="20">
+        <v>43556</v>
+      </c>
+      <c r="N59" s="38">
         <v>43497</v>
       </c>
-      <c r="N59" s="38">
-        <v>43373</v>
-      </c>
       <c r="O59" s="16"/>
-      <c r="P59" s="45" t="s">
-        <v>267</v>
-      </c>
+      <c r="P59" s="45"/>
       <c r="Q59" s="49" t="s">
-        <v>389</v>
-      </c>
-      <c r="R59" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="R59" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="39" customFormat="1" ht="28">
       <c r="A60" s="36">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="23">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H60" s="23">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="I60" s="23">
         <v>0</v>
@@ -8083,54 +8193,56 @@
         <v>103</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="L60" s="27" t="s">
         <v>64</v>
       </c>
       <c r="M60" s="20">
-        <v>43556</v>
+        <v>43497</v>
       </c>
       <c r="N60" s="38">
-        <v>43497</v>
+        <v>43373</v>
       </c>
       <c r="O60" s="16"/>
-      <c r="P60" s="45"/>
+      <c r="P60" s="45" t="s">
+        <v>267</v>
+      </c>
       <c r="Q60" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="R60" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="39" customFormat="1" ht="84">
       <c r="A61" s="36">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61" s="23">
-        <v>160</v>
-      </c>
-      <c r="F61" s="37">
-        <f t="shared" ref="F61" si="3">+E61*946485</f>
-        <v>151437600</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F61" s="23"/>
       <c r="G61" s="23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H61" s="23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I61" s="23">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J61" s="23" t="s">
         <v>103</v>
@@ -8142,243 +8254,255 @@
         <v>64</v>
       </c>
       <c r="M61" s="20">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="N61" s="38">
         <v>43497</v>
       </c>
       <c r="O61" s="16"/>
       <c r="P61" s="45"/>
-      <c r="Q61" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="R61" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q61" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="R61" s="49"/>
+      <c r="S61" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="39" customFormat="1" ht="28">
       <c r="A62" s="36">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E62" s="23">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="F62" s="37">
-        <f>+E62*1419650</f>
-        <v>92277250</v>
+        <f t="shared" ref="F62" si="3">+E62*946485</f>
+        <v>151437600</v>
       </c>
       <c r="G62" s="23">
-        <f>+E62-I62</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H62" s="23">
         <v>0</v>
       </c>
       <c r="I62" s="23">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="J62" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="L62" s="27" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="M62" s="20">
         <v>43525</v>
       </c>
-      <c r="N62" s="38" t="s">
-        <v>129</v>
+      <c r="N62" s="38">
+        <v>43497</v>
       </c>
       <c r="O62" s="16"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="R62" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="R62" s="51"/>
+      <c r="S62" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="39" customFormat="1" ht="28">
       <c r="A63" s="36">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E63" s="23">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F63" s="37">
-        <f t="shared" ref="F63" si="4">+E63*1419650</f>
-        <v>134866750</v>
+        <f>+E63*1419650</f>
+        <v>92277250</v>
       </c>
       <c r="G63" s="23">
-        <v>0</v>
+        <f>+E63-I63</f>
+        <v>22</v>
       </c>
       <c r="H63" s="23">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I63" s="23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J63" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="L63" s="27" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M63" s="20">
-        <v>43556</v>
-      </c>
-      <c r="N63" s="38">
-        <v>43497</v>
+        <v>43525</v>
+      </c>
+      <c r="N63" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="O63" s="16"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="16"/>
-    </row>
-    <row r="64" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="R63" s="51"/>
+      <c r="S63" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="39" customFormat="1">
       <c r="A64" s="36">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E64" s="23">
-        <v>50</v>
-      </c>
-      <c r="F64" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="F64" s="37">
+        <f t="shared" ref="F64" si="4">+E64*1419650</f>
+        <v>134866750</v>
+      </c>
       <c r="G64" s="23">
         <v>0</v>
       </c>
       <c r="H64" s="23">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I64" s="23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J64" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="L64" s="27" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="M64" s="20">
+        <v>43556</v>
+      </c>
+      <c r="N64" s="38">
         <v>43497</v>
       </c>
-      <c r="N64" s="38">
-        <v>43344</v>
-      </c>
       <c r="O64" s="16"/>
-      <c r="P64" s="45" t="s">
-        <v>262</v>
-      </c>
+      <c r="P64" s="45"/>
       <c r="Q64" s="49"/>
-      <c r="R64" s="16"/>
-    </row>
-    <row r="65" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="49"/>
+      <c r="S64" s="16"/>
+    </row>
+    <row r="65" spans="1:19" s="39" customFormat="1">
       <c r="A65" s="36">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E65" s="23">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23">
-        <f>+E65-I65</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H65" s="23">
         <v>0</v>
       </c>
       <c r="I65" s="23">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J65" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="L65" s="27" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="M65" s="20">
-        <v>43556</v>
+        <v>43497</v>
       </c>
       <c r="N65" s="38">
-        <v>43497</v>
+        <v>43344</v>
       </c>
       <c r="O65" s="16"/>
-      <c r="P65" s="45"/>
+      <c r="P65" s="45" t="s">
+        <v>262</v>
+      </c>
       <c r="Q65" s="49"/>
-      <c r="R65" s="16"/>
-    </row>
-    <row r="66" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R65" s="49"/>
+      <c r="S65" s="16"/>
+    </row>
+    <row r="66" spans="1:19" s="39" customFormat="1">
       <c r="A66" s="36">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E66" s="23">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23">
-        <v>5</v>
+        <f>+E66-I66</f>
+        <v>23</v>
       </c>
       <c r="H66" s="23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I66" s="23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J66" s="23" t="s">
         <v>103</v>
@@ -8390,42 +8514,42 @@
         <v>64</v>
       </c>
       <c r="M66" s="20">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="N66" s="38">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="O66" s="16"/>
       <c r="P66" s="45"/>
       <c r="Q66" s="49"/>
-      <c r="R66" s="16"/>
-    </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="49"/>
+      <c r="S66" s="16"/>
+    </row>
+    <row r="67" spans="1:19" s="39" customFormat="1">
       <c r="A67" s="36">
+        <v>64</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="23">
         <v>65</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E67" s="23">
-        <v>160</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="23">
-        <f>+E67-I67</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I67" s="23">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J67" s="23" t="s">
         <v>103</v>
@@ -8443,37 +8567,37 @@
         <v>43525</v>
       </c>
       <c r="O67" s="16"/>
-      <c r="P67" s="45" t="s">
-        <v>257</v>
-      </c>
+      <c r="P67" s="45"/>
       <c r="Q67" s="49"/>
-      <c r="R67" s="16"/>
-    </row>
-    <row r="68" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="49"/>
+      <c r="S67" s="16"/>
+    </row>
+    <row r="68" spans="1:19" s="39" customFormat="1">
       <c r="A68" s="36">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="E68" s="23">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23">
         <v>0</v>
       </c>
       <c r="H68" s="23">
+        <f>+E68-I68</f>
+        <v>65</v>
+      </c>
+      <c r="I68" s="23">
         <v>95</v>
-      </c>
-      <c r="I68" s="23">
-        <v>0</v>
       </c>
       <c r="J68" s="23" t="s">
         <v>103</v>
@@ -8485,38 +8609,41 @@
         <v>64</v>
       </c>
       <c r="M68" s="20">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="N68" s="38">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="O68" s="16"/>
-      <c r="P68" s="45"/>
+      <c r="P68" s="45" t="s">
+        <v>257</v>
+      </c>
       <c r="Q68" s="49"/>
-      <c r="R68" s="16"/>
-    </row>
-    <row r="69" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="49"/>
+      <c r="S68" s="16"/>
+    </row>
+    <row r="69" spans="1:19" s="39" customFormat="1">
       <c r="A69" s="36">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" s="23">
         <v>95</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H69" s="23">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I69" s="23">
         <v>0</v>
@@ -8531,41 +8658,39 @@
         <v>64</v>
       </c>
       <c r="M69" s="20">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="N69" s="38">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="45"/>
       <c r="Q69" s="49"/>
-      <c r="R69" s="16"/>
-    </row>
-    <row r="70" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R69" s="49"/>
+      <c r="S69" s="16"/>
+    </row>
+    <row r="70" spans="1:19" s="39" customFormat="1">
       <c r="A70" s="36">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="E70" s="23">
-        <v>300</v>
-      </c>
-      <c r="F70" s="37">
-        <f t="shared" ref="F70" si="5">+E70*946485</f>
-        <v>283945500</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F70" s="23"/>
       <c r="G70" s="23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H70" s="23">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="I70" s="23">
         <v>0</v>
@@ -8574,80 +8699,82 @@
         <v>103</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="L70" s="27" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="M70" s="20">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="N70" s="38">
-        <v>43313</v>
+        <v>43466</v>
       </c>
       <c r="O70" s="16"/>
-      <c r="P70" s="45" t="s">
-        <v>267</v>
-      </c>
+      <c r="P70" s="45"/>
       <c r="Q70" s="49"/>
-      <c r="R70" s="16"/>
-    </row>
-    <row r="71" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R70" s="49"/>
+      <c r="S70" s="16"/>
+    </row>
+    <row r="71" spans="1:19" s="39" customFormat="1" ht="28">
       <c r="A71" s="36">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="E71" s="23">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F71" s="37">
-        <f t="shared" ref="F71:F113" si="6">+E71*1419650</f>
-        <v>85179000</v>
+        <f t="shared" ref="F71" si="5">+E71*946485</f>
+        <v>283945500</v>
       </c>
       <c r="G71" s="23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H71" s="23">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I71" s="23">
         <v>0</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="K71" s="23" t="s">
         <v>260</v>
       </c>
       <c r="L71" s="27" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="M71" s="20">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="N71" s="38">
-        <v>43466</v>
+        <v>43313</v>
       </c>
       <c r="O71" s="16"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="R71" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P71" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q71" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="R71" s="49"/>
+      <c r="S71" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A72" s="36">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>65</v>
@@ -8656,13 +8783,13 @@
         <v>152</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E72" s="23">
         <v>60</v>
       </c>
       <c r="F72" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F72:F114" si="6">+E72*1419650</f>
         <v>85179000</v>
       </c>
       <c r="G72" s="23">
@@ -8694,13 +8821,14 @@
       <c r="Q72" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R72" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R72" s="51"/>
+      <c r="S72" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A73" s="36">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>65</v>
@@ -8709,7 +8837,7 @@
         <v>152</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="E73" s="23">
         <v>60</v>
@@ -8719,13 +8847,13 @@
         <v>85179000</v>
       </c>
       <c r="G73" s="23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H73" s="23">
         <v>0</v>
       </c>
       <c r="I73" s="23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>159</v>
@@ -8747,22 +8875,23 @@
       <c r="Q73" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R73" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R73" s="51"/>
+      <c r="S73" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A74" s="36">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="E74" s="23">
         <v>60</v>
@@ -8772,50 +8901,51 @@
         <v>85179000</v>
       </c>
       <c r="G74" s="23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H74" s="23">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I74" s="23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J74" s="23" t="s">
         <v>159</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="L74" s="27" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M74" s="20">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="N74" s="38">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="O74" s="16"/>
       <c r="P74" s="45"/>
       <c r="Q74" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R74" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="R74" s="51"/>
+      <c r="S74" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A75" s="36">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E75" s="23">
         <v>60</v>
@@ -8825,13 +8955,13 @@
         <v>85179000</v>
       </c>
       <c r="G75" s="23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H75" s="23">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I75" s="23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J75" s="23" t="s">
         <v>159</v>
@@ -8840,35 +8970,36 @@
         <v>64</v>
       </c>
       <c r="L75" s="27" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="M75" s="20">
         <v>43556</v>
       </c>
       <c r="N75" s="38">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="O75" s="16"/>
-      <c r="P75" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="53" t="s">
+      <c r="P75" s="45"/>
+      <c r="Q75" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R75" s="51"/>
+      <c r="S75" s="16" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="39" customFormat="1" ht="32" hidden="1">
       <c r="A76" s="36">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E76" s="23">
         <v>60</v>
@@ -8878,13 +9009,13 @@
         <v>85179000</v>
       </c>
       <c r="G76" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H76" s="23">
         <v>0</v>
       </c>
       <c r="I76" s="23">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J76" s="23" t="s">
         <v>159</v>
@@ -8893,7 +9024,7 @@
         <v>64</v>
       </c>
       <c r="L76" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M76" s="20">
         <v>43556</v>
@@ -8903,25 +9034,26 @@
       </c>
       <c r="O76" s="16"/>
       <c r="P76" s="45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q76" s="49"/>
-      <c r="R76" s="53" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="79"/>
+      <c r="S76" s="53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
       <c r="A77" s="36">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E77" s="23">
         <v>60</v>
@@ -8931,13 +9063,13 @@
         <v>85179000</v>
       </c>
       <c r="G77" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H77" s="23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I77" s="23">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J77" s="23" t="s">
         <v>159</v>
@@ -8946,33 +9078,36 @@
         <v>64</v>
       </c>
       <c r="L77" s="27" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="M77" s="20">
         <v>43556</v>
       </c>
       <c r="N77" s="38">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="O77" s="16"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="R77" s="16"/>
-    </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P77" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="79"/>
+      <c r="S77" s="53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A78" s="36">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>328</v>
+        <v>169</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E78" s="23">
         <v>60</v>
@@ -9010,22 +9145,21 @@
       <c r="Q78" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R78" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R78" s="51"/>
+      <c r="S78" s="16"/>
+    </row>
+    <row r="79" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A79" s="36">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E79" s="23">
         <v>60</v>
@@ -9038,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I79" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J79" s="23" t="s">
         <v>159</v>
@@ -9063,22 +9197,23 @@
       <c r="Q79" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R79" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R79" s="51"/>
+      <c r="S79" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A80" s="36">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80" s="23">
         <v>60</v>
@@ -9116,36 +9251,39 @@
       <c r="Q80" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R80" s="16"/>
-    </row>
-    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="51"/>
+      <c r="S80" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A81" s="36">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E81" s="23">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="6"/>
-        <v>76661100</v>
+        <v>85179000</v>
       </c>
       <c r="G81" s="23">
         <v>0</v>
       </c>
       <c r="H81" s="23">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I81" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J81" s="23" t="s">
         <v>159</v>
@@ -9154,47 +9292,47 @@
         <v>64</v>
       </c>
       <c r="L81" s="27" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="M81" s="20">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="N81" s="38">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="45"/>
-      <c r="Q81" s="49" t="s">
+      <c r="Q81" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R81" s="16"/>
-    </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R81" s="51"/>
+      <c r="S81" s="16"/>
+    </row>
+    <row r="82" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A82" s="36">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E82" s="23">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F82" s="37">
         <f t="shared" si="6"/>
-        <v>113572000</v>
+        <v>76661100</v>
       </c>
       <c r="G82" s="23">
-        <f>+E82-H82</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H82" s="23">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I82" s="23">
         <v>0</v>
@@ -9205,47 +9343,49 @@
       <c r="K82" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L82" s="28" t="s">
-        <v>180</v>
+      <c r="L82" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="M82" s="20">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="N82" s="38">
         <v>43497</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="45"/>
-      <c r="Q82" s="51" t="s">
+      <c r="Q82" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="R82" s="16"/>
-    </row>
-    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="49"/>
+      <c r="S82" s="16"/>
+    </row>
+    <row r="83" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A83" s="36">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E83" s="23">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" si="6"/>
-        <v>85179000</v>
+        <v>113572000</v>
       </c>
       <c r="G83" s="23">
-        <v>0</v>
+        <f>+E83-H83</f>
+        <v>24</v>
       </c>
       <c r="H83" s="23">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I83" s="23">
         <v>0</v>
@@ -9270,33 +9410,34 @@
       <c r="Q83" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R83" s="16"/>
-    </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="51"/>
+      <c r="S83" s="16"/>
+    </row>
+    <row r="84" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A84" s="36">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E84" s="23">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="6"/>
-        <v>113572000</v>
+        <v>85179000</v>
       </c>
       <c r="G84" s="23">
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I84" s="23">
         <v>0</v>
@@ -9318,36 +9459,37 @@
       </c>
       <c r="O84" s="16"/>
       <c r="P84" s="45"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q84" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R84" s="51"/>
+      <c r="S84" s="16"/>
+    </row>
+    <row r="85" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A85" s="36">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E85" s="23">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="6"/>
-        <v>85179000</v>
+        <v>113572000</v>
       </c>
       <c r="G85" s="23">
         <v>0</v>
       </c>
       <c r="H85" s="23">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I85" s="23">
         <v>0</v>
@@ -9358,7 +9500,7 @@
       <c r="K85" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L85" s="27" t="s">
+      <c r="L85" s="28" t="s">
         <v>180</v>
       </c>
       <c r="M85" s="20">
@@ -9369,14 +9511,15 @@
       </c>
       <c r="O85" s="16"/>
       <c r="P85" s="45"/>
-      <c r="Q85" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="R85" s="16"/>
-    </row>
-    <row r="86" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A86" s="36">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>19</v>
@@ -9385,7 +9528,7 @@
         <v>183</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E86" s="23">
         <v>60</v>
@@ -9398,10 +9541,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I86" s="23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J86" s="23" t="s">
         <v>159</v>
@@ -9410,33 +9553,34 @@
         <v>64</v>
       </c>
       <c r="L86" s="27" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="M86" s="20">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="N86" s="38">
-        <v>43586</v>
+        <v>43497</v>
       </c>
       <c r="O86" s="16"/>
       <c r="P86" s="45"/>
       <c r="Q86" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R86" s="16"/>
-    </row>
-    <row r="87" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="51"/>
+      <c r="S86" s="16"/>
+    </row>
+    <row r="87" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A87" s="36">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E87" s="23">
         <v>60</v>
@@ -9449,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I87" s="23">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J87" s="23" t="s">
         <v>159</v>
@@ -9464,28 +9608,31 @@
         <v>64</v>
       </c>
       <c r="M87" s="20">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="N87" s="38">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="O87" s="16"/>
       <c r="P87" s="45"/>
-      <c r="Q87" s="49"/>
-      <c r="R87" s="16"/>
-    </row>
-    <row r="88" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q87" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R87" s="51"/>
+      <c r="S87" s="16"/>
+    </row>
+    <row r="88" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A88" s="36">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E88" s="23">
         <v>60</v>
@@ -9495,13 +9642,13 @@
         <v>85179000</v>
       </c>
       <c r="G88" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H88" s="23">
         <v>50</v>
       </c>
       <c r="I88" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J88" s="23" t="s">
         <v>159</v>
@@ -9513,30 +9660,29 @@
         <v>64</v>
       </c>
       <c r="M88" s="20">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="N88" s="38">
-        <v>43497</v>
+        <v>43617</v>
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="45"/>
-      <c r="Q88" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="R88" s="16"/>
-    </row>
-    <row r="89" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="16"/>
+    </row>
+    <row r="89" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A89" s="36">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="C89" s="23" t="s">
         <v>188</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E89" s="23">
         <v>60</v>
@@ -9561,46 +9707,47 @@
         <v>64</v>
       </c>
       <c r="L89" s="27" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="M89" s="20">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="N89" s="38">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="O89" s="16"/>
       <c r="P89" s="45"/>
       <c r="Q89" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R89" s="16"/>
-    </row>
-    <row r="90" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R89" s="51"/>
+      <c r="S89" s="16"/>
+    </row>
+    <row r="90" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A90" s="36">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E90" s="23">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="6"/>
-        <v>76661100</v>
+        <v>85179000</v>
       </c>
       <c r="G90" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H90" s="23">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I90" s="23">
         <v>0</v>
@@ -9612,46 +9759,47 @@
         <v>64</v>
       </c>
       <c r="L90" s="27" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M90" s="20">
-        <v>43617</v>
+        <v>43525</v>
       </c>
       <c r="N90" s="38">
-        <v>43617</v>
+        <v>43466</v>
       </c>
       <c r="O90" s="16"/>
       <c r="P90" s="45"/>
-      <c r="Q90" s="49"/>
-      <c r="R90" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q90" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R90" s="51"/>
+      <c r="S90" s="16"/>
+    </row>
+    <row r="91" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A91" s="36">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E91" s="23">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="6"/>
-        <v>113572000</v>
+        <v>76661100</v>
       </c>
       <c r="G91" s="23">
         <v>0</v>
       </c>
       <c r="H91" s="23">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I91" s="23">
         <v>0</v>
@@ -9663,35 +9811,34 @@
         <v>64</v>
       </c>
       <c r="L91" s="27" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="M91" s="20">
-        <v>43739</v>
+        <v>43617</v>
       </c>
       <c r="N91" s="38">
-        <v>43739</v>
+        <v>43617</v>
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="45"/>
-      <c r="Q91" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="R91" s="16" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A92" s="36">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E92" s="23">
         <v>80</v>
@@ -9704,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="23">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I92" s="23">
         <v>0</v>
@@ -9716,74 +9863,88 @@
         <v>64</v>
       </c>
       <c r="L92" s="27" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M92" s="20">
-        <v>43617</v>
+        <v>43739</v>
       </c>
       <c r="N92" s="38">
-        <v>43617</v>
+        <v>43739</v>
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="45"/>
-      <c r="Q92" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="R92" s="16"/>
-    </row>
-    <row r="93" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q92" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="R92" s="49"/>
+      <c r="S92" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A93" s="36">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E93" s="23">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="6"/>
-        <v>92277250</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+        <v>113572000</v>
+      </c>
+      <c r="G93" s="23">
+        <v>0</v>
+      </c>
+      <c r="H93" s="23">
+        <v>80</v>
+      </c>
+      <c r="I93" s="23">
+        <v>0</v>
+      </c>
       <c r="J93" s="23" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L93" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="M93" s="20"/>
-      <c r="N93" s="38" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="M93" s="20">
+        <v>43617</v>
+      </c>
+      <c r="N93" s="38">
+        <v>43617</v>
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="45"/>
-      <c r="Q93" s="49"/>
-      <c r="R93" s="16"/>
-    </row>
-    <row r="94" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q93" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R93" s="51"/>
+      <c r="S93" s="16"/>
+    </row>
+    <row r="94" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A94" s="36">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E94" s="23">
         <v>65</v>
@@ -9811,20 +9972,21 @@
       <c r="O94" s="16"/>
       <c r="P94" s="45"/>
       <c r="Q94" s="49"/>
-      <c r="R94" s="16"/>
-    </row>
-    <row r="95" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R94" s="49"/>
+      <c r="S94" s="16"/>
+    </row>
+    <row r="95" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A95" s="36">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E95" s="23">
         <v>65</v>
@@ -9852,20 +10014,21 @@
       <c r="O95" s="16"/>
       <c r="P95" s="45"/>
       <c r="Q95" s="49"/>
-      <c r="R95" s="16"/>
-    </row>
-    <row r="96" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R95" s="49"/>
+      <c r="S95" s="16"/>
+    </row>
+    <row r="96" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A96" s="36">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E96" s="23">
         <v>65</v>
@@ -9893,20 +10056,21 @@
       <c r="O96" s="16"/>
       <c r="P96" s="45"/>
       <c r="Q96" s="49"/>
-      <c r="R96" s="16"/>
-    </row>
-    <row r="97" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R96" s="49"/>
+      <c r="S96" s="16"/>
+    </row>
+    <row r="97" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A97" s="36">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E97" s="23">
         <v>65</v>
@@ -9934,27 +10098,28 @@
       <c r="O97" s="16"/>
       <c r="P97" s="45"/>
       <c r="Q97" s="49"/>
-      <c r="R97" s="16"/>
-    </row>
-    <row r="98" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R97" s="49"/>
+      <c r="S97" s="16"/>
+    </row>
+    <row r="98" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A98" s="36">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E98" s="23">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="6"/>
-        <v>70982500</v>
+        <v>92277250</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
@@ -9975,27 +10140,28 @@
       <c r="O98" s="16"/>
       <c r="P98" s="45"/>
       <c r="Q98" s="49"/>
-      <c r="R98" s="16"/>
-    </row>
-    <row r="99" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R98" s="49"/>
+      <c r="S98" s="16"/>
+    </row>
+    <row r="99" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A99" s="36">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E99" s="23">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="6"/>
-        <v>92277250</v>
+        <v>70982500</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
@@ -10016,20 +10182,21 @@
       <c r="O99" s="16"/>
       <c r="P99" s="45"/>
       <c r="Q99" s="49"/>
-      <c r="R99" s="16"/>
-    </row>
-    <row r="100" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R99" s="49"/>
+      <c r="S99" s="16"/>
+    </row>
+    <row r="100" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A100" s="36">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E100" s="23">
         <v>65</v>
@@ -10057,84 +10224,76 @@
       <c r="O100" s="16"/>
       <c r="P100" s="45"/>
       <c r="Q100" s="49"/>
-      <c r="R100" s="16"/>
-    </row>
-    <row r="101" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R100" s="49"/>
+      <c r="S100" s="16"/>
+    </row>
+    <row r="101" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A101" s="36">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="E101" s="23">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="6"/>
-        <v>147643600</v>
-      </c>
-      <c r="G101" s="23">
-        <v>0</v>
-      </c>
-      <c r="H101" s="23">
-        <v>104</v>
-      </c>
-      <c r="I101" s="23">
-        <v>0</v>
-      </c>
+        <v>92277250</v>
+      </c>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
       <c r="J101" s="23" t="s">
         <v>201</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="L101" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="M101" s="20">
-        <v>43525</v>
-      </c>
-      <c r="N101" s="38">
-        <v>43405</v>
+        <v>242</v>
+      </c>
+      <c r="M101" s="20"/>
+      <c r="N101" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="O101" s="16"/>
-      <c r="P101" s="45" t="s">
-        <v>258</v>
-      </c>
+      <c r="P101" s="45"/>
       <c r="Q101" s="49"/>
-      <c r="R101" s="16"/>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="49"/>
+      <c r="S101" s="16"/>
+    </row>
+    <row r="102" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A102" s="36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="E102" s="23">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="6"/>
-        <v>99375500</v>
+        <v>147643600</v>
       </c>
       <c r="G102" s="23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H102" s="23">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I102" s="23">
         <v>0</v>
@@ -10143,47 +10302,50 @@
         <v>201</v>
       </c>
       <c r="K102" s="23" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="L102" s="27" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M102" s="20">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="N102" s="38">
-        <v>43480</v>
+        <v>43405</v>
       </c>
       <c r="O102" s="16"/>
-      <c r="P102" s="45"/>
+      <c r="P102" s="45" t="s">
+        <v>258</v>
+      </c>
       <c r="Q102" s="49"/>
-      <c r="R102" s="16"/>
-    </row>
-    <row r="103" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R102" s="49"/>
+      <c r="S102" s="16"/>
+    </row>
+    <row r="103" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A103" s="36">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E103" s="23">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="6"/>
-        <v>127768500</v>
+        <v>99375500</v>
       </c>
       <c r="G103" s="23">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H103" s="23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I103" s="23">
         <v>0</v>
@@ -10195,22 +10357,23 @@
         <v>46</v>
       </c>
       <c r="L103" s="27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M103" s="20">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="N103" s="38">
-        <v>43497</v>
+        <v>43480</v>
       </c>
       <c r="O103" s="16"/>
       <c r="P103" s="45"/>
       <c r="Q103" s="49"/>
-      <c r="R103" s="16"/>
-    </row>
-    <row r="104" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R103" s="49"/>
+      <c r="S103" s="16"/>
+    </row>
+    <row r="104" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A104" s="36">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>41</v>
@@ -10219,20 +10382,20 @@
         <v>218</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E104" s="23">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="6"/>
-        <v>156161500</v>
+        <v>127768500</v>
       </c>
       <c r="G104" s="23">
         <v>0</v>
       </c>
       <c r="H104" s="23">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I104" s="23">
         <v>0</v>
@@ -10244,7 +10407,7 @@
         <v>46</v>
       </c>
       <c r="L104" s="27" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M104" s="20">
         <v>43525</v>
@@ -10255,33 +10418,34 @@
       <c r="O104" s="16"/>
       <c r="P104" s="45"/>
       <c r="Q104" s="49"/>
-      <c r="R104" s="16"/>
-    </row>
-    <row r="105" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="49"/>
+      <c r="S104" s="16"/>
+    </row>
+    <row r="105" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A105" s="36">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E105" s="23">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="6"/>
-        <v>113572000</v>
+        <v>156161500</v>
       </c>
       <c r="G105" s="23">
         <v>0</v>
       </c>
       <c r="H105" s="23">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I105" s="23">
         <v>0</v>
@@ -10293,48 +10457,48 @@
         <v>46</v>
       </c>
       <c r="L105" s="27" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="M105" s="20">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="N105" s="38">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="O105" s="16"/>
       <c r="P105" s="45"/>
       <c r="Q105" s="49"/>
-      <c r="R105" s="16"/>
-    </row>
-    <row r="106" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R105" s="49"/>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A106" s="36">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E106" s="23">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="6"/>
-        <v>283930000</v>
+        <v>113572000</v>
       </c>
       <c r="G106" s="23">
-        <f>+E106-I106</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H106" s="23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I106" s="23">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="J106" s="23" t="s">
         <v>201</v>
@@ -10343,47 +10507,49 @@
         <v>46</v>
       </c>
       <c r="L106" s="27" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="M106" s="20">
         <v>43556</v>
       </c>
       <c r="N106" s="38">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="O106" s="16"/>
       <c r="P106" s="45"/>
       <c r="Q106" s="49"/>
-      <c r="R106" s="16"/>
-    </row>
-    <row r="107" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R106" s="49"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A107" s="36">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E107" s="23">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="6"/>
-        <v>85179000</v>
+        <v>283930000</v>
       </c>
       <c r="G107" s="23">
-        <v>24</v>
+        <f>+E107-I107</f>
+        <v>57</v>
       </c>
       <c r="H107" s="23">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I107" s="23">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J107" s="23" t="s">
         <v>201</v>
@@ -10403,33 +10569,34 @@
       <c r="O107" s="16"/>
       <c r="P107" s="45"/>
       <c r="Q107" s="49"/>
-      <c r="R107" s="16"/>
-    </row>
-    <row r="108" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R107" s="49"/>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A108" s="36">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E108" s="23">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="6"/>
-        <v>107893400</v>
+        <v>85179000</v>
       </c>
       <c r="G108" s="23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H108" s="23">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I108" s="23">
         <v>0</v>
@@ -10446,41 +10613,40 @@
       <c r="M108" s="20">
         <v>43556</v>
       </c>
-      <c r="N108" s="38" t="s">
-        <v>129</v>
+      <c r="N108" s="38">
+        <v>43497</v>
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="45"/>
-      <c r="Q108" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="R108" s="16"/>
-    </row>
-    <row r="109" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q108" s="49"/>
+      <c r="R108" s="49"/>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A109" s="36">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" s="23">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="6"/>
-        <v>85179000</v>
+        <v>107893400</v>
       </c>
       <c r="G109" s="23">
         <v>0</v>
       </c>
       <c r="H109" s="23">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I109" s="23">
         <v>0</v>
@@ -10495,28 +10661,31 @@
         <v>46</v>
       </c>
       <c r="M109" s="20">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="N109" s="38" t="s">
         <v>129</v>
       </c>
       <c r="O109" s="16"/>
       <c r="P109" s="45"/>
-      <c r="Q109" s="49"/>
-      <c r="R109" s="16"/>
-    </row>
-    <row r="110" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q109" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R109" s="51"/>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="110" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A110" s="36">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" s="23">
         <v>60</v>
@@ -10526,10 +10695,10 @@
         <v>85179000</v>
       </c>
       <c r="G110" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H110" s="23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I110" s="23">
         <v>0</v>
@@ -10544,7 +10713,7 @@
         <v>46</v>
       </c>
       <c r="M110" s="20">
-        <v>43617</v>
+        <v>43739</v>
       </c>
       <c r="N110" s="38" t="s">
         <v>129</v>
@@ -10552,36 +10721,37 @@
       <c r="O110" s="16"/>
       <c r="P110" s="45"/>
       <c r="Q110" s="49"/>
-      <c r="R110" s="16"/>
-    </row>
-    <row r="111" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R110" s="49"/>
+      <c r="S110" s="16"/>
+    </row>
+    <row r="111" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A111" s="36">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E111" s="23">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="6"/>
-        <v>51107400</v>
+        <v>85179000</v>
       </c>
       <c r="G111" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H111" s="23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I111" s="23">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J111" s="23" t="s">
         <v>201</v>
@@ -10593,7 +10763,7 @@
         <v>46</v>
       </c>
       <c r="M111" s="20">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="N111" s="38" t="s">
         <v>129</v>
@@ -10601,36 +10771,37 @@
       <c r="O111" s="16"/>
       <c r="P111" s="45"/>
       <c r="Q111" s="49"/>
-      <c r="R111" s="16"/>
-    </row>
-    <row r="112" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R111" s="49"/>
+      <c r="S111" s="16"/>
+    </row>
+    <row r="112" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A112" s="36">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E112" s="23">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="6"/>
-        <v>92277250</v>
+        <v>51107400</v>
       </c>
       <c r="G112" s="23">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H112" s="23">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I112" s="23">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J112" s="23" t="s">
         <v>201</v>
@@ -10639,274 +10810,285 @@
         <v>46</v>
       </c>
       <c r="L112" s="27" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="M112" s="20">
-        <v>43497</v>
-      </c>
-      <c r="N112" s="38">
-        <v>43435</v>
+        <v>43647</v>
+      </c>
+      <c r="N112" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="O112" s="16"/>
       <c r="P112" s="45"/>
       <c r="Q112" s="49"/>
-      <c r="R112" s="16"/>
-    </row>
-    <row r="113" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R112" s="49"/>
+      <c r="S112" s="16"/>
+    </row>
+    <row r="113" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A113" s="36">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="E113" s="23">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="6"/>
-        <v>130607800</v>
+        <v>92277250</v>
       </c>
       <c r="G113" s="23">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H113" s="23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I113" s="23">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="J113" s="23" t="s">
         <v>201</v>
       </c>
       <c r="K113" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L113" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M113" s="20">
+        <v>43497</v>
+      </c>
+      <c r="N113" s="38">
+        <v>43435</v>
+      </c>
+      <c r="O113" s="16"/>
+      <c r="P113" s="45"/>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+      <c r="S113" s="16"/>
+    </row>
+    <row r="114" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="A114" s="36">
+        <v>111</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="23">
+        <v>92</v>
+      </c>
+      <c r="F114" s="37">
+        <f t="shared" si="6"/>
+        <v>130607800</v>
+      </c>
+      <c r="G114" s="23">
+        <v>0</v>
+      </c>
+      <c r="H114" s="23">
+        <v>0</v>
+      </c>
+      <c r="I114" s="23">
+        <v>92</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K114" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="L113" s="27" t="s">
+      <c r="L114" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="M113" s="20">
+      <c r="M114" s="20">
         <v>43556</v>
-      </c>
-      <c r="N113" s="38">
-        <v>43405</v>
-      </c>
-      <c r="O113" s="16"/>
-      <c r="P113" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q113" s="49"/>
-      <c r="R113" s="16"/>
-    </row>
-    <row r="114" spans="1:18" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
-        <v>112</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="23">
-        <v>160</v>
-      </c>
-      <c r="F114" s="37">
-        <f t="shared" ref="F114:F115" si="7">+E114*946485</f>
-        <v>151437600</v>
-      </c>
-      <c r="G114" s="23">
-        <f>+E114-I114</f>
-        <v>25</v>
-      </c>
-      <c r="H114" s="23">
-        <v>0</v>
-      </c>
-      <c r="I114" s="23">
-        <v>135</v>
-      </c>
-      <c r="J114" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K114" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L114" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="M114" s="20">
-        <v>43525</v>
       </c>
       <c r="N114" s="38">
         <v>43405</v>
       </c>
       <c r="O114" s="16"/>
       <c r="P114" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q114" s="49"/>
+      <c r="R114" s="49"/>
+      <c r="S114" s="16"/>
+    </row>
+    <row r="115" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="A115" s="36">
+        <v>112</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="23">
+        <v>160</v>
+      </c>
+      <c r="F115" s="37">
+        <f t="shared" ref="F115:F116" si="7">+E115*946485</f>
+        <v>151437600</v>
+      </c>
+      <c r="G115" s="23">
+        <f>+E115-I115</f>
+        <v>25</v>
+      </c>
+      <c r="H115" s="23">
+        <v>0</v>
+      </c>
+      <c r="I115" s="23">
+        <v>135</v>
+      </c>
+      <c r="J115" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K115" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M115" s="20">
+        <v>43525</v>
+      </c>
+      <c r="N115" s="38">
+        <v>43405</v>
+      </c>
+      <c r="O115" s="16"/>
+      <c r="P115" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="Q114" s="49"/>
-      <c r="R114" s="55"/>
-    </row>
-    <row r="115" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
+      <c r="Q115" s="49"/>
+      <c r="R115" s="49"/>
+      <c r="S115" s="55"/>
+    </row>
+    <row r="116" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="A116" s="36">
         <v>113</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B116" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C116" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D116" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E116" s="23">
         <v>300</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F116" s="37">
         <f t="shared" si="7"/>
         <v>283945500</v>
       </c>
-      <c r="G115" s="23">
+      <c r="G116" s="23">
         <v>300</v>
       </c>
-      <c r="H115" s="23">
-        <v>0</v>
-      </c>
-      <c r="I115" s="23">
-        <v>0</v>
-      </c>
-      <c r="J115" s="23" t="s">
+      <c r="H116" s="23">
+        <v>0</v>
+      </c>
+      <c r="I116" s="23">
+        <v>0</v>
+      </c>
+      <c r="J116" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="K115" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="L115" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="M115" s="20">
-        <v>43525</v>
-      </c>
-      <c r="N115" s="38">
-        <v>43435</v>
-      </c>
-      <c r="O115" s="36"/>
-      <c r="P115" s="45"/>
-      <c r="Q115" s="49"/>
-      <c r="R115" s="16"/>
-    </row>
-    <row r="116" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
-        <v>114</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="E116" s="23">
-        <v>100</v>
-      </c>
-      <c r="F116" s="37"/>
-      <c r="G116" s="23">
-        <v>0</v>
-      </c>
-      <c r="H116" s="23">
-        <v>100</v>
-      </c>
-      <c r="I116" s="23">
-        <v>0</v>
-      </c>
-      <c r="J116" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="K116" s="23" t="s">
         <v>260</v>
       </c>
       <c r="L116" s="27" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M116" s="20">
         <v>43525</v>
       </c>
-      <c r="N116" s="38"/>
+      <c r="N116" s="38">
+        <v>43435</v>
+      </c>
       <c r="O116" s="36"/>
       <c r="P116" s="45"/>
       <c r="Q116" s="49"/>
-      <c r="R116" s="16"/>
-    </row>
-    <row r="117" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R116" s="49"/>
+      <c r="S116" s="16"/>
+    </row>
+    <row r="117" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A117" s="36">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E117" s="23">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="23">
         <v>0</v>
       </c>
       <c r="H117" s="23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I117" s="23">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J117" s="23" t="s">
         <v>201</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="L117" s="27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M117" s="20">
-        <v>43739</v>
+        <v>43525</v>
       </c>
       <c r="N117" s="38"/>
       <c r="O117" s="36"/>
       <c r="P117" s="45"/>
       <c r="Q117" s="49"/>
-      <c r="R117" s="16"/>
-    </row>
-    <row r="118" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R117" s="49"/>
+      <c r="S117" s="16"/>
+    </row>
+    <row r="118" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A118" s="36">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E118" s="23">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="23">
@@ -10916,38 +11098,39 @@
         <v>0</v>
       </c>
       <c r="I118" s="23">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="J118" s="23" t="s">
-        <v>343</v>
+        <v>201</v>
       </c>
       <c r="K118" s="23" t="s">
         <v>46</v>
       </c>
       <c r="L118" s="27" t="s">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="M118" s="20">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="N118" s="38"/>
       <c r="O118" s="36"/>
       <c r="P118" s="45"/>
       <c r="Q118" s="49"/>
-      <c r="R118" s="16"/>
-    </row>
-    <row r="119" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R118" s="49"/>
+      <c r="S118" s="16"/>
+    </row>
+    <row r="119" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A119" s="36">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E119" s="23">
         <v>320</v>
@@ -10972,39 +11155,40 @@
         <v>46</v>
       </c>
       <c r="M119" s="20">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="N119" s="38"/>
       <c r="O119" s="36"/>
       <c r="P119" s="45"/>
       <c r="Q119" s="49"/>
-      <c r="R119" s="16"/>
-    </row>
-    <row r="120" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R119" s="49"/>
+      <c r="S119" s="16"/>
+    </row>
+    <row r="120" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A120" s="36">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E120" s="23">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="23">
         <v>0</v>
       </c>
       <c r="H120" s="23">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I120" s="23">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J120" s="23" t="s">
         <v>343</v>
@@ -11016,36 +11200,37 @@
         <v>46</v>
       </c>
       <c r="M120" s="20">
-        <v>43739</v>
+        <v>43678</v>
       </c>
       <c r="N120" s="38"/>
       <c r="O120" s="36"/>
       <c r="P120" s="45"/>
       <c r="Q120" s="49"/>
-      <c r="R120" s="16"/>
-    </row>
-    <row r="121" spans="1:18" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R120" s="49"/>
+      <c r="S120" s="16"/>
+    </row>
+    <row r="121" spans="1:19" s="39" customFormat="1" hidden="1">
       <c r="A121" s="36">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="E121" s="23">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="23">
         <v>0</v>
       </c>
       <c r="H121" s="23">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I121" s="23">
         <v>0</v>
@@ -11066,144 +11251,204 @@
       <c r="O121" s="36"/>
       <c r="P121" s="45"/>
       <c r="Q121" s="49"/>
-      <c r="R121" s="16"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="64" t="s">
+      <c r="R121" s="49"/>
+      <c r="S121" s="16"/>
+    </row>
+    <row r="122" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="A122" s="36">
+        <v>119</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E122" s="23">
+        <v>90</v>
+      </c>
+      <c r="F122" s="37"/>
+      <c r="G122" s="23">
+        <v>0</v>
+      </c>
+      <c r="H122" s="23">
+        <v>90</v>
+      </c>
+      <c r="I122" s="23">
+        <v>0</v>
+      </c>
+      <c r="J122" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="K122" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L122" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M122" s="20">
+        <v>43739</v>
+      </c>
+      <c r="N122" s="38"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="45"/>
+      <c r="Q122" s="49"/>
+      <c r="R122" s="49"/>
+      <c r="S122" s="16"/>
+    </row>
+    <row r="123" spans="1:19" hidden="1">
+      <c r="A123" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="64"/>
-      <c r="O122" s="64"/>
-      <c r="P122" s="64"/>
-      <c r="Q122" s="40"/>
-    </row>
-    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="64" t="s">
+      <c r="B123" s="66"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
+      <c r="M123" s="66"/>
+      <c r="N123" s="66"/>
+      <c r="O123" s="66"/>
+      <c r="P123" s="66"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="64"/>
+    </row>
+    <row r="124" spans="1:19" ht="15" hidden="1" customHeight="1">
+      <c r="A124" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="64"/>
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
-      <c r="J123" s="64"/>
-      <c r="K123" s="64"/>
-      <c r="L123" s="64"/>
-      <c r="M123" s="64"/>
-      <c r="N123" s="64"/>
-      <c r="O123" s="64"/>
-      <c r="P123" s="64"/>
-      <c r="Q123" s="40"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B124" s="66"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="66"/>
+      <c r="M124" s="66"/>
+      <c r="N124" s="66"/>
+      <c r="O124" s="66"/>
+      <c r="P124" s="66"/>
+      <c r="Q124" s="40"/>
+      <c r="R124" s="64"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="42"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19">
       <c r="A127" s="42"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19">
       <c r="A128" s="42"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="42"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="42"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="42"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="42"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="42"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="42"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="42"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="42"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="42"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="42"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="42"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="42"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="42"/>
     </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="42"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:T124">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="DAPRE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
+    <mergeCell ref="A124:P124"/>
     <mergeCell ref="A123:P123"/>
-    <mergeCell ref="A122:P122"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="35" fitToHeight="6" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="35" fitToHeight="6" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB80494-F984-49C0-B6C5-D450DF8FDA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
         <v>402</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="57" t="s">
         <v>201</v>
       </c>
@@ -11217,7 +11462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
@@ -11231,7 +11476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="57" t="s">
         <v>103</v>
       </c>
@@ -11245,7 +11490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="57" t="s">
         <v>159</v>
       </c>
@@ -11259,7 +11504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="57" t="s">
         <v>79</v>
       </c>
@@ -11273,7 +11518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="57" t="s">
         <v>67</v>
       </c>
@@ -11287,7 +11532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="57" t="s">
         <v>236</v>
       </c>
@@ -11301,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="57" t="s">
         <v>9</v>
       </c>
@@ -11315,7 +11560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="57" t="s">
         <v>343</v>
       </c>
@@ -11329,7 +11574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
@@ -11343,15 +11588,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B14" s="59">
         <v>119</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E14" s="62">
         <v>119</v>
@@ -11359,57 +11604,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF83616A-AE60-4F15-82A3-EDD8906161CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
         <v>402</v>
       </c>
-      <c r="B3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="57" t="s">
         <v>198</v>
       </c>
@@ -11417,7 +11666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="58" t="s">
         <v>201</v>
       </c>
@@ -11425,7 +11674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
@@ -11433,7 +11682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="58" t="s">
         <v>30</v>
       </c>
@@ -11441,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
@@ -11449,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="57" t="s">
         <v>32</v>
       </c>
@@ -11457,7 +11706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
@@ -11465,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="58" t="s">
         <v>103</v>
       </c>
@@ -11473,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="58" t="s">
         <v>343</v>
       </c>
@@ -11481,7 +11730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
@@ -11489,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="58" t="s">
         <v>45</v>
       </c>
@@ -11497,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="57" t="s">
         <v>65</v>
       </c>
@@ -11505,7 +11754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="58" t="s">
         <v>159</v>
       </c>
@@ -11513,7 +11762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="58" t="s">
         <v>67</v>
       </c>
@@ -11521,7 +11770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="57" t="s">
         <v>77</v>
       </c>
@@ -11529,7 +11778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="58" t="s">
         <v>201</v>
       </c>
@@ -11537,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="58" t="s">
         <v>103</v>
       </c>
@@ -11545,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="58" t="s">
         <v>159</v>
       </c>
@@ -11553,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="58" t="s">
         <v>79</v>
       </c>
@@ -11561,7 +11810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
@@ -11569,7 +11818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
         <v>201</v>
       </c>
@@ -11577,7 +11826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="58" t="s">
         <v>45</v>
       </c>
@@ -11585,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
@@ -11593,7 +11842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="58" t="s">
         <v>30</v>
       </c>
@@ -11601,7 +11850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="57" t="s">
         <v>105</v>
       </c>
@@ -11609,7 +11858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="58" t="s">
         <v>103</v>
       </c>
@@ -11617,7 +11866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="57" t="s">
         <v>216</v>
       </c>
@@ -11625,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="58" t="s">
         <v>201</v>
       </c>
@@ -11633,7 +11882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="57" t="s">
         <v>11</v>
       </c>
@@ -11641,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="58" t="s">
         <v>9</v>
       </c>
@@ -11649,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="57" t="s">
         <v>14</v>
       </c>
@@ -11657,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="58" t="s">
         <v>9</v>
       </c>
@@ -11665,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="57" t="s">
         <v>41</v>
       </c>
@@ -11673,7 +11922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="58" t="s">
         <v>201</v>
       </c>
@@ -11681,7 +11930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="58" t="s">
         <v>30</v>
       </c>
@@ -11689,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="58" t="s">
         <v>103</v>
       </c>
@@ -11697,7 +11946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="58" t="s">
         <v>159</v>
       </c>
@@ -11705,7 +11954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="57" t="s">
         <v>15</v>
       </c>
@@ -11713,7 +11962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="58" t="s">
         <v>103</v>
       </c>
@@ -11721,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="58" t="s">
         <v>236</v>
       </c>
@@ -11729,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="58" t="s">
         <v>9</v>
       </c>
@@ -11737,7 +11986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="57" t="s">
         <v>112</v>
       </c>
@@ -11745,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="58" t="s">
         <v>103</v>
       </c>
@@ -11753,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="57" t="s">
         <v>19</v>
       </c>
@@ -11761,7 +12010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="58" t="s">
         <v>201</v>
       </c>
@@ -11769,7 +12018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="58" t="s">
         <v>30</v>
       </c>
@@ -11777,7 +12026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="58" t="s">
         <v>159</v>
       </c>
@@ -11785,7 +12034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="58" t="s">
         <v>9</v>
       </c>
@@ -11793,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="57" t="s">
         <v>197</v>
       </c>
@@ -11801,7 +12050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="58" t="s">
         <v>159</v>
       </c>
@@ -11809,7 +12058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="57" t="s">
         <v>114</v>
       </c>
@@ -11817,7 +12066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="58" t="s">
         <v>201</v>
       </c>
@@ -11825,7 +12074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="58" t="s">
         <v>103</v>
       </c>
@@ -11833,7 +12082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="57" t="s">
         <v>116</v>
       </c>
@@ -11841,7 +12090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="58" t="s">
         <v>201</v>
       </c>
@@ -11849,7 +12098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="58" t="s">
         <v>103</v>
       </c>
@@ -11857,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="57" t="s">
         <v>22</v>
       </c>
@@ -11865,7 +12114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="58" t="s">
         <v>30</v>
       </c>
@@ -11873,7 +12122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="58" t="s">
         <v>9</v>
       </c>
@@ -11881,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="57" t="s">
         <v>118</v>
       </c>
@@ -11889,7 +12138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="58" t="s">
         <v>103</v>
       </c>
@@ -11897,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="57" t="s">
         <v>25</v>
       </c>
@@ -11905,7 +12154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="58" t="s">
         <v>30</v>
       </c>
@@ -11913,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="58" t="s">
         <v>9</v>
       </c>
@@ -11921,7 +12170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="57" t="s">
         <v>59</v>
       </c>
@@ -11929,7 +12178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="58" t="s">
         <v>30</v>
       </c>
@@ -11937,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="58" t="s">
         <v>103</v>
       </c>
@@ -11945,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="58" t="s">
         <v>159</v>
       </c>
@@ -11953,7 +12202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="57" t="s">
         <v>250</v>
       </c>
@@ -11961,7 +12210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="58" t="s">
         <v>201</v>
       </c>
@@ -11969,7 +12218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="57" t="s">
         <v>121</v>
       </c>
@@ -11977,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="58" t="s">
         <v>103</v>
       </c>
@@ -11985,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="58" t="s">
         <v>9</v>
       </c>
@@ -11993,9 +12242,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B77" s="59">
         <v>119</v>
@@ -12003,23 +12252,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4B4E93-6AB9-4BD8-8821-A65BA2550265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="56">
       <c r="B3" s="17" t="s">
         <v>358</v>
       </c>
@@ -12039,7 +12293,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="16" t="s">
         <v>345</v>
       </c>
@@ -12059,7 +12313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="16" t="s">
         <v>346</v>
       </c>
@@ -12079,7 +12333,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
@@ -12099,7 +12353,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="16" t="s">
         <v>348</v>
       </c>
@@ -12119,7 +12373,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="16" t="s">
         <v>349</v>
       </c>
@@ -12139,7 +12393,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="16" t="s">
         <v>350</v>
       </c>
@@ -12159,7 +12413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -12179,7 +12433,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -12199,7 +12453,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -12220,7 +12474,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -12234,7 +12488,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="17" t="s">
         <v>329</v>
       </c>
@@ -12261,30 +12515,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12307,7 +12566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -12330,7 +12589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -12353,7 +12612,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="42">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -12376,7 +12635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28" hidden="1">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -12399,18 +12658,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
+      <c r="A6" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="1:7" ht="28" hidden="1">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -12433,7 +12692,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="42" hidden="1">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -12456,7 +12715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28" hidden="1">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -12479,7 +12738,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28" hidden="1">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -12502,7 +12761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28" hidden="1">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -12525,7 +12784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28" hidden="1">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -12548,7 +12807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28" hidden="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -12571,7 +12830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28" hidden="1">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -12594,7 +12853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28" hidden="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -12617,7 +12876,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28" hidden="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -12640,7 +12899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28" hidden="1">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -12663,7 +12922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28" hidden="1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -12686,7 +12945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28" hidden="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -12709,7 +12968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28" hidden="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -12732,7 +12991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="42">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -12755,7 +13014,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28" hidden="1">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -12778,7 +13037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="42">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -12801,7 +13060,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28" hidden="1">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -12826,7 +13085,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FlPaAtAePLRz5DtOTW3ost+tUEc2YpyifXgRLrSqKh2Hjr/RctnmDeTQMXkhb3WDRJP6R+/xPbeXM3PJSTfjBw==" saltValue="2nZefalJ4U7GCKbSbnlHdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
-  <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:G24">
     <filterColumn colId="6">
       <filters>
         <filter val="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación"/>
@@ -12837,12 +13096,17 @@
     <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G28"/>
@@ -12851,28 +13115,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="28">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -12895,18 +13159,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" ht="28">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -12929,7 +13193,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="42">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -12952,7 +13216,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -12975,18 +13239,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:7" ht="28">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -13009,7 +13273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -13032,7 +13296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -13055,7 +13319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -13078,7 +13342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -13101,7 +13365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13124,7 +13388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13147,7 +13411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13170,7 +13434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -13193,7 +13457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -13216,18 +13480,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" ht="28">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13250,7 +13514,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13273,7 +13537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13296,7 +13560,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13319,18 +13583,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:7" ht="56">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -13353,7 +13617,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="56">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -13376,7 +13640,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="56">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -13399,7 +13663,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="56">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -13422,7 +13686,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="56">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
@@ -13454,25 +13718,29 @@
     <mergeCell ref="A23:G23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="98" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>275</v>
       </c>
@@ -13480,7 +13748,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -13488,7 +13756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
@@ -13496,7 +13764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -13504,7 +13772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
@@ -13512,7 +13780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
@@ -13520,27 +13788,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="73"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>273</v>
       </c>
@@ -13554,7 +13822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
@@ -13568,19 +13836,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="74"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="76"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
         <v>287</v>
       </c>
@@ -13588,7 +13856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
         <v>288</v>
       </c>
@@ -13596,7 +13864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
         <v>289</v>
       </c>
@@ -13604,7 +13872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
         <v>290</v>
       </c>
@@ -13612,23 +13880,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="3" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="75" t="s">
+    <row r="17" spans="4:5">
+      <c r="D17" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="76" t="s">
+      <c r="E17" s="77"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="76"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>285</v>
       </c>
@@ -13636,7 +13904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>291</v>
       </c>
@@ -13644,13 +13912,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="71" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="71"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="73"/>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" s="13" t="s">
         <v>288</v>
       </c>
@@ -13658,7 +13926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5">
       <c r="D23" s="13" t="s">
         <v>289</v>
       </c>
@@ -13666,7 +13934,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5">
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>
@@ -13685,6 +13953,10 @@
     <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8799E-4F3B-437D-A117-F2D5C541C518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="14260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -17,16 +23,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$T$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$U$124</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -36,12 +39,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="417">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1464,12 +1470,20 @@
   <si>
     <t>Dotación CDAPRE</t>
   </si>
+  <si>
+    <t>Solicitado a ICBF</t>
+  </si>
+  <si>
+    <t>Valor estimado de dotación 
+(Valor cupo niño hasta 150 cupos: $1.419.650)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1803,13 +1817,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1987,6 +2002,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2023,14 +2044,21 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2047,9 +2075,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43501.629931365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="119">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43501.629931365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="119" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:S122" sheet="Matriz"/>
+    <worksheetSource ref="A2:T122" sheet="Matriz"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="n°" numFmtId="0">
@@ -4538,7 +4566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4631,7 +4659,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -5197,61 +5225,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="41" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="32.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="70.33203125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="37.1640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="47.5" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="41" customWidth="1"/>
-    <col min="16" max="16" width="49" style="41" customWidth="1"/>
-    <col min="17" max="17" width="49" style="50" customWidth="1"/>
-    <col min="18" max="18" width="19" style="50" customWidth="1"/>
-    <col min="19" max="19" width="94" style="41" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="41" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="41"/>
+    <col min="6" max="6" width="19.42578125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="70.28515625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="41" customWidth="1"/>
+    <col min="16" max="17" width="49" style="41" customWidth="1"/>
+    <col min="18" max="18" width="49" style="50" customWidth="1"/>
+    <col min="19" max="19" width="19" style="50" customWidth="1"/>
+    <col min="20" max="20" width="94" style="41" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="41" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="32" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="65"/>
-    </row>
-    <row r="2" spans="1:19" s="35" customFormat="1" ht="72.75" customHeight="1">
+      <c r="Q1" s="82">
+        <v>1419650</v>
+      </c>
+      <c r="R1" s="48"/>
+      <c r="S1" s="65"/>
+    </row>
+    <row r="2" spans="1:20" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>399</v>
       </c>
@@ -5301,16 +5331,19 @@
         <v>252</v>
       </c>
       <c r="Q2" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="R2" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="S2" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="T2" s="46" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1">
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -5356,15 +5389,16 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="44"/>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="36"/>
+      <c r="T3" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="39" customFormat="1" ht="154" hidden="1">
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -5410,15 +5444,16 @@
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="44"/>
-      <c r="Q4" s="47" t="s">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="16" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="5" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -5466,8 +5501,9 @@
       <c r="P5" s="44" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="39" customFormat="1" ht="98" hidden="1">
+      <c r="Q5" s="81"/>
+    </row>
+    <row r="6" spans="1:20" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -5513,15 +5549,16 @@
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="44"/>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="44"/>
+      <c r="R6" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -5567,13 +5604,14 @@
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="44"/>
-      <c r="Q7" s="47"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="47"/>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="39" customFormat="1" ht="56" hidden="1">
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -5619,11 +5657,12 @@
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="44"/>
-      <c r="Q8" s="47"/>
+      <c r="Q8" s="44"/>
       <c r="R8" s="47"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+      <c r="S8" s="47"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -5669,15 +5708,16 @@
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="44"/>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="44"/>
+      <c r="R9" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="47"/>
+      <c r="T9" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="39" customFormat="1" ht="140" hidden="1">
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -5723,15 +5763,16 @@
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="44"/>
-      <c r="Q10" s="47" t="s">
+      <c r="Q10" s="44"/>
+      <c r="R10" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="47"/>
+      <c r="T10" s="16" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="39" customFormat="1" ht="36" hidden="1" customHeight="1">
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -5777,15 +5818,16 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="44"/>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="44"/>
+      <c r="R11" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="51"/>
+      <c r="T11" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -5831,11 +5873,12 @@
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="44"/>
-      <c r="Q12" s="47"/>
+      <c r="Q12" s="44"/>
       <c r="R12" s="47"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S12" s="47"/>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -5881,11 +5924,12 @@
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="47"/>
+      <c r="Q13" s="44"/>
       <c r="R13" s="47"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S13" s="47"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -5932,15 +5976,16 @@
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="51" t="s">
+      <c r="Q14" s="44"/>
+      <c r="R14" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="51"/>
+      <c r="T14" s="52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -5986,15 +6031,16 @@
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="51"/>
+      <c r="T15" s="52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="39" customFormat="1" ht="70" hidden="1">
+    <row r="16" spans="1:20" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -6040,15 +6086,16 @@
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="44"/>
-      <c r="Q16" s="47" t="s">
+      <c r="Q16" s="44"/>
+      <c r="R16" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="R16" s="47"/>
-      <c r="S16" s="16" t="s">
+      <c r="S16" s="47"/>
+      <c r="T16" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+    <row r="17" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -6094,11 +6141,12 @@
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="44"/>
-      <c r="Q17" s="47"/>
+      <c r="Q17" s="44"/>
       <c r="R17" s="47"/>
-      <c r="S17" s="16"/>
-    </row>
-    <row r="18" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S17" s="47"/>
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -6144,11 +6192,12 @@
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="47"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="47"/>
-      <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
+      <c r="S18" s="47"/>
+      <c r="T18" s="16"/>
+    </row>
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -6194,11 +6243,12 @@
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="44"/>
-      <c r="Q19" s="47"/>
+      <c r="Q19" s="44"/>
       <c r="R19" s="47"/>
-      <c r="S19" s="16"/>
-    </row>
-    <row r="20" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S19" s="47"/>
+      <c r="T19" s="16"/>
+    </row>
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -6244,11 +6294,12 @@
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="44"/>
-      <c r="Q20" s="47"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="47"/>
-      <c r="S20" s="16"/>
-    </row>
-    <row r="21" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S20" s="47"/>
+      <c r="T20" s="16"/>
+    </row>
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -6294,11 +6345,12 @@
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="44"/>
-      <c r="Q21" s="47"/>
+      <c r="Q21" s="44"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="16"/>
-    </row>
-    <row r="22" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S21" s="47"/>
+      <c r="T21" s="16"/>
+    </row>
+    <row r="22" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -6344,11 +6396,19 @@
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="44"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="16"/>
-    </row>
-    <row r="23" spans="1:19" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1">
+      <c r="Q22" s="83">
+        <f>Q1*E22</f>
+        <v>134866750</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="S22" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="T22" s="16"/>
+    </row>
+    <row r="23" spans="1:20" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -6394,15 +6454,16 @@
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="45"/>
-      <c r="Q23" s="49" t="s">
+      <c r="Q23" s="45"/>
+      <c r="R23" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="R23" s="49"/>
-      <c r="S23" s="16" t="s">
+      <c r="S23" s="49"/>
+      <c r="T23" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="24" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -6448,11 +6509,12 @@
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="45"/>
-      <c r="Q24" s="49"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="49"/>
-      <c r="S24" s="16"/>
-    </row>
-    <row r="25" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S24" s="49"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -6495,11 +6557,12 @@
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="45"/>
-      <c r="Q25" s="49"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="49"/>
-      <c r="S25" s="16"/>
-    </row>
-    <row r="26" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S25" s="49"/>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -6542,11 +6605,12 @@
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="45"/>
-      <c r="Q26" s="49"/>
+      <c r="Q26" s="45"/>
       <c r="R26" s="49"/>
-      <c r="S26" s="16"/>
-    </row>
-    <row r="27" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S26" s="49"/>
+      <c r="T26" s="16"/>
+    </row>
+    <row r="27" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -6589,11 +6653,12 @@
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="45"/>
-      <c r="Q27" s="49"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="49"/>
-      <c r="S27" s="16"/>
-    </row>
-    <row r="28" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S27" s="49"/>
+      <c r="T27" s="16"/>
+    </row>
+    <row r="28" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -6636,11 +6701,12 @@
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="45"/>
-      <c r="Q28" s="49"/>
+      <c r="Q28" s="45"/>
       <c r="R28" s="49"/>
-      <c r="S28" s="16"/>
-    </row>
-    <row r="29" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S28" s="49"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -6685,11 +6751,12 @@
       <c r="P29" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="49"/>
-      <c r="S29" s="16"/>
-    </row>
-    <row r="30" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S29" s="49"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -6732,11 +6799,12 @@
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="45"/>
-      <c r="Q30" s="49"/>
+      <c r="Q30" s="45"/>
       <c r="R30" s="49"/>
-      <c r="S30" s="16"/>
-    </row>
-    <row r="31" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S30" s="49"/>
+      <c r="T30" s="16"/>
+    </row>
+    <row r="31" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -6779,11 +6847,12 @@
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="45"/>
-      <c r="Q31" s="49"/>
+      <c r="Q31" s="45"/>
       <c r="R31" s="49"/>
-      <c r="S31" s="16"/>
-    </row>
-    <row r="32" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S31" s="49"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -6826,11 +6895,12 @@
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="45"/>
-      <c r="Q32" s="49"/>
+      <c r="Q32" s="45"/>
       <c r="R32" s="49"/>
-      <c r="S32" s="16"/>
-    </row>
-    <row r="33" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S32" s="49"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -6873,11 +6943,12 @@
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="45"/>
-      <c r="Q33" s="49"/>
+      <c r="Q33" s="45"/>
       <c r="R33" s="49"/>
-      <c r="S33" s="16"/>
-    </row>
-    <row r="34" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S33" s="49"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -6920,11 +6991,12 @@
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="45"/>
-      <c r="Q34" s="49"/>
+      <c r="Q34" s="45"/>
       <c r="R34" s="49"/>
-      <c r="S34" s="16"/>
-    </row>
-    <row r="35" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S34" s="49"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -6970,11 +7042,12 @@
       <c r="P35" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q35" s="49"/>
+      <c r="Q35" s="45"/>
       <c r="R35" s="49"/>
-      <c r="S35" s="16"/>
-    </row>
-    <row r="36" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
+      <c r="S35" s="49"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -7019,11 +7092,12 @@
       <c r="P36" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q36" s="49"/>
+      <c r="Q36" s="45"/>
       <c r="R36" s="49"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S36" s="49"/>
+      <c r="T36" s="16"/>
+    </row>
+    <row r="37" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -7068,11 +7142,12 @@
       <c r="P37" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q37" s="49"/>
+      <c r="Q37" s="45"/>
       <c r="R37" s="49"/>
-      <c r="S37" s="16"/>
-    </row>
-    <row r="38" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S37" s="49"/>
+      <c r="T37" s="16"/>
+    </row>
+    <row r="38" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -7117,13 +7192,14 @@
       <c r="P38" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q38" s="51" t="s">
+      <c r="Q38" s="45"/>
+      <c r="R38" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R38" s="51"/>
-      <c r="S38" s="16"/>
-    </row>
-    <row r="39" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S38" s="51"/>
+      <c r="T38" s="16"/>
+    </row>
+    <row r="39" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -7168,11 +7244,12 @@
       <c r="P39" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="49"/>
+      <c r="Q39" s="45"/>
       <c r="R39" s="49"/>
-      <c r="S39" s="16"/>
-    </row>
-    <row r="40" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S39" s="49"/>
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -7218,11 +7295,12 @@
       <c r="P40" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="Q40" s="49"/>
+      <c r="Q40" s="45"/>
       <c r="R40" s="49"/>
-      <c r="S40" s="16"/>
-    </row>
-    <row r="41" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S40" s="49"/>
+      <c r="T40" s="16"/>
+    </row>
+    <row r="41" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -7267,11 +7345,12 @@
       <c r="P41" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q41" s="49"/>
+      <c r="Q41" s="45"/>
       <c r="R41" s="49"/>
-      <c r="S41" s="16"/>
-    </row>
-    <row r="42" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S41" s="49"/>
+      <c r="T41" s="16"/>
+    </row>
+    <row r="42" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -7316,11 +7395,12 @@
       <c r="P42" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q42" s="49"/>
+      <c r="Q42" s="45"/>
       <c r="R42" s="49"/>
-      <c r="S42" s="16"/>
-    </row>
-    <row r="43" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S42" s="49"/>
+      <c r="T42" s="16"/>
+    </row>
+    <row r="43" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -7366,11 +7446,12 @@
       <c r="P43" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q43" s="49"/>
+      <c r="Q43" s="45"/>
       <c r="R43" s="49"/>
-      <c r="S43" s="16"/>
-    </row>
-    <row r="44" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S43" s="49"/>
+      <c r="T43" s="16"/>
+    </row>
+    <row r="44" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -7415,11 +7496,12 @@
       <c r="P44" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q44" s="49"/>
+      <c r="Q44" s="45"/>
       <c r="R44" s="49"/>
-      <c r="S44" s="16"/>
-    </row>
-    <row r="45" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S44" s="49"/>
+      <c r="T44" s="16"/>
+    </row>
+    <row r="45" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -7465,11 +7547,12 @@
       <c r="P45" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q45" s="49"/>
+      <c r="Q45" s="45"/>
       <c r="R45" s="49"/>
-      <c r="S45" s="16"/>
-    </row>
-    <row r="46" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S45" s="49"/>
+      <c r="T45" s="16"/>
+    </row>
+    <row r="46" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -7514,11 +7597,12 @@
       <c r="P46" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q46" s="49"/>
+      <c r="Q46" s="45"/>
       <c r="R46" s="49"/>
-      <c r="S46" s="16"/>
-    </row>
-    <row r="47" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S46" s="49"/>
+      <c r="T46" s="16"/>
+    </row>
+    <row r="47" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -7563,11 +7647,12 @@
       <c r="P47" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q47" s="49"/>
+      <c r="Q47" s="45"/>
       <c r="R47" s="49"/>
-      <c r="S47" s="16"/>
-    </row>
-    <row r="48" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S47" s="49"/>
+      <c r="T47" s="16"/>
+    </row>
+    <row r="48" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -7612,11 +7697,12 @@
       <c r="P48" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q48" s="49"/>
+      <c r="Q48" s="45"/>
       <c r="R48" s="49"/>
-      <c r="S48" s="16"/>
-    </row>
-    <row r="49" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S48" s="49"/>
+      <c r="T48" s="16"/>
+    </row>
+    <row r="49" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -7655,11 +7741,12 @@
       <c r="P49" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="Q49" s="49"/>
+      <c r="Q49" s="45"/>
       <c r="R49" s="49"/>
-      <c r="S49" s="16"/>
-    </row>
-    <row r="50" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S49" s="49"/>
+      <c r="T49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -7705,11 +7792,12 @@
       <c r="P50" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q50" s="49"/>
+      <c r="Q50" s="45"/>
       <c r="R50" s="49"/>
-      <c r="S50" s="16"/>
-    </row>
-    <row r="51" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S50" s="49"/>
+      <c r="T50" s="16"/>
+    </row>
+    <row r="51" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -7754,11 +7842,12 @@
       <c r="P51" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q51" s="49"/>
+      <c r="Q51" s="45"/>
       <c r="R51" s="49"/>
-      <c r="S51" s="16"/>
-    </row>
-    <row r="52" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S51" s="49"/>
+      <c r="T51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -7803,11 +7892,12 @@
       <c r="P52" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q52" s="49"/>
+      <c r="Q52" s="45"/>
       <c r="R52" s="49"/>
-      <c r="S52" s="16"/>
-    </row>
-    <row r="53" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S52" s="49"/>
+      <c r="T52" s="16"/>
+    </row>
+    <row r="53" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -7852,11 +7942,12 @@
       <c r="P53" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="Q53" s="49"/>
+      <c r="Q53" s="45"/>
       <c r="R53" s="49"/>
-      <c r="S53" s="16"/>
-    </row>
-    <row r="54" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S53" s="49"/>
+      <c r="T53" s="16"/>
+    </row>
+    <row r="54" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -7901,11 +7992,12 @@
       <c r="P54" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q54" s="49"/>
+      <c r="Q54" s="45"/>
       <c r="R54" s="49"/>
-      <c r="S54" s="16"/>
-    </row>
-    <row r="55" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S54" s="49"/>
+      <c r="T54" s="16"/>
+    </row>
+    <row r="55" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -7950,11 +8042,12 @@
       <c r="P55" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q55" s="49"/>
+      <c r="Q55" s="45"/>
       <c r="R55" s="49"/>
-      <c r="S55" s="16"/>
-    </row>
-    <row r="56" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S55" s="49"/>
+      <c r="T55" s="16"/>
+    </row>
+    <row r="56" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -7999,11 +8092,12 @@
       <c r="P56" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="Q56" s="49"/>
+      <c r="Q56" s="45"/>
       <c r="R56" s="49"/>
-      <c r="S56" s="16"/>
-    </row>
-    <row r="57" spans="1:19" s="39" customFormat="1" ht="84">
+      <c r="S56" s="49"/>
+      <c r="T56" s="16"/>
+    </row>
+    <row r="57" spans="1:20" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -8047,17 +8141,18 @@
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="45"/>
-      <c r="Q57" s="49" t="s">
+      <c r="Q57" s="45"/>
+      <c r="R57" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="R57" s="49" t="s">
+      <c r="S57" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="S57" s="16" t="s">
+      <c r="T57" s="16" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="39" customFormat="1">
+    <row r="58" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -8100,17 +8195,18 @@
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="45"/>
-      <c r="Q58" s="49" t="s">
+      <c r="Q58" s="45"/>
+      <c r="R58" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="R58" s="49" t="s">
+      <c r="S58" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="S58" s="16" t="s">
+      <c r="T58" s="16" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="39" customFormat="1" ht="84">
+    <row r="59" spans="1:20" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>56</v>
       </c>
@@ -8153,17 +8249,18 @@
       </c>
       <c r="O59" s="16"/>
       <c r="P59" s="45"/>
-      <c r="Q59" s="49" t="s">
+      <c r="Q59" s="45"/>
+      <c r="R59" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="R59" s="49" t="s">
+      <c r="S59" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="S59" s="16" t="s">
+      <c r="T59" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="39" customFormat="1" ht="28">
+    <row r="60" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>57</v>
       </c>
@@ -8208,17 +8305,18 @@
       <c r="P60" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="Q60" s="49" t="s">
+      <c r="Q60" s="45"/>
+      <c r="R60" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="R60" s="49" t="s">
+      <c r="S60" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="S60" s="16" t="s">
+      <c r="T60" s="16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="39" customFormat="1" ht="84">
+    <row r="61" spans="1:20" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>58</v>
       </c>
@@ -8261,15 +8359,16 @@
       </c>
       <c r="O61" s="16"/>
       <c r="P61" s="45"/>
-      <c r="Q61" s="49" t="s">
+      <c r="Q61" s="45"/>
+      <c r="R61" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="R61" s="49"/>
-      <c r="S61" s="16" t="s">
+      <c r="S61" s="49"/>
+      <c r="T61" s="16" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="39" customFormat="1" ht="28">
+    <row r="62" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>59</v>
       </c>
@@ -8315,15 +8414,16 @@
       </c>
       <c r="O62" s="16"/>
       <c r="P62" s="45"/>
-      <c r="Q62" s="51" t="s">
+      <c r="Q62" s="45"/>
+      <c r="R62" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="R62" s="51"/>
-      <c r="S62" s="16" t="s">
+      <c r="S62" s="51"/>
+      <c r="T62" s="16" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="39" customFormat="1" ht="28">
+    <row r="63" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>60</v>
       </c>
@@ -8370,15 +8470,16 @@
       </c>
       <c r="O63" s="16"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="51" t="s">
+      <c r="Q63" s="45"/>
+      <c r="R63" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="R63" s="51"/>
-      <c r="S63" s="16" t="s">
+      <c r="S63" s="51"/>
+      <c r="T63" s="16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="39" customFormat="1">
+    <row r="64" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>61</v>
       </c>
@@ -8424,11 +8525,12 @@
       </c>
       <c r="O64" s="16"/>
       <c r="P64" s="45"/>
-      <c r="Q64" s="49"/>
+      <c r="Q64" s="45"/>
       <c r="R64" s="49"/>
-      <c r="S64" s="16"/>
-    </row>
-    <row r="65" spans="1:19" s="39" customFormat="1">
+      <c r="S64" s="49"/>
+      <c r="T64" s="16"/>
+    </row>
+    <row r="65" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>62</v>
       </c>
@@ -8473,11 +8575,12 @@
       <c r="P65" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="Q65" s="49"/>
+      <c r="Q65" s="45"/>
       <c r="R65" s="49"/>
-      <c r="S65" s="16"/>
-    </row>
-    <row r="66" spans="1:19" s="39" customFormat="1">
+      <c r="S65" s="49"/>
+      <c r="T65" s="16"/>
+    </row>
+    <row r="66" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>63</v>
       </c>
@@ -8521,11 +8624,12 @@
       </c>
       <c r="O66" s="16"/>
       <c r="P66" s="45"/>
-      <c r="Q66" s="49"/>
+      <c r="Q66" s="45"/>
       <c r="R66" s="49"/>
-      <c r="S66" s="16"/>
-    </row>
-    <row r="67" spans="1:19" s="39" customFormat="1">
+      <c r="S66" s="49"/>
+      <c r="T66" s="16"/>
+    </row>
+    <row r="67" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>64</v>
       </c>
@@ -8568,11 +8672,12 @@
       </c>
       <c r="O67" s="16"/>
       <c r="P67" s="45"/>
-      <c r="Q67" s="49"/>
+      <c r="Q67" s="45"/>
       <c r="R67" s="49"/>
-      <c r="S67" s="16"/>
-    </row>
-    <row r="68" spans="1:19" s="39" customFormat="1">
+      <c r="S67" s="49"/>
+      <c r="T67" s="16"/>
+    </row>
+    <row r="68" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>65</v>
       </c>
@@ -8618,11 +8723,12 @@
       <c r="P68" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="Q68" s="49"/>
+      <c r="Q68" s="45"/>
       <c r="R68" s="49"/>
-      <c r="S68" s="16"/>
-    </row>
-    <row r="69" spans="1:19" s="39" customFormat="1">
+      <c r="S68" s="49"/>
+      <c r="T68" s="16"/>
+    </row>
+    <row r="69" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>66</v>
       </c>
@@ -8665,11 +8771,15 @@
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="45"/>
-      <c r="Q69" s="49"/>
+      <c r="Q69" s="83">
+        <f>Q48*E69</f>
+        <v>0</v>
+      </c>
       <c r="R69" s="49"/>
-      <c r="S69" s="16"/>
-    </row>
-    <row r="70" spans="1:19" s="39" customFormat="1">
+      <c r="S69" s="49"/>
+      <c r="T69" s="16"/>
+    </row>
+    <row r="70" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>67</v>
       </c>
@@ -8712,11 +8822,12 @@
       </c>
       <c r="O70" s="16"/>
       <c r="P70" s="45"/>
-      <c r="Q70" s="49"/>
+      <c r="Q70" s="45"/>
       <c r="R70" s="49"/>
-      <c r="S70" s="16"/>
-    </row>
-    <row r="71" spans="1:19" s="39" customFormat="1" ht="28">
+      <c r="S70" s="49"/>
+      <c r="T70" s="16"/>
+    </row>
+    <row r="71" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>68</v>
       </c>
@@ -8764,15 +8875,16 @@
       <c r="P71" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="Q71" s="49" t="s">
+      <c r="Q71" s="45"/>
+      <c r="R71" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="R71" s="49"/>
-      <c r="S71" s="16" t="s">
+      <c r="S71" s="49"/>
+      <c r="T71" s="16" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="72" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>69</v>
       </c>
@@ -8818,15 +8930,16 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="45"/>
-      <c r="Q72" s="51" t="s">
+      <c r="Q72" s="45"/>
+      <c r="R72" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R72" s="51"/>
-      <c r="S72" s="16" t="s">
+      <c r="S72" s="51"/>
+      <c r="T72" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="73" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>70</v>
       </c>
@@ -8872,15 +8985,16 @@
       </c>
       <c r="O73" s="16"/>
       <c r="P73" s="45"/>
-      <c r="Q73" s="51" t="s">
+      <c r="Q73" s="45"/>
+      <c r="R73" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R73" s="51"/>
-      <c r="S73" s="16" t="s">
+      <c r="S73" s="51"/>
+      <c r="T73" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+    <row r="74" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>71</v>
       </c>
@@ -8926,15 +9040,16 @@
       </c>
       <c r="O74" s="16"/>
       <c r="P74" s="45"/>
-      <c r="Q74" s="51" t="s">
+      <c r="Q74" s="45"/>
+      <c r="R74" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R74" s="51"/>
-      <c r="S74" s="16" t="s">
+      <c r="S74" s="51"/>
+      <c r="T74" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="75" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <v>72</v>
       </c>
@@ -8980,15 +9095,16 @@
       </c>
       <c r="O75" s="16"/>
       <c r="P75" s="45"/>
-      <c r="Q75" s="51" t="s">
+      <c r="Q75" s="45"/>
+      <c r="R75" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R75" s="51"/>
-      <c r="S75" s="16" t="s">
+      <c r="S75" s="51"/>
+      <c r="T75" s="16" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="39" customFormat="1" ht="32" hidden="1">
+    <row r="76" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>73</v>
       </c>
@@ -9036,13 +9152,14 @@
       <c r="P76" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="79"/>
-      <c r="S76" s="53" t="s">
+      <c r="Q76" s="45"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="53" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="39" customFormat="1" ht="42" hidden="1">
+    <row r="77" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="36">
         <v>74</v>
       </c>
@@ -9090,13 +9207,14 @@
       <c r="P77" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="79"/>
-      <c r="S77" s="53" t="s">
+      <c r="Q77" s="45"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="53" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="78" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>75</v>
       </c>
@@ -9142,13 +9260,14 @@
       </c>
       <c r="O78" s="16"/>
       <c r="P78" s="45"/>
-      <c r="Q78" s="51" t="s">
+      <c r="Q78" s="45"/>
+      <c r="R78" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R78" s="51"/>
-      <c r="S78" s="16"/>
-    </row>
-    <row r="79" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S78" s="51"/>
+      <c r="T78" s="16"/>
+    </row>
+    <row r="79" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>76</v>
       </c>
@@ -9194,15 +9313,16 @@
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="45"/>
-      <c r="Q79" s="51" t="s">
+      <c r="Q79" s="45"/>
+      <c r="R79" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R79" s="51"/>
-      <c r="S79" s="16" t="s">
+      <c r="S79" s="51"/>
+      <c r="T79" s="16" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="80" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>77</v>
       </c>
@@ -9248,15 +9368,16 @@
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="45"/>
-      <c r="Q80" s="51" t="s">
+      <c r="Q80" s="45"/>
+      <c r="R80" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R80" s="51"/>
-      <c r="S80" s="16" t="s">
+      <c r="S80" s="51"/>
+      <c r="T80" s="16" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+    <row r="81" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>78</v>
       </c>
@@ -9302,13 +9423,14 @@
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="45"/>
-      <c r="Q81" s="51" t="s">
+      <c r="Q81" s="45"/>
+      <c r="R81" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R81" s="51"/>
-      <c r="S81" s="16"/>
-    </row>
-    <row r="82" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S81" s="51"/>
+      <c r="T81" s="16"/>
+    </row>
+    <row r="82" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>79</v>
       </c>
@@ -9354,13 +9476,14 @@
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="45"/>
-      <c r="Q82" s="49" t="s">
+      <c r="Q82" s="45"/>
+      <c r="R82" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="R82" s="49"/>
-      <c r="S82" s="16"/>
-    </row>
-    <row r="83" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S82" s="49"/>
+      <c r="T82" s="16"/>
+    </row>
+    <row r="83" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>80</v>
       </c>
@@ -9407,13 +9530,14 @@
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="45"/>
-      <c r="Q83" s="51" t="s">
+      <c r="Q83" s="45"/>
+      <c r="R83" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R83" s="51"/>
-      <c r="S83" s="16"/>
-    </row>
-    <row r="84" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S83" s="51"/>
+      <c r="T83" s="16"/>
+    </row>
+    <row r="84" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>81</v>
       </c>
@@ -9459,13 +9583,14 @@
       </c>
       <c r="O84" s="16"/>
       <c r="P84" s="45"/>
-      <c r="Q84" s="51" t="s">
+      <c r="Q84" s="45"/>
+      <c r="R84" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R84" s="51"/>
-      <c r="S84" s="16"/>
-    </row>
-    <row r="85" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S84" s="51"/>
+      <c r="T84" s="16"/>
+    </row>
+    <row r="85" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>82</v>
       </c>
@@ -9511,13 +9636,14 @@
       </c>
       <c r="O85" s="16"/>
       <c r="P85" s="45"/>
-      <c r="Q85" s="49"/>
+      <c r="Q85" s="45"/>
       <c r="R85" s="49"/>
-      <c r="S85" s="16" t="s">
+      <c r="S85" s="49"/>
+      <c r="T85" s="16" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="86" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>83</v>
       </c>
@@ -9563,13 +9689,14 @@
       </c>
       <c r="O86" s="16"/>
       <c r="P86" s="45"/>
-      <c r="Q86" s="51" t="s">
+      <c r="Q86" s="45"/>
+      <c r="R86" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R86" s="51"/>
-      <c r="S86" s="16"/>
-    </row>
-    <row r="87" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S86" s="51"/>
+      <c r="T86" s="16"/>
+    </row>
+    <row r="87" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>84</v>
       </c>
@@ -9615,13 +9742,14 @@
       </c>
       <c r="O87" s="16"/>
       <c r="P87" s="45"/>
-      <c r="Q87" s="51" t="s">
+      <c r="Q87" s="45"/>
+      <c r="R87" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R87" s="51"/>
-      <c r="S87" s="16"/>
-    </row>
-    <row r="88" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S87" s="51"/>
+      <c r="T87" s="16"/>
+    </row>
+    <row r="88" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>85</v>
       </c>
@@ -9667,11 +9795,12 @@
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="45"/>
-      <c r="Q88" s="49"/>
+      <c r="Q88" s="45"/>
       <c r="R88" s="49"/>
-      <c r="S88" s="16"/>
-    </row>
-    <row r="89" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S88" s="49"/>
+      <c r="T88" s="16"/>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>86</v>
       </c>
@@ -9717,13 +9846,14 @@
       </c>
       <c r="O89" s="16"/>
       <c r="P89" s="45"/>
-      <c r="Q89" s="51" t="s">
+      <c r="Q89" s="45"/>
+      <c r="R89" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R89" s="51"/>
-      <c r="S89" s="16"/>
-    </row>
-    <row r="90" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S89" s="51"/>
+      <c r="T89" s="16"/>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>87</v>
       </c>
@@ -9769,13 +9899,14 @@
       </c>
       <c r="O90" s="16"/>
       <c r="P90" s="45"/>
-      <c r="Q90" s="51" t="s">
+      <c r="Q90" s="45"/>
+      <c r="R90" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R90" s="51"/>
-      <c r="S90" s="16"/>
-    </row>
-    <row r="91" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S90" s="51"/>
+      <c r="T90" s="16"/>
+    </row>
+    <row r="91" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>88</v>
       </c>
@@ -9821,13 +9952,14 @@
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="45"/>
-      <c r="Q91" s="49"/>
+      <c r="Q91" s="45"/>
       <c r="R91" s="49"/>
-      <c r="S91" s="16" t="s">
+      <c r="S91" s="49"/>
+      <c r="T91" s="16" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="92" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>89</v>
       </c>
@@ -9873,15 +10005,16 @@
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="45"/>
-      <c r="Q92" s="49" t="s">
+      <c r="Q92" s="45"/>
+      <c r="R92" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="R92" s="49"/>
-      <c r="S92" s="16" t="s">
+      <c r="S92" s="49"/>
+      <c r="T92" s="16" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="39" customFormat="1" hidden="1">
+    <row r="93" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>90</v>
       </c>
@@ -9927,13 +10060,19 @@
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="45"/>
-      <c r="Q93" s="51" t="s">
+      <c r="Q93" s="83">
+        <f>Q1*E93</f>
+        <v>113572000</v>
+      </c>
+      <c r="R93" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R93" s="51"/>
-      <c r="S93" s="16"/>
-    </row>
-    <row r="94" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S93" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="T93" s="16"/>
+    </row>
+    <row r="94" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>91</v>
       </c>
@@ -9971,11 +10110,12 @@
       </c>
       <c r="O94" s="16"/>
       <c r="P94" s="45"/>
-      <c r="Q94" s="49"/>
+      <c r="Q94" s="45"/>
       <c r="R94" s="49"/>
-      <c r="S94" s="16"/>
-    </row>
-    <row r="95" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S94" s="49"/>
+      <c r="T94" s="16"/>
+    </row>
+    <row r="95" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>92</v>
       </c>
@@ -10013,11 +10153,12 @@
       </c>
       <c r="O95" s="16"/>
       <c r="P95" s="45"/>
-      <c r="Q95" s="49"/>
+      <c r="Q95" s="45"/>
       <c r="R95" s="49"/>
-      <c r="S95" s="16"/>
-    </row>
-    <row r="96" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S95" s="49"/>
+      <c r="T95" s="16"/>
+    </row>
+    <row r="96" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>93</v>
       </c>
@@ -10055,11 +10196,12 @@
       </c>
       <c r="O96" s="16"/>
       <c r="P96" s="45"/>
-      <c r="Q96" s="49"/>
+      <c r="Q96" s="45"/>
       <c r="R96" s="49"/>
-      <c r="S96" s="16"/>
-    </row>
-    <row r="97" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S96" s="49"/>
+      <c r="T96" s="16"/>
+    </row>
+    <row r="97" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>94</v>
       </c>
@@ -10097,11 +10239,12 @@
       </c>
       <c r="O97" s="16"/>
       <c r="P97" s="45"/>
-      <c r="Q97" s="49"/>
+      <c r="Q97" s="45"/>
       <c r="R97" s="49"/>
-      <c r="S97" s="16"/>
-    </row>
-    <row r="98" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S97" s="49"/>
+      <c r="T97" s="16"/>
+    </row>
+    <row r="98" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>95</v>
       </c>
@@ -10139,11 +10282,12 @@
       </c>
       <c r="O98" s="16"/>
       <c r="P98" s="45"/>
-      <c r="Q98" s="49"/>
+      <c r="Q98" s="45"/>
       <c r="R98" s="49"/>
-      <c r="S98" s="16"/>
-    </row>
-    <row r="99" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S98" s="49"/>
+      <c r="T98" s="16"/>
+    </row>
+    <row r="99" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>96</v>
       </c>
@@ -10181,11 +10325,12 @@
       </c>
       <c r="O99" s="16"/>
       <c r="P99" s="45"/>
-      <c r="Q99" s="49"/>
+      <c r="Q99" s="45"/>
       <c r="R99" s="49"/>
-      <c r="S99" s="16"/>
-    </row>
-    <row r="100" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S99" s="49"/>
+      <c r="T99" s="16"/>
+    </row>
+    <row r="100" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>97</v>
       </c>
@@ -10223,11 +10368,12 @@
       </c>
       <c r="O100" s="16"/>
       <c r="P100" s="45"/>
-      <c r="Q100" s="49"/>
+      <c r="Q100" s="45"/>
       <c r="R100" s="49"/>
-      <c r="S100" s="16"/>
-    </row>
-    <row r="101" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S100" s="49"/>
+      <c r="T100" s="16"/>
+    </row>
+    <row r="101" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>98</v>
       </c>
@@ -10265,11 +10411,12 @@
       </c>
       <c r="O101" s="16"/>
       <c r="P101" s="45"/>
-      <c r="Q101" s="49"/>
+      <c r="Q101" s="45"/>
       <c r="R101" s="49"/>
-      <c r="S101" s="16"/>
-    </row>
-    <row r="102" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S101" s="49"/>
+      <c r="T101" s="16"/>
+    </row>
+    <row r="102" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>99</v>
       </c>
@@ -10317,11 +10464,12 @@
       <c r="P102" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="Q102" s="49"/>
+      <c r="Q102" s="45"/>
       <c r="R102" s="49"/>
-      <c r="S102" s="16"/>
-    </row>
-    <row r="103" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S102" s="49"/>
+      <c r="T102" s="16"/>
+    </row>
+    <row r="103" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>100</v>
       </c>
@@ -10367,11 +10515,12 @@
       </c>
       <c r="O103" s="16"/>
       <c r="P103" s="45"/>
-      <c r="Q103" s="49"/>
+      <c r="Q103" s="45"/>
       <c r="R103" s="49"/>
-      <c r="S103" s="16"/>
-    </row>
-    <row r="104" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S103" s="49"/>
+      <c r="T103" s="16"/>
+    </row>
+    <row r="104" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36">
         <v>101</v>
       </c>
@@ -10417,11 +10566,12 @@
       </c>
       <c r="O104" s="16"/>
       <c r="P104" s="45"/>
-      <c r="Q104" s="49"/>
+      <c r="Q104" s="45"/>
       <c r="R104" s="49"/>
-      <c r="S104" s="16"/>
-    </row>
-    <row r="105" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S104" s="49"/>
+      <c r="T104" s="16"/>
+    </row>
+    <row r="105" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>102</v>
       </c>
@@ -10467,11 +10617,12 @@
       </c>
       <c r="O105" s="16"/>
       <c r="P105" s="45"/>
-      <c r="Q105" s="49"/>
+      <c r="Q105" s="45"/>
       <c r="R105" s="49"/>
-      <c r="S105" s="16"/>
-    </row>
-    <row r="106" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S105" s="49"/>
+      <c r="T105" s="16"/>
+    </row>
+    <row r="106" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>103</v>
       </c>
@@ -10517,11 +10668,12 @@
       </c>
       <c r="O106" s="16"/>
       <c r="P106" s="45"/>
-      <c r="Q106" s="49"/>
+      <c r="Q106" s="45"/>
       <c r="R106" s="49"/>
-      <c r="S106" s="16"/>
-    </row>
-    <row r="107" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S106" s="49"/>
+      <c r="T106" s="16"/>
+    </row>
+    <row r="107" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>104</v>
       </c>
@@ -10568,11 +10720,12 @@
       </c>
       <c r="O107" s="16"/>
       <c r="P107" s="45"/>
-      <c r="Q107" s="49"/>
+      <c r="Q107" s="45"/>
       <c r="R107" s="49"/>
-      <c r="S107" s="16"/>
-    </row>
-    <row r="108" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S107" s="49"/>
+      <c r="T107" s="16"/>
+    </row>
+    <row r="108" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <v>105</v>
       </c>
@@ -10618,11 +10771,12 @@
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="45"/>
-      <c r="Q108" s="49"/>
+      <c r="Q108" s="45"/>
       <c r="R108" s="49"/>
-      <c r="S108" s="16"/>
-    </row>
-    <row r="109" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S108" s="49"/>
+      <c r="T108" s="16"/>
+    </row>
+    <row r="109" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>106</v>
       </c>
@@ -10668,13 +10822,14 @@
       </c>
       <c r="O109" s="16"/>
       <c r="P109" s="45"/>
-      <c r="Q109" s="51" t="s">
+      <c r="Q109" s="45"/>
+      <c r="R109" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="R109" s="51"/>
-      <c r="S109" s="16"/>
-    </row>
-    <row r="110" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S109" s="51"/>
+      <c r="T109" s="16"/>
+    </row>
+    <row r="110" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <v>107</v>
       </c>
@@ -10720,11 +10875,12 @@
       </c>
       <c r="O110" s="16"/>
       <c r="P110" s="45"/>
-      <c r="Q110" s="49"/>
+      <c r="Q110" s="45"/>
       <c r="R110" s="49"/>
-      <c r="S110" s="16"/>
-    </row>
-    <row r="111" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S110" s="49"/>
+      <c r="T110" s="16"/>
+    </row>
+    <row r="111" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
         <v>108</v>
       </c>
@@ -10770,11 +10926,12 @@
       </c>
       <c r="O111" s="16"/>
       <c r="P111" s="45"/>
-      <c r="Q111" s="49"/>
+      <c r="Q111" s="45"/>
       <c r="R111" s="49"/>
-      <c r="S111" s="16"/>
-    </row>
-    <row r="112" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S111" s="49"/>
+      <c r="T111" s="16"/>
+    </row>
+    <row r="112" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <v>109</v>
       </c>
@@ -10820,11 +10977,12 @@
       </c>
       <c r="O112" s="16"/>
       <c r="P112" s="45"/>
-      <c r="Q112" s="49"/>
+      <c r="Q112" s="45"/>
       <c r="R112" s="49"/>
-      <c r="S112" s="16"/>
-    </row>
-    <row r="113" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S112" s="49"/>
+      <c r="T112" s="16"/>
+    </row>
+    <row r="113" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>110</v>
       </c>
@@ -10870,11 +11028,12 @@
       </c>
       <c r="O113" s="16"/>
       <c r="P113" s="45"/>
-      <c r="Q113" s="49"/>
+      <c r="Q113" s="45"/>
       <c r="R113" s="49"/>
-      <c r="S113" s="16"/>
-    </row>
-    <row r="114" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S113" s="49"/>
+      <c r="T113" s="16"/>
+    </row>
+    <row r="114" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>111</v>
       </c>
@@ -10922,11 +11081,12 @@
       <c r="P114" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="Q114" s="49"/>
+      <c r="Q114" s="45"/>
       <c r="R114" s="49"/>
-      <c r="S114" s="16"/>
-    </row>
-    <row r="115" spans="1:19" s="39" customFormat="1" ht="28" hidden="1">
+      <c r="S114" s="49"/>
+      <c r="T114" s="16"/>
+    </row>
+    <row r="115" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
         <v>112</v>
       </c>
@@ -10975,11 +11135,12 @@
       <c r="P115" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="Q115" s="49"/>
+      <c r="Q115" s="45"/>
       <c r="R115" s="49"/>
-      <c r="S115" s="55"/>
-    </row>
-    <row r="116" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S115" s="49"/>
+      <c r="T115" s="55"/>
+    </row>
+    <row r="116" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>113</v>
       </c>
@@ -11025,11 +11186,12 @@
       </c>
       <c r="O116" s="36"/>
       <c r="P116" s="45"/>
-      <c r="Q116" s="49"/>
+      <c r="Q116" s="45"/>
       <c r="R116" s="49"/>
-      <c r="S116" s="16"/>
-    </row>
-    <row r="117" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S116" s="49"/>
+      <c r="T116" s="16"/>
+    </row>
+    <row r="117" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>114</v>
       </c>
@@ -11070,11 +11232,12 @@
       <c r="N117" s="38"/>
       <c r="O117" s="36"/>
       <c r="P117" s="45"/>
-      <c r="Q117" s="49"/>
+      <c r="Q117" s="45"/>
       <c r="R117" s="49"/>
-      <c r="S117" s="16"/>
-    </row>
-    <row r="118" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S117" s="49"/>
+      <c r="T117" s="16"/>
+    </row>
+    <row r="118" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>115</v>
       </c>
@@ -11115,11 +11278,12 @@
       <c r="N118" s="38"/>
       <c r="O118" s="36"/>
       <c r="P118" s="45"/>
-      <c r="Q118" s="49"/>
+      <c r="Q118" s="45"/>
       <c r="R118" s="49"/>
-      <c r="S118" s="16"/>
-    </row>
-    <row r="119" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S118" s="49"/>
+      <c r="T118" s="16"/>
+    </row>
+    <row r="119" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <v>116</v>
       </c>
@@ -11160,11 +11324,12 @@
       <c r="N119" s="38"/>
       <c r="O119" s="36"/>
       <c r="P119" s="45"/>
-      <c r="Q119" s="49"/>
+      <c r="Q119" s="45"/>
       <c r="R119" s="49"/>
-      <c r="S119" s="16"/>
-    </row>
-    <row r="120" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S119" s="49"/>
+      <c r="T119" s="16"/>
+    </row>
+    <row r="120" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <v>117</v>
       </c>
@@ -11205,11 +11370,12 @@
       <c r="N120" s="38"/>
       <c r="O120" s="36"/>
       <c r="P120" s="45"/>
-      <c r="Q120" s="49"/>
+      <c r="Q120" s="45"/>
       <c r="R120" s="49"/>
-      <c r="S120" s="16"/>
-    </row>
-    <row r="121" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S120" s="49"/>
+      <c r="T120" s="16"/>
+    </row>
+    <row r="121" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <v>118</v>
       </c>
@@ -11250,11 +11416,12 @@
       <c r="N121" s="38"/>
       <c r="O121" s="36"/>
       <c r="P121" s="45"/>
-      <c r="Q121" s="49"/>
+      <c r="Q121" s="45"/>
       <c r="R121" s="49"/>
-      <c r="S121" s="16"/>
-    </row>
-    <row r="122" spans="1:19" s="39" customFormat="1" hidden="1">
+      <c r="S121" s="49"/>
+      <c r="T121" s="16"/>
+    </row>
+    <row r="122" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="36">
         <v>119</v>
       </c>
@@ -11295,113 +11462,109 @@
       <c r="N122" s="38"/>
       <c r="O122" s="36"/>
       <c r="P122" s="45"/>
-      <c r="Q122" s="49"/>
+      <c r="Q122" s="45"/>
       <c r="R122" s="49"/>
-      <c r="S122" s="16"/>
-    </row>
-    <row r="123" spans="1:19" hidden="1">
-      <c r="A123" s="66" t="s">
+      <c r="S122" s="49"/>
+      <c r="T122" s="16"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="66"/>
-      <c r="N123" s="66"/>
-      <c r="O123" s="66"/>
-      <c r="P123" s="66"/>
-      <c r="Q123" s="40"/>
-      <c r="R123" s="64"/>
-    </row>
-    <row r="124" spans="1:19" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="66" t="s">
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="68"/>
+      <c r="J123" s="68"/>
+      <c r="K123" s="68"/>
+      <c r="L123" s="68"/>
+      <c r="M123" s="68"/>
+      <c r="N123" s="68"/>
+      <c r="O123" s="68"/>
+      <c r="P123" s="68"/>
+      <c r="Q123" s="66"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="64"/>
+    </row>
+    <row r="124" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
-      <c r="L124" s="66"/>
-      <c r="M124" s="66"/>
-      <c r="N124" s="66"/>
-      <c r="O124" s="66"/>
-      <c r="P124" s="66"/>
-      <c r="Q124" s="40"/>
-      <c r="R124" s="64"/>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="68"/>
+      <c r="K124" s="68"/>
+      <c r="L124" s="68"/>
+      <c r="M124" s="68"/>
+      <c r="N124" s="68"/>
+      <c r="O124" s="68"/>
+      <c r="P124" s="68"/>
+      <c r="Q124" s="66"/>
+      <c r="R124" s="40"/>
+      <c r="S124" s="64"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T124">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="DAPRE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A124:P124"/>
     <mergeCell ref="A123:P123"/>
@@ -11419,22 +11582,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>400</v>
       </c>
@@ -11448,7 +11611,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>201</v>
       </c>
@@ -11462,7 +11625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
@@ -11476,7 +11639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>103</v>
       </c>
@@ -11490,7 +11653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>159</v>
       </c>
@@ -11504,7 +11667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>79</v>
       </c>
@@ -11518,7 +11681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>67</v>
       </c>
@@ -11532,7 +11695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>236</v>
       </c>
@@ -11546,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>9</v>
       </c>
@@ -11560,7 +11723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>343</v>
       </c>
@@ -11574,7 +11737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
@@ -11588,7 +11751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>401</v>
       </c>
@@ -11613,44 +11776,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>400</v>
       </c>
@@ -11658,7 +11821,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>198</v>
       </c>
@@ -11666,7 +11829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>201</v>
       </c>
@@ -11674,7 +11837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
@@ -11682,7 +11845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>30</v>
       </c>
@@ -11690,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
@@ -11698,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>32</v>
       </c>
@@ -11706,7 +11869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
@@ -11714,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>103</v>
       </c>
@@ -11722,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>343</v>
       </c>
@@ -11730,7 +11893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
@@ -11738,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>45</v>
       </c>
@@ -11746,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>65</v>
       </c>
@@ -11754,7 +11917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>159</v>
       </c>
@@ -11762,7 +11925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>67</v>
       </c>
@@ -11770,7 +11933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>77</v>
       </c>
@@ -11778,7 +11941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>201</v>
       </c>
@@ -11786,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>103</v>
       </c>
@@ -11794,7 +11957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>159</v>
       </c>
@@ -11802,7 +11965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>79</v>
       </c>
@@ -11810,7 +11973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
@@ -11818,7 +11981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>201</v>
       </c>
@@ -11826,7 +11989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
         <v>45</v>
       </c>
@@ -11834,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
@@ -11842,7 +12005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
         <v>30</v>
       </c>
@@ -11850,7 +12013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>105</v>
       </c>
@@ -11858,7 +12021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>103</v>
       </c>
@@ -11866,7 +12029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>216</v>
       </c>
@@ -11874,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
         <v>201</v>
       </c>
@@ -11882,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>11</v>
       </c>
@@ -11890,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
         <v>9</v>
       </c>
@@ -11898,7 +12061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>14</v>
       </c>
@@ -11906,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>9</v>
       </c>
@@ -11914,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>41</v>
       </c>
@@ -11922,7 +12085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
         <v>201</v>
       </c>
@@ -11930,7 +12093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
         <v>30</v>
       </c>
@@ -11938,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
         <v>103</v>
       </c>
@@ -11946,7 +12109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
         <v>159</v>
       </c>
@@ -11954,7 +12117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>15</v>
       </c>
@@ -11962,7 +12125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
         <v>103</v>
       </c>
@@ -11970,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
         <v>236</v>
       </c>
@@ -11978,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
         <v>9</v>
       </c>
@@ -11986,7 +12149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>112</v>
       </c>
@@ -11994,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
         <v>103</v>
       </c>
@@ -12002,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>19</v>
       </c>
@@ -12010,7 +12173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
         <v>201</v>
       </c>
@@ -12018,7 +12181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
         <v>30</v>
       </c>
@@ -12026,7 +12189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
         <v>159</v>
       </c>
@@ -12034,7 +12197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>9</v>
       </c>
@@ -12042,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>197</v>
       </c>
@@ -12050,7 +12213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
         <v>159</v>
       </c>
@@ -12058,7 +12221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>114</v>
       </c>
@@ -12066,7 +12229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
         <v>201</v>
       </c>
@@ -12074,7 +12237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
         <v>103</v>
       </c>
@@ -12082,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>116</v>
       </c>
@@ -12090,7 +12253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
         <v>201</v>
       </c>
@@ -12098,7 +12261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
         <v>103</v>
       </c>
@@ -12106,7 +12269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>22</v>
       </c>
@@ -12114,7 +12277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
         <v>30</v>
       </c>
@@ -12122,7 +12285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
         <v>9</v>
       </c>
@@ -12130,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>118</v>
       </c>
@@ -12138,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
         <v>103</v>
       </c>
@@ -12146,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>25</v>
       </c>
@@ -12154,7 +12317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
         <v>30</v>
       </c>
@@ -12162,7 +12325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
         <v>9</v>
       </c>
@@ -12170,7 +12333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>59</v>
       </c>
@@ -12178,7 +12341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>30</v>
       </c>
@@ -12186,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="s">
         <v>103</v>
       </c>
@@ -12194,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
         <v>159</v>
       </c>
@@ -12202,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>250</v>
       </c>
@@ -12210,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>201</v>
       </c>
@@ -12218,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>121</v>
       </c>
@@ -12226,7 +12389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>103</v>
       </c>
@@ -12234,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="58" t="s">
         <v>9</v>
       </c>
@@ -12242,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>401</v>
       </c>
@@ -12261,19 +12424,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="56">
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>358</v>
       </c>
@@ -12293,7 +12456,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>345</v>
       </c>
@@ -12313,7 +12476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>346</v>
       </c>
@@ -12333,7 +12496,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
@@ -12353,7 +12516,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>348</v>
       </c>
@@ -12373,7 +12536,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>349</v>
       </c>
@@ -12393,7 +12556,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>350</v>
       </c>
@@ -12413,7 +12576,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -12433,7 +12596,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -12453,7 +12616,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -12474,7 +12637,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -12488,7 +12651,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>329</v>
       </c>
@@ -12524,26 +12687,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12566,7 +12729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -12589,7 +12752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -12612,7 +12775,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -12635,7 +12798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" hidden="1">
+    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -12658,18 +12821,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-    </row>
-    <row r="7" spans="1:7" ht="28" hidden="1">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -12692,7 +12855,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" hidden="1">
+    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -12715,7 +12878,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28" hidden="1">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -12738,7 +12901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28" hidden="1">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -12761,7 +12924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28" hidden="1">
+    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -12784,7 +12947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28" hidden="1">
+    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -12807,7 +12970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28" hidden="1">
+    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -12830,7 +12993,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28" hidden="1">
+    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -12853,7 +13016,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28" hidden="1">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -12876,7 +13039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28" hidden="1">
+    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -12899,7 +13062,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28" hidden="1">
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -12922,7 +13085,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28" hidden="1">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -12945,7 +13108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28" hidden="1">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -12968,7 +13131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28" hidden="1">
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -12991,7 +13154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -13014,7 +13177,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28" hidden="1">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -13037,7 +13200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -13060,7 +13223,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28" hidden="1">
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -13085,7 +13248,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FlPaAtAePLRz5DtOTW3ost+tUEc2YpyifXgRLrSqKh2Hjr/RctnmDeTQMXkhb3WDRJP6R+/xPbeXM3PJSTfjBw==" saltValue="2nZefalJ4U7GCKbSbnlHdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
-  <autoFilter ref="A1:G24">
+  <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="Terminada. Artículando verificación técnica en gestión, dotación e inicio de operación"/>
@@ -13105,8 +13268,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G28"/>
@@ -13115,28 +13278,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="28">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13159,18 +13322,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" spans="1:7" ht="28">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -13193,7 +13356,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -13216,7 +13379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -13239,18 +13402,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:7" ht="28">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -13273,7 +13436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -13296,7 +13459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -13319,7 +13482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -13342,7 +13505,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -13365,7 +13528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13388,7 +13551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13411,7 +13574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13434,7 +13597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -13457,7 +13620,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -13480,18 +13643,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-    </row>
-    <row r="19" spans="1:7" ht="28">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13514,7 +13677,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13537,7 +13700,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13560,7 +13723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13583,18 +13746,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="70" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-    </row>
-    <row r="24" spans="1:7" ht="56">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -13617,7 +13780,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="56">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -13640,7 +13803,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="56">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -13663,7 +13826,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="56">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -13686,7 +13849,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="56">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
@@ -13727,20 +13890,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>275</v>
       </c>
@@ -13748,7 +13911,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -13756,7 +13919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
@@ -13764,7 +13927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -13772,7 +13935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
@@ -13780,7 +13943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
@@ -13788,27 +13951,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="74"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="76"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="75"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>273</v>
       </c>
@@ -13822,7 +13985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
@@ -13836,19 +13999,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="76"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
         <v>287</v>
       </c>
@@ -13856,7 +14019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
         <v>288</v>
       </c>
@@ -13864,7 +14027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>289</v>
       </c>
@@ -13872,7 +14035,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>290</v>
       </c>
@@ -13880,23 +14043,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1">
+    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="77" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="77"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="78" t="s">
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="78"/>
-    </row>
-    <row r="19" spans="4:5">
+      <c r="E18" s="80"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
         <v>285</v>
       </c>
@@ -13904,7 +14067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>291</v>
       </c>
@@ -13912,13 +14075,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="73" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="73"/>
-    </row>
-    <row r="22" spans="4:5">
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>288</v>
       </c>
@@ -13926,7 +14089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>289</v>
       </c>
@@ -13934,7 +14097,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INFINITO/Documents/GitHub/Infraestructura-Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8799E-4F3B-437D-A117-F2D5C541C518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC145C38-5DA8-714A-9ACA-687501756E9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="424">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1372,13 +1371,6 @@
     <t>Dotación parcial DAPRE</t>
   </si>
   <si>
-    <t>Existe compromiso de DAPRE de adquirir dotación para completarla con Forndo Abu Dhabi.</t>
-  </si>
-  <si>
-    <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 88.674 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. 
-No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDI El Retén </t>
   </si>
   <si>
@@ -1393,12 +1385,6 @@
     <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes por adquirir 1177 elementos por un valor aproximdo de $90.320.180</t>
   </si>
   <si>
-    <t>Dotación parcial DAPRE- PENDIENTE COMPLETAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes </t>
-  </si>
-  <si>
     <t>El Fondo de Adaptacion reporta que la dotacion la entrega la Gobernación de Bolívar, verificar con la regional</t>
   </si>
   <si>
@@ -1459,16 +1445,10 @@
     <t>Terminada?</t>
   </si>
   <si>
-    <t>Dotación gestionada por la Consejería Presidencial de Primera Infancia con aportes de Entes Territoriales.</t>
-  </si>
-  <si>
     <t>ALCALDIA</t>
   </si>
   <si>
     <t>DOTACION PARCIAL</t>
-  </si>
-  <si>
-    <t>Dotación CDAPRE</t>
   </si>
   <si>
     <t>Solicitado a ICBF</t>
@@ -1476,6 +1456,49 @@
   <si>
     <t>Valor estimado de dotación 
 (Valor cupo niño hasta 150 cupos: $1.419.650)</t>
+  </si>
+  <si>
+    <t>La Alcaldía adquirío dotación completa para este CDI. Se espera lIstado de bienes adquiridos para verifcar cantidades mínimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio) y DAPRE informa el 10 de diciembre de 2018 que el Fondo Abu Dhabi para el Desarrollo, aprobó la compra de los elementos de dotación por valor de U$D 88.674 (TRM utilizada fue de $2.800). Pendiente confirmación de entrada al país de estos recursos y que se realice el proceso de compra. 
+No se tiene fecha exacta de la compra y entrega de estos bienes en el nuevo CDI. Inicialmente se estimó por DAPRE el 1 marzo 2019
+Desde el Equipo de dotaciones se está realizando la articulación para que los elementos de emergencia sean recibidos, almacenadaos y custodiados por la Regional, hasta  que puedan ser entregados en la UDS, cuando cumpla todas las condiciones para el inicio de su operación durante la vigencia 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe compromiso de DAPRE de adquirir dotación para completarla con Forndo Abu Dhabi.
+Desde el Equipo de dotaciones se está realizando la articulación para que los elementos de emergencia sean recibidos, almacenadaos y custodiados por la Regional, hasta  que puedan ser entregados en la UDS, cuando cumpla todas las condiciones para el inicio de su operación durante la vigencia 2019. </t>
+  </si>
+  <si>
+    <t>Dotación completa (Realizar seguimiento de verificacion)</t>
+  </si>
+  <si>
+    <t>Dotación parcial (Realiza seguimiento de verificacion)</t>
+  </si>
+  <si>
+    <t>DAPRE /CONSEGUIR APORTANTE</t>
+  </si>
+  <si>
+    <t>Dotación parcial DAPRE / REALIZAR GESTION PARA COMPLETAR DOTACION</t>
+  </si>
+  <si>
+    <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes 
+- Definir lista de pendientes</t>
+  </si>
+  <si>
+    <t>DEFINIR GESTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFINIR ESTADO DOTACION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde el Equipo de dotaciones se está realizando la articulación para que los elementos de emergencia sean recibidos, almacenadaos y custodiados por la Regional, hasta  que puedan ser entregados en la UDS, cuando cumpla todas las condiciones para el inicio de su operación durante la vigencia 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los elementos de emergencia serán entregados por DAPRE a la Dirección regional para su almacenamiento y custodia hasta poder ser entregados en la UDS cuando se resuelva el inicio de la operación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde el Equipo de dotaciones se está realizando la articulación para que los elementos de emergencia sean recibidos, almacenadaos y custodiados por la Regional hasta  que puedan ser entregados en la UDS, cuando cumpla todas las condiciones para el inicio de su operación durante la vigencia 2019. </t>
   </si>
 </sst>
 </file>
@@ -1483,9 +1506,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1577,7 +1600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,6 +1690,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,12 +1848,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1920,7 +1949,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,6 +2034,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,14 +2082,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5233,57 +5268,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="41" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="70.28515625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="41" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="41" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="41" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="41" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="41" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="70.33203125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="37.1640625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="47.5" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="41" customWidth="1"/>
     <col min="16" max="17" width="49" style="41" customWidth="1"/>
     <col min="18" max="18" width="49" style="50" customWidth="1"/>
     <col min="19" max="19" width="19" style="50" customWidth="1"/>
     <col min="20" max="20" width="94" style="41" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="41" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="41"/>
+    <col min="21" max="21" width="11.5" style="41" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
-      <c r="Q1" s="82">
+      <c r="Q1" s="69">
         <v>1419650</v>
       </c>
       <c r="R1" s="48"/>
       <c r="S1" s="65"/>
     </row>
-    <row r="2" spans="1:20" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -5298,7 +5334,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>247</v>
@@ -5331,19 +5367,19 @@
         <v>252</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>365</v>
       </c>
       <c r="S2" s="46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="T2" s="46" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="39" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -5398,7 +5434,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="39" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -5453,7 +5489,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -5501,9 +5537,9 @@
       <c r="P5" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="Q5" s="81"/>
-    </row>
-    <row r="6" spans="1:20" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="Q5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" s="39" customFormat="1" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -5558,7 +5594,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -5611,7 +5647,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -5662,7 +5698,7 @@
       <c r="S8" s="47"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="1:20" s="39" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -5717,7 +5753,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="39" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -5772,7 +5808,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -5827,7 +5863,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -5878,7 +5914,7 @@
       <c r="S12" s="47"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -5929,7 +5965,7 @@
       <c r="S13" s="47"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -5985,7 +6021,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -6040,7 +6076,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="39" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -6095,7 +6131,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -6146,7 +6182,7 @@
       <c r="S17" s="47"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -6157,7 +6193,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E18" s="15">
         <v>95</v>
@@ -6197,7 +6233,7 @@
       <c r="S18" s="47"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -6248,7 +6284,7 @@
       <c r="S19" s="47"/>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -6299,7 +6335,7 @@
       <c r="S20" s="47"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -6350,7 +6386,7 @@
       <c r="S21" s="47"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -6396,7 +6432,7 @@
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="44"/>
-      <c r="Q22" s="83">
+      <c r="Q22" s="70">
         <f>Q1*E22</f>
         <v>134866750</v>
       </c>
@@ -6404,11 +6440,11 @@
         <v>378</v>
       </c>
       <c r="S22" s="47" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" s="39" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -6463,7 +6499,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -6514,7 +6550,7 @@
       <c r="S24" s="49"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -6562,7 +6598,7 @@
       <c r="S25" s="49"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -6610,7 +6646,7 @@
       <c r="S26" s="49"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -6658,7 +6694,7 @@
       <c r="S27" s="49"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -6706,7 +6742,7 @@
       <c r="S28" s="49"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -6756,7 +6792,7 @@
       <c r="S29" s="49"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -6804,7 +6840,7 @@
       <c r="S30" s="49"/>
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -6852,7 +6888,7 @@
       <c r="S31" s="49"/>
       <c r="T31" s="16"/>
     </row>
-    <row r="32" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -6900,7 +6936,7 @@
       <c r="S32" s="49"/>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -6948,7 +6984,7 @@
       <c r="S33" s="49"/>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -6996,7 +7032,7 @@
       <c r="S34" s="49"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -7047,7 +7083,7 @@
       <c r="S35" s="49"/>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -7097,7 +7133,7 @@
       <c r="S36" s="49"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -7147,7 +7183,7 @@
       <c r="S37" s="49"/>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -7199,7 +7235,7 @@
       <c r="S38" s="51"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -7249,7 +7285,7 @@
       <c r="S39" s="49"/>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -7300,7 +7336,7 @@
       <c r="S40" s="49"/>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -7350,7 +7386,7 @@
       <c r="S41" s="49"/>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -7400,7 +7436,7 @@
       <c r="S42" s="49"/>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -7451,7 +7487,7 @@
       <c r="S43" s="49"/>
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -7501,7 +7537,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -7552,7 +7588,7 @@
       <c r="S45" s="49"/>
       <c r="T45" s="16"/>
     </row>
-    <row r="46" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -7602,7 +7638,7 @@
       <c r="S46" s="49"/>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -7652,7 +7688,7 @@
       <c r="S47" s="49"/>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -7702,7 +7738,7 @@
       <c r="S48" s="49"/>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -7746,7 +7782,7 @@
       <c r="S49" s="49"/>
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -7797,7 +7833,7 @@
       <c r="S50" s="49"/>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -7847,7 +7883,7 @@
       <c r="S51" s="49"/>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -7897,7 +7933,7 @@
       <c r="S52" s="49"/>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -7947,7 +7983,7 @@
       <c r="S53" s="49"/>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -7997,7 +8033,7 @@
       <c r="S54" s="49"/>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -8047,7 +8083,7 @@
       <c r="S55" s="49"/>
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -8097,7 +8133,7 @@
       <c r="S56" s="49"/>
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="1:20" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="39" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -8149,10 +8185,10 @@
         <v>103</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -8160,10 +8196,10 @@
         <v>105</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E58" s="23">
         <v>100</v>
@@ -8173,40 +8209,40 @@
         <v>0</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J58" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N58" s="38" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="45"/>
       <c r="R58" s="49" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="S58" s="49" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="T58" s="16" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="39" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36">
         <v>56</v>
       </c>
@@ -8251,16 +8287,16 @@
       <c r="P59" s="45"/>
       <c r="Q59" s="45"/>
       <c r="R59" s="49" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="S59" s="49" t="s">
         <v>103</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="39" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36">
         <v>57</v>
       </c>
@@ -8313,10 +8349,10 @@
         <v>103</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" s="39" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="39" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36">
         <v>58</v>
       </c>
@@ -8361,14 +8397,16 @@
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
       <c r="R61" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="S61" s="49"/>
+        <v>415</v>
+      </c>
+      <c r="S61" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="T61" s="16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36">
         <v>59</v>
       </c>
@@ -8416,14 +8454,16 @@
       <c r="P62" s="45"/>
       <c r="Q62" s="45"/>
       <c r="R62" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="S62" s="51"/>
+        <v>417</v>
+      </c>
+      <c r="S62" s="51" t="s">
+        <v>416</v>
+      </c>
       <c r="T62" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36">
         <v>60</v>
       </c>
@@ -8472,14 +8512,16 @@
       <c r="P63" s="45"/>
       <c r="Q63" s="45"/>
       <c r="R63" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="S63" s="51"/>
+        <v>417</v>
+      </c>
+      <c r="S63" s="84" t="s">
+        <v>416</v>
+      </c>
       <c r="T63" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36">
         <v>61</v>
       </c>
@@ -8526,11 +8568,17 @@
       <c r="O64" s="16"/>
       <c r="P64" s="45"/>
       <c r="Q64" s="45"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="16"/>
-    </row>
-    <row r="65" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="S64" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36">
         <v>62</v>
       </c>
@@ -8576,11 +8624,17 @@
         <v>262</v>
       </c>
       <c r="Q65" s="45"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="16"/>
-    </row>
-    <row r="66" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="S65" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36">
         <v>63</v>
       </c>
@@ -8625,11 +8679,17 @@
       <c r="O66" s="16"/>
       <c r="P66" s="45"/>
       <c r="Q66" s="45"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="16"/>
-    </row>
-    <row r="67" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R66" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="S66" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36">
         <v>64</v>
       </c>
@@ -8673,11 +8733,17 @@
       <c r="O67" s="16"/>
       <c r="P67" s="45"/>
       <c r="Q67" s="45"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="16"/>
-    </row>
-    <row r="68" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="S67" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36">
         <v>65</v>
       </c>
@@ -8724,11 +8790,17 @@
         <v>257</v>
       </c>
       <c r="Q68" s="45"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="16"/>
-    </row>
-    <row r="69" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="S68" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36">
         <v>66</v>
       </c>
@@ -8771,15 +8843,19 @@
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="45"/>
-      <c r="Q69" s="83">
+      <c r="Q69" s="70">
         <f>Q48*E69</f>
         <v>0</v>
       </c>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
+      <c r="R69" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="S69" s="85" t="s">
+        <v>419</v>
+      </c>
       <c r="T69" s="16"/>
     </row>
-    <row r="70" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36">
         <v>67</v>
       </c>
@@ -8823,11 +8899,15 @@
       <c r="O70" s="16"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="45"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
+      <c r="R70" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="S70" s="85" t="s">
+        <v>419</v>
+      </c>
       <c r="T70" s="16"/>
     </row>
-    <row r="71" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36">
         <v>68</v>
       </c>
@@ -8877,14 +8957,16 @@
       </c>
       <c r="Q71" s="45"/>
       <c r="R71" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="S71" s="49"/>
+        <v>401</v>
+      </c>
+      <c r="S71" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="T71" s="16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="36">
         <v>69</v>
       </c>
@@ -8936,10 +9018,10 @@
       </c>
       <c r="S72" s="51"/>
       <c r="T72" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="36">
         <v>70</v>
       </c>
@@ -8991,10 +9073,10 @@
       </c>
       <c r="S73" s="51"/>
       <c r="T73" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="36">
         <v>71</v>
       </c>
@@ -9046,10 +9128,10 @@
       </c>
       <c r="S74" s="51"/>
       <c r="T74" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>72</v>
       </c>
@@ -9101,10 +9183,10 @@
       </c>
       <c r="S75" s="51"/>
       <c r="T75" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="39" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>73</v>
       </c>
@@ -9150,16 +9232,16 @@
       </c>
       <c r="O76" s="16"/>
       <c r="P76" s="45" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q76" s="45"/>
       <c r="R76" s="49"/>
       <c r="S76" s="67"/>
       <c r="T76" s="53" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="36">
         <v>74</v>
       </c>
@@ -9205,16 +9287,16 @@
       </c>
       <c r="O77" s="16"/>
       <c r="P77" s="45" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q77" s="45"/>
       <c r="R77" s="49"/>
       <c r="S77" s="67"/>
       <c r="T77" s="53" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="36">
         <v>75</v>
       </c>
@@ -9267,7 +9349,7 @@
       <c r="S78" s="51"/>
       <c r="T78" s="16"/>
     </row>
-    <row r="79" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="36">
         <v>76</v>
       </c>
@@ -9319,10 +9401,10 @@
       </c>
       <c r="S79" s="51"/>
       <c r="T79" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="36">
         <v>77</v>
       </c>
@@ -9374,10 +9456,10 @@
       </c>
       <c r="S80" s="51"/>
       <c r="T80" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="36">
         <v>78</v>
       </c>
@@ -9430,7 +9512,7 @@
       <c r="S81" s="51"/>
       <c r="T81" s="16"/>
     </row>
-    <row r="82" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="36">
         <v>79</v>
       </c>
@@ -9483,7 +9565,7 @@
       <c r="S82" s="49"/>
       <c r="T82" s="16"/>
     </row>
-    <row r="83" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="36">
         <v>80</v>
       </c>
@@ -9537,7 +9619,7 @@
       <c r="S83" s="51"/>
       <c r="T83" s="16"/>
     </row>
-    <row r="84" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="36">
         <v>81</v>
       </c>
@@ -9590,7 +9672,7 @@
       <c r="S84" s="51"/>
       <c r="T84" s="16"/>
     </row>
-    <row r="85" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="36">
         <v>82</v>
       </c>
@@ -9640,10 +9722,10 @@
       <c r="R85" s="49"/>
       <c r="S85" s="49"/>
       <c r="T85" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="36">
         <v>83</v>
       </c>
@@ -9696,7 +9778,7 @@
       <c r="S86" s="51"/>
       <c r="T86" s="16"/>
     </row>
-    <row r="87" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="36">
         <v>84</v>
       </c>
@@ -9749,7 +9831,7 @@
       <c r="S87" s="51"/>
       <c r="T87" s="16"/>
     </row>
-    <row r="88" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="36">
         <v>85</v>
       </c>
@@ -9800,7 +9882,7 @@
       <c r="S88" s="49"/>
       <c r="T88" s="16"/>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="36">
         <v>86</v>
       </c>
@@ -9853,7 +9935,7 @@
       <c r="S89" s="51"/>
       <c r="T89" s="16"/>
     </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="36">
         <v>87</v>
       </c>
@@ -9906,7 +9988,7 @@
       <c r="S90" s="51"/>
       <c r="T90" s="16"/>
     </row>
-    <row r="91" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="36">
         <v>88</v>
       </c>
@@ -9956,10 +10038,10 @@
       <c r="R91" s="49"/>
       <c r="S91" s="49"/>
       <c r="T91" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="36">
         <v>89</v>
       </c>
@@ -10007,14 +10089,14 @@
       <c r="P92" s="45"/>
       <c r="Q92" s="45"/>
       <c r="R92" s="49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S92" s="49"/>
       <c r="T92" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="36">
         <v>90</v>
       </c>
@@ -10060,7 +10142,7 @@
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="45"/>
-      <c r="Q93" s="83">
+      <c r="Q93" s="70">
         <f>Q1*E93</f>
         <v>113572000</v>
       </c>
@@ -10068,11 +10150,11 @@
         <v>378</v>
       </c>
       <c r="S93" s="47" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="T93" s="16"/>
     </row>
-    <row r="94" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36">
         <v>91</v>
       </c>
@@ -10115,7 +10197,7 @@
       <c r="S94" s="49"/>
       <c r="T94" s="16"/>
     </row>
-    <row r="95" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36">
         <v>92</v>
       </c>
@@ -10158,7 +10240,7 @@
       <c r="S95" s="49"/>
       <c r="T95" s="16"/>
     </row>
-    <row r="96" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36">
         <v>93</v>
       </c>
@@ -10201,7 +10283,7 @@
       <c r="S96" s="49"/>
       <c r="T96" s="16"/>
     </row>
-    <row r="97" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36">
         <v>94</v>
       </c>
@@ -10244,7 +10326,7 @@
       <c r="S97" s="49"/>
       <c r="T97" s="16"/>
     </row>
-    <row r="98" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36">
         <v>95</v>
       </c>
@@ -10287,7 +10369,7 @@
       <c r="S98" s="49"/>
       <c r="T98" s="16"/>
     </row>
-    <row r="99" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36">
         <v>96</v>
       </c>
@@ -10330,7 +10412,7 @@
       <c r="S99" s="49"/>
       <c r="T99" s="16"/>
     </row>
-    <row r="100" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36">
         <v>97</v>
       </c>
@@ -10373,7 +10455,7 @@
       <c r="S100" s="49"/>
       <c r="T100" s="16"/>
     </row>
-    <row r="101" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36">
         <v>98</v>
       </c>
@@ -10416,7 +10498,7 @@
       <c r="S101" s="49"/>
       <c r="T101" s="16"/>
     </row>
-    <row r="102" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36">
         <v>99</v>
       </c>
@@ -10469,7 +10551,7 @@
       <c r="S102" s="49"/>
       <c r="T102" s="16"/>
     </row>
-    <row r="103" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36">
         <v>100</v>
       </c>
@@ -10520,7 +10602,7 @@
       <c r="S103" s="49"/>
       <c r="T103" s="16"/>
     </row>
-    <row r="104" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36">
         <v>101</v>
       </c>
@@ -10571,7 +10653,7 @@
       <c r="S104" s="49"/>
       <c r="T104" s="16"/>
     </row>
-    <row r="105" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36">
         <v>102</v>
       </c>
@@ -10622,7 +10704,7 @@
       <c r="S105" s="49"/>
       <c r="T105" s="16"/>
     </row>
-    <row r="106" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36">
         <v>103</v>
       </c>
@@ -10673,7 +10755,7 @@
       <c r="S106" s="49"/>
       <c r="T106" s="16"/>
     </row>
-    <row r="107" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36">
         <v>104</v>
       </c>
@@ -10725,7 +10807,7 @@
       <c r="S107" s="49"/>
       <c r="T107" s="16"/>
     </row>
-    <row r="108" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36">
         <v>105</v>
       </c>
@@ -10776,7 +10858,7 @@
       <c r="S108" s="49"/>
       <c r="T108" s="16"/>
     </row>
-    <row r="109" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36">
         <v>106</v>
       </c>
@@ -10829,7 +10911,7 @@
       <c r="S109" s="51"/>
       <c r="T109" s="16"/>
     </row>
-    <row r="110" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36">
         <v>107</v>
       </c>
@@ -10880,7 +10962,7 @@
       <c r="S110" s="49"/>
       <c r="T110" s="16"/>
     </row>
-    <row r="111" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="36">
         <v>108</v>
       </c>
@@ -10931,7 +11013,7 @@
       <c r="S111" s="49"/>
       <c r="T111" s="16"/>
     </row>
-    <row r="112" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36">
         <v>109</v>
       </c>
@@ -10982,7 +11064,7 @@
       <c r="S112" s="49"/>
       <c r="T112" s="16"/>
     </row>
-    <row r="113" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="36">
         <v>110</v>
       </c>
@@ -11033,7 +11115,7 @@
       <c r="S113" s="49"/>
       <c r="T113" s="16"/>
     </row>
-    <row r="114" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36">
         <v>111</v>
       </c>
@@ -11086,7 +11168,7 @@
       <c r="S114" s="49"/>
       <c r="T114" s="16"/>
     </row>
-    <row r="115" spans="1:20" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36">
         <v>112</v>
       </c>
@@ -11140,7 +11222,7 @@
       <c r="S115" s="49"/>
       <c r="T115" s="55"/>
     </row>
-    <row r="116" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36">
         <v>113</v>
       </c>
@@ -11191,7 +11273,7 @@
       <c r="S116" s="49"/>
       <c r="T116" s="16"/>
     </row>
-    <row r="117" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="36">
         <v>114</v>
       </c>
@@ -11237,7 +11319,7 @@
       <c r="S117" s="49"/>
       <c r="T117" s="16"/>
     </row>
-    <row r="118" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36">
         <v>115</v>
       </c>
@@ -11283,7 +11365,7 @@
       <c r="S118" s="49"/>
       <c r="T118" s="16"/>
     </row>
-    <row r="119" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="36">
         <v>116</v>
       </c>
@@ -11329,7 +11411,7 @@
       <c r="S119" s="49"/>
       <c r="T119" s="16"/>
     </row>
-    <row r="120" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36">
         <v>117</v>
       </c>
@@ -11375,7 +11457,7 @@
       <c r="S120" s="49"/>
       <c r="T120" s="16"/>
     </row>
-    <row r="121" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="36">
         <v>118</v>
       </c>
@@ -11421,7 +11503,7 @@
       <c r="S121" s="49"/>
       <c r="T121" s="16"/>
     </row>
-    <row r="122" spans="1:20" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36">
         <v>119</v>
       </c>
@@ -11467,104 +11549,111 @@
       <c r="S122" s="49"/>
       <c r="T122" s="16"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="68" t="s">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="68"/>
-      <c r="H123" s="68"/>
-      <c r="I123" s="68"/>
-      <c r="J123" s="68"/>
-      <c r="K123" s="68"/>
-      <c r="L123" s="68"/>
-      <c r="M123" s="68"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="68"/>
-      <c r="P123" s="68"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="71"/>
+      <c r="M123" s="71"/>
+      <c r="N123" s="71"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="71"/>
       <c r="Q123" s="66"/>
       <c r="R123" s="40"/>
       <c r="S123" s="64"/>
     </row>
-    <row r="124" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="68" t="s">
+    <row r="124" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="68"/>
-      <c r="M124" s="68"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="68"/>
-      <c r="P124" s="68"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="71"/>
+      <c r="M124" s="71"/>
+      <c r="N124" s="71"/>
+      <c r="O124" s="71"/>
+      <c r="P124" s="71"/>
       <c r="Q124" s="66"/>
       <c r="R124" s="40"/>
       <c r="S124" s="64"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="42"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="42"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="42"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="42"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="42"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="42"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="42"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="42"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="42"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="42"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="42"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="42"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="42"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="42"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="42"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="42"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="42"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:U124" xr:uid="{C85F3DD2-2C3C-E64C-ADB6-F760B7593757}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Fondo de Adaptación"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A124:P124"/>
     <mergeCell ref="A123:P123"/>
@@ -11589,29 +11678,29 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="B3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
         <v>201</v>
       </c>
@@ -11625,7 +11714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
@@ -11639,7 +11728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>103</v>
       </c>
@@ -11653,7 +11742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>159</v>
       </c>
@@ -11667,7 +11756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>79</v>
       </c>
@@ -11681,7 +11770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>67</v>
       </c>
@@ -11695,7 +11784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="s">
         <v>236</v>
       </c>
@@ -11709,7 +11798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="57" t="s">
         <v>9</v>
       </c>
@@ -11723,7 +11812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="57" t="s">
         <v>343</v>
       </c>
@@ -11737,7 +11826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
@@ -11751,15 +11840,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="57" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B14" s="59">
         <v>119</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E14" s="62">
         <v>119</v>
@@ -11783,45 +11872,45 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
         <v>198</v>
       </c>
@@ -11829,7 +11918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>201</v>
       </c>
@@ -11837,7 +11926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
@@ -11845,7 +11934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
         <v>30</v>
       </c>
@@ -11853,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
@@ -11861,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>32</v>
       </c>
@@ -11869,7 +11958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
@@ -11877,7 +11966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="s">
         <v>103</v>
       </c>
@@ -11885,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="58" t="s">
         <v>343</v>
       </c>
@@ -11893,7 +11982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
@@ -11901,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="s">
         <v>45</v>
       </c>
@@ -11909,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="s">
         <v>65</v>
       </c>
@@ -11917,7 +12006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
         <v>159</v>
       </c>
@@ -11925,7 +12014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
         <v>67</v>
       </c>
@@ -11933,7 +12022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="s">
         <v>77</v>
       </c>
@@ -11941,7 +12030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
         <v>201</v>
       </c>
@@ -11949,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="s">
         <v>103</v>
       </c>
@@ -11957,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
         <v>159</v>
       </c>
@@ -11965,7 +12054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
         <v>79</v>
       </c>
@@ -11973,7 +12062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
@@ -11981,7 +12070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
         <v>201</v>
       </c>
@@ -11989,7 +12078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
         <v>45</v>
       </c>
@@ -11997,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
@@ -12005,7 +12094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
         <v>30</v>
       </c>
@@ -12013,7 +12102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="57" t="s">
         <v>105</v>
       </c>
@@ -12021,7 +12110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
         <v>103</v>
       </c>
@@ -12029,7 +12118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="57" t="s">
         <v>216</v>
       </c>
@@ -12037,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="58" t="s">
         <v>201</v>
       </c>
@@ -12045,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="57" t="s">
         <v>11</v>
       </c>
@@ -12053,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="58" t="s">
         <v>9</v>
       </c>
@@ -12061,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="57" t="s">
         <v>14</v>
       </c>
@@ -12069,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
         <v>9</v>
       </c>
@@ -12077,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
         <v>41</v>
       </c>
@@ -12085,7 +12174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="s">
         <v>201</v>
       </c>
@@ -12093,7 +12182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
         <v>30</v>
       </c>
@@ -12101,7 +12190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="s">
         <v>103</v>
       </c>
@@ -12109,7 +12198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="58" t="s">
         <v>159</v>
       </c>
@@ -12117,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="57" t="s">
         <v>15</v>
       </c>
@@ -12125,7 +12214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="58" t="s">
         <v>103</v>
       </c>
@@ -12133,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
         <v>236</v>
       </c>
@@ -12141,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="58" t="s">
         <v>9</v>
       </c>
@@ -12149,7 +12238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="57" t="s">
         <v>112</v>
       </c>
@@ -12157,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="58" t="s">
         <v>103</v>
       </c>
@@ -12165,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="57" t="s">
         <v>19</v>
       </c>
@@ -12173,7 +12262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="58" t="s">
         <v>201</v>
       </c>
@@ -12181,7 +12270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
         <v>30</v>
       </c>
@@ -12189,7 +12278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
         <v>159</v>
       </c>
@@ -12197,7 +12286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
         <v>9</v>
       </c>
@@ -12205,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
         <v>197</v>
       </c>
@@ -12213,7 +12302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
         <v>159</v>
       </c>
@@ -12221,7 +12310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="57" t="s">
         <v>114</v>
       </c>
@@ -12229,7 +12318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="58" t="s">
         <v>201</v>
       </c>
@@ -12237,7 +12326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="s">
         <v>103</v>
       </c>
@@ -12245,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="57" t="s">
         <v>116</v>
       </c>
@@ -12253,7 +12342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
         <v>201</v>
       </c>
@@ -12261,7 +12350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="s">
         <v>103</v>
       </c>
@@ -12269,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="57" t="s">
         <v>22</v>
       </c>
@@ -12277,7 +12366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="58" t="s">
         <v>30</v>
       </c>
@@ -12285,7 +12374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="s">
         <v>9</v>
       </c>
@@ -12293,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
         <v>118</v>
       </c>
@@ -12301,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="58" t="s">
         <v>103</v>
       </c>
@@ -12309,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
         <v>25</v>
       </c>
@@ -12317,7 +12406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="58" t="s">
         <v>30</v>
       </c>
@@ -12325,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="58" t="s">
         <v>9</v>
       </c>
@@ -12333,7 +12422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="57" t="s">
         <v>59</v>
       </c>
@@ -12341,7 +12430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="58" t="s">
         <v>30</v>
       </c>
@@ -12349,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="58" t="s">
         <v>103</v>
       </c>
@@ -12357,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="58" t="s">
         <v>159</v>
       </c>
@@ -12365,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
         <v>250</v>
       </c>
@@ -12373,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="58" t="s">
         <v>201</v>
       </c>
@@ -12381,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
         <v>121</v>
       </c>
@@ -12389,7 +12478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="58" t="s">
         <v>103</v>
       </c>
@@ -12397,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="58" t="s">
         <v>9</v>
       </c>
@@ -12405,9 +12494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="57" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B77" s="59">
         <v>119</v>
@@ -12431,12 +12520,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>358</v>
       </c>
@@ -12456,7 +12545,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>345</v>
       </c>
@@ -12476,7 +12565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>346</v>
       </c>
@@ -12496,7 +12585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
@@ -12516,7 +12605,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>348</v>
       </c>
@@ -12536,7 +12625,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>349</v>
       </c>
@@ -12556,7 +12645,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>350</v>
       </c>
@@ -12576,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -12596,7 +12685,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -12616,7 +12705,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -12637,7 +12726,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -12651,7 +12740,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>329</v>
       </c>
@@ -12695,18 +12784,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12729,7 +12818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -12752,7 +12841,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -12775,7 +12864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -12798,7 +12887,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -12821,18 +12910,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -12855,7 +12944,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -12878,7 +12967,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -12901,7 +12990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -12924,7 +13013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -12947,7 +13036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -12970,7 +13059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -12993,7 +13082,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -13016,7 +13105,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -13039,7 +13128,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -13062,7 +13151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -13085,7 +13174,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -13108,7 +13197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -13131,7 +13220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13154,7 +13243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -13177,7 +13266,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -13200,7 +13289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -13223,7 +13312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -13278,28 +13367,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13322,18 +13411,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -13356,7 +13445,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -13379,7 +13468,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -13402,18 +13491,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -13436,7 +13525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -13459,7 +13548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -13482,7 +13571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -13505,7 +13594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -13528,7 +13617,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13551,7 +13640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13574,7 +13663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13597,7 +13686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -13620,7 +13709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -13643,18 +13732,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13677,7 +13766,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13700,7 +13789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13723,7 +13812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13746,18 +13835,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -13780,7 +13869,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -13803,7 +13892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -13826,7 +13915,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -13849,7 +13938,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
@@ -13897,13 +13986,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>275</v>
       </c>
@@ -13911,7 +14000,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -13919,7 +14008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
@@ -13927,7 +14016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -13935,7 +14024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
@@ -13943,7 +14032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
@@ -13951,27 +14040,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="76"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="79"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="77"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="80"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>273</v>
       </c>
@@ -13985,7 +14074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
@@ -13999,19 +14088,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="78"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="81"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="s">
         <v>287</v>
       </c>
@@ -14019,7 +14108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="s">
         <v>288</v>
       </c>
@@ -14027,7 +14116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="s">
         <v>289</v>
       </c>
@@ -14035,7 +14124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="s">
         <v>290</v>
       </c>
@@ -14043,23 +14132,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="79" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="79"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="80" t="s">
+      <c r="E17" s="82"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="80"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="12" t="s">
         <v>285</v>
       </c>
@@ -14067,7 +14156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="12" t="s">
         <v>291</v>
       </c>
@@ -14075,13 +14164,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="75" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="75"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="78"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="13" t="s">
         <v>288</v>
       </c>
@@ -14089,7 +14178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="13" t="s">
         <v>289</v>
       </c>
@@ -14097,7 +14186,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INFINITO/Documents/GitHub/Infraestructura-Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC145C38-5DA8-714A-9ACA-687501756E9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFA0308-09A2-2E4A-BCEB-2011E8ABF0F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="820" windowWidth="12760" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$U$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$T$124</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="430">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1178,34 +1178,6 @@
   </si>
   <si>
     <t>Estado Dotación Inicial</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La alcaldía municipal manifestó su interés en realizar la compra de dotación de este CDI. Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de octubre de 2018.  Actualmente la administración municipal está realizando el proceso de compra de acuerdo a la guía orientadora y el listado de necesidades mínimas que se envió la sede nacional ICBF. Se cuenta con la relación de elementos de dotación pendientes por adquirir.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ver adjuntos: TrazabilidadDotacion_TorrentesSoacha.pdf, MinimosDotacion_TorrentesSoacha.pdf y DotacionPendiente_TorrentesSoacha.xls</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1239,12 +1211,6 @@
     <t>La UNGRD compró una parte de la dotación y se encuentr en el municipio y en Sede Nacional ICBF ( Bodega Barrio 20 de julio) se recibió otra parte de la dotación adquirida por Gestiones de DAPRE.</t>
   </si>
   <si>
-    <t>Dotación completa-DAPRE (Abu Dhabi)</t>
-  </si>
-  <si>
-    <t>Dotación compartida Alcaldía-DAPRE (Abu Dhabi)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">La Regional ICBF no ha adelantado gestión de dotación con el ente territorial ya que la infraestructura presenta condiciones que no permiten un pronto inicio de su operación (falta de vías de acceso seguras, no se cuenta con suministro de agua potable para el funcionamiento. Findeter proyecta la construcción de un puente que asegure el acceso al lugar, proyecto avaluado en 3.800 millones de pesos, de igual manera corresponde al ente territorial destinar recursos para la pavimentación de la vía que conduce al CDI y la construcción de una PETAR para dar solución a la falta de agua y el tratamiento de las mismas- correo del 16 noviembre de 2018.)
 Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial y no se obtuvo respuesta. Por lo tanto, </t>
@@ -1273,12 +1239,6 @@
     </r>
   </si>
   <si>
-    <t>Dotación compartida  Recursos CONPES-DAPRE (Abu Dhabi)</t>
-  </si>
-  <si>
-    <t>Dotación compartida UNGRD-DAPRE (CEMEX)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">En acta de reunión del ICBF y la Secretaria de Educación de Bucaramanga el día 6 de Junio del 2018, la Secretaria de Educación manifiesta que el municipio tiene la responsabilidad de entregar la dotación requerida para el número de usuarios del CDI.
 Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de agosto de 2018.  No se ha dado cumplimiento al compromiso por parte de la Alcaldía y por lo tanto, </t>
@@ -1334,9 +1294,6 @@
     <t>PENDIENTE</t>
   </si>
   <si>
-    <t>Dotación Completa- SGR</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Dotación fue adquirida con recursos del Sistema General de Regalías  en proyecto BPIN 2017000050038 </t>
   </si>
   <si>
@@ -1368,9 +1325,6 @@
     </r>
   </si>
   <si>
-    <t>Dotación parcial DAPRE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDI El Retén </t>
   </si>
   <si>
@@ -1388,9 +1342,6 @@
     <t>El Fondo de Adaptacion reporta que la dotacion la entrega la Gobernación de Bolívar, verificar con la regional</t>
   </si>
   <si>
-    <t>Solicitada a Capital social</t>
-  </si>
-  <si>
     <t>Existe una carta de compromiso de la Gobernación</t>
   </si>
   <si>
@@ -1400,9 +1351,6 @@
     <t>Compromiso de la Alcaldía</t>
   </si>
   <si>
-    <t>Dotación ICBF</t>
-  </si>
-  <si>
     <t>Se asignaros recursos para compra de dotación inicial mediante Resol. 12218  de septiembre de 2018</t>
   </si>
   <si>
@@ -1427,9 +1375,6 @@
     <t>N° Infraestructuras</t>
   </si>
   <si>
-    <t>Dotacion completa</t>
-  </si>
-  <si>
     <t>Parcial por despachar en febrero desde Sede Nacional y se asignaron recursos ICBF para comprar la dotación restante en el marco del contrato de aporte firmado en enero 2019.</t>
   </si>
   <si>
@@ -1443,9 +1388,6 @@
   </si>
   <si>
     <t>Terminada?</t>
-  </si>
-  <si>
-    <t>ALCALDIA</t>
   </si>
   <si>
     <t>DOTACION PARCIAL</t>
@@ -1470,16 +1412,7 @@
 Desde el Equipo de dotaciones se está realizando la articulación para que los elementos de emergencia sean recibidos, almacenadaos y custodiados por la Regional, hasta  que puedan ser entregados en la UDS, cuando cumpla todas las condiciones para el inicio de su operación durante la vigencia 2019. </t>
   </si>
   <si>
-    <t>Dotación completa (Realizar seguimiento de verificacion)</t>
-  </si>
-  <si>
-    <t>Dotación parcial (Realiza seguimiento de verificacion)</t>
-  </si>
-  <si>
     <t>DAPRE /CONSEGUIR APORTANTE</t>
-  </si>
-  <si>
-    <t>Dotación parcial DAPRE / REALIZAR GESTION PARA COMPLETAR DOTACION</t>
   </si>
   <si>
     <t>Algunos elementos de dotación (material pedagógico) se encuentran almacenados en Sede Nacional ICBF (Bodega barrio 20 de julio)  pendientes 
@@ -1499,6 +1432,100 @@
   </si>
   <si>
     <t xml:space="preserve">Desde el Equipo de dotaciones se está realizando la articulación para que los elementos de emergencia sean recibidos, almacenadaos y custodiados por la Regional hasta  que puedan ser entregados en la UDS, cuando cumpla todas las condiciones para el inicio de su operación durante la vigencia 2019. </t>
+  </si>
+  <si>
+    <t>La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación  el lunes 14 de enero se envío Listado de mínimos de dotación requeridos y formato de inventario para realizar cruce con elementos disponibles de traslados y definir elementos pendientes de adquisición.
+Ver adjunto: TrazabilidadDotacion_CampoCruzAtlantico.pdf</t>
+  </si>
+  <si>
+    <t>POR DEFINIR</t>
+  </si>
+  <si>
+    <t>PENDIENTE CRUCE LISTADO TRASLADO Y DEFINIR RESTANTES PARA APORTANTE</t>
+  </si>
+  <si>
+    <t>La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación.
+Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial.
+Ver adjuntos: TrazabilidadDotacionPabloVI_Cordoba.pdf y MínimosDotacionPabloVI_Cordoba.pdf</t>
+  </si>
+  <si>
+    <t>DEFINIR ESTA APORTANTE.</t>
+  </si>
+  <si>
+    <t>El equipo de dotaciones se articuló con la Regional Tolima para complementar la dotación de esta UDS. En espera de aprobación por parte de la Dirección Administrativa del despacho de elementos de dotación desde las bodegas de la Sede Nacional ICBF. La Infraestructura será entregada en Diciembre de 2018.</t>
+  </si>
+  <si>
+    <t>DEFINIR ESTADO DOTACION</t>
+  </si>
+  <si>
+    <t>UNGRD
+DAPRE
+CEMEX</t>
+  </si>
+  <si>
+    <t>DOTACION COMPARTIDA PARCIAL (DEFINIR % DOTACION PENDIENTE)</t>
+  </si>
+  <si>
+    <t>ALCALDIA
+DAPRE</t>
+  </si>
+  <si>
+    <t>ALCALDIA
+DAPRE (AD)</t>
+  </si>
+  <si>
+    <t>DAPRE (AD)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La alcaldía municipal manifestó su interés en realizar la compra de dotación de este CDI. Desde el Equipo de dotaciones se apoyado la articulación de la Regional ICBF con la Alcaldía desde el mes de octubre de 2018.  Actualmente la administración municipal está realizando el proceso de compra de acuerdo a la guía orientadora y el listado de necesidades mínimas que se envió la sede nacional ICBF. Se cuenta con la relación de elementos de dotación pendientes por adquirir.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se priorizó con DAPRE la compra de dotación completa con os fondos de Abu Dhabi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ver adjuntos: TrazabilidadDotacion_TorrentesSoacha.pdf, MinimosDotacion_TorrentesSoacha.pdf y DotacionPendiente_TorrentesSoacha.xls
+En el marco del Convenio 007  de 2016 se ha presentado la  necesidad de dotación de esta infraestructura. Se espera la Prorroga al Convenio para recibir los recursos del Fondo Abu Dhabi para la compra de las dotaciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>DOTACION COMPLETA</t>
+  </si>
+  <si>
+    <t>DOTACION COMPLETA. REALIZAR SEGUIMIENTO DE PROCESO</t>
+  </si>
+  <si>
+    <t>SGR</t>
+  </si>
+  <si>
+    <t>DOTACION COMPLETA. REALZIAR SEGUIMIENTO DE CONTROL</t>
+  </si>
+  <si>
+    <t>DOTACION COMPLETA (REALIZAR SEGUIMIENTO DE VERIFICACION)</t>
+  </si>
+  <si>
+    <t>DOTACION PARCIAL (REALIZAR SEGUIMIENTO DE VERIFICACION)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCALDIA
+DAPRE </t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1537,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,7 +1880,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2031,9 +2058,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
@@ -2042,6 +2066,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,11 +2112,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5268,25 +5298,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T72" sqref="T72"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="41" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="41" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="41" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="41" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" style="41" customWidth="1"/>
     <col min="11" max="11" width="32.5" style="41" customWidth="1"/>
     <col min="12" max="12" width="70.33203125" style="43" customWidth="1"/>
@@ -5301,25 +5330,25 @@
     <col min="22" max="16384" width="11.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="L1" s="33"/>
       <c r="N1" s="33"/>
-      <c r="Q1" s="69">
+      <c r="Q1" s="68">
         <v>1419650</v>
       </c>
       <c r="R1" s="48"/>
       <c r="S1" s="65"/>
     </row>
-    <row r="2" spans="1:20" s="35" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="35" customFormat="1" ht="72.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -5334,7 +5363,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>247</v>
@@ -5367,19 +5396,19 @@
         <v>252</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>365</v>
       </c>
       <c r="S2" s="46" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="T2" s="46" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="39" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="149.25" customHeight="1">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -5427,14 +5456,16 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
       <c r="R3" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="S3" s="36"/>
+        <v>418</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>420</v>
+      </c>
       <c r="T3" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="39" customFormat="1" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="176">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -5481,15 +5512,17 @@
       <c r="O4" s="15"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
-      <c r="R4" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="S4" s="47"/>
+      <c r="R4" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S4" s="86" t="s">
+        <v>421</v>
+      </c>
       <c r="T4" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -5537,9 +5570,15 @@
       <c r="P5" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="Q5" s="68"/>
-    </row>
-    <row r="6" spans="1:20" s="39" customFormat="1" ht="128" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="67"/>
+      <c r="R5" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S5" s="86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="39" customFormat="1" ht="176">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -5586,15 +5625,17 @@
       <c r="O6" s="15"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
-      <c r="R6" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="S6" s="47"/>
+      <c r="R6" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S6" s="86" t="s">
+        <v>421</v>
+      </c>
       <c r="T6" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -5641,13 +5682,17 @@
       <c r="O7" s="15"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="R7" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S7" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T7" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="39" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="64">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -5694,11 +5739,15 @@
       <c r="O8" s="15"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
+      <c r="R8" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S8" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="1:20" s="39" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="54.75" customHeight="1">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -5745,15 +5794,17 @@
       <c r="O9" s="15"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
-      <c r="R9" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="S9" s="47"/>
+      <c r="R9" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>417</v>
+      </c>
       <c r="T9" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="39" customFormat="1" ht="160" hidden="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="160">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -5801,14 +5852,16 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="T10" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="S10" s="47"/>
-      <c r="T10" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -5855,15 +5908,17 @@
       <c r="O11" s="15"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
-      <c r="R11" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="S11" s="51"/>
+      <c r="R11" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>421</v>
+      </c>
       <c r="T11" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -5914,7 +5969,7 @@
       <c r="S12" s="47"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -5965,7 +6020,7 @@
       <c r="S13" s="47"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -6014,14 +6069,14 @@
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="S14" s="51"/>
       <c r="T14" s="52" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -6069,14 +6124,14 @@
       <c r="P15" s="44"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="S15" s="51"/>
       <c r="T15" s="52" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="39" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="39" customFormat="1" ht="80">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -6124,14 +6179,14 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="47" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -6182,7 +6237,7 @@
       <c r="S17" s="47"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -6193,7 +6248,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E18" s="15">
         <v>95</v>
@@ -6233,7 +6288,7 @@
       <c r="S18" s="47"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -6284,7 +6339,7 @@
       <c r="S19" s="47"/>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -6335,7 +6390,7 @@
       <c r="S20" s="47"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -6386,7 +6441,7 @@
       <c r="S21" s="47"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -6432,19 +6487,19 @@
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="44"/>
-      <c r="Q22" s="70">
+      <c r="Q22" s="69">
         <f>Q1*E22</f>
         <v>134866750</v>
       </c>
       <c r="R22" s="47" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="S22" s="47" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" s="39" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="39" customFormat="1" ht="118.5" customHeight="1">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -6492,14 +6547,16 @@
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="S23" s="49"/>
+        <v>426</v>
+      </c>
+      <c r="S23" s="49" t="s">
+        <v>425</v>
+      </c>
       <c r="T23" s="16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -6546,11 +6603,15 @@
       <c r="O24" s="16"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
+      <c r="R24" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S24" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -6594,11 +6655,15 @@
       <c r="O25" s="16"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
+      <c r="R25" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S25" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -6642,11 +6707,15 @@
       <c r="O26" s="16"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
+      <c r="R26" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S26" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -6690,11 +6759,15 @@
       <c r="O27" s="16"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
+      <c r="R27" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S27" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -6738,11 +6811,15 @@
       <c r="O28" s="16"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
+      <c r="R28" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S28" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -6788,11 +6865,15 @@
         <v>296</v>
       </c>
       <c r="Q29" s="45"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
+      <c r="R29" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S29" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -6836,11 +6917,15 @@
       <c r="O30" s="16"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
+      <c r="R30" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S30" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -6884,11 +6969,15 @@
       <c r="O31" s="16"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
+      <c r="R31" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S31" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T31" s="16"/>
     </row>
-    <row r="32" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -6932,11 +7021,15 @@
       <c r="O32" s="16"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
+      <c r="R32" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S32" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -6980,11 +7073,15 @@
       <c r="O33" s="16"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
+      <c r="R33" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S33" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -7028,11 +7125,15 @@
       <c r="O34" s="16"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="45"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
+      <c r="R34" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S34" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -7079,11 +7180,15 @@
         <v>300</v>
       </c>
       <c r="Q35" s="45"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
+      <c r="R35" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S35" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -7129,11 +7234,15 @@
         <v>302</v>
       </c>
       <c r="Q36" s="45"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
+      <c r="R36" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S36" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -7179,11 +7288,15 @@
         <v>300</v>
       </c>
       <c r="Q37" s="45"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
+      <c r="R37" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S37" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -7229,13 +7342,15 @@
         <v>300</v>
       </c>
       <c r="Q38" s="45"/>
-      <c r="R38" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S38" s="51"/>
+      <c r="R38" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S38" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -7281,11 +7396,15 @@
         <v>300</v>
       </c>
       <c r="Q39" s="45"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
+      <c r="R39" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S39" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -7332,11 +7451,15 @@
         <v>307</v>
       </c>
       <c r="Q40" s="45"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
+      <c r="R40" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S40" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -7382,11 +7505,15 @@
         <v>300</v>
       </c>
       <c r="Q41" s="45"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
+      <c r="R41" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S41" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -7432,11 +7559,15 @@
         <v>300</v>
       </c>
       <c r="Q42" s="45"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
+      <c r="R42" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S42" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -7483,11 +7614,15 @@
         <v>300</v>
       </c>
       <c r="Q43" s="45"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
+      <c r="R43" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S43" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -7533,11 +7668,15 @@
         <v>300</v>
       </c>
       <c r="Q44" s="45"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
+      <c r="R44" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S44" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -7584,11 +7723,15 @@
         <v>300</v>
       </c>
       <c r="Q45" s="45"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
+      <c r="R45" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S45" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T45" s="16"/>
     </row>
-    <row r="46" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -7634,11 +7777,15 @@
         <v>300</v>
       </c>
       <c r="Q46" s="45"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
+      <c r="R46" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S46" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -7684,11 +7831,15 @@
         <v>300</v>
       </c>
       <c r="Q47" s="45"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
+      <c r="R47" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S47" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -7734,11 +7885,15 @@
         <v>300</v>
       </c>
       <c r="Q48" s="45"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
+      <c r="R48" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S48" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -7778,11 +7933,15 @@
         <v>315</v>
       </c>
       <c r="Q49" s="45"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
+      <c r="R49" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S49" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -7829,11 +7988,15 @@
         <v>300</v>
       </c>
       <c r="Q50" s="45"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
+      <c r="R50" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S50" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -7879,11 +8042,15 @@
         <v>300</v>
       </c>
       <c r="Q51" s="45"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
+      <c r="R51" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S51" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -7929,11 +8096,15 @@
         <v>300</v>
       </c>
       <c r="Q52" s="45"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
+      <c r="R52" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S52" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -7979,11 +8150,15 @@
         <v>318</v>
       </c>
       <c r="Q53" s="45"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
+      <c r="R53" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S53" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -8029,11 +8204,15 @@
         <v>300</v>
       </c>
       <c r="Q54" s="45"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
+      <c r="R54" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S54" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -8079,11 +8258,15 @@
         <v>300</v>
       </c>
       <c r="Q55" s="45"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
+      <c r="R55" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S55" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -8129,11 +8312,15 @@
         <v>300</v>
       </c>
       <c r="Q56" s="45"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
+      <c r="R56" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S56" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="1:20" s="39" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="39" customFormat="1" ht="96">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -8179,16 +8366,16 @@
       <c r="P57" s="45"/>
       <c r="Q57" s="45"/>
       <c r="R57" s="49" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="S57" s="49" t="s">
         <v>103</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -8196,10 +8383,10 @@
         <v>105</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E58" s="23">
         <v>100</v>
@@ -8209,40 +8396,40 @@
         <v>0</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="J58" s="23" t="s">
         <v>103</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="N58" s="38" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="45"/>
       <c r="R58" s="49" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="S58" s="49" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" s="39" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="39" customFormat="1" ht="144">
       <c r="A59" s="36">
         <v>56</v>
       </c>
@@ -8287,16 +8474,16 @@
       <c r="P59" s="45"/>
       <c r="Q59" s="45"/>
       <c r="R59" s="49" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="S59" s="49" t="s">
         <v>103</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="39" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="39" customFormat="1" ht="64">
       <c r="A60" s="36">
         <v>57</v>
       </c>
@@ -8342,17 +8529,17 @@
         <v>267</v>
       </c>
       <c r="Q60" s="45"/>
-      <c r="R60" s="49" t="s">
-        <v>414</v>
+      <c r="R60" s="36" t="s">
+        <v>427</v>
       </c>
       <c r="S60" s="49" t="s">
         <v>103</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" s="39" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="39" customFormat="1" ht="96">
       <c r="A61" s="36">
         <v>58</v>
       </c>
@@ -8396,17 +8583,17 @@
       <c r="O61" s="16"/>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
-      <c r="R61" s="49" t="s">
-        <v>415</v>
+      <c r="R61" s="36" t="s">
+        <v>428</v>
       </c>
       <c r="S61" s="49" t="s">
         <v>103</v>
       </c>
       <c r="T61" s="16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A62" s="36">
         <v>59</v>
       </c>
@@ -8453,17 +8640,17 @@
       <c r="O62" s="16"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="45"/>
-      <c r="R62" s="51" t="s">
-        <v>417</v>
+      <c r="R62" s="36" t="s">
+        <v>428</v>
       </c>
       <c r="S62" s="51" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A63" s="36">
         <v>60</v>
       </c>
@@ -8511,17 +8698,17 @@
       <c r="O63" s="16"/>
       <c r="P63" s="45"/>
       <c r="Q63" s="45"/>
-      <c r="R63" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="S63" s="84" t="s">
-        <v>416</v>
+      <c r="R63" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="S63" s="70" t="s">
+        <v>403</v>
       </c>
       <c r="T63" s="16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A64" s="36">
         <v>61</v>
       </c>
@@ -8568,17 +8755,17 @@
       <c r="O64" s="16"/>
       <c r="P64" s="45"/>
       <c r="Q64" s="45"/>
-      <c r="R64" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="S64" s="85" t="s">
-        <v>419</v>
+      <c r="R64" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S64" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="T64" s="16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A65" s="36">
         <v>62</v>
       </c>
@@ -8624,17 +8811,17 @@
         <v>262</v>
       </c>
       <c r="Q65" s="45"/>
-      <c r="R65" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="S65" s="85" t="s">
-        <v>419</v>
+      <c r="R65" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S65" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="T65" s="16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A66" s="36">
         <v>63</v>
       </c>
@@ -8679,17 +8866,17 @@
       <c r="O66" s="16"/>
       <c r="P66" s="45"/>
       <c r="Q66" s="45"/>
-      <c r="R66" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="S66" s="85" t="s">
-        <v>419</v>
+      <c r="R66" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S66" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" s="39" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A67" s="36">
         <v>64</v>
       </c>
@@ -8733,17 +8920,17 @@
       <c r="O67" s="16"/>
       <c r="P67" s="45"/>
       <c r="Q67" s="45"/>
-      <c r="R67" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="S67" s="85" t="s">
-        <v>419</v>
+      <c r="R67" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S67" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="T67" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A68" s="36">
         <v>65</v>
       </c>
@@ -8791,16 +8978,16 @@
       </c>
       <c r="Q68" s="45"/>
       <c r="R68" s="49" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="S68" s="49" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="T68" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A69" s="36">
         <v>66</v>
       </c>
@@ -8843,19 +9030,19 @@
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="45"/>
-      <c r="Q69" s="70">
+      <c r="Q69" s="69">
         <f>Q48*E69</f>
         <v>0</v>
       </c>
-      <c r="R69" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="S69" s="85" t="s">
-        <v>419</v>
+      <c r="R69" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S69" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="T69" s="16"/>
     </row>
-    <row r="70" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A70" s="36">
         <v>67</v>
       </c>
@@ -8899,15 +9086,15 @@
       <c r="O70" s="16"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="45"/>
-      <c r="R70" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="S70" s="85" t="s">
-        <v>419</v>
+      <c r="R70" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S70" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="T70" s="16"/>
     </row>
-    <row r="71" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A71" s="36">
         <v>68</v>
       </c>
@@ -8957,16 +9144,16 @@
       </c>
       <c r="Q71" s="45"/>
       <c r="R71" s="49" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="S71" s="49" t="s">
         <v>103</v>
       </c>
       <c r="T71" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="39" customFormat="1" ht="80">
       <c r="A72" s="36">
         <v>69</v>
       </c>
@@ -9013,15 +9200,17 @@
       <c r="O72" s="16"/>
       <c r="P72" s="45"/>
       <c r="Q72" s="45"/>
-      <c r="R72" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S72" s="51"/>
+      <c r="R72" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="S72" s="51" t="s">
+        <v>411</v>
+      </c>
       <c r="T72" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="39" customFormat="1" ht="80">
       <c r="A73" s="36">
         <v>70</v>
       </c>
@@ -9068,15 +9257,17 @@
       <c r="O73" s="16"/>
       <c r="P73" s="45"/>
       <c r="Q73" s="45"/>
-      <c r="R73" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S73" s="51"/>
+      <c r="R73" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="S73" s="51" t="s">
+        <v>411</v>
+      </c>
       <c r="T73" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="39" customFormat="1" ht="80">
       <c r="A74" s="36">
         <v>71</v>
       </c>
@@ -9123,15 +9314,17 @@
       <c r="O74" s="16"/>
       <c r="P74" s="45"/>
       <c r="Q74" s="45"/>
-      <c r="R74" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S74" s="51"/>
+      <c r="R74" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="S74" s="51" t="s">
+        <v>411</v>
+      </c>
       <c r="T74" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A75" s="36">
         <v>72</v>
       </c>
@@ -9178,15 +9371,17 @@
       <c r="O75" s="16"/>
       <c r="P75" s="45"/>
       <c r="Q75" s="45"/>
-      <c r="R75" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S75" s="51"/>
+      <c r="R75" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S75" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T75" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" s="39" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="39" customFormat="1" ht="34">
       <c r="A76" s="36">
         <v>73</v>
       </c>
@@ -9232,16 +9427,20 @@
       </c>
       <c r="O76" s="16"/>
       <c r="P76" s="45" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q76" s="45"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="67"/>
+      <c r="R76" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S76" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T76" s="53" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A77" s="36">
         <v>74</v>
       </c>
@@ -9287,16 +9486,20 @@
       </c>
       <c r="O77" s="16"/>
       <c r="P77" s="45" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q77" s="45"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="67"/>
+      <c r="R77" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S77" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T77" s="53" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A78" s="36">
         <v>75</v>
       </c>
@@ -9343,13 +9546,15 @@
       <c r="O78" s="16"/>
       <c r="P78" s="45"/>
       <c r="Q78" s="45"/>
-      <c r="R78" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S78" s="51"/>
+      <c r="R78" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S78" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T78" s="16"/>
     </row>
-    <row r="79" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A79" s="36">
         <v>76</v>
       </c>
@@ -9396,15 +9601,17 @@
       <c r="O79" s="16"/>
       <c r="P79" s="45"/>
       <c r="Q79" s="45"/>
-      <c r="R79" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S79" s="51"/>
+      <c r="R79" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S79" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T79" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A80" s="36">
         <v>77</v>
       </c>
@@ -9451,15 +9658,17 @@
       <c r="O80" s="16"/>
       <c r="P80" s="45"/>
       <c r="Q80" s="45"/>
-      <c r="R80" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S80" s="51"/>
+      <c r="R80" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S80" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T80" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A81" s="36">
         <v>78</v>
       </c>
@@ -9506,13 +9715,15 @@
       <c r="O81" s="16"/>
       <c r="P81" s="45"/>
       <c r="Q81" s="45"/>
-      <c r="R81" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S81" s="51"/>
+      <c r="R81" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S81" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T81" s="16"/>
     </row>
-    <row r="82" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="39" customFormat="1" ht="80">
       <c r="A82" s="36">
         <v>79</v>
       </c>
@@ -9559,13 +9770,17 @@
       <c r="O82" s="16"/>
       <c r="P82" s="45"/>
       <c r="Q82" s="45"/>
-      <c r="R82" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="S82" s="49"/>
-      <c r="T82" s="16"/>
-    </row>
-    <row r="83" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="R82" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="S82" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A83" s="36">
         <v>80</v>
       </c>
@@ -9613,13 +9828,15 @@
       <c r="O83" s="16"/>
       <c r="P83" s="45"/>
       <c r="Q83" s="45"/>
-      <c r="R83" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S83" s="51"/>
+      <c r="R83" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S83" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T83" s="16"/>
     </row>
-    <row r="84" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A84" s="36">
         <v>81</v>
       </c>
@@ -9666,13 +9883,15 @@
       <c r="O84" s="16"/>
       <c r="P84" s="45"/>
       <c r="Q84" s="45"/>
-      <c r="R84" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S84" s="51"/>
+      <c r="R84" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S84" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T84" s="16"/>
     </row>
-    <row r="85" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A85" s="36">
         <v>82</v>
       </c>
@@ -9719,13 +9938,17 @@
       <c r="O85" s="16"/>
       <c r="P85" s="45"/>
       <c r="Q85" s="45"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
+      <c r="R85" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S85" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T85" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A86" s="36">
         <v>83</v>
       </c>
@@ -9772,13 +9995,15 @@
       <c r="O86" s="16"/>
       <c r="P86" s="45"/>
       <c r="Q86" s="45"/>
-      <c r="R86" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S86" s="51"/>
+      <c r="R86" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S86" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T86" s="16"/>
     </row>
-    <row r="87" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A87" s="36">
         <v>84</v>
       </c>
@@ -9825,13 +10050,15 @@
       <c r="O87" s="16"/>
       <c r="P87" s="45"/>
       <c r="Q87" s="45"/>
-      <c r="R87" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S87" s="51"/>
+      <c r="R87" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S87" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T87" s="16"/>
     </row>
-    <row r="88" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A88" s="36">
         <v>85</v>
       </c>
@@ -9878,11 +10105,15 @@
       <c r="O88" s="16"/>
       <c r="P88" s="45"/>
       <c r="Q88" s="45"/>
-      <c r="R88" s="49"/>
-      <c r="S88" s="49"/>
+      <c r="R88" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S88" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T88" s="16"/>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A89" s="36">
         <v>86</v>
       </c>
@@ -9929,13 +10160,15 @@
       <c r="O89" s="16"/>
       <c r="P89" s="45"/>
       <c r="Q89" s="45"/>
-      <c r="R89" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S89" s="51"/>
+      <c r="R89" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S89" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T89" s="16"/>
     </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A90" s="36">
         <v>87</v>
       </c>
@@ -9982,13 +10215,15 @@
       <c r="O90" s="16"/>
       <c r="P90" s="45"/>
       <c r="Q90" s="45"/>
-      <c r="R90" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S90" s="51"/>
+      <c r="R90" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S90" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T90" s="16"/>
     </row>
-    <row r="91" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A91" s="36">
         <v>88</v>
       </c>
@@ -10035,13 +10270,17 @@
       <c r="O91" s="16"/>
       <c r="P91" s="45"/>
       <c r="Q91" s="45"/>
-      <c r="R91" s="49"/>
-      <c r="S91" s="49"/>
+      <c r="R91" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="S91" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T91" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A92" s="36">
         <v>89</v>
       </c>
@@ -10089,14 +10328,16 @@
       <c r="P92" s="45"/>
       <c r="Q92" s="45"/>
       <c r="R92" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="S92" s="49"/>
+        <v>427</v>
+      </c>
+      <c r="S92" s="49" t="s">
+        <v>236</v>
+      </c>
       <c r="T92" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A93" s="36">
         <v>90</v>
       </c>
@@ -10142,19 +10383,21 @@
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="45"/>
-      <c r="Q93" s="70">
+      <c r="Q93" s="69">
         <f>Q1*E93</f>
         <v>113572000</v>
       </c>
-      <c r="R93" s="51" t="s">
-        <v>378</v>
+      <c r="R93" s="85" t="s">
+        <v>406</v>
       </c>
       <c r="S93" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="T93" s="16"/>
-    </row>
-    <row r="94" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="T93" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A94" s="36">
         <v>91</v>
       </c>
@@ -10193,11 +10436,15 @@
       <c r="O94" s="16"/>
       <c r="P94" s="45"/>
       <c r="Q94" s="45"/>
-      <c r="R94" s="49"/>
-      <c r="S94" s="49"/>
+      <c r="R94" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S94" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T94" s="16"/>
     </row>
-    <row r="95" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A95" s="36">
         <v>92</v>
       </c>
@@ -10236,11 +10483,15 @@
       <c r="O95" s="16"/>
       <c r="P95" s="45"/>
       <c r="Q95" s="45"/>
-      <c r="R95" s="49"/>
-      <c r="S95" s="49"/>
+      <c r="R95" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S95" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T95" s="16"/>
     </row>
-    <row r="96" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A96" s="36">
         <v>93</v>
       </c>
@@ -10279,11 +10530,15 @@
       <c r="O96" s="16"/>
       <c r="P96" s="45"/>
       <c r="Q96" s="45"/>
-      <c r="R96" s="49"/>
-      <c r="S96" s="49"/>
+      <c r="R96" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S96" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T96" s="16"/>
     </row>
-    <row r="97" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A97" s="36">
         <v>94</v>
       </c>
@@ -10322,11 +10577,15 @@
       <c r="O97" s="16"/>
       <c r="P97" s="45"/>
       <c r="Q97" s="45"/>
-      <c r="R97" s="49"/>
-      <c r="S97" s="49"/>
+      <c r="R97" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S97" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T97" s="16"/>
     </row>
-    <row r="98" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A98" s="36">
         <v>95</v>
       </c>
@@ -10365,11 +10624,15 @@
       <c r="O98" s="16"/>
       <c r="P98" s="45"/>
       <c r="Q98" s="45"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="49"/>
+      <c r="R98" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S98" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T98" s="16"/>
     </row>
-    <row r="99" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A99" s="36">
         <v>96</v>
       </c>
@@ -10408,11 +10671,15 @@
       <c r="O99" s="16"/>
       <c r="P99" s="45"/>
       <c r="Q99" s="45"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
+      <c r="R99" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S99" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T99" s="16"/>
     </row>
-    <row r="100" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A100" s="36">
         <v>97</v>
       </c>
@@ -10451,11 +10718,15 @@
       <c r="O100" s="16"/>
       <c r="P100" s="45"/>
       <c r="Q100" s="45"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="49"/>
+      <c r="R100" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S100" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T100" s="16"/>
     </row>
-    <row r="101" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A101" s="36">
         <v>98</v>
       </c>
@@ -10494,11 +10765,15 @@
       <c r="O101" s="16"/>
       <c r="P101" s="45"/>
       <c r="Q101" s="45"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="49"/>
+      <c r="R101" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S101" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T101" s="16"/>
     </row>
-    <row r="102" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A102" s="36">
         <v>99</v>
       </c>
@@ -10547,11 +10822,15 @@
         <v>258</v>
       </c>
       <c r="Q102" s="45"/>
-      <c r="R102" s="49"/>
-      <c r="S102" s="49"/>
+      <c r="R102" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S102" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T102" s="16"/>
     </row>
-    <row r="103" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A103" s="36">
         <v>100</v>
       </c>
@@ -10598,11 +10877,15 @@
       <c r="O103" s="16"/>
       <c r="P103" s="45"/>
       <c r="Q103" s="45"/>
-      <c r="R103" s="49"/>
-      <c r="S103" s="49"/>
+      <c r="R103" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S103" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T103" s="16"/>
     </row>
-    <row r="104" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A104" s="36">
         <v>101</v>
       </c>
@@ -10649,11 +10932,15 @@
       <c r="O104" s="16"/>
       <c r="P104" s="45"/>
       <c r="Q104" s="45"/>
-      <c r="R104" s="49"/>
-      <c r="S104" s="49"/>
+      <c r="R104" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S104" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T104" s="16"/>
     </row>
-    <row r="105" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A105" s="36">
         <v>102</v>
       </c>
@@ -10700,11 +10987,15 @@
       <c r="O105" s="16"/>
       <c r="P105" s="45"/>
       <c r="Q105" s="45"/>
-      <c r="R105" s="49"/>
-      <c r="S105" s="49"/>
+      <c r="R105" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S105" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T105" s="16"/>
     </row>
-    <row r="106" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A106" s="36">
         <v>103</v>
       </c>
@@ -10751,11 +11042,15 @@
       <c r="O106" s="16"/>
       <c r="P106" s="45"/>
       <c r="Q106" s="45"/>
-      <c r="R106" s="49"/>
-      <c r="S106" s="49"/>
+      <c r="R106" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S106" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T106" s="16"/>
     </row>
-    <row r="107" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A107" s="36">
         <v>104</v>
       </c>
@@ -10803,11 +11098,15 @@
       <c r="O107" s="16"/>
       <c r="P107" s="45"/>
       <c r="Q107" s="45"/>
-      <c r="R107" s="49"/>
-      <c r="S107" s="49"/>
+      <c r="R107" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S107" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T107" s="16"/>
     </row>
-    <row r="108" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A108" s="36">
         <v>105</v>
       </c>
@@ -10854,11 +11153,15 @@
       <c r="O108" s="16"/>
       <c r="P108" s="45"/>
       <c r="Q108" s="45"/>
-      <c r="R108" s="49"/>
-      <c r="S108" s="49"/>
+      <c r="R108" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S108" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T108" s="16"/>
     </row>
-    <row r="109" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A109" s="36">
         <v>106</v>
       </c>
@@ -10905,13 +11208,15 @@
       <c r="O109" s="16"/>
       <c r="P109" s="45"/>
       <c r="Q109" s="45"/>
-      <c r="R109" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="S109" s="51"/>
+      <c r="R109" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S109" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T109" s="16"/>
     </row>
-    <row r="110" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A110" s="36">
         <v>107</v>
       </c>
@@ -10958,11 +11263,15 @@
       <c r="O110" s="16"/>
       <c r="P110" s="45"/>
       <c r="Q110" s="45"/>
-      <c r="R110" s="49"/>
-      <c r="S110" s="49"/>
+      <c r="R110" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S110" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T110" s="16"/>
     </row>
-    <row r="111" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A111" s="36">
         <v>108</v>
       </c>
@@ -11009,11 +11318,15 @@
       <c r="O111" s="16"/>
       <c r="P111" s="45"/>
       <c r="Q111" s="45"/>
-      <c r="R111" s="49"/>
-      <c r="S111" s="49"/>
+      <c r="R111" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S111" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T111" s="16"/>
     </row>
-    <row r="112" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A112" s="36">
         <v>109</v>
       </c>
@@ -11060,11 +11373,15 @@
       <c r="O112" s="16"/>
       <c r="P112" s="45"/>
       <c r="Q112" s="45"/>
-      <c r="R112" s="49"/>
-      <c r="S112" s="49"/>
+      <c r="R112" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S112" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T112" s="16"/>
     </row>
-    <row r="113" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A113" s="36">
         <v>110</v>
       </c>
@@ -11111,11 +11428,15 @@
       <c r="O113" s="16"/>
       <c r="P113" s="45"/>
       <c r="Q113" s="45"/>
-      <c r="R113" s="49"/>
-      <c r="S113" s="49"/>
+      <c r="R113" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S113" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T113" s="16"/>
     </row>
-    <row r="114" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="39" customFormat="1" ht="48">
       <c r="A114" s="36">
         <v>111</v>
       </c>
@@ -11164,11 +11485,17 @@
         <v>258</v>
       </c>
       <c r="Q114" s="45"/>
-      <c r="R114" s="49"/>
-      <c r="S114" s="49"/>
-      <c r="T114" s="16"/>
-    </row>
-    <row r="115" spans="1:20" s="39" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R114" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S114" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="T114" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="39" customFormat="1" ht="32">
       <c r="A115" s="36">
         <v>112</v>
       </c>
@@ -11218,11 +11545,15 @@
         <v>266</v>
       </c>
       <c r="Q115" s="45"/>
-      <c r="R115" s="49"/>
-      <c r="S115" s="49"/>
+      <c r="R115" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S115" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T115" s="55"/>
     </row>
-    <row r="116" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A116" s="36">
         <v>113</v>
       </c>
@@ -11269,11 +11600,15 @@
       <c r="O116" s="36"/>
       <c r="P116" s="45"/>
       <c r="Q116" s="45"/>
-      <c r="R116" s="49"/>
-      <c r="S116" s="49"/>
+      <c r="R116" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S116" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T116" s="16"/>
     </row>
-    <row r="117" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A117" s="36">
         <v>114</v>
       </c>
@@ -11315,11 +11650,15 @@
       <c r="O117" s="36"/>
       <c r="P117" s="45"/>
       <c r="Q117" s="45"/>
-      <c r="R117" s="49"/>
-      <c r="S117" s="49"/>
+      <c r="R117" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S117" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T117" s="16"/>
     </row>
-    <row r="118" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A118" s="36">
         <v>115</v>
       </c>
@@ -11361,11 +11700,15 @@
       <c r="O118" s="36"/>
       <c r="P118" s="45"/>
       <c r="Q118" s="45"/>
-      <c r="R118" s="49"/>
-      <c r="S118" s="49"/>
+      <c r="R118" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S118" s="71" t="s">
+        <v>405</v>
+      </c>
       <c r="T118" s="16"/>
     </row>
-    <row r="119" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A119" s="36">
         <v>116</v>
       </c>
@@ -11407,11 +11750,15 @@
       <c r="O119" s="36"/>
       <c r="P119" s="45"/>
       <c r="Q119" s="45"/>
-      <c r="R119" s="49"/>
-      <c r="S119" s="49"/>
+      <c r="R119" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S119" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T119" s="16"/>
     </row>
-    <row r="120" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A120" s="36">
         <v>117</v>
       </c>
@@ -11453,11 +11800,15 @@
       <c r="O120" s="36"/>
       <c r="P120" s="45"/>
       <c r="Q120" s="45"/>
-      <c r="R120" s="49"/>
-      <c r="S120" s="49"/>
+      <c r="R120" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S120" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T120" s="16"/>
     </row>
-    <row r="121" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A121" s="36">
         <v>118</v>
       </c>
@@ -11499,11 +11850,15 @@
       <c r="O121" s="36"/>
       <c r="P121" s="45"/>
       <c r="Q121" s="45"/>
-      <c r="R121" s="49"/>
-      <c r="S121" s="49"/>
+      <c r="R121" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S121" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T121" s="16"/>
     </row>
-    <row r="122" spans="1:20" s="39" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="39" customFormat="1" ht="16">
       <c r="A122" s="36">
         <v>119</v>
       </c>
@@ -11545,115 +11900,112 @@
       <c r="O122" s="36"/>
       <c r="P122" s="45"/>
       <c r="Q122" s="45"/>
-      <c r="R122" s="49"/>
-      <c r="S122" s="49"/>
+      <c r="R122" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="S122" s="85" t="s">
+        <v>405</v>
+      </c>
       <c r="T122" s="16"/>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="71" t="s">
+    <row r="123" spans="1:20">
+      <c r="A123" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="71"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="71"/>
-      <c r="J123" s="71"/>
-      <c r="K123" s="71"/>
-      <c r="L123" s="71"/>
-      <c r="M123" s="71"/>
-      <c r="N123" s="71"/>
-      <c r="O123" s="71"/>
-      <c r="P123" s="71"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="72"/>
+      <c r="M123" s="72"/>
+      <c r="N123" s="72"/>
+      <c r="O123" s="72"/>
+      <c r="P123" s="72"/>
       <c r="Q123" s="66"/>
       <c r="R123" s="40"/>
       <c r="S123" s="64"/>
     </row>
-    <row r="124" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="71" t="s">
+    <row r="124" spans="1:20" ht="15" customHeight="1">
+      <c r="A124" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="71"/>
-      <c r="C124" s="71"/>
-      <c r="D124" s="71"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="71"/>
-      <c r="J124" s="71"/>
-      <c r="K124" s="71"/>
-      <c r="L124" s="71"/>
-      <c r="M124" s="71"/>
-      <c r="N124" s="71"/>
-      <c r="O124" s="71"/>
-      <c r="P124" s="71"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="72"/>
+      <c r="N124" s="72"/>
+      <c r="O124" s="72"/>
+      <c r="P124" s="72"/>
       <c r="Q124" s="66"/>
       <c r="R124" s="40"/>
       <c r="S124" s="64"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="42"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="42"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="42"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" s="42"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="42"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" s="42"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="42"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" s="42"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" s="42"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" s="42"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" s="42"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" s="42"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" s="42"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" s="42"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" s="42"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" s="42"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U124" xr:uid="{C85F3DD2-2C3C-E64C-ADB6-F760B7593757}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Fondo de Adaptación"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A124:P124"/>
     <mergeCell ref="A123:P123"/>
@@ -11674,11 +12026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -11686,21 +12038,21 @@
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="56" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="57" t="s">
         <v>201</v>
       </c>
@@ -11714,7 +12066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
@@ -11728,7 +12080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="57" t="s">
         <v>103</v>
       </c>
@@ -11742,7 +12094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="57" t="s">
         <v>159</v>
       </c>
@@ -11756,7 +12108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="57" t="s">
         <v>79</v>
       </c>
@@ -11770,7 +12122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="57" t="s">
         <v>67</v>
       </c>
@@ -11784,7 +12136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="57" t="s">
         <v>236</v>
       </c>
@@ -11798,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="57" t="s">
         <v>9</v>
       </c>
@@ -11812,7 +12164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="57" t="s">
         <v>343</v>
       </c>
@@ -11826,7 +12178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
@@ -11840,15 +12192,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="57" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B14" s="59">
         <v>119</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E14" s="62">
         <v>119</v>
@@ -11872,7 +12224,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -11902,15 +12254,15 @@
     <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="57" t="s">
         <v>198</v>
       </c>
@@ -11918,7 +12270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="58" t="s">
         <v>201</v>
       </c>
@@ -11926,7 +12278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
@@ -11934,7 +12286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="58" t="s">
         <v>30</v>
       </c>
@@ -11942,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
@@ -11950,7 +12302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="57" t="s">
         <v>32</v>
       </c>
@@ -11958,7 +12310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
@@ -11966,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="58" t="s">
         <v>103</v>
       </c>
@@ -11974,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="58" t="s">
         <v>343</v>
       </c>
@@ -11982,7 +12334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
@@ -11990,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="58" t="s">
         <v>45</v>
       </c>
@@ -11998,7 +12350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="57" t="s">
         <v>65</v>
       </c>
@@ -12006,7 +12358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="58" t="s">
         <v>159</v>
       </c>
@@ -12014,7 +12366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="58" t="s">
         <v>67</v>
       </c>
@@ -12022,7 +12374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="57" t="s">
         <v>77</v>
       </c>
@@ -12030,7 +12382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="58" t="s">
         <v>201</v>
       </c>
@@ -12038,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="58" t="s">
         <v>103</v>
       </c>
@@ -12046,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="58" t="s">
         <v>159</v>
       </c>
@@ -12054,7 +12406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="58" t="s">
         <v>79</v>
       </c>
@@ -12062,7 +12414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
@@ -12070,7 +12422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
         <v>201</v>
       </c>
@@ -12078,7 +12430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="58" t="s">
         <v>45</v>
       </c>
@@ -12086,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
@@ -12094,7 +12446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="58" t="s">
         <v>30</v>
       </c>
@@ -12102,7 +12454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="57" t="s">
         <v>105</v>
       </c>
@@ -12110,7 +12462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="58" t="s">
         <v>103</v>
       </c>
@@ -12118,7 +12470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="57" t="s">
         <v>216</v>
       </c>
@@ -12126,7 +12478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="58" t="s">
         <v>201</v>
       </c>
@@ -12134,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="57" t="s">
         <v>11</v>
       </c>
@@ -12142,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="58" t="s">
         <v>9</v>
       </c>
@@ -12150,7 +12502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="57" t="s">
         <v>14</v>
       </c>
@@ -12158,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="58" t="s">
         <v>9</v>
       </c>
@@ -12166,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="57" t="s">
         <v>41</v>
       </c>
@@ -12174,7 +12526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="58" t="s">
         <v>201</v>
       </c>
@@ -12182,7 +12534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="58" t="s">
         <v>30</v>
       </c>
@@ -12190,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="58" t="s">
         <v>103</v>
       </c>
@@ -12198,7 +12550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="58" t="s">
         <v>159</v>
       </c>
@@ -12206,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="57" t="s">
         <v>15</v>
       </c>
@@ -12214,7 +12566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="58" t="s">
         <v>103</v>
       </c>
@@ -12222,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="58" t="s">
         <v>236</v>
       </c>
@@ -12230,7 +12582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="58" t="s">
         <v>9</v>
       </c>
@@ -12238,7 +12590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="57" t="s">
         <v>112</v>
       </c>
@@ -12246,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="58" t="s">
         <v>103</v>
       </c>
@@ -12254,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="57" t="s">
         <v>19</v>
       </c>
@@ -12262,7 +12614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="58" t="s">
         <v>201</v>
       </c>
@@ -12270,7 +12622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="58" t="s">
         <v>30</v>
       </c>
@@ -12278,7 +12630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="58" t="s">
         <v>159</v>
       </c>
@@ -12286,7 +12638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="58" t="s">
         <v>9</v>
       </c>
@@ -12294,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="57" t="s">
         <v>197</v>
       </c>
@@ -12302,7 +12654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="58" t="s">
         <v>159</v>
       </c>
@@ -12310,7 +12662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="57" t="s">
         <v>114</v>
       </c>
@@ -12318,7 +12670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="58" t="s">
         <v>201</v>
       </c>
@@ -12326,7 +12678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="58" t="s">
         <v>103</v>
       </c>
@@ -12334,7 +12686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="57" t="s">
         <v>116</v>
       </c>
@@ -12342,7 +12694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="58" t="s">
         <v>201</v>
       </c>
@@ -12350,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="58" t="s">
         <v>103</v>
       </c>
@@ -12358,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="57" t="s">
         <v>22</v>
       </c>
@@ -12366,7 +12718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="58" t="s">
         <v>30</v>
       </c>
@@ -12374,7 +12726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="58" t="s">
         <v>9</v>
       </c>
@@ -12382,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="57" t="s">
         <v>118</v>
       </c>
@@ -12390,7 +12742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="58" t="s">
         <v>103</v>
       </c>
@@ -12398,7 +12750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="57" t="s">
         <v>25</v>
       </c>
@@ -12406,7 +12758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="58" t="s">
         <v>30</v>
       </c>
@@ -12414,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="58" t="s">
         <v>9</v>
       </c>
@@ -12422,7 +12774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="57" t="s">
         <v>59</v>
       </c>
@@ -12430,7 +12782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="58" t="s">
         <v>30</v>
       </c>
@@ -12438,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="58" t="s">
         <v>103</v>
       </c>
@@ -12446,7 +12798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="58" t="s">
         <v>159</v>
       </c>
@@ -12454,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="57" t="s">
         <v>250</v>
       </c>
@@ -12462,7 +12814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="58" t="s">
         <v>201</v>
       </c>
@@ -12470,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="57" t="s">
         <v>121</v>
       </c>
@@ -12478,7 +12830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="58" t="s">
         <v>103</v>
       </c>
@@ -12486,7 +12838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="58" t="s">
         <v>9</v>
       </c>
@@ -12494,9 +12846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="57" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B77" s="59">
         <v>119</v>
@@ -12516,16 +12868,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="64">
       <c r="B3" s="17" t="s">
         <v>358</v>
       </c>
@@ -12545,7 +12897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="16">
       <c r="B4" s="16" t="s">
         <v>345</v>
       </c>
@@ -12565,7 +12917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="16">
       <c r="B5" s="16" t="s">
         <v>346</v>
       </c>
@@ -12585,7 +12937,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="16">
       <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
@@ -12605,7 +12957,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="16">
       <c r="B7" s="16" t="s">
         <v>348</v>
       </c>
@@ -12625,7 +12977,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="16">
       <c r="B8" s="16" t="s">
         <v>349</v>
       </c>
@@ -12645,7 +12997,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="16">
       <c r="B9" s="16" t="s">
         <v>350</v>
       </c>
@@ -12665,7 +13017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="16">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -12685,7 +13037,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="16">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -12705,7 +13057,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="16">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -12726,7 +13078,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="16">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -12740,7 +13092,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="16">
       <c r="B14" s="17" t="s">
         <v>329</v>
       </c>
@@ -12784,7 +13136,7 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -12795,7 +13147,7 @@
     <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12818,7 +13170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="48">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -12841,7 +13193,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="48">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -12864,7 +13216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="48">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -12887,7 +13239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="32" hidden="1">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -12910,18 +13262,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
+      <c r="A6" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" hidden="1">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -12944,7 +13296,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="48" hidden="1">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -12967,7 +13319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="32" hidden="1">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -12990,7 +13342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="32" hidden="1">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -13013,7 +13365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="32" hidden="1">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -13036,7 +13388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32" hidden="1">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -13059,7 +13411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="32" hidden="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -13082,7 +13434,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="32" hidden="1">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -13105,7 +13457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="32" hidden="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -13128,7 +13480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32" hidden="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -13151,7 +13503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="32" hidden="1">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -13174,7 +13526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="32" hidden="1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -13197,7 +13549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="32" hidden="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -13220,7 +13572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="32" hidden="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13243,7 +13595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -13266,7 +13618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="32" hidden="1">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -13289,7 +13641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -13312,7 +13664,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="32" hidden="1">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -13367,7 +13719,7 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -13377,18 +13729,18 @@
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-    </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+    </row>
+    <row r="2" spans="1:7" ht="32">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13411,18 +13763,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -13445,7 +13797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="48">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -13468,7 +13820,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="32">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -13491,18 +13843,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:7" ht="32">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -13525,7 +13877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="32">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -13548,7 +13900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -13571,7 +13923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="32">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -13594,7 +13946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -13617,7 +13969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="32">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13640,7 +13992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="32">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13663,7 +14015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="32">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13686,7 +14038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -13709,7 +14061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -13732,18 +14084,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="1:7" ht="32">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13766,7 +14118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="32">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13789,7 +14141,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="32">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +14164,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="32">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13835,18 +14187,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:7" ht="64">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -13869,7 +14221,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="64">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -13892,7 +14244,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="64">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -13915,7 +14267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="64">
       <c r="A27" s="3" t="s">
         <v>197</v>
       </c>
@@ -13938,7 +14290,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="64">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
@@ -13986,13 +14338,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>275</v>
       </c>
@@ -14000,7 +14352,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -14008,7 +14360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
@@ -14016,7 +14368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -14024,7 +14376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
@@ -14032,7 +14384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
@@ -14040,27 +14392,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="79"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="80"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="80"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="81"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>273</v>
       </c>
@@ -14074,7 +14426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
@@ -14088,19 +14440,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="81"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="82"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
         <v>287</v>
       </c>
@@ -14108,7 +14460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
         <v>288</v>
       </c>
@@ -14116,7 +14468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
         <v>289</v>
       </c>
@@ -14124,7 +14476,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
         <v>290</v>
       </c>
@@ -14132,23 +14484,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="3" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="82" t="s">
+    <row r="17" spans="4:5">
+      <c r="D17" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="83" t="s">
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="83"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="84"/>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>285</v>
       </c>
@@ -14156,7 +14508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>291</v>
       </c>
@@ -14164,13 +14516,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="78" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="78"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="79"/>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" s="13" t="s">
         <v>288</v>
       </c>
@@ -14178,7 +14530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5">
       <c r="D23" s="13" t="s">
         <v>289</v>
       </c>
@@ -14186,7 +14538,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5">
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popocha\Documents\GitHub\Infraestructura-Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35571E5F-82FA-435C-BD22-CC639B12899A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E3AB4-23D9-4F89-BDC0-5F063B3096AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$Q$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$R$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="368">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1368,9 +1368,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1706,10 +1706,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1795,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,7 +1862,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,8 +1877,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,21 +1922,12 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5102,50 +5102,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="37.1796875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="47.453125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="24.08984375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="47.42578125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="36" customWidth="1"/>
     <col min="15" max="15" width="49" style="44" customWidth="1"/>
     <col min="16" max="16" width="19" style="44" customWidth="1"/>
     <col min="17" max="17" width="94" style="36" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="36"/>
+    <col min="18" max="18" width="11.42578125" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="L1" s="29"/>
       <c r="N1" s="58"/>
       <c r="O1" s="42"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>315</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -5236,11 +5237,11 @@
       <c r="L3" s="34">
         <v>43525</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="64">
         <v>1419650</v>
       </c>
-      <c r="N3" s="75">
-        <f>M3*E3</f>
+      <c r="N3" s="63">
+        <f t="shared" ref="N3:N34" si="0">M3*E3</f>
         <v>92277250</v>
       </c>
       <c r="O3" s="15" t="s">
@@ -5253,7 +5254,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="35" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>300</v>
       </c>
       <c r="F4" s="33">
-        <f t="shared" ref="F4:F10" si="0">+E4*946485</f>
+        <f t="shared" ref="F4:F10" si="1">+E4*946485</f>
         <v>283945500</v>
       </c>
       <c r="G4" s="15">
@@ -5291,11 +5292,11 @@
       <c r="L4" s="34">
         <v>43435</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="64">
         <v>946000</v>
       </c>
-      <c r="N4" s="75">
-        <f>M4*E4</f>
+      <c r="N4" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O4" s="61" t="s">
@@ -5308,7 +5309,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>160</v>
       </c>
       <c r="F5" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151437600</v>
       </c>
       <c r="G5" s="15">
@@ -5346,11 +5347,11 @@
       <c r="L5" s="34">
         <v>43435</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="64">
         <v>946000</v>
       </c>
-      <c r="N5" s="75">
-        <f>M5*E5</f>
+      <c r="N5" s="63">
+        <f t="shared" si="0"/>
         <v>151360000</v>
       </c>
       <c r="O5" s="61" t="s">
@@ -5363,7 +5364,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="35" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>300</v>
       </c>
       <c r="F6" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G6" s="15">
@@ -5401,11 +5402,11 @@
       <c r="L6" s="34">
         <v>43435</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="64">
         <v>946000</v>
       </c>
-      <c r="N6" s="75">
-        <f>M6*E6</f>
+      <c r="N6" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O6" s="61" t="s">
@@ -5418,7 +5419,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>300</v>
       </c>
       <c r="F7" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G7" s="15">
@@ -5456,11 +5457,11 @@
       <c r="L7" s="34">
         <v>43678</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="64">
         <v>946000</v>
       </c>
-      <c r="N7" s="75">
-        <f>M7*E7</f>
+      <c r="N7" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O7" s="61" t="s">
@@ -5473,7 +5474,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G8" s="15">
@@ -5511,11 +5512,11 @@
       <c r="L8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="64">
         <v>946000</v>
       </c>
-      <c r="N8" s="75">
-        <f>M8*E8</f>
+      <c r="N8" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O8" s="61" t="s">
@@ -5526,7 +5527,7 @@
       </c>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G9" s="15">
@@ -5564,11 +5565,11 @@
       <c r="L9" s="34">
         <v>43556</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="64">
         <v>946000</v>
       </c>
-      <c r="N9" s="75">
-        <f>M9*E9</f>
+      <c r="N9" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O9" s="15" t="s">
@@ -5581,7 +5582,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="35" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="35" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G10" s="15">
@@ -5619,11 +5620,11 @@
       <c r="L10" s="34">
         <v>43435</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="64">
         <v>946000</v>
       </c>
-      <c r="N10" s="75">
-        <f>M10*E10</f>
+      <c r="N10" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O10" s="15" t="s">
@@ -5636,7 +5637,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" ref="F11" si="1">+E11*1419650</f>
+        <f t="shared" ref="F11" si="2">+E11*1419650</f>
         <v>92277250</v>
       </c>
       <c r="G11" s="15">
@@ -5674,11 +5675,11 @@
       <c r="L11" s="34">
         <v>43525</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="64">
         <v>1419650</v>
       </c>
-      <c r="N11" s="75">
-        <f>M11*E11</f>
+      <c r="N11" s="63">
+        <f t="shared" si="0"/>
         <v>92277250</v>
       </c>
       <c r="O11" s="15" t="s">
@@ -5691,7 +5692,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>95</v>
       </c>
       <c r="F12" s="33">
-        <f t="shared" ref="F12:F24" si="2">+E12*1419650</f>
+        <f t="shared" ref="F12:F24" si="3">+E12*1419650</f>
         <v>134866750</v>
       </c>
       <c r="G12" s="15">
@@ -5729,18 +5730,18 @@
       <c r="L12" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="64">
         <v>1419650</v>
       </c>
-      <c r="N12" s="75">
-        <f>M12*E12</f>
+      <c r="N12" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>95</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G13" s="15">
@@ -5778,18 +5779,18 @@
       <c r="L13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="64">
         <v>1419650</v>
       </c>
-      <c r="N13" s="75">
-        <f>M13*E13</f>
+      <c r="N13" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>95</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G14" s="15">
@@ -5828,11 +5829,11 @@
       <c r="L14" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="64">
         <v>1419650</v>
       </c>
-      <c r="N14" s="75">
-        <f>M14*E14</f>
+      <c r="N14" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O14" s="15" t="s">
@@ -5845,7 +5846,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>95</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G15" s="15">
@@ -5883,11 +5884,11 @@
       <c r="L15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="64">
         <v>1419650</v>
       </c>
-      <c r="N15" s="75">
-        <f>M15*E15</f>
+      <c r="N15" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O15" s="15" t="s">
@@ -5900,7 +5901,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="35" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>95</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G16" s="15">
@@ -5938,11 +5939,11 @@
       <c r="L16" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="76">
+      <c r="M16" s="64">
         <v>1419650</v>
       </c>
-      <c r="N16" s="75">
-        <f>M16*E16</f>
+      <c r="N16" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O16" s="41" t="s">
@@ -5953,7 +5954,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G17" s="15">
@@ -5991,18 +5992,18 @@
       <c r="L17" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="64">
         <v>1419650</v>
       </c>
-      <c r="N17" s="75">
-        <f>M17*E17</f>
+      <c r="N17" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>95</v>
       </c>
       <c r="F18" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G18" s="15">
@@ -6040,18 +6041,18 @@
       <c r="L18" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="64">
         <v>1419650</v>
       </c>
-      <c r="N18" s="75">
-        <f>M18*E18</f>
+      <c r="N18" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>95</v>
       </c>
       <c r="F19" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G19" s="15">
@@ -6089,18 +6090,18 @@
       <c r="L19" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="76">
+      <c r="M19" s="64">
         <v>1419650</v>
       </c>
-      <c r="N19" s="75">
-        <f>M19*E19</f>
+      <c r="N19" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>95</v>
       </c>
       <c r="F20" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G20" s="15">
@@ -6138,18 +6139,18 @@
       <c r="L20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="76">
+      <c r="M20" s="64">
         <v>1419650</v>
       </c>
-      <c r="N20" s="75">
-        <f>M20*E20</f>
+      <c r="N20" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>95</v>
       </c>
       <c r="F21" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G21" s="15">
@@ -6187,18 +6188,18 @@
       <c r="L21" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="64">
         <v>1419650</v>
       </c>
-      <c r="N21" s="75">
-        <f>M21*E21</f>
+      <c r="N21" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>95</v>
       </c>
       <c r="F22" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G22" s="21">
@@ -6236,11 +6237,11 @@
       <c r="L22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="76">
+      <c r="M22" s="64">
         <v>1419650</v>
       </c>
-      <c r="N22" s="75">
-        <f>M22*E22</f>
+      <c r="N22" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O22" s="41" t="s">
@@ -6253,7 +6254,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>110</v>
       </c>
       <c r="F23" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156161500</v>
       </c>
       <c r="G23" s="23">
@@ -6291,11 +6292,11 @@
       <c r="L23" s="34">
         <v>43556</v>
       </c>
-      <c r="M23" s="76">
+      <c r="M23" s="64">
         <v>1419650</v>
       </c>
-      <c r="N23" s="75">
-        <f>M23*E23</f>
+      <c r="N23" s="63">
+        <f t="shared" si="0"/>
         <v>156161500</v>
       </c>
       <c r="O23" s="15" t="s">
@@ -6308,7 +6309,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147643600</v>
       </c>
       <c r="G24" s="23">
@@ -6346,11 +6347,11 @@
       <c r="L24" s="34">
         <v>43800</v>
       </c>
-      <c r="M24" s="76">
+      <c r="M24" s="64">
         <v>1419650</v>
       </c>
-      <c r="N24" s="75">
-        <f>M24*E24</f>
+      <c r="N24" s="63">
+        <f t="shared" si="0"/>
         <v>147643600</v>
       </c>
       <c r="O24" s="61" t="s">
@@ -6361,7 +6362,7 @@
       </c>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -6396,11 +6397,11 @@
       <c r="L25" s="34">
         <v>43435</v>
       </c>
-      <c r="M25" s="76">
+      <c r="M25" s="64">
         <v>946000</v>
       </c>
-      <c r="N25" s="75">
-        <f>M25*E25</f>
+      <c r="N25" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O25" s="61" t="s">
@@ -6411,7 +6412,7 @@
       </c>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -6446,11 +6447,11 @@
       <c r="L26" s="34">
         <v>43408</v>
       </c>
-      <c r="M26" s="76">
+      <c r="M26" s="64">
         <v>946000</v>
       </c>
-      <c r="N26" s="75">
-        <f>M26*E26</f>
+      <c r="N26" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O26" s="61" t="s">
@@ -6461,7 +6462,7 @@
       </c>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -6496,11 +6497,11 @@
       <c r="L27" s="34">
         <v>43617</v>
       </c>
-      <c r="M27" s="76">
+      <c r="M27" s="64">
         <v>946000</v>
       </c>
-      <c r="N27" s="75">
-        <f>M27*E27</f>
+      <c r="N27" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O27" s="61" t="s">
@@ -6511,7 +6512,7 @@
       </c>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -6546,11 +6547,11 @@
       <c r="L28" s="34">
         <v>43466</v>
       </c>
-      <c r="M28" s="76">
+      <c r="M28" s="64">
         <v>946000</v>
       </c>
-      <c r="N28" s="75">
-        <f>M28*E28</f>
+      <c r="N28" s="63">
+        <f t="shared" si="0"/>
         <v>170280000</v>
       </c>
       <c r="O28" s="61" t="s">
@@ -6561,7 +6562,7 @@
       </c>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -6596,11 +6597,11 @@
       <c r="L29" s="34">
         <v>43405</v>
       </c>
-      <c r="M29" s="76">
+      <c r="M29" s="64">
         <v>946000</v>
       </c>
-      <c r="N29" s="75">
-        <f>M29*E29</f>
+      <c r="N29" s="63">
+        <f t="shared" si="0"/>
         <v>266772000</v>
       </c>
       <c r="O29" s="61" t="s">
@@ -6611,7 +6612,7 @@
       </c>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -6646,11 +6647,11 @@
       <c r="L30" s="34">
         <v>43419</v>
       </c>
-      <c r="M30" s="76">
+      <c r="M30" s="64">
         <v>946000</v>
       </c>
-      <c r="N30" s="75">
-        <f>M30*E30</f>
+      <c r="N30" s="63">
+        <f t="shared" si="0"/>
         <v>170280000</v>
       </c>
       <c r="O30" s="61" t="s">
@@ -6661,7 +6662,7 @@
       </c>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
         <v>29</v>
       </c>
@@ -6696,11 +6697,11 @@
       <c r="L31" s="34">
         <v>43419</v>
       </c>
-      <c r="M31" s="76">
+      <c r="M31" s="64">
         <v>946000</v>
       </c>
-      <c r="N31" s="75">
-        <f>M31*E31</f>
+      <c r="N31" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O31" s="61" t="s">
@@ -6711,7 +6712,7 @@
       </c>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>30</v>
       </c>
@@ -6746,11 +6747,11 @@
       <c r="L32" s="34">
         <v>43419</v>
       </c>
-      <c r="M32" s="76">
+      <c r="M32" s="64">
         <v>1419650</v>
       </c>
-      <c r="N32" s="75">
-        <f>M32*E32</f>
+      <c r="N32" s="63">
+        <f t="shared" si="0"/>
         <v>212947500</v>
       </c>
       <c r="O32" s="61" t="s">
@@ -6761,7 +6762,7 @@
       </c>
       <c r="Q32" s="16"/>
     </row>
-    <row r="33" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>31</v>
       </c>
@@ -6796,11 +6797,11 @@
       <c r="L33" s="34">
         <v>43419</v>
       </c>
-      <c r="M33" s="76">
+      <c r="M33" s="64">
         <v>946000</v>
       </c>
-      <c r="N33" s="75">
-        <f>M33*E33</f>
+      <c r="N33" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O33" s="61" t="s">
@@ -6811,7 +6812,7 @@
       </c>
       <c r="Q33" s="16"/>
     </row>
-    <row r="34" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>32</v>
       </c>
@@ -6846,11 +6847,11 @@
       <c r="L34" s="34">
         <v>43419</v>
       </c>
-      <c r="M34" s="76">
+      <c r="M34" s="64">
         <v>946000</v>
       </c>
-      <c r="N34" s="75">
-        <f>M34*E34</f>
+      <c r="N34" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O34" s="61" t="s">
@@ -6861,7 +6862,7 @@
       </c>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>33</v>
       </c>
@@ -6897,11 +6898,11 @@
       <c r="L35" s="34">
         <v>43620</v>
       </c>
-      <c r="M35" s="76">
+      <c r="M35" s="64">
         <v>946000</v>
       </c>
-      <c r="N35" s="75">
-        <f>M35*E35</f>
+      <c r="N35" s="63">
+        <f t="shared" ref="N35:N66" si="4">M35*E35</f>
         <v>283800000</v>
       </c>
       <c r="O35" s="61" t="s">
@@ -6914,7 +6915,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>34</v>
       </c>
@@ -6949,11 +6950,11 @@
       <c r="L36" s="34">
         <v>43559</v>
       </c>
-      <c r="M36" s="76">
+      <c r="M36" s="64">
         <v>946000</v>
       </c>
-      <c r="N36" s="75">
-        <f>M36*E36</f>
+      <c r="N36" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O36" s="61" t="s">
@@ -6966,7 +6967,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>35</v>
       </c>
@@ -7001,11 +7002,11 @@
       <c r="L37" s="34">
         <v>43559</v>
       </c>
-      <c r="M37" s="76">
+      <c r="M37" s="64">
         <v>946000</v>
       </c>
-      <c r="N37" s="75">
-        <f>M37*E37</f>
+      <c r="N37" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O37" s="61" t="s">
@@ -7018,7 +7019,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>36</v>
       </c>
@@ -7053,11 +7054,11 @@
       <c r="L38" s="34">
         <v>43559</v>
       </c>
-      <c r="M38" s="76">
+      <c r="M38" s="64">
         <v>946000</v>
       </c>
-      <c r="N38" s="75">
-        <f>M38*E38</f>
+      <c r="N38" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O38" s="61" t="s">
@@ -7070,7 +7071,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>37</v>
       </c>
@@ -7105,11 +7106,11 @@
       <c r="L39" s="34">
         <v>43589</v>
       </c>
-      <c r="M39" s="76">
+      <c r="M39" s="64">
         <v>946000</v>
       </c>
-      <c r="N39" s="75">
-        <f>M39*E39</f>
+      <c r="N39" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O39" s="61" t="s">
@@ -7122,7 +7123,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>38</v>
       </c>
@@ -7158,11 +7159,11 @@
       <c r="L40" s="34">
         <v>43589</v>
       </c>
-      <c r="M40" s="76">
+      <c r="M40" s="64">
         <v>946000</v>
       </c>
-      <c r="N40" s="75">
-        <f>M40*E40</f>
+      <c r="N40" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O40" s="61" t="s">
@@ -7175,7 +7176,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>39</v>
       </c>
@@ -7210,11 +7211,11 @@
       <c r="L41" s="34">
         <v>43620</v>
       </c>
-      <c r="M41" s="76">
+      <c r="M41" s="64">
         <v>946000</v>
       </c>
-      <c r="N41" s="75">
-        <f>M41*E41</f>
+      <c r="N41" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O41" s="61" t="s">
@@ -7227,7 +7228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>40</v>
       </c>
@@ -7262,11 +7263,11 @@
       <c r="L42" s="34">
         <v>43559</v>
       </c>
-      <c r="M42" s="76">
+      <c r="M42" s="64">
         <v>946000</v>
       </c>
-      <c r="N42" s="75">
-        <f>M42*E42</f>
+      <c r="N42" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O42" s="61" t="s">
@@ -7279,7 +7280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32">
         <v>41</v>
       </c>
@@ -7315,11 +7316,11 @@
       <c r="L43" s="34">
         <v>43620</v>
       </c>
-      <c r="M43" s="76">
+      <c r="M43" s="64">
         <v>946000</v>
       </c>
-      <c r="N43" s="75">
-        <f>M43*E43</f>
+      <c r="N43" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O43" s="61" t="s">
@@ -7332,7 +7333,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>42</v>
       </c>
@@ -7367,11 +7368,11 @@
       <c r="L44" s="34">
         <v>43559</v>
       </c>
-      <c r="M44" s="76">
+      <c r="M44" s="64">
         <v>946000</v>
       </c>
-      <c r="N44" s="75">
-        <f>M44*E44</f>
+      <c r="N44" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O44" s="61" t="s">
@@ -7384,7 +7385,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32">
         <v>43</v>
       </c>
@@ -7420,11 +7421,11 @@
       <c r="L45" s="34">
         <v>43739</v>
       </c>
-      <c r="M45" s="76">
+      <c r="M45" s="64">
         <v>946000</v>
       </c>
-      <c r="N45" s="75">
-        <f>M45*E45</f>
+      <c r="N45" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O45" s="61" t="s">
@@ -7437,7 +7438,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>44</v>
       </c>
@@ -7472,11 +7473,11 @@
       <c r="L46" s="34">
         <v>43620</v>
       </c>
-      <c r="M46" s="76">
+      <c r="M46" s="64">
         <v>946000</v>
       </c>
-      <c r="N46" s="75">
-        <f>M46*E46</f>
+      <c r="N46" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O46" s="61" t="s">
@@ -7489,7 +7490,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32">
         <v>45</v>
       </c>
@@ -7524,11 +7525,11 @@
       <c r="L47" s="34">
         <v>43589</v>
       </c>
-      <c r="M47" s="76">
+      <c r="M47" s="64">
         <v>946000</v>
       </c>
-      <c r="N47" s="75">
-        <f>M47*E47</f>
+      <c r="N47" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O47" s="61" t="s">
@@ -7541,7 +7542,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>46</v>
       </c>
@@ -7576,11 +7577,11 @@
       <c r="L48" s="34">
         <v>43589</v>
       </c>
-      <c r="M48" s="76">
+      <c r="M48" s="64">
         <v>946000</v>
       </c>
-      <c r="N48" s="75">
-        <f>M48*E48</f>
+      <c r="N48" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O48" s="61" t="s">
@@ -7593,7 +7594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>47</v>
       </c>
@@ -7622,11 +7623,11 @@
       <c r="L49" s="34">
         <v>43559</v>
       </c>
-      <c r="M49" s="76">
+      <c r="M49" s="64">
         <v>946000</v>
       </c>
-      <c r="N49" s="75">
-        <f>M49*E49</f>
+      <c r="N49" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O49" s="61" t="s">
@@ -7639,7 +7640,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>48</v>
       </c>
@@ -7675,11 +7676,11 @@
       <c r="L50" s="34">
         <v>43511</v>
       </c>
-      <c r="M50" s="76">
+      <c r="M50" s="64">
         <v>1419650</v>
       </c>
-      <c r="N50" s="75">
-        <f>M50*E50</f>
+      <c r="N50" s="63">
+        <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
       <c r="O50" s="61" t="s">
@@ -7692,7 +7693,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>49</v>
       </c>
@@ -7727,11 +7728,11 @@
       <c r="L51" s="34">
         <v>43559</v>
       </c>
-      <c r="M51" s="76">
+      <c r="M51" s="64">
         <v>1419650</v>
       </c>
-      <c r="N51" s="75">
-        <f>M51*E51</f>
+      <c r="N51" s="63">
+        <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
       <c r="O51" s="61" t="s">
@@ -7744,7 +7745,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>50</v>
       </c>
@@ -7779,11 +7780,11 @@
       <c r="L52" s="34">
         <v>43589</v>
       </c>
-      <c r="M52" s="76">
+      <c r="M52" s="64">
         <v>946000</v>
       </c>
-      <c r="N52" s="75">
-        <f>M52*E52</f>
+      <c r="N52" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O52" s="61" t="s">
@@ -7796,7 +7797,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>51</v>
       </c>
@@ -7831,11 +7832,11 @@
       <c r="L53" s="34">
         <v>43559</v>
       </c>
-      <c r="M53" s="76">
+      <c r="M53" s="64">
         <v>946000</v>
       </c>
-      <c r="N53" s="75">
-        <f>M53*E53</f>
+      <c r="N53" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O53" s="61" t="s">
@@ -7848,7 +7849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>52</v>
       </c>
@@ -7883,11 +7884,11 @@
       <c r="L54" s="34">
         <v>43589</v>
       </c>
-      <c r="M54" s="76">
+      <c r="M54" s="64">
         <v>946000</v>
       </c>
-      <c r="N54" s="75">
-        <f>M54*E54</f>
+      <c r="N54" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O54" s="61" t="s">
@@ -7900,7 +7901,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>53</v>
       </c>
@@ -7935,11 +7936,11 @@
       <c r="L55" s="34">
         <v>43559</v>
       </c>
-      <c r="M55" s="76">
+      <c r="M55" s="64">
         <v>946000</v>
       </c>
-      <c r="N55" s="75">
-        <f>M55*E55</f>
+      <c r="N55" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O55" s="61" t="s">
@@ -7952,7 +7953,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>54</v>
       </c>
@@ -7987,11 +7988,11 @@
       <c r="L56" s="34">
         <v>43589</v>
       </c>
-      <c r="M56" s="76">
+      <c r="M56" s="64">
         <v>946000</v>
       </c>
-      <c r="N56" s="75">
-        <f>M56*E56</f>
+      <c r="N56" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O56" s="61" t="s">
@@ -8004,7 +8005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" s="35" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32">
         <v>55</v>
       </c>
@@ -8040,11 +8041,11 @@
       <c r="L57" s="34">
         <v>43497</v>
       </c>
-      <c r="M57" s="76">
+      <c r="M57" s="64">
         <v>946000</v>
       </c>
-      <c r="N57" s="75">
-        <f>M57*E57</f>
+      <c r="N57" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O57" s="43" t="s">
@@ -8057,7 +8058,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>56</v>
       </c>
@@ -8092,11 +8093,11 @@
       <c r="L58" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="M58" s="76">
+      <c r="M58" s="64">
         <v>1419650</v>
       </c>
-      <c r="N58" s="75">
-        <f>M58*E58</f>
+      <c r="N58" s="63">
+        <f t="shared" si="4"/>
         <v>141965000</v>
       </c>
       <c r="O58" s="15" t="s">
@@ -8109,7 +8110,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="35" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="35" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32">
         <v>56</v>
       </c>
@@ -8144,11 +8145,11 @@
       <c r="L59" s="34">
         <v>43497</v>
       </c>
-      <c r="M59" s="76">
+      <c r="M59" s="64">
         <v>946000</v>
       </c>
-      <c r="N59" s="75">
-        <f>M59*E59</f>
+      <c r="N59" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O59" s="43" t="s">
@@ -8161,7 +8162,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="35" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="35" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32">
         <v>57</v>
       </c>
@@ -8196,11 +8197,11 @@
       <c r="L60" s="34">
         <v>43373</v>
       </c>
-      <c r="M60" s="76">
+      <c r="M60" s="64">
         <v>946000</v>
       </c>
-      <c r="N60" s="75">
-        <f>M60*E60</f>
+      <c r="N60" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O60" s="15" t="s">
@@ -8213,7 +8214,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" s="35" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32">
         <v>58</v>
       </c>
@@ -8248,11 +8249,11 @@
       <c r="L61" s="34">
         <v>43497</v>
       </c>
-      <c r="M61" s="76">
+      <c r="M61" s="64">
         <v>1419650</v>
       </c>
-      <c r="N61" s="75">
-        <f>M61*E61</f>
+      <c r="N61" s="63">
+        <f t="shared" si="4"/>
         <v>141965000</v>
       </c>
       <c r="O61" s="43" t="s">
@@ -8265,7 +8266,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32">
         <v>59</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>160</v>
       </c>
       <c r="F62" s="33">
-        <f t="shared" ref="F62" si="3">+E62*946485</f>
+        <f t="shared" ref="F62" si="5">+E62*946485</f>
         <v>151437600</v>
       </c>
       <c r="G62" s="23">
@@ -8303,11 +8304,11 @@
       <c r="L62" s="34">
         <v>43497</v>
       </c>
-      <c r="M62" s="76">
+      <c r="M62" s="64">
         <v>946000</v>
       </c>
-      <c r="N62" s="75">
-        <f>M62*E62</f>
+      <c r="N62" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O62" s="43" t="s">
@@ -8320,7 +8321,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32">
         <v>60</v>
       </c>
@@ -8359,11 +8360,11 @@
       <c r="L63" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M63" s="76">
+      <c r="M63" s="64">
         <v>1419650</v>
       </c>
-      <c r="N63" s="75">
-        <f>M63*E63</f>
+      <c r="N63" s="63">
+        <f t="shared" si="4"/>
         <v>92277250</v>
       </c>
       <c r="O63" s="43" t="s">
@@ -8376,7 +8377,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="35" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
         <v>61</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>95</v>
       </c>
       <c r="F64" s="33">
-        <f t="shared" ref="F64" si="4">+E64*1419650</f>
+        <f t="shared" ref="F64" si="6">+E64*1419650</f>
         <v>134866750</v>
       </c>
       <c r="G64" s="23">
@@ -8414,11 +8415,11 @@
       <c r="L64" s="34">
         <v>43497</v>
       </c>
-      <c r="M64" s="76">
+      <c r="M64" s="64">
         <v>1419650</v>
       </c>
-      <c r="N64" s="75">
-        <f>M64*E64</f>
+      <c r="N64" s="63">
+        <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
       <c r="O64" s="60" t="s">
@@ -8431,7 +8432,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32">
         <v>62</v>
       </c>
@@ -8466,11 +8467,11 @@
       <c r="L65" s="34">
         <v>43344</v>
       </c>
-      <c r="M65" s="76">
+      <c r="M65" s="64">
         <v>1419650</v>
       </c>
-      <c r="N65" s="75">
-        <f>M65*E65</f>
+      <c r="N65" s="63">
+        <f t="shared" si="4"/>
         <v>70982500</v>
       </c>
       <c r="O65" s="15" t="s">
@@ -8483,7 +8484,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>63</v>
       </c>
@@ -8519,11 +8520,11 @@
       <c r="L66" s="34">
         <v>43497</v>
       </c>
-      <c r="M66" s="76">
+      <c r="M66" s="64">
         <v>1419650</v>
       </c>
-      <c r="N66" s="75">
-        <f>M66*E66</f>
+      <c r="N66" s="63">
+        <f t="shared" si="4"/>
         <v>56786000</v>
       </c>
       <c r="O66" s="60" t="s">
@@ -8536,7 +8537,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32">
         <v>64</v>
       </c>
@@ -8571,11 +8572,11 @@
       <c r="L67" s="34">
         <v>43525</v>
       </c>
-      <c r="M67" s="76">
+      <c r="M67" s="64">
         <v>1419650</v>
       </c>
-      <c r="N67" s="75">
-        <f>M67*E67</f>
+      <c r="N67" s="63">
+        <f t="shared" ref="N67:N98" si="7">M67*E67</f>
         <v>92277250</v>
       </c>
       <c r="O67" s="60" t="s">
@@ -8588,7 +8589,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>65</v>
       </c>
@@ -8624,11 +8625,11 @@
       <c r="L68" s="34">
         <v>43525</v>
       </c>
-      <c r="M68" s="76">
+      <c r="M68" s="64">
         <v>946000</v>
       </c>
-      <c r="N68" s="75">
-        <f>M68*E68</f>
+      <c r="N68" s="63">
+        <f t="shared" si="7"/>
         <v>151360000</v>
       </c>
       <c r="O68" s="60" t="s">
@@ -8641,7 +8642,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>66</v>
       </c>
@@ -8676,11 +8677,11 @@
       <c r="L69" s="34">
         <v>43497</v>
       </c>
-      <c r="M69" s="76">
+      <c r="M69" s="64">
         <v>1419650</v>
       </c>
-      <c r="N69" s="75">
-        <f>M69*E69</f>
+      <c r="N69" s="63">
+        <f t="shared" si="7"/>
         <v>134866750</v>
       </c>
       <c r="O69" s="60" t="s">
@@ -8693,7 +8694,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>67</v>
       </c>
@@ -8728,11 +8729,11 @@
       <c r="L70" s="34">
         <v>43466</v>
       </c>
-      <c r="M70" s="76">
+      <c r="M70" s="64">
         <v>1419650</v>
       </c>
-      <c r="N70" s="75">
-        <f>M70*E70</f>
+      <c r="N70" s="63">
+        <f t="shared" si="7"/>
         <v>134866750</v>
       </c>
       <c r="O70" s="60" t="s">
@@ -8745,7 +8746,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>68</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>300</v>
       </c>
       <c r="F71" s="33">
-        <f t="shared" ref="F71" si="5">+E71*946485</f>
+        <f t="shared" ref="F71" si="8">+E71*946485</f>
         <v>283945500</v>
       </c>
       <c r="G71" s="23">
@@ -8783,11 +8784,11 @@
       <c r="L71" s="34">
         <v>43313</v>
       </c>
-      <c r="M71" s="76">
+      <c r="M71" s="64">
         <v>946000</v>
       </c>
-      <c r="N71" s="75">
-        <f>M71*E71</f>
+      <c r="N71" s="63">
+        <f t="shared" si="7"/>
         <v>283800000</v>
       </c>
       <c r="O71" s="15" t="s">
@@ -8800,7 +8801,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="35" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>69</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>60</v>
       </c>
       <c r="F72" s="33">
-        <f t="shared" ref="F72:F114" si="6">+E72*1419650</f>
+        <f t="shared" ref="F72:F114" si="9">+E72*1419650</f>
         <v>85179000</v>
       </c>
       <c r="G72" s="23">
@@ -8838,11 +8839,11 @@
       <c r="L72" s="34">
         <v>43466</v>
       </c>
-      <c r="M72" s="76">
+      <c r="M72" s="64">
         <v>1419650</v>
       </c>
-      <c r="N72" s="75">
-        <f>M72*E72</f>
+      <c r="N72" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O72" s="59" t="s">
@@ -8855,7 +8856,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" s="35" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
         <v>70</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G73" s="23">
@@ -8893,11 +8894,11 @@
       <c r="L73" s="34">
         <v>43466</v>
       </c>
-      <c r="M73" s="76">
+      <c r="M73" s="64">
         <v>1419650</v>
       </c>
-      <c r="N73" s="75">
-        <f>M73*E73</f>
+      <c r="N73" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O73" s="59" t="s">
@@ -8910,7 +8911,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" s="35" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="32">
         <v>71</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G74" s="23">
@@ -8948,11 +8949,11 @@
       <c r="L74" s="34">
         <v>43466</v>
       </c>
-      <c r="M74" s="76">
+      <c r="M74" s="64">
         <v>1419650</v>
       </c>
-      <c r="N74" s="75">
-        <f>M74*E74</f>
+      <c r="N74" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O74" s="59" t="s">
@@ -8965,7 +8966,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="32">
         <v>72</v>
       </c>
@@ -8982,7 +8983,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G75" s="23">
@@ -9003,11 +9004,11 @@
       <c r="L75" s="34">
         <v>43556</v>
       </c>
-      <c r="M75" s="76">
+      <c r="M75" s="64">
         <v>1419650</v>
       </c>
-      <c r="N75" s="75">
-        <f>M75*E75</f>
+      <c r="N75" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O75" s="61" t="s">
@@ -9020,7 +9021,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="32">
         <v>73</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>60</v>
       </c>
       <c r="F76" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G76" s="23">
@@ -9058,11 +9059,11 @@
       <c r="L76" s="34">
         <v>43466</v>
       </c>
-      <c r="M76" s="76">
+      <c r="M76" s="64">
         <v>1419650</v>
       </c>
-      <c r="N76" s="75">
-        <f>M76*E76</f>
+      <c r="N76" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O76" s="61" t="s">
@@ -9075,7 +9076,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="32">
         <v>74</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G77" s="23">
@@ -9113,11 +9114,11 @@
       <c r="L77" s="34">
         <v>43466</v>
       </c>
-      <c r="M77" s="76">
+      <c r="M77" s="64">
         <v>1419650</v>
       </c>
-      <c r="N77" s="75">
-        <f>M77*E77</f>
+      <c r="N77" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O77" s="61" t="s">
@@ -9130,7 +9131,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="32">
         <v>75</v>
       </c>
@@ -9147,7 +9148,7 @@
         <v>60</v>
       </c>
       <c r="F78" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G78" s="23">
@@ -9168,24 +9169,22 @@
       <c r="L78" s="34">
         <v>43556</v>
       </c>
-      <c r="M78" s="76">
+      <c r="M78" s="64">
         <v>1419650</v>
       </c>
-      <c r="N78" s="75">
-        <f>M78*E78</f>
+      <c r="N78" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O78" s="61" t="s">
         <v>330</v>
       </c>
       <c r="P78" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q78" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="Q78" s="16"/>
+    </row>
+    <row r="79" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="32">
         <v>76</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>60</v>
       </c>
       <c r="F79" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G79" s="23">
@@ -9223,11 +9222,11 @@
       <c r="L79" s="34">
         <v>43556</v>
       </c>
-      <c r="M79" s="76">
+      <c r="M79" s="64">
         <v>1419650</v>
       </c>
-      <c r="N79" s="75">
-        <f>M79*E79</f>
+      <c r="N79" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O79" s="61" t="s">
@@ -9240,7 +9239,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="32">
         <v>77</v>
       </c>
@@ -9257,7 +9256,7 @@
         <v>60</v>
       </c>
       <c r="F80" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G80" s="23">
@@ -9278,11 +9277,11 @@
       <c r="L80" s="34">
         <v>43556</v>
       </c>
-      <c r="M80" s="76">
+      <c r="M80" s="64">
         <v>1419650</v>
       </c>
-      <c r="N80" s="75">
-        <f>M80*E80</f>
+      <c r="N80" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O80" s="61" t="s">
@@ -9295,7 +9294,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="32">
         <v>78</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G81" s="23">
@@ -9333,11 +9332,11 @@
       <c r="L81" s="34">
         <v>43556</v>
       </c>
-      <c r="M81" s="76">
+      <c r="M81" s="64">
         <v>1419650</v>
       </c>
-      <c r="N81" s="75">
-        <f>M81*E81</f>
+      <c r="N81" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O81" s="61" t="s">
@@ -9350,7 +9349,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="35" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="35" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="32">
         <v>79</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>54</v>
       </c>
       <c r="F82" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>76661100</v>
       </c>
       <c r="G82" s="23">
@@ -9388,11 +9387,11 @@
       <c r="L82" s="34">
         <v>43497</v>
       </c>
-      <c r="M82" s="76">
+      <c r="M82" s="64">
         <v>1419650</v>
       </c>
-      <c r="N82" s="75">
-        <f>M82*E82</f>
+      <c r="N82" s="63">
+        <f t="shared" si="7"/>
         <v>76661100</v>
       </c>
       <c r="O82" s="59" t="s">
@@ -9405,7 +9404,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="32">
         <v>80</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>80</v>
       </c>
       <c r="F83" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G83" s="23">
@@ -9444,11 +9443,11 @@
       <c r="L83" s="34">
         <v>43497</v>
       </c>
-      <c r="M83" s="76">
+      <c r="M83" s="64">
         <v>1419650</v>
       </c>
-      <c r="N83" s="75">
-        <f>M83*E83</f>
+      <c r="N83" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O83" s="61" t="s">
@@ -9459,7 +9458,7 @@
       </c>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="32">
         <v>81</v>
       </c>
@@ -9476,7 +9475,7 @@
         <v>60</v>
       </c>
       <c r="F84" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G84" s="23">
@@ -9497,11 +9496,11 @@
       <c r="L84" s="34">
         <v>43497</v>
       </c>
-      <c r="M84" s="76">
+      <c r="M84" s="64">
         <v>1419650</v>
       </c>
-      <c r="N84" s="75">
-        <f>M84*E84</f>
+      <c r="N84" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O84" s="61" t="s">
@@ -9512,7 +9511,7 @@
       </c>
       <c r="Q84" s="16"/>
     </row>
-    <row r="85" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="32">
         <v>82</v>
       </c>
@@ -9529,7 +9528,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G85" s="23">
@@ -9550,11 +9549,11 @@
       <c r="L85" s="34">
         <v>43497</v>
       </c>
-      <c r="M85" s="76">
+      <c r="M85" s="64">
         <v>1419650</v>
       </c>
-      <c r="N85" s="75">
-        <f>M85*E85</f>
+      <c r="N85" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O85" s="61" t="s">
@@ -9567,7 +9566,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="32">
         <v>83</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G86" s="23">
@@ -9605,11 +9604,11 @@
       <c r="L86" s="34">
         <v>43497</v>
       </c>
-      <c r="M86" s="76">
+      <c r="M86" s="64">
         <v>1419650</v>
       </c>
-      <c r="N86" s="75">
-        <f>M86*E86</f>
+      <c r="N86" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O86" s="61" t="s">
@@ -9620,7 +9619,7 @@
       </c>
       <c r="Q86" s="16"/>
     </row>
-    <row r="87" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="32">
         <v>84</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G87" s="23">
@@ -9658,11 +9657,11 @@
       <c r="L87" s="34">
         <v>43586</v>
       </c>
-      <c r="M87" s="76">
+      <c r="M87" s="64">
         <v>1419650</v>
       </c>
-      <c r="N87" s="75">
-        <f>M87*E87</f>
+      <c r="N87" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O87" s="61" t="s">
@@ -9673,7 +9672,7 @@
       </c>
       <c r="Q87" s="16"/>
     </row>
-    <row r="88" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="32">
         <v>85</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G88" s="23">
@@ -9711,11 +9710,11 @@
       <c r="L88" s="34">
         <v>43617</v>
       </c>
-      <c r="M88" s="76">
+      <c r="M88" s="64">
         <v>1419650</v>
       </c>
-      <c r="N88" s="75">
-        <f>M88*E88</f>
+      <c r="N88" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O88" s="61" t="s">
@@ -9726,7 +9725,7 @@
       </c>
       <c r="Q88" s="16"/>
     </row>
-    <row r="89" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="32">
         <v>86</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G89" s="23">
@@ -9764,11 +9763,11 @@
       <c r="L89" s="34">
         <v>43497</v>
       </c>
-      <c r="M89" s="76">
+      <c r="M89" s="64">
         <v>1419650</v>
       </c>
-      <c r="N89" s="75">
-        <f>M89*E89</f>
+      <c r="N89" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O89" s="61" t="s">
@@ -9778,7 +9777,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="32">
         <v>87</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>60</v>
       </c>
       <c r="F90" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G90" s="23">
@@ -9816,11 +9815,11 @@
       <c r="L90" s="34">
         <v>43466</v>
       </c>
-      <c r="M90" s="76">
+      <c r="M90" s="64">
         <v>1419650</v>
       </c>
-      <c r="N90" s="75">
-        <f>M90*E90</f>
+      <c r="N90" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O90" s="61" t="s">
@@ -9833,7 +9832,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="32">
         <v>88</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>54</v>
       </c>
       <c r="F91" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>76661100</v>
       </c>
       <c r="G91" s="23">
@@ -9871,11 +9870,11 @@
       <c r="L91" s="34">
         <v>43617</v>
       </c>
-      <c r="M91" s="76">
+      <c r="M91" s="64">
         <v>1419650</v>
       </c>
-      <c r="N91" s="75">
-        <f>M91*E91</f>
+      <c r="N91" s="63">
+        <f t="shared" si="7"/>
         <v>76661100</v>
       </c>
       <c r="O91" s="61" t="s">
@@ -9888,7 +9887,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="32">
         <v>89</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>80</v>
       </c>
       <c r="F92" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G92" s="23">
@@ -9926,11 +9925,11 @@
       <c r="L92" s="34">
         <v>43739</v>
       </c>
-      <c r="M92" s="76">
+      <c r="M92" s="64">
         <v>1419650</v>
       </c>
-      <c r="N92" s="75">
-        <f>M92*E92</f>
+      <c r="N92" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O92" s="15" t="s">
@@ -9943,7 +9942,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="32">
         <v>90</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>80</v>
       </c>
       <c r="F93" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G93" s="23">
@@ -9981,11 +9980,11 @@
       <c r="L93" s="34">
         <v>43617</v>
       </c>
-      <c r="M93" s="76">
+      <c r="M93" s="64">
         <v>1419650</v>
       </c>
-      <c r="N93" s="75">
-        <f>M93*E93</f>
+      <c r="N93" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O93" s="61" t="s">
@@ -9998,7 +9997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32">
         <v>91</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>65</v>
       </c>
       <c r="F94" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G94" s="23"/>
@@ -10028,11 +10027,11 @@
       <c r="L94" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M94" s="76">
+      <c r="M94" s="64">
         <v>1419650</v>
       </c>
-      <c r="N94" s="75">
-        <f>M94*E94</f>
+      <c r="N94" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O94" s="60" t="s">
@@ -10043,7 +10042,7 @@
       </c>
       <c r="Q94" s="16"/>
     </row>
-    <row r="95" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32">
         <v>92</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>65</v>
       </c>
       <c r="F95" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G95" s="23"/>
@@ -10073,11 +10072,11 @@
       <c r="L95" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M95" s="76">
+      <c r="M95" s="64">
         <v>1419650</v>
       </c>
-      <c r="N95" s="75">
-        <f>M95*E95</f>
+      <c r="N95" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O95" s="60" t="s">
@@ -10088,7 +10087,7 @@
       </c>
       <c r="Q95" s="16"/>
     </row>
-    <row r="96" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32">
         <v>93</v>
       </c>
@@ -10105,7 +10104,7 @@
         <v>65</v>
       </c>
       <c r="F96" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G96" s="23"/>
@@ -10118,11 +10117,11 @@
       <c r="L96" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M96" s="76">
+      <c r="M96" s="64">
         <v>1419650</v>
       </c>
-      <c r="N96" s="75">
-        <f>M96*E96</f>
+      <c r="N96" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O96" s="60" t="s">
@@ -10133,7 +10132,7 @@
       </c>
       <c r="Q96" s="16"/>
     </row>
-    <row r="97" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32">
         <v>94</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>65</v>
       </c>
       <c r="F97" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G97" s="23"/>
@@ -10163,11 +10162,11 @@
       <c r="L97" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M97" s="76">
+      <c r="M97" s="64">
         <v>1419650</v>
       </c>
-      <c r="N97" s="75">
-        <f>M97*E97</f>
+      <c r="N97" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O97" s="60" t="s">
@@ -10178,7 +10177,7 @@
       </c>
       <c r="Q97" s="16"/>
     </row>
-    <row r="98" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32">
         <v>95</v>
       </c>
@@ -10195,7 +10194,7 @@
         <v>65</v>
       </c>
       <c r="F98" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G98" s="23"/>
@@ -10208,11 +10207,11 @@
       <c r="L98" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M98" s="76">
+      <c r="M98" s="64">
         <v>1419650</v>
       </c>
-      <c r="N98" s="75">
-        <f>M98*E98</f>
+      <c r="N98" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O98" s="60" t="s">
@@ -10223,7 +10222,7 @@
       </c>
       <c r="Q98" s="16"/>
     </row>
-    <row r="99" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32">
         <v>96</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>50</v>
       </c>
       <c r="F99" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70982500</v>
       </c>
       <c r="G99" s="23"/>
@@ -10253,11 +10252,11 @@
       <c r="L99" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M99" s="76">
+      <c r="M99" s="64">
         <v>1419650</v>
       </c>
-      <c r="N99" s="75">
-        <f>M99*E99</f>
+      <c r="N99" s="63">
+        <f t="shared" ref="N99:N130" si="10">M99*E99</f>
         <v>70982500</v>
       </c>
       <c r="O99" s="60" t="s">
@@ -10268,7 +10267,7 @@
       </c>
       <c r="Q99" s="16"/>
     </row>
-    <row r="100" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>97</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>65</v>
       </c>
       <c r="F100" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G100" s="23"/>
@@ -10298,11 +10297,11 @@
       <c r="L100" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M100" s="76">
+      <c r="M100" s="64">
         <v>1419650</v>
       </c>
-      <c r="N100" s="75">
-        <f>M100*E100</f>
+      <c r="N100" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O100" s="60" t="s">
@@ -10313,7 +10312,7 @@
       </c>
       <c r="Q100" s="16"/>
     </row>
-    <row r="101" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32">
         <v>98</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>65</v>
       </c>
       <c r="F101" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G101" s="23"/>
@@ -10343,11 +10342,11 @@
       <c r="L101" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M101" s="76">
+      <c r="M101" s="64">
         <v>1419650</v>
       </c>
-      <c r="N101" s="75">
-        <f>M101*E101</f>
+      <c r="N101" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O101" s="60" t="s">
@@ -10358,7 +10357,7 @@
       </c>
       <c r="Q101" s="16"/>
     </row>
-    <row r="102" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" s="35" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32">
         <v>99</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>104</v>
       </c>
       <c r="F102" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>147643600</v>
       </c>
       <c r="G102" s="23">
@@ -10396,11 +10395,11 @@
       <c r="L102" s="34">
         <v>43405</v>
       </c>
-      <c r="M102" s="76">
+      <c r="M102" s="64">
         <v>1419650</v>
       </c>
-      <c r="N102" s="75">
-        <f>M102*E102</f>
+      <c r="N102" s="63">
+        <f t="shared" si="10"/>
         <v>147643600</v>
       </c>
       <c r="O102" s="60" t="s">
@@ -10413,7 +10412,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32">
         <v>100</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>70</v>
       </c>
       <c r="F103" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>99375500</v>
       </c>
       <c r="G103" s="23">
@@ -10451,11 +10450,11 @@
       <c r="L103" s="34">
         <v>43480</v>
       </c>
-      <c r="M103" s="76">
+      <c r="M103" s="64">
         <v>1419650</v>
       </c>
-      <c r="N103" s="75">
-        <f>M103*E103</f>
+      <c r="N103" s="63">
+        <f t="shared" si="10"/>
         <v>99375500</v>
       </c>
       <c r="O103" s="60" t="s">
@@ -10466,7 +10465,7 @@
       </c>
       <c r="Q103" s="16"/>
     </row>
-    <row r="104" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32">
         <v>101</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>90</v>
       </c>
       <c r="F104" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>127768500</v>
       </c>
       <c r="G104" s="23">
@@ -10504,11 +10503,11 @@
       <c r="L104" s="34">
         <v>43497</v>
       </c>
-      <c r="M104" s="76">
+      <c r="M104" s="64">
         <v>1419650</v>
       </c>
-      <c r="N104" s="75">
-        <f>M104*E104</f>
+      <c r="N104" s="63">
+        <f t="shared" si="10"/>
         <v>127768500</v>
       </c>
       <c r="O104" s="60" t="s">
@@ -10519,7 +10518,7 @@
       </c>
       <c r="Q104" s="16"/>
     </row>
-    <row r="105" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32">
         <v>102</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>110</v>
       </c>
       <c r="F105" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>156161500</v>
       </c>
       <c r="G105" s="23">
@@ -10557,11 +10556,11 @@
       <c r="L105" s="34">
         <v>43497</v>
       </c>
-      <c r="M105" s="76">
+      <c r="M105" s="64">
         <v>1419650</v>
       </c>
-      <c r="N105" s="75">
-        <f>M105*E105</f>
+      <c r="N105" s="63">
+        <f t="shared" si="10"/>
         <v>156161500</v>
       </c>
       <c r="O105" s="60" t="s">
@@ -10572,7 +10571,7 @@
       </c>
       <c r="Q105" s="16"/>
     </row>
-    <row r="106" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32">
         <v>103</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>80</v>
       </c>
       <c r="F106" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G106" s="23">
@@ -10610,11 +10609,11 @@
       <c r="L106" s="34">
         <v>43466</v>
       </c>
-      <c r="M106" s="76">
+      <c r="M106" s="64">
         <v>1419650</v>
       </c>
-      <c r="N106" s="75">
-        <f>M106*E106</f>
+      <c r="N106" s="63">
+        <f t="shared" si="10"/>
         <v>113572000</v>
       </c>
       <c r="O106" s="60" t="s">
@@ -10625,7 +10624,7 @@
       </c>
       <c r="Q106" s="16"/>
     </row>
-    <row r="107" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32">
         <v>104</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>200</v>
       </c>
       <c r="F107" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>283930000</v>
       </c>
       <c r="G107" s="23">
@@ -10664,11 +10663,11 @@
       <c r="L107" s="34">
         <v>43497</v>
       </c>
-      <c r="M107" s="76">
+      <c r="M107" s="64">
         <v>946000</v>
       </c>
-      <c r="N107" s="75">
-        <f>M107*E107</f>
+      <c r="N107" s="63">
+        <f t="shared" si="10"/>
         <v>189200000</v>
       </c>
       <c r="O107" s="60" t="s">
@@ -10679,7 +10678,7 @@
       </c>
       <c r="Q107" s="16"/>
     </row>
-    <row r="108" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32">
         <v>105</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>60</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G108" s="23">
@@ -10717,11 +10716,11 @@
       <c r="L108" s="34">
         <v>43497</v>
       </c>
-      <c r="M108" s="76">
+      <c r="M108" s="64">
         <v>1419650</v>
       </c>
-      <c r="N108" s="75">
-        <f>M108*E108</f>
+      <c r="N108" s="63">
+        <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
       <c r="O108" s="60" t="s">
@@ -10732,7 +10731,7 @@
       </c>
       <c r="Q108" s="16"/>
     </row>
-    <row r="109" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32">
         <v>106</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>76</v>
       </c>
       <c r="F109" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>107893400</v>
       </c>
       <c r="G109" s="23">
@@ -10770,11 +10769,11 @@
       <c r="L109" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M109" s="76">
+      <c r="M109" s="64">
         <v>1419650</v>
       </c>
-      <c r="N109" s="75">
-        <f>M109*E109</f>
+      <c r="N109" s="63">
+        <f t="shared" si="10"/>
         <v>107893400</v>
       </c>
       <c r="O109" s="60" t="s">
@@ -10785,7 +10784,7 @@
       </c>
       <c r="Q109" s="16"/>
     </row>
-    <row r="110" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
         <v>107</v>
       </c>
@@ -10802,7 +10801,7 @@
         <v>60</v>
       </c>
       <c r="F110" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G110" s="23">
@@ -10823,11 +10822,11 @@
       <c r="L110" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M110" s="76">
+      <c r="M110" s="64">
         <v>1419650</v>
       </c>
-      <c r="N110" s="75">
-        <f>M110*E110</f>
+      <c r="N110" s="63">
+        <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
       <c r="O110" s="60" t="s">
@@ -10838,7 +10837,7 @@
       </c>
       <c r="Q110" s="16"/>
     </row>
-    <row r="111" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32">
         <v>108</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G111" s="23">
@@ -10876,11 +10875,11 @@
       <c r="L111" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M111" s="76">
+      <c r="M111" s="64">
         <v>1419650</v>
       </c>
-      <c r="N111" s="75">
-        <f>M111*E111</f>
+      <c r="N111" s="63">
+        <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
       <c r="O111" s="60" t="s">
@@ -10891,7 +10890,7 @@
       </c>
       <c r="Q111" s="16"/>
     </row>
-    <row r="112" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32">
         <v>109</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>36</v>
       </c>
       <c r="F112" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>51107400</v>
       </c>
       <c r="G112" s="23">
@@ -10929,11 +10928,11 @@
       <c r="L112" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M112" s="76">
+      <c r="M112" s="64">
         <v>1419650</v>
       </c>
-      <c r="N112" s="75">
-        <f>M112*E112</f>
+      <c r="N112" s="63">
+        <f t="shared" si="10"/>
         <v>51107400</v>
       </c>
       <c r="O112" s="60" t="s">
@@ -10944,7 +10943,7 @@
       </c>
       <c r="Q112" s="16"/>
     </row>
-    <row r="113" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32">
         <v>110</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>65</v>
       </c>
       <c r="F113" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G113" s="23">
@@ -10982,11 +10981,11 @@
       <c r="L113" s="34">
         <v>43435</v>
       </c>
-      <c r="M113" s="76">
+      <c r="M113" s="64">
         <v>1419650</v>
       </c>
-      <c r="N113" s="75">
-        <f>M113*E113</f>
+      <c r="N113" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O113" s="60" t="s">
@@ -10997,7 +10996,7 @@
       </c>
       <c r="Q113" s="16"/>
     </row>
-    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32">
         <v>111</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>92</v>
       </c>
       <c r="F114" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130607800</v>
       </c>
       <c r="G114" s="23">
@@ -11035,11 +11034,11 @@
       <c r="L114" s="34">
         <v>43405</v>
       </c>
-      <c r="M114" s="76">
+      <c r="M114" s="64">
         <v>1419650</v>
       </c>
-      <c r="N114" s="75">
-        <f>M114*E114</f>
+      <c r="N114" s="63">
+        <f t="shared" si="10"/>
         <v>130607800</v>
       </c>
       <c r="O114" s="60" t="s">
@@ -11052,7 +11051,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="35" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" s="35" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32">
         <v>112</v>
       </c>
@@ -11069,7 +11068,7 @@
         <v>160</v>
       </c>
       <c r="F115" s="33">
-        <f t="shared" ref="F115:F116" si="7">+E115*946485</f>
+        <f t="shared" ref="F115:F116" si="11">+E115*946485</f>
         <v>151437600</v>
       </c>
       <c r="G115" s="23">
@@ -11091,11 +11090,11 @@
       <c r="L115" s="34">
         <v>43405</v>
       </c>
-      <c r="M115" s="76">
+      <c r="M115" s="64">
         <v>946000</v>
       </c>
-      <c r="N115" s="75">
-        <f>M115*E115</f>
+      <c r="N115" s="63">
+        <f t="shared" si="10"/>
         <v>151360000</v>
       </c>
       <c r="O115" s="61" t="s">
@@ -11108,7 +11107,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32">
         <v>113</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>300</v>
       </c>
       <c r="F116" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>283945500</v>
       </c>
       <c r="G116" s="23">
@@ -11146,11 +11145,11 @@
       <c r="L116" s="34">
         <v>43435</v>
       </c>
-      <c r="M116" s="76">
+      <c r="M116" s="64">
         <v>946000</v>
       </c>
-      <c r="N116" s="75">
-        <f>M116*E116</f>
+      <c r="N116" s="63">
+        <f t="shared" si="10"/>
         <v>283800000</v>
       </c>
       <c r="O116" s="61" t="s">
@@ -11161,7 +11160,7 @@
       </c>
       <c r="Q116" s="16"/>
     </row>
-    <row r="117" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32">
         <v>114</v>
       </c>
@@ -11194,11 +11193,11 @@
         <v>43525</v>
       </c>
       <c r="L117" s="34"/>
-      <c r="M117" s="76">
+      <c r="M117" s="64">
         <v>1419650</v>
       </c>
-      <c r="N117" s="75">
-        <f>M117*E117</f>
+      <c r="N117" s="63">
+        <f t="shared" si="10"/>
         <v>141965000</v>
       </c>
       <c r="O117" s="60" t="s">
@@ -11209,7 +11208,7 @@
       </c>
       <c r="Q117" s="16"/>
     </row>
-    <row r="118" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" s="35" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
         <v>115</v>
       </c>
@@ -11242,11 +11241,11 @@
         <v>43739</v>
       </c>
       <c r="L118" s="34"/>
-      <c r="M118" s="76">
+      <c r="M118" s="64">
         <v>1419650</v>
       </c>
-      <c r="N118" s="75">
-        <f>M118*E118</f>
+      <c r="N118" s="63">
+        <f t="shared" si="10"/>
         <v>51107400</v>
       </c>
       <c r="O118" s="60" t="s">
@@ -11257,7 +11256,7 @@
       </c>
       <c r="Q118" s="16"/>
     </row>
-    <row r="119" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32">
         <v>116</v>
       </c>
@@ -11290,11 +11289,11 @@
         <v>43709</v>
       </c>
       <c r="L119" s="34"/>
-      <c r="M119" s="76">
+      <c r="M119" s="64">
         <v>946000</v>
       </c>
-      <c r="N119" s="75">
-        <f>M119*E119</f>
+      <c r="N119" s="63">
+        <f t="shared" si="10"/>
         <v>302720000</v>
       </c>
       <c r="O119" s="61" t="s">
@@ -11305,7 +11304,7 @@
       </c>
       <c r="Q119" s="16"/>
     </row>
-    <row r="120" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32">
         <v>117</v>
       </c>
@@ -11338,11 +11337,11 @@
         <v>43678</v>
       </c>
       <c r="L120" s="34"/>
-      <c r="M120" s="76">
+      <c r="M120" s="64">
         <v>946000</v>
       </c>
-      <c r="N120" s="75">
-        <f>M120*E120</f>
+      <c r="N120" s="63">
+        <f t="shared" si="10"/>
         <v>302720000</v>
       </c>
       <c r="O120" s="61" t="s">
@@ -11353,7 +11352,7 @@
       </c>
       <c r="Q120" s="16"/>
     </row>
-    <row r="121" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32">
         <v>118</v>
       </c>
@@ -11386,11 +11385,11 @@
         <v>43739</v>
       </c>
       <c r="L121" s="34"/>
-      <c r="M121" s="76">
+      <c r="M121" s="64">
         <v>1419650</v>
       </c>
-      <c r="N121" s="75">
-        <f>M121*E121</f>
+      <c r="N121" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O121" s="61" t="s">
@@ -11401,7 +11400,7 @@
       </c>
       <c r="Q121" s="16"/>
     </row>
-    <row r="122" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32">
         <v>119</v>
       </c>
@@ -11434,11 +11433,11 @@
         <v>43739</v>
       </c>
       <c r="L122" s="34"/>
-      <c r="M122" s="76">
+      <c r="M122" s="64">
         <v>1419650</v>
       </c>
-      <c r="N122" s="75">
-        <f>M122*E122</f>
+      <c r="N122" s="63">
+        <f t="shared" si="10"/>
         <v>127768500</v>
       </c>
       <c r="O122" s="61" t="s">
@@ -11449,78 +11448,85 @@
       </c>
       <c r="Q122" s="16"/>
     </row>
-    <row r="123" spans="1:17" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="77" t="s">
+    <row r="123" spans="1:17" ht="35.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
-      <c r="M123" s="77"/>
-      <c r="N123" s="77"/>
-      <c r="O123" s="77"/>
-      <c r="P123" s="77"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B123" s="66"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
+      <c r="M123" s="66"/>
+      <c r="N123" s="66"/>
+      <c r="O123" s="66"/>
+      <c r="P123" s="66"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="37"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:R123" xr:uid="{0C4BF06D-2873-4BC3-A4AE-F6C3831E519E}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Fondo de Adaptación"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A123:P123"/>
@@ -11544,15 +11550,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11566,7 +11572,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>185</v>
       </c>
@@ -11580,7 +11586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>30</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>97</v>
       </c>
@@ -11608,7 +11614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>143</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>74</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>62</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>219</v>
       </c>
@@ -11664,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
@@ -11678,7 +11684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>282</v>
       </c>
@@ -11692,7 +11698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>43</v>
       </c>
@@ -11706,7 +11712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>317</v>
       </c>
@@ -11738,37 +11744,37 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11776,7 +11782,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>182</v>
       </c>
@@ -11784,7 +11790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>185</v>
       </c>
@@ -11792,7 +11798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -11800,7 +11806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>30</v>
       </c>
@@ -11808,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>9</v>
       </c>
@@ -11816,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>31</v>
       </c>
@@ -11824,7 +11830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>30</v>
       </c>
@@ -11832,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>97</v>
       </c>
@@ -11840,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>282</v>
       </c>
@@ -11848,7 +11854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>10</v>
       </c>
@@ -11856,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
@@ -11864,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>60</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>143</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>62</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>72</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>185</v>
       </c>
@@ -11904,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>97</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>143</v>
       </c>
@@ -11920,7 +11926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>74</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>40</v>
       </c>
@@ -11936,7 +11942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>185</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>43</v>
       </c>
@@ -11952,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>34</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>30</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>99</v>
       </c>
@@ -11976,7 +11982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>97</v>
       </c>
@@ -11984,7 +11990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>200</v>
       </c>
@@ -11992,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>185</v>
       </c>
@@ -12000,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>11</v>
       </c>
@@ -12008,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>9</v>
       </c>
@@ -12016,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>14</v>
       </c>
@@ -12024,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>9</v>
       </c>
@@ -12032,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>39</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>185</v>
       </c>
@@ -12048,7 +12054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>30</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>97</v>
       </c>
@@ -12064,7 +12070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>143</v>
       </c>
@@ -12072,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>15</v>
       </c>
@@ -12080,7 +12086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>97</v>
       </c>
@@ -12088,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
         <v>219</v>
       </c>
@@ -12096,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>9</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>106</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>97</v>
       </c>
@@ -12120,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>19</v>
       </c>
@@ -12128,7 +12134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>185</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
         <v>30</v>
       </c>
@@ -12144,7 +12150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
         <v>143</v>
       </c>
@@ -12152,7 +12158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="51" t="s">
         <v>9</v>
       </c>
@@ -12160,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>181</v>
       </c>
@@ -12168,7 +12174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="51" t="s">
         <v>143</v>
       </c>
@@ -12176,7 +12182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
         <v>108</v>
       </c>
@@ -12184,7 +12190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="51" t="s">
         <v>185</v>
       </c>
@@ -12192,7 +12198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
         <v>97</v>
       </c>
@@ -12200,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>110</v>
       </c>
@@ -12208,7 +12214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
         <v>185</v>
       </c>
@@ -12216,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="51" t="s">
         <v>97</v>
       </c>
@@ -12224,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>22</v>
       </c>
@@ -12232,7 +12238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
         <v>30</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
         <v>9</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>112</v>
       </c>
@@ -12256,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
         <v>97</v>
       </c>
@@ -12264,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
         <v>25</v>
       </c>
@@ -12272,7 +12278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
         <v>30</v>
       </c>
@@ -12280,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="51" t="s">
         <v>9</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
         <v>54</v>
       </c>
@@ -12296,7 +12302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="51" t="s">
         <v>30</v>
       </c>
@@ -12304,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="51" t="s">
         <v>97</v>
       </c>
@@ -12312,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
         <v>143</v>
       </c>
@@ -12320,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
         <v>227</v>
       </c>
@@ -12328,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
         <v>185</v>
       </c>
@@ -12336,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
         <v>115</v>
       </c>
@@ -12344,7 +12350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
         <v>97</v>
       </c>
@@ -12352,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="51" t="s">
         <v>9</v>
       </c>
@@ -12360,7 +12366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
         <v>317</v>
       </c>
@@ -12386,12 +12392,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>297</v>
       </c>
@@ -12411,7 +12417,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>284</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>285</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>286</v>
       </c>
@@ -12471,7 +12477,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>287</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>288</v>
       </c>
@@ -12511,7 +12517,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>289</v>
       </c>
@@ -12531,7 +12537,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>291</v>
       </c>
@@ -12551,7 +12557,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>292</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>293</v>
       </c>
@@ -12592,7 +12598,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>294</v>
       </c>
@@ -12606,7 +12612,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>270</v>
       </c>
@@ -12650,18 +12656,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12684,7 +12690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -12707,7 +12713,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>135</v>
       </c>
@@ -12730,7 +12736,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -12753,7 +12759,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
@@ -12776,18 +12782,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -12810,7 +12816,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -12833,7 +12839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -12856,7 +12862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -12879,7 +12885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -12902,7 +12908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -12925,7 +12931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -12948,7 +12954,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -12994,7 +13000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -13017,7 +13023,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -13040,7 +13046,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -13063,7 +13069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -13086,7 +13092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13109,7 +13115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>181</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>181</v>
       </c>
@@ -13155,7 +13161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>181</v>
       </c>
@@ -13178,7 +13184,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -13233,28 +13239,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13277,18 +13283,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -13311,7 +13317,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -13334,7 +13340,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -13357,18 +13363,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -13414,7 +13420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
@@ -13437,7 +13443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -13483,7 +13489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13506,7 +13512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13529,7 +13535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
@@ -13575,7 +13581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -13598,18 +13604,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-    </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13632,7 +13638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13655,7 +13661,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13701,18 +13707,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-    </row>
-    <row r="24" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
@@ -13735,7 +13741,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -13758,7 +13764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -13781,7 +13787,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
@@ -13804,7 +13810,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
@@ -13852,13 +13858,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>244</v>
       </c>
@@ -13866,7 +13872,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
@@ -13874,7 +13880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -13882,7 +13888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -13890,7 +13896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>239</v>
       </c>
@@ -13898,7 +13904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>240</v>
       </c>
@@ -13906,27 +13912,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="70"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="73"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="71"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="74"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
@@ -13940,7 +13946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
@@ -13954,19 +13960,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="72"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
         <v>256</v>
       </c>
@@ -13974,7 +13980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
         <v>257</v>
       </c>
@@ -13982,7 +13988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>258</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>259</v>
       </c>
@@ -13998,23 +14004,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="73" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="73"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="74" t="s">
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="74"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="77"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
         <v>254</v>
       </c>
@@ -14022,7 +14028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>260</v>
       </c>
@@ -14030,13 +14036,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="69" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="72"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>257</v>
       </c>
@@ -14044,7 +14050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>258</v>
       </c>
@@ -14052,7 +14058,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
         <v>259</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popocha\Documents\GitHub\Infraestructura-Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INFINITO/Documents/GitHub/Infraestructura-Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35571E5F-82FA-435C-BD22-CC639B12899A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5F167-30FF-5646-B439-7DA91B6D5B29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$Q$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$R$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -36,7 +36,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1372,7 +1371,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,14 +1703,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1877,8 +1877,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,22 +1922,17 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5102,50 +5106,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="37.1796875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="47.453125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="24.08984375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="36" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="47.5" style="38" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="36" customWidth="1"/>
     <col min="15" max="15" width="49" style="44" customWidth="1"/>
     <col min="16" max="16" width="19" style="44" customWidth="1"/>
     <col min="17" max="17" width="94" style="36" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="36"/>
+    <col min="18" max="18" width="11.5" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="L1" s="29"/>
       <c r="N1" s="58"/>
       <c r="O1" s="42"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.5" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>315</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" customHeight="1">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -5236,11 +5240,11 @@
       <c r="L3" s="34">
         <v>43525</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="64">
         <v>1419650</v>
       </c>
-      <c r="N3" s="75">
-        <f>M3*E3</f>
+      <c r="N3" s="63">
+        <f t="shared" ref="N3:N34" si="0">M3*E3</f>
         <v>92277250</v>
       </c>
       <c r="O3" s="15" t="s">
@@ -5253,7 +5257,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="35" customFormat="1" ht="176">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>300</v>
       </c>
       <c r="F4" s="33">
-        <f t="shared" ref="F4:F10" si="0">+E4*946485</f>
+        <f t="shared" ref="F4:F10" si="1">+E4*946485</f>
         <v>283945500</v>
       </c>
       <c r="G4" s="15">
@@ -5291,11 +5295,11 @@
       <c r="L4" s="34">
         <v>43435</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="64">
         <v>946000</v>
       </c>
-      <c r="N4" s="75">
-        <f>M4*E4</f>
+      <c r="N4" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O4" s="61" t="s">
@@ -5308,7 +5312,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>160</v>
       </c>
       <c r="F5" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151437600</v>
       </c>
       <c r="G5" s="15">
@@ -5346,11 +5350,11 @@
       <c r="L5" s="34">
         <v>43435</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="64">
         <v>946000</v>
       </c>
-      <c r="N5" s="75">
-        <f>M5*E5</f>
+      <c r="N5" s="63">
+        <f t="shared" si="0"/>
         <v>151360000</v>
       </c>
       <c r="O5" s="61" t="s">
@@ -5363,7 +5367,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="35" customFormat="1" ht="128">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>300</v>
       </c>
       <c r="F6" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G6" s="15">
@@ -5401,11 +5405,11 @@
       <c r="L6" s="34">
         <v>43435</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="64">
         <v>946000</v>
       </c>
-      <c r="N6" s="75">
-        <f>M6*E6</f>
+      <c r="N6" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O6" s="61" t="s">
@@ -5418,7 +5422,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>300</v>
       </c>
       <c r="F7" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G7" s="15">
@@ -5456,11 +5460,11 @@
       <c r="L7" s="34">
         <v>43678</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="64">
         <v>946000</v>
       </c>
-      <c r="N7" s="75">
-        <f>M7*E7</f>
+      <c r="N7" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O7" s="61" t="s">
@@ -5473,7 +5477,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G8" s="15">
@@ -5511,11 +5515,11 @@
       <c r="L8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="64">
         <v>946000</v>
       </c>
-      <c r="N8" s="75">
-        <f>M8*E8</f>
+      <c r="N8" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O8" s="61" t="s">
@@ -5526,7 +5530,7 @@
       </c>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" customHeight="1">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G9" s="15">
@@ -5564,11 +5568,11 @@
       <c r="L9" s="34">
         <v>43556</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="64">
         <v>946000</v>
       </c>
-      <c r="N9" s="75">
-        <f>M9*E9</f>
+      <c r="N9" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O9" s="15" t="s">
@@ -5581,7 +5585,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="35" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="35" customFormat="1" ht="160">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -5598,7 +5602,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283945500</v>
       </c>
       <c r="G10" s="15">
@@ -5619,11 +5623,11 @@
       <c r="L10" s="34">
         <v>43435</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="64">
         <v>946000</v>
       </c>
-      <c r="N10" s="75">
-        <f>M10*E10</f>
+      <c r="N10" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O10" s="15" t="s">
@@ -5636,7 +5640,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" ref="F11" si="1">+E11*1419650</f>
+        <f t="shared" ref="F11" si="2">+E11*1419650</f>
         <v>92277250</v>
       </c>
       <c r="G11" s="15">
@@ -5674,11 +5678,11 @@
       <c r="L11" s="34">
         <v>43525</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="64">
         <v>1419650</v>
       </c>
-      <c r="N11" s="75">
-        <f>M11*E11</f>
+      <c r="N11" s="63">
+        <f t="shared" si="0"/>
         <v>92277250</v>
       </c>
       <c r="O11" s="15" t="s">
@@ -5691,7 +5695,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -5708,7 +5712,7 @@
         <v>95</v>
       </c>
       <c r="F12" s="33">
-        <f t="shared" ref="F12:F24" si="2">+E12*1419650</f>
+        <f t="shared" ref="F12:F24" si="3">+E12*1419650</f>
         <v>134866750</v>
       </c>
       <c r="G12" s="15">
@@ -5729,18 +5733,18 @@
       <c r="L12" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="64">
         <v>1419650</v>
       </c>
-      <c r="N12" s="75">
-        <f>M12*E12</f>
+      <c r="N12" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>95</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G13" s="15">
@@ -5778,18 +5782,18 @@
       <c r="L13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="64">
         <v>1419650</v>
       </c>
-      <c r="N13" s="75">
-        <f>M13*E13</f>
+      <c r="N13" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>95</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G14" s="15">
@@ -5828,11 +5832,11 @@
       <c r="L14" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="64">
         <v>1419650</v>
       </c>
-      <c r="N14" s="75">
-        <f>M14*E14</f>
+      <c r="N14" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O14" s="15" t="s">
@@ -5845,7 +5849,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>95</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G15" s="15">
@@ -5883,11 +5887,11 @@
       <c r="L15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="64">
         <v>1419650</v>
       </c>
-      <c r="N15" s="75">
-        <f>M15*E15</f>
+      <c r="N15" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O15" s="15" t="s">
@@ -5900,7 +5904,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="35" customFormat="1" ht="64">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>95</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G16" s="15">
@@ -5938,11 +5942,11 @@
       <c r="L16" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="76">
+      <c r="M16" s="64">
         <v>1419650</v>
       </c>
-      <c r="N16" s="75">
-        <f>M16*E16</f>
+      <c r="N16" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O16" s="41" t="s">
@@ -5953,7 +5957,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G17" s="15">
@@ -5991,18 +5995,18 @@
       <c r="L17" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="64">
         <v>1419650</v>
       </c>
-      <c r="N17" s="75">
-        <f>M17*E17</f>
+      <c r="N17" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>95</v>
       </c>
       <c r="F18" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G18" s="15">
@@ -6040,18 +6044,18 @@
       <c r="L18" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="64">
         <v>1419650</v>
       </c>
-      <c r="N18" s="75">
-        <f>M18*E18</f>
+      <c r="N18" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>95</v>
       </c>
       <c r="F19" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G19" s="15">
@@ -6089,18 +6093,18 @@
       <c r="L19" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="76">
+      <c r="M19" s="64">
         <v>1419650</v>
       </c>
-      <c r="N19" s="75">
-        <f>M19*E19</f>
+      <c r="N19" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>95</v>
       </c>
       <c r="F20" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G20" s="15">
@@ -6138,18 +6142,18 @@
       <c r="L20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="76">
+      <c r="M20" s="64">
         <v>1419650</v>
       </c>
-      <c r="N20" s="75">
-        <f>M20*E20</f>
+      <c r="N20" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -6166,7 +6170,7 @@
         <v>95</v>
       </c>
       <c r="F21" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G21" s="15">
@@ -6187,18 +6191,18 @@
       <c r="L21" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="64">
         <v>1419650</v>
       </c>
-      <c r="N21" s="75">
-        <f>M21*E21</f>
+      <c r="N21" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>95</v>
       </c>
       <c r="F22" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134866750</v>
       </c>
       <c r="G22" s="21">
@@ -6236,11 +6240,11 @@
       <c r="L22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="76">
+      <c r="M22" s="64">
         <v>1419650</v>
       </c>
-      <c r="N22" s="75">
-        <f>M22*E22</f>
+      <c r="N22" s="63">
+        <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
       <c r="O22" s="41" t="s">
@@ -6253,7 +6257,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" customHeight="1">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>110</v>
       </c>
       <c r="F23" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156161500</v>
       </c>
       <c r="G23" s="23">
@@ -6291,11 +6295,11 @@
       <c r="L23" s="34">
         <v>43556</v>
       </c>
-      <c r="M23" s="76">
+      <c r="M23" s="64">
         <v>1419650</v>
       </c>
-      <c r="N23" s="75">
-        <f>M23*E23</f>
+      <c r="N23" s="63">
+        <f t="shared" si="0"/>
         <v>156161500</v>
       </c>
       <c r="O23" s="15" t="s">
@@ -6308,7 +6312,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147643600</v>
       </c>
       <c r="G24" s="23">
@@ -6346,11 +6350,11 @@
       <c r="L24" s="34">
         <v>43800</v>
       </c>
-      <c r="M24" s="76">
+      <c r="M24" s="64">
         <v>1419650</v>
       </c>
-      <c r="N24" s="75">
-        <f>M24*E24</f>
+      <c r="N24" s="63">
+        <f t="shared" si="0"/>
         <v>147643600</v>
       </c>
       <c r="O24" s="61" t="s">
@@ -6361,7 +6365,7 @@
       </c>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -6396,11 +6400,11 @@
       <c r="L25" s="34">
         <v>43435</v>
       </c>
-      <c r="M25" s="76">
+      <c r="M25" s="64">
         <v>946000</v>
       </c>
-      <c r="N25" s="75">
-        <f>M25*E25</f>
+      <c r="N25" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O25" s="61" t="s">
@@ -6411,7 +6415,7 @@
       </c>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -6446,11 +6450,11 @@
       <c r="L26" s="34">
         <v>43408</v>
       </c>
-      <c r="M26" s="76">
+      <c r="M26" s="64">
         <v>946000</v>
       </c>
-      <c r="N26" s="75">
-        <f>M26*E26</f>
+      <c r="N26" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O26" s="61" t="s">
@@ -6461,7 +6465,7 @@
       </c>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -6496,11 +6500,11 @@
       <c r="L27" s="34">
         <v>43617</v>
       </c>
-      <c r="M27" s="76">
+      <c r="M27" s="64">
         <v>946000</v>
       </c>
-      <c r="N27" s="75">
-        <f>M27*E27</f>
+      <c r="N27" s="63">
+        <f t="shared" si="0"/>
         <v>283800000</v>
       </c>
       <c r="O27" s="61" t="s">
@@ -6511,7 +6515,7 @@
       </c>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -6546,11 +6550,11 @@
       <c r="L28" s="34">
         <v>43466</v>
       </c>
-      <c r="M28" s="76">
+      <c r="M28" s="64">
         <v>946000</v>
       </c>
-      <c r="N28" s="75">
-        <f>M28*E28</f>
+      <c r="N28" s="63">
+        <f t="shared" si="0"/>
         <v>170280000</v>
       </c>
       <c r="O28" s="61" t="s">
@@ -6561,7 +6565,7 @@
       </c>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -6596,11 +6600,11 @@
       <c r="L29" s="34">
         <v>43405</v>
       </c>
-      <c r="M29" s="76">
+      <c r="M29" s="64">
         <v>946000</v>
       </c>
-      <c r="N29" s="75">
-        <f>M29*E29</f>
+      <c r="N29" s="63">
+        <f t="shared" si="0"/>
         <v>266772000</v>
       </c>
       <c r="O29" s="61" t="s">
@@ -6611,7 +6615,7 @@
       </c>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -6646,11 +6650,11 @@
       <c r="L30" s="34">
         <v>43419</v>
       </c>
-      <c r="M30" s="76">
+      <c r="M30" s="64">
         <v>946000</v>
       </c>
-      <c r="N30" s="75">
-        <f>M30*E30</f>
+      <c r="N30" s="63">
+        <f t="shared" si="0"/>
         <v>170280000</v>
       </c>
       <c r="O30" s="61" t="s">
@@ -6661,7 +6665,7 @@
       </c>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A31" s="32">
         <v>29</v>
       </c>
@@ -6696,11 +6700,11 @@
       <c r="L31" s="34">
         <v>43419</v>
       </c>
-      <c r="M31" s="76">
+      <c r="M31" s="64">
         <v>946000</v>
       </c>
-      <c r="N31" s="75">
-        <f>M31*E31</f>
+      <c r="N31" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O31" s="61" t="s">
@@ -6711,7 +6715,7 @@
       </c>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A32" s="32">
         <v>30</v>
       </c>
@@ -6746,11 +6750,11 @@
       <c r="L32" s="34">
         <v>43419</v>
       </c>
-      <c r="M32" s="76">
+      <c r="M32" s="64">
         <v>1419650</v>
       </c>
-      <c r="N32" s="75">
-        <f>M32*E32</f>
+      <c r="N32" s="63">
+        <f t="shared" si="0"/>
         <v>212947500</v>
       </c>
       <c r="O32" s="61" t="s">
@@ -6761,7 +6765,7 @@
       </c>
       <c r="Q32" s="16"/>
     </row>
-    <row r="33" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A33" s="32">
         <v>31</v>
       </c>
@@ -6796,11 +6800,11 @@
       <c r="L33" s="34">
         <v>43419</v>
       </c>
-      <c r="M33" s="76">
+      <c r="M33" s="64">
         <v>946000</v>
       </c>
-      <c r="N33" s="75">
-        <f>M33*E33</f>
+      <c r="N33" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O33" s="61" t="s">
@@ -6811,7 +6815,7 @@
       </c>
       <c r="Q33" s="16"/>
     </row>
-    <row r="34" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A34" s="32">
         <v>32</v>
       </c>
@@ -6846,11 +6850,11 @@
       <c r="L34" s="34">
         <v>43419</v>
       </c>
-      <c r="M34" s="76">
+      <c r="M34" s="64">
         <v>946000</v>
       </c>
-      <c r="N34" s="75">
-        <f>M34*E34</f>
+      <c r="N34" s="63">
+        <f t="shared" si="0"/>
         <v>274340000</v>
       </c>
       <c r="O34" s="61" t="s">
@@ -6861,7 +6865,7 @@
       </c>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A35" s="32">
         <v>33</v>
       </c>
@@ -6897,11 +6901,11 @@
       <c r="L35" s="34">
         <v>43620</v>
       </c>
-      <c r="M35" s="76">
+      <c r="M35" s="64">
         <v>946000</v>
       </c>
-      <c r="N35" s="75">
-        <f>M35*E35</f>
+      <c r="N35" s="63">
+        <f t="shared" ref="N35:N66" si="4">M35*E35</f>
         <v>283800000</v>
       </c>
       <c r="O35" s="61" t="s">
@@ -6914,7 +6918,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A36" s="32">
         <v>34</v>
       </c>
@@ -6949,11 +6953,11 @@
       <c r="L36" s="34">
         <v>43559</v>
       </c>
-      <c r="M36" s="76">
+      <c r="M36" s="64">
         <v>946000</v>
       </c>
-      <c r="N36" s="75">
-        <f>M36*E36</f>
+      <c r="N36" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O36" s="61" t="s">
@@ -6966,7 +6970,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A37" s="32">
         <v>35</v>
       </c>
@@ -7001,11 +7005,11 @@
       <c r="L37" s="34">
         <v>43559</v>
       </c>
-      <c r="M37" s="76">
+      <c r="M37" s="64">
         <v>946000</v>
       </c>
-      <c r="N37" s="75">
-        <f>M37*E37</f>
+      <c r="N37" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O37" s="61" t="s">
@@ -7018,7 +7022,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A38" s="32">
         <v>36</v>
       </c>
@@ -7053,11 +7057,11 @@
       <c r="L38" s="34">
         <v>43559</v>
       </c>
-      <c r="M38" s="76">
+      <c r="M38" s="64">
         <v>946000</v>
       </c>
-      <c r="N38" s="75">
-        <f>M38*E38</f>
+      <c r="N38" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O38" s="61" t="s">
@@ -7070,7 +7074,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A39" s="32">
         <v>37</v>
       </c>
@@ -7105,11 +7109,11 @@
       <c r="L39" s="34">
         <v>43589</v>
       </c>
-      <c r="M39" s="76">
+      <c r="M39" s="64">
         <v>946000</v>
       </c>
-      <c r="N39" s="75">
-        <f>M39*E39</f>
+      <c r="N39" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O39" s="61" t="s">
@@ -7122,7 +7126,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A40" s="32">
         <v>38</v>
       </c>
@@ -7158,11 +7162,11 @@
       <c r="L40" s="34">
         <v>43589</v>
       </c>
-      <c r="M40" s="76">
+      <c r="M40" s="64">
         <v>946000</v>
       </c>
-      <c r="N40" s="75">
-        <f>M40*E40</f>
+      <c r="N40" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O40" s="61" t="s">
@@ -7175,7 +7179,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A41" s="32">
         <v>39</v>
       </c>
@@ -7210,11 +7214,11 @@
       <c r="L41" s="34">
         <v>43620</v>
       </c>
-      <c r="M41" s="76">
+      <c r="M41" s="64">
         <v>946000</v>
       </c>
-      <c r="N41" s="75">
-        <f>M41*E41</f>
+      <c r="N41" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O41" s="61" t="s">
@@ -7227,7 +7231,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A42" s="32">
         <v>40</v>
       </c>
@@ -7262,11 +7266,11 @@
       <c r="L42" s="34">
         <v>43559</v>
       </c>
-      <c r="M42" s="76">
+      <c r="M42" s="64">
         <v>946000</v>
       </c>
-      <c r="N42" s="75">
-        <f>M42*E42</f>
+      <c r="N42" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O42" s="61" t="s">
@@ -7279,7 +7283,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A43" s="32">
         <v>41</v>
       </c>
@@ -7315,11 +7319,11 @@
       <c r="L43" s="34">
         <v>43620</v>
       </c>
-      <c r="M43" s="76">
+      <c r="M43" s="64">
         <v>946000</v>
       </c>
-      <c r="N43" s="75">
-        <f>M43*E43</f>
+      <c r="N43" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O43" s="61" t="s">
@@ -7332,7 +7336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A44" s="32">
         <v>42</v>
       </c>
@@ -7367,11 +7371,11 @@
       <c r="L44" s="34">
         <v>43559</v>
       </c>
-      <c r="M44" s="76">
+      <c r="M44" s="64">
         <v>946000</v>
       </c>
-      <c r="N44" s="75">
-        <f>M44*E44</f>
+      <c r="N44" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O44" s="61" t="s">
@@ -7384,7 +7388,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A45" s="32">
         <v>43</v>
       </c>
@@ -7420,11 +7424,11 @@
       <c r="L45" s="34">
         <v>43739</v>
       </c>
-      <c r="M45" s="76">
+      <c r="M45" s="64">
         <v>946000</v>
       </c>
-      <c r="N45" s="75">
-        <f>M45*E45</f>
+      <c r="N45" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O45" s="61" t="s">
@@ -7437,7 +7441,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A46" s="32">
         <v>44</v>
       </c>
@@ -7472,11 +7476,11 @@
       <c r="L46" s="34">
         <v>43620</v>
       </c>
-      <c r="M46" s="76">
+      <c r="M46" s="64">
         <v>946000</v>
       </c>
-      <c r="N46" s="75">
-        <f>M46*E46</f>
+      <c r="N46" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O46" s="61" t="s">
@@ -7489,7 +7493,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A47" s="32">
         <v>45</v>
       </c>
@@ -7524,11 +7528,11 @@
       <c r="L47" s="34">
         <v>43589</v>
       </c>
-      <c r="M47" s="76">
+      <c r="M47" s="64">
         <v>946000</v>
       </c>
-      <c r="N47" s="75">
-        <f>M47*E47</f>
+      <c r="N47" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O47" s="61" t="s">
@@ -7541,7 +7545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A48" s="32">
         <v>46</v>
       </c>
@@ -7576,11 +7580,11 @@
       <c r="L48" s="34">
         <v>43589</v>
       </c>
-      <c r="M48" s="76">
+      <c r="M48" s="64">
         <v>946000</v>
       </c>
-      <c r="N48" s="75">
-        <f>M48*E48</f>
+      <c r="N48" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O48" s="61" t="s">
@@ -7593,7 +7597,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A49" s="32">
         <v>47</v>
       </c>
@@ -7622,11 +7626,11 @@
       <c r="L49" s="34">
         <v>43559</v>
       </c>
-      <c r="M49" s="76">
+      <c r="M49" s="64">
         <v>946000</v>
       </c>
-      <c r="N49" s="75">
-        <f>M49*E49</f>
+      <c r="N49" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O49" s="61" t="s">
@@ -7639,7 +7643,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A50" s="32">
         <v>48</v>
       </c>
@@ -7675,11 +7679,11 @@
       <c r="L50" s="34">
         <v>43511</v>
       </c>
-      <c r="M50" s="76">
+      <c r="M50" s="64">
         <v>1419650</v>
       </c>
-      <c r="N50" s="75">
-        <f>M50*E50</f>
+      <c r="N50" s="63">
+        <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
       <c r="O50" s="61" t="s">
@@ -7692,7 +7696,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A51" s="32">
         <v>49</v>
       </c>
@@ -7727,11 +7731,11 @@
       <c r="L51" s="34">
         <v>43559</v>
       </c>
-      <c r="M51" s="76">
+      <c r="M51" s="64">
         <v>1419650</v>
       </c>
-      <c r="N51" s="75">
-        <f>M51*E51</f>
+      <c r="N51" s="63">
+        <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
       <c r="O51" s="61" t="s">
@@ -7744,7 +7748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A52" s="32">
         <v>50</v>
       </c>
@@ -7779,11 +7783,11 @@
       <c r="L52" s="34">
         <v>43589</v>
       </c>
-      <c r="M52" s="76">
+      <c r="M52" s="64">
         <v>946000</v>
       </c>
-      <c r="N52" s="75">
-        <f>M52*E52</f>
+      <c r="N52" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O52" s="61" t="s">
@@ -7796,7 +7800,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A53" s="32">
         <v>51</v>
       </c>
@@ -7831,11 +7835,11 @@
       <c r="L53" s="34">
         <v>43559</v>
       </c>
-      <c r="M53" s="76">
+      <c r="M53" s="64">
         <v>946000</v>
       </c>
-      <c r="N53" s="75">
-        <f>M53*E53</f>
+      <c r="N53" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O53" s="61" t="s">
@@ -7848,7 +7852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A54" s="32">
         <v>52</v>
       </c>
@@ -7883,11 +7887,11 @@
       <c r="L54" s="34">
         <v>43589</v>
       </c>
-      <c r="M54" s="76">
+      <c r="M54" s="64">
         <v>946000</v>
       </c>
-      <c r="N54" s="75">
-        <f>M54*E54</f>
+      <c r="N54" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O54" s="61" t="s">
@@ -7900,7 +7904,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A55" s="32">
         <v>53</v>
       </c>
@@ -7935,11 +7939,11 @@
       <c r="L55" s="34">
         <v>43559</v>
       </c>
-      <c r="M55" s="76">
+      <c r="M55" s="64">
         <v>946000</v>
       </c>
-      <c r="N55" s="75">
-        <f>M55*E55</f>
+      <c r="N55" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O55" s="61" t="s">
@@ -7952,7 +7956,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A56" s="32">
         <v>54</v>
       </c>
@@ -7987,11 +7991,11 @@
       <c r="L56" s="34">
         <v>43589</v>
       </c>
-      <c r="M56" s="76">
+      <c r="M56" s="64">
         <v>946000</v>
       </c>
-      <c r="N56" s="75">
-        <f>M56*E56</f>
+      <c r="N56" s="63">
+        <f t="shared" si="4"/>
         <v>283800000</v>
       </c>
       <c r="O56" s="61" t="s">
@@ -8004,7 +8008,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" s="35" customFormat="1" ht="96">
       <c r="A57" s="32">
         <v>55</v>
       </c>
@@ -8040,11 +8044,11 @@
       <c r="L57" s="34">
         <v>43497</v>
       </c>
-      <c r="M57" s="76">
+      <c r="M57" s="64">
         <v>946000</v>
       </c>
-      <c r="N57" s="75">
-        <f>M57*E57</f>
+      <c r="N57" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O57" s="43" t="s">
@@ -8057,7 +8061,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A58" s="32">
         <v>56</v>
       </c>
@@ -8092,11 +8096,11 @@
       <c r="L58" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="M58" s="76">
+      <c r="M58" s="64">
         <v>1419650</v>
       </c>
-      <c r="N58" s="75">
-        <f>M58*E58</f>
+      <c r="N58" s="63">
+        <f t="shared" si="4"/>
         <v>141965000</v>
       </c>
       <c r="O58" s="15" t="s">
@@ -8109,7 +8113,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="35" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="35" customFormat="1" ht="144">
       <c r="A59" s="32">
         <v>56</v>
       </c>
@@ -8144,11 +8148,11 @@
       <c r="L59" s="34">
         <v>43497</v>
       </c>
-      <c r="M59" s="76">
+      <c r="M59" s="64">
         <v>946000</v>
       </c>
-      <c r="N59" s="75">
-        <f>M59*E59</f>
+      <c r="N59" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O59" s="43" t="s">
@@ -8161,7 +8165,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="35" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="35" customFormat="1" ht="64">
       <c r="A60" s="32">
         <v>57</v>
       </c>
@@ -8196,11 +8200,11 @@
       <c r="L60" s="34">
         <v>43373</v>
       </c>
-      <c r="M60" s="76">
+      <c r="M60" s="64">
         <v>946000</v>
       </c>
-      <c r="N60" s="75">
-        <f>M60*E60</f>
+      <c r="N60" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O60" s="15" t="s">
@@ -8213,7 +8217,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" s="35" customFormat="1" ht="96">
       <c r="A61" s="32">
         <v>58</v>
       </c>
@@ -8248,11 +8252,11 @@
       <c r="L61" s="34">
         <v>43497</v>
       </c>
-      <c r="M61" s="76">
+      <c r="M61" s="64">
         <v>1419650</v>
       </c>
-      <c r="N61" s="75">
-        <f>M61*E61</f>
+      <c r="N61" s="63">
+        <f t="shared" si="4"/>
         <v>141965000</v>
       </c>
       <c r="O61" s="43" t="s">
@@ -8265,7 +8269,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A62" s="32">
         <v>59</v>
       </c>
@@ -8282,7 +8286,7 @@
         <v>160</v>
       </c>
       <c r="F62" s="33">
-        <f t="shared" ref="F62" si="3">+E62*946485</f>
+        <f t="shared" ref="F62" si="5">+E62*946485</f>
         <v>151437600</v>
       </c>
       <c r="G62" s="23">
@@ -8303,11 +8307,11 @@
       <c r="L62" s="34">
         <v>43497</v>
       </c>
-      <c r="M62" s="76">
+      <c r="M62" s="64">
         <v>946000</v>
       </c>
-      <c r="N62" s="75">
-        <f>M62*E62</f>
+      <c r="N62" s="63">
+        <f t="shared" si="4"/>
         <v>151360000</v>
       </c>
       <c r="O62" s="43" t="s">
@@ -8320,7 +8324,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A63" s="32">
         <v>60</v>
       </c>
@@ -8359,11 +8363,11 @@
       <c r="L63" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M63" s="76">
+      <c r="M63" s="64">
         <v>1419650</v>
       </c>
-      <c r="N63" s="75">
-        <f>M63*E63</f>
+      <c r="N63" s="63">
+        <f t="shared" si="4"/>
         <v>92277250</v>
       </c>
       <c r="O63" s="43" t="s">
@@ -8376,7 +8380,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A64" s="32">
         <v>61</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>95</v>
       </c>
       <c r="F64" s="33">
-        <f t="shared" ref="F64" si="4">+E64*1419650</f>
+        <f t="shared" ref="F64" si="6">+E64*1419650</f>
         <v>134866750</v>
       </c>
       <c r="G64" s="23">
@@ -8414,11 +8418,11 @@
       <c r="L64" s="34">
         <v>43497</v>
       </c>
-      <c r="M64" s="76">
+      <c r="M64" s="64">
         <v>1419650</v>
       </c>
-      <c r="N64" s="75">
-        <f>M64*E64</f>
+      <c r="N64" s="63">
+        <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
       <c r="O64" s="60" t="s">
@@ -8431,7 +8435,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A65" s="32">
         <v>62</v>
       </c>
@@ -8466,11 +8470,11 @@
       <c r="L65" s="34">
         <v>43344</v>
       </c>
-      <c r="M65" s="76">
+      <c r="M65" s="64">
         <v>1419650</v>
       </c>
-      <c r="N65" s="75">
-        <f>M65*E65</f>
+      <c r="N65" s="63">
+        <f t="shared" si="4"/>
         <v>70982500</v>
       </c>
       <c r="O65" s="15" t="s">
@@ -8483,7 +8487,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A66" s="32">
         <v>63</v>
       </c>
@@ -8519,11 +8523,11 @@
       <c r="L66" s="34">
         <v>43497</v>
       </c>
-      <c r="M66" s="76">
+      <c r="M66" s="64">
         <v>1419650</v>
       </c>
-      <c r="N66" s="75">
-        <f>M66*E66</f>
+      <c r="N66" s="63">
+        <f t="shared" si="4"/>
         <v>56786000</v>
       </c>
       <c r="O66" s="60" t="s">
@@ -8536,7 +8540,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A67" s="32">
         <v>64</v>
       </c>
@@ -8571,11 +8575,11 @@
       <c r="L67" s="34">
         <v>43525</v>
       </c>
-      <c r="M67" s="76">
+      <c r="M67" s="64">
         <v>1419650</v>
       </c>
-      <c r="N67" s="75">
-        <f>M67*E67</f>
+      <c r="N67" s="63">
+        <f t="shared" ref="N67:N98" si="7">M67*E67</f>
         <v>92277250</v>
       </c>
       <c r="O67" s="60" t="s">
@@ -8588,7 +8592,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A68" s="32">
         <v>65</v>
       </c>
@@ -8624,11 +8628,11 @@
       <c r="L68" s="34">
         <v>43525</v>
       </c>
-      <c r="M68" s="76">
+      <c r="M68" s="64">
         <v>946000</v>
       </c>
-      <c r="N68" s="75">
-        <f>M68*E68</f>
+      <c r="N68" s="63">
+        <f t="shared" si="7"/>
         <v>151360000</v>
       </c>
       <c r="O68" s="60" t="s">
@@ -8641,7 +8645,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A69" s="32">
         <v>66</v>
       </c>
@@ -8676,11 +8680,11 @@
       <c r="L69" s="34">
         <v>43497</v>
       </c>
-      <c r="M69" s="76">
+      <c r="M69" s="64">
         <v>1419650</v>
       </c>
-      <c r="N69" s="75">
-        <f>M69*E69</f>
+      <c r="N69" s="63">
+        <f t="shared" si="7"/>
         <v>134866750</v>
       </c>
       <c r="O69" s="60" t="s">
@@ -8693,7 +8697,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A70" s="32">
         <v>67</v>
       </c>
@@ -8728,11 +8732,11 @@
       <c r="L70" s="34">
         <v>43466</v>
       </c>
-      <c r="M70" s="76">
+      <c r="M70" s="64">
         <v>1419650</v>
       </c>
-      <c r="N70" s="75">
-        <f>M70*E70</f>
+      <c r="N70" s="63">
+        <f t="shared" si="7"/>
         <v>134866750</v>
       </c>
       <c r="O70" s="60" t="s">
@@ -8745,7 +8749,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A71" s="32">
         <v>68</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>300</v>
       </c>
       <c r="F71" s="33">
-        <f t="shared" ref="F71" si="5">+E71*946485</f>
+        <f t="shared" ref="F71" si="8">+E71*946485</f>
         <v>283945500</v>
       </c>
       <c r="G71" s="23">
@@ -8783,11 +8787,11 @@
       <c r="L71" s="34">
         <v>43313</v>
       </c>
-      <c r="M71" s="76">
+      <c r="M71" s="64">
         <v>946000</v>
       </c>
-      <c r="N71" s="75">
-        <f>M71*E71</f>
+      <c r="N71" s="63">
+        <f t="shared" si="7"/>
         <v>283800000</v>
       </c>
       <c r="O71" s="15" t="s">
@@ -8800,7 +8804,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="35" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" s="35" customFormat="1" ht="96">
       <c r="A72" s="32">
         <v>69</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>60</v>
       </c>
       <c r="F72" s="33">
-        <f t="shared" ref="F72:F114" si="6">+E72*1419650</f>
+        <f t="shared" ref="F72:F114" si="9">+E72*1419650</f>
         <v>85179000</v>
       </c>
       <c r="G72" s="23">
@@ -8838,11 +8842,11 @@
       <c r="L72" s="34">
         <v>43466</v>
       </c>
-      <c r="M72" s="76">
+      <c r="M72" s="64">
         <v>1419650</v>
       </c>
-      <c r="N72" s="75">
-        <f>M72*E72</f>
+      <c r="N72" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O72" s="59" t="s">
@@ -8855,7 +8859,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" s="35" customFormat="1" ht="80">
       <c r="A73" s="32">
         <v>70</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G73" s="23">
@@ -8893,11 +8897,11 @@
       <c r="L73" s="34">
         <v>43466</v>
       </c>
-      <c r="M73" s="76">
+      <c r="M73" s="64">
         <v>1419650</v>
       </c>
-      <c r="N73" s="75">
-        <f>M73*E73</f>
+      <c r="N73" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O73" s="59" t="s">
@@ -8910,7 +8914,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" s="35" customFormat="1" ht="80">
       <c r="A74" s="32">
         <v>71</v>
       </c>
@@ -8927,7 +8931,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G74" s="23">
@@ -8948,11 +8952,11 @@
       <c r="L74" s="34">
         <v>43466</v>
       </c>
-      <c r="M74" s="76">
+      <c r="M74" s="64">
         <v>1419650</v>
       </c>
-      <c r="N74" s="75">
-        <f>M74*E74</f>
+      <c r="N74" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O74" s="59" t="s">
@@ -8965,7 +8969,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A75" s="32">
         <v>72</v>
       </c>
@@ -8982,7 +8986,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G75" s="23">
@@ -9003,11 +9007,11 @@
       <c r="L75" s="34">
         <v>43556</v>
       </c>
-      <c r="M75" s="76">
+      <c r="M75" s="64">
         <v>1419650</v>
       </c>
-      <c r="N75" s="75">
-        <f>M75*E75</f>
+      <c r="N75" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O75" s="61" t="s">
@@ -9020,7 +9024,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A76" s="32">
         <v>73</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>60</v>
       </c>
       <c r="F76" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G76" s="23">
@@ -9058,11 +9062,11 @@
       <c r="L76" s="34">
         <v>43466</v>
       </c>
-      <c r="M76" s="76">
+      <c r="M76" s="64">
         <v>1419650</v>
       </c>
-      <c r="N76" s="75">
-        <f>M76*E76</f>
+      <c r="N76" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O76" s="61" t="s">
@@ -9075,7 +9079,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A77" s="32">
         <v>74</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G77" s="23">
@@ -9113,11 +9117,11 @@
       <c r="L77" s="34">
         <v>43466</v>
       </c>
-      <c r="M77" s="76">
+      <c r="M77" s="64">
         <v>1419650</v>
       </c>
-      <c r="N77" s="75">
-        <f>M77*E77</f>
+      <c r="N77" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O77" s="61" t="s">
@@ -9130,7 +9134,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A78" s="32">
         <v>75</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>60</v>
       </c>
       <c r="F78" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G78" s="23">
@@ -9168,11 +9172,11 @@
       <c r="L78" s="34">
         <v>43556</v>
       </c>
-      <c r="M78" s="76">
+      <c r="M78" s="64">
         <v>1419650</v>
       </c>
-      <c r="N78" s="75">
-        <f>M78*E78</f>
+      <c r="N78" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O78" s="61" t="s">
@@ -9185,7 +9189,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A79" s="32">
         <v>76</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>60</v>
       </c>
       <c r="F79" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G79" s="23">
@@ -9223,11 +9227,11 @@
       <c r="L79" s="34">
         <v>43556</v>
       </c>
-      <c r="M79" s="76">
+      <c r="M79" s="64">
         <v>1419650</v>
       </c>
-      <c r="N79" s="75">
-        <f>M79*E79</f>
+      <c r="N79" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O79" s="61" t="s">
@@ -9240,7 +9244,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A80" s="32">
         <v>77</v>
       </c>
@@ -9257,7 +9261,7 @@
         <v>60</v>
       </c>
       <c r="F80" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G80" s="23">
@@ -9278,11 +9282,11 @@
       <c r="L80" s="34">
         <v>43556</v>
       </c>
-      <c r="M80" s="76">
+      <c r="M80" s="64">
         <v>1419650</v>
       </c>
-      <c r="N80" s="75">
-        <f>M80*E80</f>
+      <c r="N80" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O80" s="61" t="s">
@@ -9295,7 +9299,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A81" s="32">
         <v>78</v>
       </c>
@@ -9312,7 +9316,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G81" s="23">
@@ -9333,11 +9337,11 @@
       <c r="L81" s="34">
         <v>43556</v>
       </c>
-      <c r="M81" s="76">
+      <c r="M81" s="64">
         <v>1419650</v>
       </c>
-      <c r="N81" s="75">
-        <f>M81*E81</f>
+      <c r="N81" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O81" s="61" t="s">
@@ -9350,7 +9354,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="35" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="35" customFormat="1" ht="80">
       <c r="A82" s="32">
         <v>79</v>
       </c>
@@ -9367,7 +9371,7 @@
         <v>54</v>
       </c>
       <c r="F82" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>76661100</v>
       </c>
       <c r="G82" s="23">
@@ -9388,11 +9392,11 @@
       <c r="L82" s="34">
         <v>43497</v>
       </c>
-      <c r="M82" s="76">
+      <c r="M82" s="64">
         <v>1419650</v>
       </c>
-      <c r="N82" s="75">
-        <f>M82*E82</f>
+      <c r="N82" s="63">
+        <f t="shared" si="7"/>
         <v>76661100</v>
       </c>
       <c r="O82" s="59" t="s">
@@ -9405,7 +9409,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" s="35" customFormat="1" ht="32">
       <c r="A83" s="32">
         <v>80</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>80</v>
       </c>
       <c r="F83" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G83" s="23">
@@ -9444,11 +9448,11 @@
       <c r="L83" s="34">
         <v>43497</v>
       </c>
-      <c r="M83" s="76">
+      <c r="M83" s="64">
         <v>1419650</v>
       </c>
-      <c r="N83" s="75">
-        <f>M83*E83</f>
+      <c r="N83" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O83" s="61" t="s">
@@ -9459,7 +9463,7 @@
       </c>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A84" s="32">
         <v>81</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>60</v>
       </c>
       <c r="F84" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G84" s="23">
@@ -9497,11 +9501,11 @@
       <c r="L84" s="34">
         <v>43497</v>
       </c>
-      <c r="M84" s="76">
+      <c r="M84" s="64">
         <v>1419650</v>
       </c>
-      <c r="N84" s="75">
-        <f>M84*E84</f>
+      <c r="N84" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O84" s="61" t="s">
@@ -9512,7 +9516,7 @@
       </c>
       <c r="Q84" s="16"/>
     </row>
-    <row r="85" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A85" s="32">
         <v>82</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G85" s="23">
@@ -9550,11 +9554,11 @@
       <c r="L85" s="34">
         <v>43497</v>
       </c>
-      <c r="M85" s="76">
+      <c r="M85" s="64">
         <v>1419650</v>
       </c>
-      <c r="N85" s="75">
-        <f>M85*E85</f>
+      <c r="N85" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O85" s="61" t="s">
@@ -9567,7 +9571,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A86" s="32">
         <v>83</v>
       </c>
@@ -9584,7 +9588,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G86" s="23">
@@ -9605,11 +9609,11 @@
       <c r="L86" s="34">
         <v>43497</v>
       </c>
-      <c r="M86" s="76">
+      <c r="M86" s="64">
         <v>1419650</v>
       </c>
-      <c r="N86" s="75">
-        <f>M86*E86</f>
+      <c r="N86" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O86" s="61" t="s">
@@ -9620,7 +9624,7 @@
       </c>
       <c r="Q86" s="16"/>
     </row>
-    <row r="87" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A87" s="32">
         <v>84</v>
       </c>
@@ -9637,7 +9641,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G87" s="23">
@@ -9658,11 +9662,11 @@
       <c r="L87" s="34">
         <v>43586</v>
       </c>
-      <c r="M87" s="76">
+      <c r="M87" s="64">
         <v>1419650</v>
       </c>
-      <c r="N87" s="75">
-        <f>M87*E87</f>
+      <c r="N87" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O87" s="61" t="s">
@@ -9673,7 +9677,7 @@
       </c>
       <c r="Q87" s="16"/>
     </row>
-    <row r="88" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A88" s="32">
         <v>85</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G88" s="23">
@@ -9711,11 +9715,11 @@
       <c r="L88" s="34">
         <v>43617</v>
       </c>
-      <c r="M88" s="76">
+      <c r="M88" s="64">
         <v>1419650</v>
       </c>
-      <c r="N88" s="75">
-        <f>M88*E88</f>
+      <c r="N88" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O88" s="61" t="s">
@@ -9726,7 +9730,7 @@
       </c>
       <c r="Q88" s="16"/>
     </row>
-    <row r="89" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A89" s="32">
         <v>86</v>
       </c>
@@ -9743,7 +9747,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G89" s="23">
@@ -9764,11 +9768,11 @@
       <c r="L89" s="34">
         <v>43497</v>
       </c>
-      <c r="M89" s="76">
+      <c r="M89" s="64">
         <v>1419650</v>
       </c>
-      <c r="N89" s="75">
-        <f>M89*E89</f>
+      <c r="N89" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O89" s="61" t="s">
@@ -9778,7 +9782,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A90" s="32">
         <v>87</v>
       </c>
@@ -9795,7 +9799,7 @@
         <v>60</v>
       </c>
       <c r="F90" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G90" s="23">
@@ -9816,11 +9820,11 @@
       <c r="L90" s="34">
         <v>43466</v>
       </c>
-      <c r="M90" s="76">
+      <c r="M90" s="64">
         <v>1419650</v>
       </c>
-      <c r="N90" s="75">
-        <f>M90*E90</f>
+      <c r="N90" s="63">
+        <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
       <c r="O90" s="61" t="s">
@@ -9833,7 +9837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A91" s="32">
         <v>88</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>54</v>
       </c>
       <c r="F91" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>76661100</v>
       </c>
       <c r="G91" s="23">
@@ -9871,11 +9875,11 @@
       <c r="L91" s="34">
         <v>43617</v>
       </c>
-      <c r="M91" s="76">
+      <c r="M91" s="64">
         <v>1419650</v>
       </c>
-      <c r="N91" s="75">
-        <f>M91*E91</f>
+      <c r="N91" s="63">
+        <f t="shared" si="7"/>
         <v>76661100</v>
       </c>
       <c r="O91" s="61" t="s">
@@ -9888,7 +9892,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A92" s="32">
         <v>89</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>80</v>
       </c>
       <c r="F92" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G92" s="23">
@@ -9926,11 +9930,11 @@
       <c r="L92" s="34">
         <v>43739</v>
       </c>
-      <c r="M92" s="76">
+      <c r="M92" s="64">
         <v>1419650</v>
       </c>
-      <c r="N92" s="75">
-        <f>M92*E92</f>
+      <c r="N92" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O92" s="15" t="s">
@@ -9943,7 +9947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A93" s="32">
         <v>90</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>80</v>
       </c>
       <c r="F93" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G93" s="23">
@@ -9981,11 +9985,11 @@
       <c r="L93" s="34">
         <v>43617</v>
       </c>
-      <c r="M93" s="76">
+      <c r="M93" s="64">
         <v>1419650</v>
       </c>
-      <c r="N93" s="75">
-        <f>M93*E93</f>
+      <c r="N93" s="63">
+        <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
       <c r="O93" s="61" t="s">
@@ -9998,7 +10002,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A94" s="32">
         <v>91</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>65</v>
       </c>
       <c r="F94" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G94" s="23"/>
@@ -10028,11 +10032,11 @@
       <c r="L94" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M94" s="76">
+      <c r="M94" s="64">
         <v>1419650</v>
       </c>
-      <c r="N94" s="75">
-        <f>M94*E94</f>
+      <c r="N94" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O94" s="60" t="s">
@@ -10043,7 +10047,7 @@
       </c>
       <c r="Q94" s="16"/>
     </row>
-    <row r="95" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A95" s="32">
         <v>92</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>65</v>
       </c>
       <c r="F95" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G95" s="23"/>
@@ -10073,11 +10077,11 @@
       <c r="L95" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M95" s="76">
+      <c r="M95" s="64">
         <v>1419650</v>
       </c>
-      <c r="N95" s="75">
-        <f>M95*E95</f>
+      <c r="N95" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O95" s="60" t="s">
@@ -10088,7 +10092,7 @@
       </c>
       <c r="Q95" s="16"/>
     </row>
-    <row r="96" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A96" s="32">
         <v>93</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>65</v>
       </c>
       <c r="F96" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G96" s="23"/>
@@ -10118,11 +10122,11 @@
       <c r="L96" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M96" s="76">
+      <c r="M96" s="64">
         <v>1419650</v>
       </c>
-      <c r="N96" s="75">
-        <f>M96*E96</f>
+      <c r="N96" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O96" s="60" t="s">
@@ -10133,7 +10137,7 @@
       </c>
       <c r="Q96" s="16"/>
     </row>
-    <row r="97" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A97" s="32">
         <v>94</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>65</v>
       </c>
       <c r="F97" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G97" s="23"/>
@@ -10163,11 +10167,11 @@
       <c r="L97" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M97" s="76">
+      <c r="M97" s="64">
         <v>1419650</v>
       </c>
-      <c r="N97" s="75">
-        <f>M97*E97</f>
+      <c r="N97" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O97" s="60" t="s">
@@ -10178,7 +10182,7 @@
       </c>
       <c r="Q97" s="16"/>
     </row>
-    <row r="98" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A98" s="32">
         <v>95</v>
       </c>
@@ -10195,7 +10199,7 @@
         <v>65</v>
       </c>
       <c r="F98" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G98" s="23"/>
@@ -10208,11 +10212,11 @@
       <c r="L98" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M98" s="76">
+      <c r="M98" s="64">
         <v>1419650</v>
       </c>
-      <c r="N98" s="75">
-        <f>M98*E98</f>
+      <c r="N98" s="63">
+        <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
       <c r="O98" s="60" t="s">
@@ -10223,7 +10227,7 @@
       </c>
       <c r="Q98" s="16"/>
     </row>
-    <row r="99" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A99" s="32">
         <v>96</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>50</v>
       </c>
       <c r="F99" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70982500</v>
       </c>
       <c r="G99" s="23"/>
@@ -10253,11 +10257,11 @@
       <c r="L99" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M99" s="76">
+      <c r="M99" s="64">
         <v>1419650</v>
       </c>
-      <c r="N99" s="75">
-        <f>M99*E99</f>
+      <c r="N99" s="63">
+        <f t="shared" ref="N99:N130" si="10">M99*E99</f>
         <v>70982500</v>
       </c>
       <c r="O99" s="60" t="s">
@@ -10268,7 +10272,7 @@
       </c>
       <c r="Q99" s="16"/>
     </row>
-    <row r="100" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A100" s="32">
         <v>97</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>65</v>
       </c>
       <c r="F100" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G100" s="23"/>
@@ -10298,11 +10302,11 @@
       <c r="L100" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M100" s="76">
+      <c r="M100" s="64">
         <v>1419650</v>
       </c>
-      <c r="N100" s="75">
-        <f>M100*E100</f>
+      <c r="N100" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O100" s="60" t="s">
@@ -10313,7 +10317,7 @@
       </c>
       <c r="Q100" s="16"/>
     </row>
-    <row r="101" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A101" s="32">
         <v>98</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>65</v>
       </c>
       <c r="F101" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G101" s="23"/>
@@ -10343,11 +10347,11 @@
       <c r="L101" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M101" s="76">
+      <c r="M101" s="64">
         <v>1419650</v>
       </c>
-      <c r="N101" s="75">
-        <f>M101*E101</f>
+      <c r="N101" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O101" s="60" t="s">
@@ -10358,7 +10362,7 @@
       </c>
       <c r="Q101" s="16"/>
     </row>
-    <row r="102" spans="1:17" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" s="35" customFormat="1" ht="48">
       <c r="A102" s="32">
         <v>99</v>
       </c>
@@ -10375,7 +10379,7 @@
         <v>104</v>
       </c>
       <c r="F102" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>147643600</v>
       </c>
       <c r="G102" s="23">
@@ -10396,11 +10400,11 @@
       <c r="L102" s="34">
         <v>43405</v>
       </c>
-      <c r="M102" s="76">
+      <c r="M102" s="64">
         <v>1419650</v>
       </c>
-      <c r="N102" s="75">
-        <f>M102*E102</f>
+      <c r="N102" s="63">
+        <f t="shared" si="10"/>
         <v>147643600</v>
       </c>
       <c r="O102" s="60" t="s">
@@ -10413,7 +10417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A103" s="32">
         <v>100</v>
       </c>
@@ -10430,7 +10434,7 @@
         <v>70</v>
       </c>
       <c r="F103" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>99375500</v>
       </c>
       <c r="G103" s="23">
@@ -10451,11 +10455,11 @@
       <c r="L103" s="34">
         <v>43480</v>
       </c>
-      <c r="M103" s="76">
+      <c r="M103" s="64">
         <v>1419650</v>
       </c>
-      <c r="N103" s="75">
-        <f>M103*E103</f>
+      <c r="N103" s="63">
+        <f t="shared" si="10"/>
         <v>99375500</v>
       </c>
       <c r="O103" s="60" t="s">
@@ -10466,7 +10470,7 @@
       </c>
       <c r="Q103" s="16"/>
     </row>
-    <row r="104" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A104" s="32">
         <v>101</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>90</v>
       </c>
       <c r="F104" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>127768500</v>
       </c>
       <c r="G104" s="23">
@@ -10504,11 +10508,11 @@
       <c r="L104" s="34">
         <v>43497</v>
       </c>
-      <c r="M104" s="76">
+      <c r="M104" s="64">
         <v>1419650</v>
       </c>
-      <c r="N104" s="75">
-        <f>M104*E104</f>
+      <c r="N104" s="63">
+        <f t="shared" si="10"/>
         <v>127768500</v>
       </c>
       <c r="O104" s="60" t="s">
@@ -10519,7 +10523,7 @@
       </c>
       <c r="Q104" s="16"/>
     </row>
-    <row r="105" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A105" s="32">
         <v>102</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>110</v>
       </c>
       <c r="F105" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>156161500</v>
       </c>
       <c r="G105" s="23">
@@ -10557,11 +10561,11 @@
       <c r="L105" s="34">
         <v>43497</v>
       </c>
-      <c r="M105" s="76">
+      <c r="M105" s="64">
         <v>1419650</v>
       </c>
-      <c r="N105" s="75">
-        <f>M105*E105</f>
+      <c r="N105" s="63">
+        <f t="shared" si="10"/>
         <v>156161500</v>
       </c>
       <c r="O105" s="60" t="s">
@@ -10572,7 +10576,7 @@
       </c>
       <c r="Q105" s="16"/>
     </row>
-    <row r="106" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A106" s="32">
         <v>103</v>
       </c>
@@ -10589,7 +10593,7 @@
         <v>80</v>
       </c>
       <c r="F106" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113572000</v>
       </c>
       <c r="G106" s="23">
@@ -10610,11 +10614,11 @@
       <c r="L106" s="34">
         <v>43466</v>
       </c>
-      <c r="M106" s="76">
+      <c r="M106" s="64">
         <v>1419650</v>
       </c>
-      <c r="N106" s="75">
-        <f>M106*E106</f>
+      <c r="N106" s="63">
+        <f t="shared" si="10"/>
         <v>113572000</v>
       </c>
       <c r="O106" s="60" t="s">
@@ -10625,7 +10629,7 @@
       </c>
       <c r="Q106" s="16"/>
     </row>
-    <row r="107" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A107" s="32">
         <v>104</v>
       </c>
@@ -10642,7 +10646,7 @@
         <v>200</v>
       </c>
       <c r="F107" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>283930000</v>
       </c>
       <c r="G107" s="23">
@@ -10664,11 +10668,11 @@
       <c r="L107" s="34">
         <v>43497</v>
       </c>
-      <c r="M107" s="76">
+      <c r="M107" s="64">
         <v>946000</v>
       </c>
-      <c r="N107" s="75">
-        <f>M107*E107</f>
+      <c r="N107" s="63">
+        <f t="shared" si="10"/>
         <v>189200000</v>
       </c>
       <c r="O107" s="60" t="s">
@@ -10679,7 +10683,7 @@
       </c>
       <c r="Q107" s="16"/>
     </row>
-    <row r="108" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A108" s="32">
         <v>105</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>60</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G108" s="23">
@@ -10717,11 +10721,11 @@
       <c r="L108" s="34">
         <v>43497</v>
       </c>
-      <c r="M108" s="76">
+      <c r="M108" s="64">
         <v>1419650</v>
       </c>
-      <c r="N108" s="75">
-        <f>M108*E108</f>
+      <c r="N108" s="63">
+        <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
       <c r="O108" s="60" t="s">
@@ -10732,7 +10736,7 @@
       </c>
       <c r="Q108" s="16"/>
     </row>
-    <row r="109" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A109" s="32">
         <v>106</v>
       </c>
@@ -10749,7 +10753,7 @@
         <v>76</v>
       </c>
       <c r="F109" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>107893400</v>
       </c>
       <c r="G109" s="23">
@@ -10770,11 +10774,11 @@
       <c r="L109" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M109" s="76">
+      <c r="M109" s="64">
         <v>1419650</v>
       </c>
-      <c r="N109" s="75">
-        <f>M109*E109</f>
+      <c r="N109" s="63">
+        <f t="shared" si="10"/>
         <v>107893400</v>
       </c>
       <c r="O109" s="60" t="s">
@@ -10785,7 +10789,7 @@
       </c>
       <c r="Q109" s="16"/>
     </row>
-    <row r="110" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A110" s="32">
         <v>107</v>
       </c>
@@ -10802,7 +10806,7 @@
         <v>60</v>
       </c>
       <c r="F110" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G110" s="23">
@@ -10823,11 +10827,11 @@
       <c r="L110" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M110" s="76">
+      <c r="M110" s="64">
         <v>1419650</v>
       </c>
-      <c r="N110" s="75">
-        <f>M110*E110</f>
+      <c r="N110" s="63">
+        <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
       <c r="O110" s="60" t="s">
@@ -10838,7 +10842,7 @@
       </c>
       <c r="Q110" s="16"/>
     </row>
-    <row r="111" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A111" s="32">
         <v>108</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85179000</v>
       </c>
       <c r="G111" s="23">
@@ -10876,11 +10880,11 @@
       <c r="L111" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M111" s="76">
+      <c r="M111" s="64">
         <v>1419650</v>
       </c>
-      <c r="N111" s="75">
-        <f>M111*E111</f>
+      <c r="N111" s="63">
+        <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
       <c r="O111" s="60" t="s">
@@ -10891,7 +10895,7 @@
       </c>
       <c r="Q111" s="16"/>
     </row>
-    <row r="112" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A112" s="32">
         <v>109</v>
       </c>
@@ -10908,7 +10912,7 @@
         <v>36</v>
       </c>
       <c r="F112" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>51107400</v>
       </c>
       <c r="G112" s="23">
@@ -10929,11 +10933,11 @@
       <c r="L112" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="M112" s="76">
+      <c r="M112" s="64">
         <v>1419650</v>
       </c>
-      <c r="N112" s="75">
-        <f>M112*E112</f>
+      <c r="N112" s="63">
+        <f t="shared" si="10"/>
         <v>51107400</v>
       </c>
       <c r="O112" s="60" t="s">
@@ -10944,7 +10948,7 @@
       </c>
       <c r="Q112" s="16"/>
     </row>
-    <row r="113" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A113" s="32">
         <v>110</v>
       </c>
@@ -10961,7 +10965,7 @@
         <v>65</v>
       </c>
       <c r="F113" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92277250</v>
       </c>
       <c r="G113" s="23">
@@ -10982,11 +10986,11 @@
       <c r="L113" s="34">
         <v>43435</v>
       </c>
-      <c r="M113" s="76">
+      <c r="M113" s="64">
         <v>1419650</v>
       </c>
-      <c r="N113" s="75">
-        <f>M113*E113</f>
+      <c r="N113" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O113" s="60" t="s">
@@ -10997,7 +11001,7 @@
       </c>
       <c r="Q113" s="16"/>
     </row>
-    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" customHeight="1">
       <c r="A114" s="32">
         <v>111</v>
       </c>
@@ -11014,7 +11018,7 @@
         <v>92</v>
       </c>
       <c r="F114" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130607800</v>
       </c>
       <c r="G114" s="23">
@@ -11035,11 +11039,11 @@
       <c r="L114" s="34">
         <v>43405</v>
       </c>
-      <c r="M114" s="76">
+      <c r="M114" s="64">
         <v>1419650</v>
       </c>
-      <c r="N114" s="75">
-        <f>M114*E114</f>
+      <c r="N114" s="63">
+        <f t="shared" si="10"/>
         <v>130607800</v>
       </c>
       <c r="O114" s="60" t="s">
@@ -11052,7 +11056,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="35" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" s="35" customFormat="1" ht="96">
       <c r="A115" s="32">
         <v>112</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>160</v>
       </c>
       <c r="F115" s="33">
-        <f t="shared" ref="F115:F116" si="7">+E115*946485</f>
+        <f t="shared" ref="F115:F116" si="11">+E115*946485</f>
         <v>151437600</v>
       </c>
       <c r="G115" s="23">
@@ -11091,11 +11095,11 @@
       <c r="L115" s="34">
         <v>43405</v>
       </c>
-      <c r="M115" s="76">
+      <c r="M115" s="64">
         <v>946000</v>
       </c>
-      <c r="N115" s="75">
-        <f>M115*E115</f>
+      <c r="N115" s="63">
+        <f t="shared" si="10"/>
         <v>151360000</v>
       </c>
       <c r="O115" s="61" t="s">
@@ -11108,7 +11112,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A116" s="32">
         <v>113</v>
       </c>
@@ -11125,7 +11129,7 @@
         <v>300</v>
       </c>
       <c r="F116" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>283945500</v>
       </c>
       <c r="G116" s="23">
@@ -11146,11 +11150,11 @@
       <c r="L116" s="34">
         <v>43435</v>
       </c>
-      <c r="M116" s="76">
+      <c r="M116" s="64">
         <v>946000</v>
       </c>
-      <c r="N116" s="75">
-        <f>M116*E116</f>
+      <c r="N116" s="63">
+        <f t="shared" si="10"/>
         <v>283800000</v>
       </c>
       <c r="O116" s="61" t="s">
@@ -11161,7 +11165,7 @@
       </c>
       <c r="Q116" s="16"/>
     </row>
-    <row r="117" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A117" s="32">
         <v>114</v>
       </c>
@@ -11194,11 +11198,11 @@
         <v>43525</v>
       </c>
       <c r="L117" s="34"/>
-      <c r="M117" s="76">
+      <c r="M117" s="64">
         <v>1419650</v>
       </c>
-      <c r="N117" s="75">
-        <f>M117*E117</f>
+      <c r="N117" s="63">
+        <f t="shared" si="10"/>
         <v>141965000</v>
       </c>
       <c r="O117" s="60" t="s">
@@ -11209,7 +11213,7 @@
       </c>
       <c r="Q117" s="16"/>
     </row>
-    <row r="118" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A118" s="32">
         <v>115</v>
       </c>
@@ -11242,11 +11246,11 @@
         <v>43739</v>
       </c>
       <c r="L118" s="34"/>
-      <c r="M118" s="76">
+      <c r="M118" s="64">
         <v>1419650</v>
       </c>
-      <c r="N118" s="75">
-        <f>M118*E118</f>
+      <c r="N118" s="63">
+        <f t="shared" si="10"/>
         <v>51107400</v>
       </c>
       <c r="O118" s="60" t="s">
@@ -11257,7 +11261,7 @@
       </c>
       <c r="Q118" s="16"/>
     </row>
-    <row r="119" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A119" s="32">
         <v>116</v>
       </c>
@@ -11290,11 +11294,11 @@
         <v>43709</v>
       </c>
       <c r="L119" s="34"/>
-      <c r="M119" s="76">
+      <c r="M119" s="64">
         <v>946000</v>
       </c>
-      <c r="N119" s="75">
-        <f>M119*E119</f>
+      <c r="N119" s="63">
+        <f t="shared" si="10"/>
         <v>302720000</v>
       </c>
       <c r="O119" s="61" t="s">
@@ -11305,7 +11309,7 @@
       </c>
       <c r="Q119" s="16"/>
     </row>
-    <row r="120" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A120" s="32">
         <v>117</v>
       </c>
@@ -11338,11 +11342,11 @@
         <v>43678</v>
       </c>
       <c r="L120" s="34"/>
-      <c r="M120" s="76">
+      <c r="M120" s="64">
         <v>946000</v>
       </c>
-      <c r="N120" s="75">
-        <f>M120*E120</f>
+      <c r="N120" s="63">
+        <f t="shared" si="10"/>
         <v>302720000</v>
       </c>
       <c r="O120" s="61" t="s">
@@ -11353,7 +11357,7 @@
       </c>
       <c r="Q120" s="16"/>
     </row>
-    <row r="121" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A121" s="32">
         <v>118</v>
       </c>
@@ -11386,11 +11390,11 @@
         <v>43739</v>
       </c>
       <c r="L121" s="34"/>
-      <c r="M121" s="76">
+      <c r="M121" s="64">
         <v>1419650</v>
       </c>
-      <c r="N121" s="75">
-        <f>M121*E121</f>
+      <c r="N121" s="63">
+        <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
       <c r="O121" s="61" t="s">
@@ -11401,7 +11405,7 @@
       </c>
       <c r="Q121" s="16"/>
     </row>
-    <row r="122" spans="1:17" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" s="35" customFormat="1" ht="21">
       <c r="A122" s="32">
         <v>119</v>
       </c>
@@ -11434,11 +11438,11 @@
         <v>43739</v>
       </c>
       <c r="L122" s="34"/>
-      <c r="M122" s="76">
+      <c r="M122" s="64">
         <v>1419650</v>
       </c>
-      <c r="N122" s="75">
-        <f>M122*E122</f>
+      <c r="N122" s="63">
+        <f t="shared" si="10"/>
         <v>127768500</v>
       </c>
       <c r="O122" s="61" t="s">
@@ -11449,78 +11453,85 @@
       </c>
       <c r="Q122" s="16"/>
     </row>
-    <row r="123" spans="1:17" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="77" t="s">
+    <row r="123" spans="1:17" ht="35.5" customHeight="1">
+      <c r="A123" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
-      <c r="M123" s="77"/>
-      <c r="N123" s="77"/>
-      <c r="O123" s="77"/>
-      <c r="P123" s="77"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B123" s="66"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
+      <c r="M123" s="66"/>
+      <c r="N123" s="66"/>
+      <c r="O123" s="66"/>
+      <c r="P123" s="66"/>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1">
       <c r="A141" s="37"/>
     </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="78">
+        <f>120*0.1/87</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:R123" xr:uid="{ACF57AB2-66E6-2C4E-A1ED-B31CAC90A18C}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A123:P123"/>
@@ -11540,19 +11551,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11566,7 +11577,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="50" t="s">
         <v>185</v>
       </c>
@@ -11580,7 +11591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="50" t="s">
         <v>30</v>
       </c>
@@ -11594,7 +11605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="50" t="s">
         <v>97</v>
       </c>
@@ -11608,7 +11619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="50" t="s">
         <v>143</v>
       </c>
@@ -11622,7 +11633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="50" t="s">
         <v>74</v>
       </c>
@@ -11636,7 +11647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="50" t="s">
         <v>62</v>
       </c>
@@ -11650,7 +11661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="50" t="s">
         <v>219</v>
       </c>
@@ -11664,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
@@ -11678,7 +11689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
         <v>282</v>
       </c>
@@ -11692,7 +11703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="50" t="s">
         <v>43</v>
       </c>
@@ -11706,7 +11717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="50" t="s">
         <v>317</v>
       </c>
@@ -11738,37 +11749,37 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11776,7 +11787,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="50" t="s">
         <v>182</v>
       </c>
@@ -11784,7 +11795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="51" t="s">
         <v>185</v>
       </c>
@@ -11792,7 +11803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -11800,7 +11811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="51" t="s">
         <v>30</v>
       </c>
@@ -11808,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="51" t="s">
         <v>9</v>
       </c>
@@ -11816,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="50" t="s">
         <v>31</v>
       </c>
@@ -11824,7 +11835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="51" t="s">
         <v>30</v>
       </c>
@@ -11832,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="51" t="s">
         <v>97</v>
       </c>
@@ -11840,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="51" t="s">
         <v>282</v>
       </c>
@@ -11848,7 +11859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="50" t="s">
         <v>10</v>
       </c>
@@ -11856,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
@@ -11864,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="50" t="s">
         <v>60</v>
       </c>
@@ -11872,7 +11883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="51" t="s">
         <v>143</v>
       </c>
@@ -11880,7 +11891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="51" t="s">
         <v>62</v>
       </c>
@@ -11888,7 +11899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="50" t="s">
         <v>72</v>
       </c>
@@ -11896,7 +11907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="51" t="s">
         <v>185</v>
       </c>
@@ -11904,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="51" t="s">
         <v>97</v>
       </c>
@@ -11912,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="51" t="s">
         <v>143</v>
       </c>
@@ -11920,7 +11931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="51" t="s">
         <v>74</v>
       </c>
@@ -11928,7 +11939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="50" t="s">
         <v>40</v>
       </c>
@@ -11936,7 +11947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="51" t="s">
         <v>185</v>
       </c>
@@ -11944,7 +11955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="51" t="s">
         <v>43</v>
       </c>
@@ -11952,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="50" t="s">
         <v>34</v>
       </c>
@@ -11960,7 +11971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="51" t="s">
         <v>30</v>
       </c>
@@ -11968,7 +11979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="50" t="s">
         <v>99</v>
       </c>
@@ -11976,7 +11987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="51" t="s">
         <v>97</v>
       </c>
@@ -11984,7 +11995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="50" t="s">
         <v>200</v>
       </c>
@@ -11992,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="51" t="s">
         <v>185</v>
       </c>
@@ -12000,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="50" t="s">
         <v>11</v>
       </c>
@@ -12008,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="51" t="s">
         <v>9</v>
       </c>
@@ -12016,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="50" t="s">
         <v>14</v>
       </c>
@@ -12024,7 +12035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="51" t="s">
         <v>9</v>
       </c>
@@ -12032,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="50" t="s">
         <v>39</v>
       </c>
@@ -12040,7 +12051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="51" t="s">
         <v>185</v>
       </c>
@@ -12048,7 +12059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="51" t="s">
         <v>30</v>
       </c>
@@ -12056,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="51" t="s">
         <v>97</v>
       </c>
@@ -12064,7 +12075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="51" t="s">
         <v>143</v>
       </c>
@@ -12072,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="50" t="s">
         <v>15</v>
       </c>
@@ -12080,7 +12091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="51" t="s">
         <v>97</v>
       </c>
@@ -12088,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="51" t="s">
         <v>219</v>
       </c>
@@ -12096,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="51" t="s">
         <v>9</v>
       </c>
@@ -12104,7 +12115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="50" t="s">
         <v>106</v>
       </c>
@@ -12112,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="51" t="s">
         <v>97</v>
       </c>
@@ -12120,7 +12131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="50" t="s">
         <v>19</v>
       </c>
@@ -12128,7 +12139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="51" t="s">
         <v>185</v>
       </c>
@@ -12136,7 +12147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="51" t="s">
         <v>30</v>
       </c>
@@ -12144,7 +12155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="51" t="s">
         <v>143</v>
       </c>
@@ -12152,7 +12163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="51" t="s">
         <v>9</v>
       </c>
@@ -12160,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="50" t="s">
         <v>181</v>
       </c>
@@ -12168,7 +12179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="51" t="s">
         <v>143</v>
       </c>
@@ -12176,7 +12187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="50" t="s">
         <v>108</v>
       </c>
@@ -12184,7 +12195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="51" t="s">
         <v>185</v>
       </c>
@@ -12192,7 +12203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="51" t="s">
         <v>97</v>
       </c>
@@ -12200,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="50" t="s">
         <v>110</v>
       </c>
@@ -12208,7 +12219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="51" t="s">
         <v>185</v>
       </c>
@@ -12216,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="51" t="s">
         <v>97</v>
       </c>
@@ -12224,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="50" t="s">
         <v>22</v>
       </c>
@@ -12232,7 +12243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="51" t="s">
         <v>30</v>
       </c>
@@ -12240,7 +12251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="51" t="s">
         <v>9</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="50" t="s">
         <v>112</v>
       </c>
@@ -12256,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="51" t="s">
         <v>97</v>
       </c>
@@ -12264,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" s="50" t="s">
         <v>25</v>
       </c>
@@ -12272,7 +12283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="51" t="s">
         <v>30</v>
       </c>
@@ -12280,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="51" t="s">
         <v>9</v>
       </c>
@@ -12288,7 +12299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="50" t="s">
         <v>54</v>
       </c>
@@ -12296,7 +12307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="51" t="s">
         <v>30</v>
       </c>
@@ -12304,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" s="51" t="s">
         <v>97</v>
       </c>
@@ -12312,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" s="51" t="s">
         <v>143</v>
       </c>
@@ -12320,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="50" t="s">
         <v>227</v>
       </c>
@@ -12328,7 +12339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="51" t="s">
         <v>185</v>
       </c>
@@ -12336,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" s="50" t="s">
         <v>115</v>
       </c>
@@ -12344,7 +12355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="51" t="s">
         <v>97</v>
       </c>
@@ -12352,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="51" t="s">
         <v>9</v>
       </c>
@@ -12360,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="50" t="s">
         <v>317</v>
       </c>
@@ -12386,12 +12397,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="64">
       <c r="B3" s="17" t="s">
         <v>297</v>
       </c>
@@ -12411,7 +12422,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="16">
       <c r="B4" s="16" t="s">
         <v>284</v>
       </c>
@@ -12431,7 +12442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="16">
       <c r="B5" s="16" t="s">
         <v>285</v>
       </c>
@@ -12451,7 +12462,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="16">
       <c r="B6" s="16" t="s">
         <v>286</v>
       </c>
@@ -12471,7 +12482,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="16">
       <c r="B7" s="16" t="s">
         <v>287</v>
       </c>
@@ -12491,7 +12502,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="16">
       <c r="B8" s="16" t="s">
         <v>288</v>
       </c>
@@ -12511,7 +12522,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="16">
       <c r="B9" s="16" t="s">
         <v>289</v>
       </c>
@@ -12531,7 +12542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="16">
       <c r="B10" s="16" t="s">
         <v>291</v>
       </c>
@@ -12551,7 +12562,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="16">
       <c r="B11" s="16" t="s">
         <v>292</v>
       </c>
@@ -12571,7 +12582,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="16">
       <c r="B12" s="16" t="s">
         <v>293</v>
       </c>
@@ -12592,7 +12603,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="16">
       <c r="B13" s="16" t="s">
         <v>294</v>
       </c>
@@ -12606,7 +12617,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="16">
       <c r="B14" s="17" t="s">
         <v>270</v>
       </c>
@@ -12650,18 +12661,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12684,7 +12695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="48">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -12707,7 +12718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="48">
       <c r="A3" s="2" t="s">
         <v>135</v>
       </c>
@@ -12730,7 +12741,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="48">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -12753,7 +12764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="32" hidden="1">
       <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
@@ -12776,18 +12787,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
+      <c r="A6" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" hidden="1">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -12810,7 +12821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="48" hidden="1">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -12833,7 +12844,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="32" hidden="1">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -12856,7 +12867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32" hidden="1">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -12879,7 +12890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="32" hidden="1">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -12902,7 +12913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="32" hidden="1">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -12925,7 +12936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="32" hidden="1">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -12948,7 +12959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="32" hidden="1">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -12971,7 +12982,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="32" hidden="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -12994,7 +13005,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="32" hidden="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -13017,7 +13028,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="32" hidden="1">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -13040,7 +13051,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="32" hidden="1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -13063,7 +13074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="32" hidden="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -13086,7 +13097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="32" hidden="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13109,7 +13120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="2" t="s">
         <v>181</v>
       </c>
@@ -13132,7 +13143,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="32" hidden="1">
       <c r="A22" s="2" t="s">
         <v>181</v>
       </c>
@@ -13155,7 +13166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="2" t="s">
         <v>181</v>
       </c>
@@ -13178,7 +13189,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="32" hidden="1">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -13233,28 +13244,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="1:7" ht="32">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13277,18 +13288,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -13311,7 +13322,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="48">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -13334,7 +13345,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="32">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -13357,18 +13368,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" ht="32">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -13391,7 +13402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="32">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -13414,7 +13425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
@@ -13437,7 +13448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="32">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -13460,7 +13471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="32">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -13483,7 +13494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="32">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13506,7 +13517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="32">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13529,7 +13540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="32">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
@@ -13575,7 +13586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -13598,18 +13609,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-    </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19" spans="1:7" ht="32">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13632,7 +13643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="32">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13655,7 +13666,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="32">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13678,7 +13689,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="32">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13701,18 +13712,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-    </row>
-    <row r="24" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+    </row>
+    <row r="24" spans="1:7" ht="64">
       <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
@@ -13735,7 +13746,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="64">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -13758,7 +13769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="64">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -13781,7 +13792,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="64">
       <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
@@ -13804,7 +13815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="64">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
@@ -13852,13 +13863,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>244</v>
       </c>
@@ -13866,7 +13877,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
@@ -13874,7 +13885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -13882,7 +13893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -13890,7 +13901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>239</v>
       </c>
@@ -13898,7 +13909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>240</v>
       </c>
@@ -13906,27 +13917,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="70"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="73"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="71"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="74"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
@@ -13940,7 +13951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
@@ -13954,19 +13965,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="72"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
         <v>256</v>
       </c>
@@ -13974,7 +13985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
         <v>257</v>
       </c>
@@ -13982,7 +13993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
         <v>258</v>
       </c>
@@ -13990,7 +14001,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
         <v>259</v>
       </c>
@@ -13998,23 +14009,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="3" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="73" t="s">
+    <row r="17" spans="4:5">
+      <c r="D17" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="73"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="74" t="s">
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="74"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="77"/>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>254</v>
       </c>
@@ -14022,7 +14033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>260</v>
       </c>
@@ -14030,13 +14041,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="69" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="72"/>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" s="13" t="s">
         <v>257</v>
       </c>
@@ -14044,7 +14055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:5">
       <c r="D23" s="13" t="s">
         <v>258</v>
       </c>
@@ -14052,7 +14063,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5">
       <c r="D24" s="13" t="s">
         <v>259</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INFINITO/Documents/GitHub/Infraestructura-Dotaciones2019/Infraestructura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5F167-30FF-5646-B439-7DA91B6D5B29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED22BD-6E0C-4E32-A6F8-94D0043DA400}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1367,11 +1368,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1705,10 +1706,10 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
@@ -1795,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,7 +1863,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,10 +1878,13 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1921,9 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5108,48 +5109,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="36" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="47.5" style="38" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="47.42578125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="36" customWidth="1"/>
     <col min="15" max="15" width="49" style="44" customWidth="1"/>
     <col min="16" max="16" width="19" style="44" customWidth="1"/>
     <col min="17" max="17" width="94" style="36" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="11.5" style="36"/>
+    <col min="18" max="18" width="11.42578125" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="L1" s="29"/>
       <c r="N1" s="58"/>
       <c r="O1" s="42"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.5" customHeight="1">
+    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>315</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" customHeight="1">
+    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" ht="176">
+    <row r="4" spans="1:17" s="35" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="5" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="128">
+    <row r="6" spans="1:17" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="7" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="8" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -5530,7 +5531,7 @@
       </c>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" customHeight="1">
+    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -5585,7 +5586,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="35" customFormat="1" ht="160">
+    <row r="10" spans="1:17" s="35" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" customHeight="1">
+    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="12" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -5744,7 +5745,7 @@
       <c r="P12" s="41"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="13" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -5793,7 +5794,7 @@
       <c r="P13" s="41"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="14" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="15" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" ht="64">
+    <row r="16" spans="1:17" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="17" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -6006,7 +6007,7 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="18" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -6055,7 +6056,7 @@
       <c r="P18" s="41"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="19" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -6104,7 +6105,7 @@
       <c r="P19" s="41"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="20" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -6153,7 +6154,7 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="21" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -6202,7 +6203,7 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="22" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" customHeight="1">
+    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="24" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -6365,7 +6366,7 @@
       </c>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="25" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -6415,7 +6416,7 @@
       </c>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="26" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -6465,7 +6466,7 @@
       </c>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="27" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -6515,7 +6516,7 @@
       </c>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="28" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -6565,7 +6566,7 @@
       </c>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="29" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -6615,7 +6616,7 @@
       </c>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="30" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -6665,7 +6666,7 @@
       </c>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="31" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
         <v>29</v>
       </c>
@@ -6715,7 +6716,7 @@
       </c>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="32" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>30</v>
       </c>
@@ -6765,7 +6766,7 @@
       </c>
       <c r="Q32" s="16"/>
     </row>
-    <row r="33" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="33" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>31</v>
       </c>
@@ -6815,7 +6816,7 @@
       </c>
       <c r="Q33" s="16"/>
     </row>
-    <row r="34" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="34" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>32</v>
       </c>
@@ -6865,7 +6866,7 @@
       </c>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="35" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>33</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="36" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>34</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="37" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>35</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="38" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>36</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="39" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>37</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="40" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>38</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="41" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>39</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="42" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>40</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="43" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="32">
         <v>41</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="44" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>42</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="45" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="32">
         <v>43</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="46" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>44</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="47" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="32">
         <v>45</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="48" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>46</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="49" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>47</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="50" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>48</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="51" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>49</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="52" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>50</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="53" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>51</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="54" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>52</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="55" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>53</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="56" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>54</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="35" customFormat="1" ht="96">
+    <row r="57" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="32">
         <v>55</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="58" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>56</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="35" customFormat="1" ht="144">
+    <row r="59" spans="1:17" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="32">
         <v>56</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="35" customFormat="1" ht="64">
+    <row r="60" spans="1:17" s="35" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="32">
         <v>57</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="35" customFormat="1" ht="96">
+    <row r="61" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="32">
         <v>58</v>
       </c>
@@ -8269,7 +8270,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="62" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="32">
         <v>59</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="63" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="32">
         <v>60</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="64" spans="1:17" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
         <v>61</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="65" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="32">
         <v>62</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="66" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>63</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="67" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="32">
         <v>64</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="68" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>65</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="69" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>66</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="70" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>67</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="71" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>68</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="35" customFormat="1" ht="96">
+    <row r="72" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>69</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="35" customFormat="1" ht="80">
+    <row r="73" spans="1:17" s="35" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
         <v>70</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="35" customFormat="1" ht="80">
+    <row r="74" spans="1:17" s="35" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="32">
         <v>71</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="75" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="32">
         <v>72</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="76" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="32">
         <v>73</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="77" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="32">
         <v>74</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="78" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="32">
         <v>75</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="79" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="32">
         <v>76</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="80" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="32">
         <v>77</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="81" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="32">
         <v>78</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="35" customFormat="1" ht="80">
+    <row r="82" spans="1:17" s="35" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="32">
         <v>79</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="35" customFormat="1" ht="32">
+    <row r="83" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="32">
         <v>80</v>
       </c>
@@ -9463,7 +9464,7 @@
       </c>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="84" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="32">
         <v>81</v>
       </c>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="Q84" s="16"/>
     </row>
-    <row r="85" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="85" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="32">
         <v>82</v>
       </c>
@@ -9571,7 +9572,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="86" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="32">
         <v>83</v>
       </c>
@@ -9624,7 +9625,7 @@
       </c>
       <c r="Q86" s="16"/>
     </row>
-    <row r="87" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="87" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="32">
         <v>84</v>
       </c>
@@ -9677,7 +9678,7 @@
       </c>
       <c r="Q87" s="16"/>
     </row>
-    <row r="88" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="88" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="32">
         <v>85</v>
       </c>
@@ -9730,7 +9731,7 @@
       </c>
       <c r="Q88" s="16"/>
     </row>
-    <row r="89" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="89" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="32">
         <v>86</v>
       </c>
@@ -9782,7 +9783,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="90" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="32">
         <v>87</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="91" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="32">
         <v>88</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="92" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="32">
         <v>89</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="93" spans="1:17" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32">
         <v>90</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="94" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="32">
         <v>91</v>
       </c>
@@ -10047,7 +10048,7 @@
       </c>
       <c r="Q94" s="16"/>
     </row>
-    <row r="95" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="95" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="32">
         <v>92</v>
       </c>
@@ -10092,7 +10093,7 @@
       </c>
       <c r="Q95" s="16"/>
     </row>
-    <row r="96" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="96" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="32">
         <v>93</v>
       </c>
@@ -10137,7 +10138,7 @@
       </c>
       <c r="Q96" s="16"/>
     </row>
-    <row r="97" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="97" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="32">
         <v>94</v>
       </c>
@@ -10182,7 +10183,7 @@
       </c>
       <c r="Q97" s="16"/>
     </row>
-    <row r="98" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="98" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="32">
         <v>95</v>
       </c>
@@ -10227,7 +10228,7 @@
       </c>
       <c r="Q98" s="16"/>
     </row>
-    <row r="99" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="99" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="32">
         <v>96</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>1419650</v>
       </c>
       <c r="N99" s="63">
-        <f t="shared" ref="N99:N130" si="10">M99*E99</f>
+        <f t="shared" ref="N99:N122" si="10">M99*E99</f>
         <v>70982500</v>
       </c>
       <c r="O99" s="60" t="s">
@@ -10272,7 +10273,7 @@
       </c>
       <c r="Q99" s="16"/>
     </row>
-    <row r="100" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="100" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>97</v>
       </c>
@@ -10317,7 +10318,7 @@
       </c>
       <c r="Q100" s="16"/>
     </row>
-    <row r="101" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="101" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="32">
         <v>98</v>
       </c>
@@ -10362,7 +10363,7 @@
       </c>
       <c r="Q101" s="16"/>
     </row>
-    <row r="102" spans="1:17" s="35" customFormat="1" ht="48">
+    <row r="102" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="32">
         <v>99</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="103" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="32">
         <v>100</v>
       </c>
@@ -10470,7 +10471,7 @@
       </c>
       <c r="Q103" s="16"/>
     </row>
-    <row r="104" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="104" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="32">
         <v>101</v>
       </c>
@@ -10523,7 +10524,7 @@
       </c>
       <c r="Q104" s="16"/>
     </row>
-    <row r="105" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="105" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="32">
         <v>102</v>
       </c>
@@ -10576,7 +10577,7 @@
       </c>
       <c r="Q105" s="16"/>
     </row>
-    <row r="106" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="106" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="32">
         <v>103</v>
       </c>
@@ -10629,7 +10630,7 @@
       </c>
       <c r="Q106" s="16"/>
     </row>
-    <row r="107" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="107" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="32">
         <v>104</v>
       </c>
@@ -10683,7 +10684,7 @@
       </c>
       <c r="Q107" s="16"/>
     </row>
-    <row r="108" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="108" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="32">
         <v>105</v>
       </c>
@@ -10736,7 +10737,7 @@
       </c>
       <c r="Q108" s="16"/>
     </row>
-    <row r="109" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="109" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="32">
         <v>106</v>
       </c>
@@ -10789,7 +10790,7 @@
       </c>
       <c r="Q109" s="16"/>
     </row>
-    <row r="110" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="110" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
         <v>107</v>
       </c>
@@ -10842,7 +10843,7 @@
       </c>
       <c r="Q110" s="16"/>
     </row>
-    <row r="111" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="111" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="32">
         <v>108</v>
       </c>
@@ -10895,7 +10896,7 @@
       </c>
       <c r="Q111" s="16"/>
     </row>
-    <row r="112" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="112" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="32">
         <v>109</v>
       </c>
@@ -10948,7 +10949,7 @@
       </c>
       <c r="Q112" s="16"/>
     </row>
-    <row r="113" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="113" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="32">
         <v>110</v>
       </c>
@@ -11001,7 +11002,7 @@
       </c>
       <c r="Q113" s="16"/>
     </row>
-    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" customHeight="1">
+    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32">
         <v>111</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="35" customFormat="1" ht="96">
+    <row r="115" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="32">
         <v>112</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="116" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="32">
         <v>113</v>
       </c>
@@ -11165,7 +11166,7 @@
       </c>
       <c r="Q116" s="16"/>
     </row>
-    <row r="117" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="117" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="32">
         <v>114</v>
       </c>
@@ -11213,7 +11214,7 @@
       </c>
       <c r="Q117" s="16"/>
     </row>
-    <row r="118" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="118" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
         <v>115</v>
       </c>
@@ -11261,7 +11262,7 @@
       </c>
       <c r="Q118" s="16"/>
     </row>
-    <row r="119" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="119" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="32">
         <v>116</v>
       </c>
@@ -11309,7 +11310,7 @@
       </c>
       <c r="Q119" s="16"/>
     </row>
-    <row r="120" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="120" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="32">
         <v>117</v>
       </c>
@@ -11357,7 +11358,7 @@
       </c>
       <c r="Q120" s="16"/>
     </row>
-    <row r="121" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="121" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="32">
         <v>118</v>
       </c>
@@ -11405,7 +11406,7 @@
       </c>
       <c r="Q121" s="16"/>
     </row>
-    <row r="122" spans="1:17" s="35" customFormat="1" ht="21">
+    <row r="122" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="32">
         <v>119</v>
       </c>
@@ -11453,85 +11454,84 @@
       </c>
       <c r="Q122" s="16"/>
     </row>
-    <row r="123" spans="1:17" ht="35.5" customHeight="1">
-      <c r="A123" s="66" t="s">
+    <row r="123" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="66"/>
-      <c r="N123" s="66"/>
-      <c r="O123" s="66"/>
-      <c r="P123" s="66"/>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="67"/>
+      <c r="N123" s="67"/>
+      <c r="O123" s="67"/>
+      <c r="P123" s="67"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="37"/>
     </row>
-    <row r="150" spans="6:6">
-      <c r="F150" s="78">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="65">
         <f>120*0.1/87</f>
         <v>0.13793103448275862</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R123" xr:uid="{ACF57AB2-66E6-2C4E-A1ED-B31CAC90A18C}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A123:P123"/>
@@ -11551,19 +11551,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>185</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>30</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>97</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>143</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>74</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>62</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>219</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>282</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>43</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>317</v>
       </c>
@@ -11749,37 +11749,37 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>182</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>185</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>30</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>9</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>31</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>30</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>97</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>282</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>10</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>60</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>143</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>62</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>72</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>185</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>97</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>143</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>74</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>40</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>185</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>43</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>34</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>30</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>99</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>97</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>200</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>185</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>11</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>9</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>14</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>9</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>39</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>185</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>30</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>97</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>143</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>15</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>97</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
         <v>219</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>9</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>106</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>97</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>19</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>185</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
         <v>30</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
         <v>143</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="51" t="s">
         <v>9</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>181</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="51" t="s">
         <v>143</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
         <v>108</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="51" t="s">
         <v>185</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
         <v>97</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>110</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
         <v>185</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="51" t="s">
         <v>97</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>22</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
         <v>30</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
         <v>9</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>112</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
         <v>97</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
         <v>25</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
         <v>30</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="51" t="s">
         <v>9</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
         <v>54</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="51" t="s">
         <v>30</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="51" t="s">
         <v>97</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
         <v>143</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
         <v>227</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
         <v>185</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
         <v>115</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
         <v>97</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="51" t="s">
         <v>9</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
         <v>317</v>
       </c>
@@ -12397,12 +12397,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="64">
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>297</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>284</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>285</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>286</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>287</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>288</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>289</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>291</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>292</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>293</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>294</v>
       </c>
@@ -12617,7 +12617,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" ht="16">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>270</v>
       </c>
@@ -12661,18 +12661,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>135</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" hidden="1">
+    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
@@ -12787,18 +12787,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" hidden="1">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" hidden="1">
+    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" hidden="1">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" hidden="1">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32" hidden="1">
+    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" hidden="1">
+    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" hidden="1">
+    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" hidden="1">
+    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32" hidden="1">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" hidden="1">
+    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" hidden="1">
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32" hidden="1">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" hidden="1">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32" hidden="1">
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>181</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" hidden="1">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>181</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="48">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>181</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" hidden="1">
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -13244,28 +13244,28 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" ht="32">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13288,18 +13288,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" ht="32">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -13368,18 +13368,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-    </row>
-    <row r="8" spans="1:7" ht="32">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -13609,18 +13609,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-    </row>
-    <row r="19" spans="1:7" ht="32">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13712,18 +13712,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-    </row>
-    <row r="24" spans="1:7" ht="64">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="64">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="64">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="64">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="64">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
@@ -13863,13 +13863,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>244</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>239</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>240</v>
       </c>
@@ -13917,27 +13917,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="73"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="74"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
@@ -13965,19 +13965,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="75"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="76"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
         <v>256</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
         <v>257</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>258</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>259</v>
       </c>
@@ -14009,23 +14009,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1">
+    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="76" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="76"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="77" t="s">
+      <c r="E17" s="77"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="77"/>
-    </row>
-    <row r="19" spans="4:5">
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
         <v>254</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>260</v>
       </c>
@@ -14041,13 +14041,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="72" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="72"/>
-    </row>
-    <row r="22" spans="4:5">
+      <c r="E21" s="73"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>257</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="13" t="s">
         <v>258</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
         <v>259</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED22BD-6E0C-4E32-A6F8-94D0043DA400}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BEC08-4719-475A-A2EB-912DB945AF1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5111,7 +5111,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11532,6 +11532,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:R123" xr:uid="{395BFD97-342B-4C88-B8AE-468607836AFD}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A123:P123"/>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Infraestructura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BEC08-4719-475A-A2EB-912DB945AF1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D020498-5246-A94E-9D71-ECFEC8081DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="369">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1362,17 +1361,20 @@
   <si>
     <t>Valor estimado de dotación ($)</t>
   </si>
+  <si>
+    <t>ESTADO DE LA INFRAESTRUCTURA (en ejecución, terminada sin recibir, recibida, observaciones, etc)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,13 +1708,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1796,7 +1798,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,7 +1865,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,10 +1880,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1925,6 +1927,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5107,37 +5124,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="47.42578125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="36" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="36" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="47.5" style="38" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="36" customWidth="1"/>
     <col min="15" max="15" width="49" style="44" customWidth="1"/>
     <col min="16" max="16" width="19" style="44" customWidth="1"/>
-    <col min="17" max="17" width="94" style="36" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="36"/>
+    <col min="17" max="18" width="94" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="28" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>298</v>
       </c>
@@ -5150,7 +5166,7 @@
       <c r="O1" s="42"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="31" customFormat="1" ht="96.5" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>315</v>
       </c>
@@ -5202,8 +5218,11 @@
       <c r="Q2" s="40" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="35" customFormat="1" ht="149.25" customHeight="1">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -5257,8 +5276,9 @@
       <c r="Q3" s="16" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="R3" s="79"/>
+    </row>
+    <row r="4" spans="1:18" s="35" customFormat="1" ht="176">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -5312,8 +5332,9 @@
       <c r="Q4" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R4" s="79"/>
+    </row>
+    <row r="5" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -5367,8 +5388,9 @@
       <c r="Q5" s="35" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="R5" s="80"/>
+    </row>
+    <row r="6" spans="1:18" s="35" customFormat="1" ht="128">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -5422,8 +5444,9 @@
       <c r="Q6" s="16" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -5477,8 +5500,9 @@
       <c r="Q7" s="16" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R7" s="79"/>
+    </row>
+    <row r="8" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -5530,8 +5554,9 @@
         <v>329</v>
       </c>
       <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="79"/>
+    </row>
+    <row r="9" spans="1:18" s="35" customFormat="1" ht="54.75" customHeight="1">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -5585,8 +5610,9 @@
       <c r="Q9" s="16" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="35" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="R9" s="79"/>
+    </row>
+    <row r="10" spans="1:18" s="35" customFormat="1" ht="160">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -5640,8 +5666,9 @@
       <c r="Q10" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="79"/>
+    </row>
+    <row r="11" spans="1:18" s="35" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -5695,8 +5722,9 @@
       <c r="Q11" s="16" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R11" s="79"/>
+    </row>
+    <row r="12" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -5744,8 +5772,9 @@
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R12" s="79"/>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -5793,8 +5822,9 @@
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R13" s="79"/>
+    </row>
+    <row r="14" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -5849,8 +5879,9 @@
       <c r="Q14" s="46" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R14" s="81"/>
+    </row>
+    <row r="15" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -5904,8 +5935,9 @@
       <c r="Q15" s="46" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="R15" s="81"/>
+    </row>
+    <row r="16" spans="1:18" s="35" customFormat="1" ht="64">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -5957,8 +5989,9 @@
       <c r="Q16" s="16" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R16" s="79"/>
+    </row>
+    <row r="17" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -6006,8 +6039,9 @@
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R17" s="79"/>
+    </row>
+    <row r="18" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -6055,8 +6089,9 @@
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R18" s="79"/>
+    </row>
+    <row r="19" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -6104,8 +6139,9 @@
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R19" s="79"/>
+    </row>
+    <row r="20" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -6153,8 +6189,9 @@
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R20" s="79"/>
+    </row>
+    <row r="21" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -6202,8 +6239,9 @@
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R21" s="79"/>
+    </row>
+    <row r="22" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -6257,8 +6295,9 @@
       <c r="Q22" s="39" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="35" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="82"/>
+    </row>
+    <row r="23" spans="1:18" s="35" customFormat="1" ht="118.5" customHeight="1">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -6312,8 +6351,9 @@
       <c r="Q23" s="16" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R23" s="79"/>
+    </row>
+    <row r="24" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -6365,8 +6405,9 @@
         <v>329</v>
       </c>
       <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R24" s="79"/>
+    </row>
+    <row r="25" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -6415,8 +6456,9 @@
         <v>329</v>
       </c>
       <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R25" s="79"/>
+    </row>
+    <row r="26" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -6465,8 +6507,9 @@
         <v>329</v>
       </c>
       <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R26" s="79"/>
+    </row>
+    <row r="27" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -6515,8 +6558,9 @@
         <v>329</v>
       </c>
       <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R27" s="79"/>
+    </row>
+    <row r="28" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -6565,8 +6609,9 @@
         <v>329</v>
       </c>
       <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R28" s="79"/>
+    </row>
+    <row r="29" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -6615,8 +6660,9 @@
         <v>329</v>
       </c>
       <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R29" s="79"/>
+    </row>
+    <row r="30" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -6665,8 +6711,9 @@
         <v>329</v>
       </c>
       <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R30" s="79"/>
+    </row>
+    <row r="31" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A31" s="32">
         <v>29</v>
       </c>
@@ -6715,8 +6762,9 @@
         <v>329</v>
       </c>
       <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R31" s="79"/>
+    </row>
+    <row r="32" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A32" s="32">
         <v>30</v>
       </c>
@@ -6765,8 +6813,9 @@
         <v>329</v>
       </c>
       <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R32" s="79"/>
+    </row>
+    <row r="33" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A33" s="32">
         <v>31</v>
       </c>
@@ -6815,8 +6864,9 @@
         <v>329</v>
       </c>
       <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R33" s="79"/>
+    </row>
+    <row r="34" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A34" s="32">
         <v>32</v>
       </c>
@@ -6865,8 +6915,9 @@
         <v>329</v>
       </c>
       <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R34" s="79"/>
+    </row>
+    <row r="35" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A35" s="32">
         <v>33</v>
       </c>
@@ -6918,8 +6969,9 @@
       <c r="Q35" s="17" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R35" s="83"/>
+    </row>
+    <row r="36" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A36" s="32">
         <v>34</v>
       </c>
@@ -6970,8 +7022,9 @@
       <c r="Q36" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R36" s="79"/>
+    </row>
+    <row r="37" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A37" s="32">
         <v>35</v>
       </c>
@@ -7022,8 +7075,9 @@
       <c r="Q37" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R37" s="79"/>
+    </row>
+    <row r="38" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A38" s="32">
         <v>36</v>
       </c>
@@ -7074,8 +7128,9 @@
       <c r="Q38" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R38" s="79"/>
+    </row>
+    <row r="39" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A39" s="32">
         <v>37</v>
       </c>
@@ -7126,8 +7181,9 @@
       <c r="Q39" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R39" s="79"/>
+    </row>
+    <row r="40" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A40" s="32">
         <v>38</v>
       </c>
@@ -7179,8 +7235,9 @@
       <c r="Q40" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R40" s="79"/>
+    </row>
+    <row r="41" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A41" s="32">
         <v>39</v>
       </c>
@@ -7231,8 +7288,9 @@
       <c r="Q41" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R41" s="79"/>
+    </row>
+    <row r="42" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A42" s="32">
         <v>40</v>
       </c>
@@ -7283,8 +7341,9 @@
       <c r="Q42" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R42" s="79"/>
+    </row>
+    <row r="43" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A43" s="32">
         <v>41</v>
       </c>
@@ -7336,8 +7395,9 @@
       <c r="Q43" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R43" s="79"/>
+    </row>
+    <row r="44" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A44" s="32">
         <v>42</v>
       </c>
@@ -7388,8 +7448,9 @@
       <c r="Q44" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R44" s="79"/>
+    </row>
+    <row r="45" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A45" s="32">
         <v>43</v>
       </c>
@@ -7441,8 +7502,9 @@
       <c r="Q45" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R45" s="79"/>
+    </row>
+    <row r="46" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A46" s="32">
         <v>44</v>
       </c>
@@ -7493,8 +7555,9 @@
       <c r="Q46" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R46" s="79"/>
+    </row>
+    <row r="47" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A47" s="32">
         <v>45</v>
       </c>
@@ -7545,8 +7608,9 @@
       <c r="Q47" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R47" s="79"/>
+    </row>
+    <row r="48" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A48" s="32">
         <v>46</v>
       </c>
@@ -7597,8 +7661,9 @@
       <c r="Q48" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R48" s="79"/>
+    </row>
+    <row r="49" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A49" s="32">
         <v>47</v>
       </c>
@@ -7643,8 +7708,9 @@
       <c r="Q49" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R49" s="79"/>
+    </row>
+    <row r="50" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A50" s="32">
         <v>48</v>
       </c>
@@ -7696,8 +7762,9 @@
       <c r="Q50" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R50" s="79"/>
+    </row>
+    <row r="51" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A51" s="32">
         <v>49</v>
       </c>
@@ -7748,8 +7815,9 @@
       <c r="Q51" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R51" s="79"/>
+    </row>
+    <row r="52" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A52" s="32">
         <v>50</v>
       </c>
@@ -7800,8 +7868,9 @@
       <c r="Q52" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R52" s="79"/>
+    </row>
+    <row r="53" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A53" s="32">
         <v>51</v>
       </c>
@@ -7852,8 +7921,9 @@
       <c r="Q53" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R53" s="79"/>
+    </row>
+    <row r="54" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A54" s="32">
         <v>52</v>
       </c>
@@ -7904,8 +7974,9 @@
       <c r="Q54" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R54" s="79"/>
+    </row>
+    <row r="55" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A55" s="32">
         <v>53</v>
       </c>
@@ -7956,8 +8027,9 @@
       <c r="Q55" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R55" s="79"/>
+    </row>
+    <row r="56" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A56" s="32">
         <v>54</v>
       </c>
@@ -8008,8 +8080,9 @@
       <c r="Q56" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="R56" s="79"/>
+    </row>
+    <row r="57" spans="1:18" s="35" customFormat="1" ht="96">
       <c r="A57" s="32">
         <v>55</v>
       </c>
@@ -8061,8 +8134,9 @@
       <c r="Q57" s="16" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R57" s="79"/>
+    </row>
+    <row r="58" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A58" s="32">
         <v>56</v>
       </c>
@@ -8113,8 +8187,9 @@
       <c r="Q58" s="16" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="R58" s="79"/>
+    </row>
+    <row r="59" spans="1:18" s="35" customFormat="1" ht="144">
       <c r="A59" s="32">
         <v>56</v>
       </c>
@@ -8165,8 +8240,9 @@
       <c r="Q59" s="16" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="35" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="R59" s="79"/>
+    </row>
+    <row r="60" spans="1:18" s="35" customFormat="1" ht="64">
       <c r="A60" s="32">
         <v>57</v>
       </c>
@@ -8217,8 +8293,9 @@
       <c r="Q60" s="16" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="R60" s="79"/>
+    </row>
+    <row r="61" spans="1:18" s="35" customFormat="1" ht="96">
       <c r="A61" s="32">
         <v>58</v>
       </c>
@@ -8269,8 +8346,9 @@
       <c r="Q61" s="16" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R61" s="79"/>
+    </row>
+    <row r="62" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A62" s="32">
         <v>59</v>
       </c>
@@ -8324,8 +8402,9 @@
       <c r="Q62" s="16" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R62" s="79"/>
+    </row>
+    <row r="63" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A63" s="32">
         <v>60</v>
       </c>
@@ -8380,8 +8459,9 @@
       <c r="Q63" s="16" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="R63" s="79"/>
+    </row>
+    <row r="64" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A64" s="32">
         <v>61</v>
       </c>
@@ -8435,8 +8515,9 @@
       <c r="Q64" s="16" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R64" s="79"/>
+    </row>
+    <row r="65" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A65" s="32">
         <v>62</v>
       </c>
@@ -8487,8 +8568,9 @@
       <c r="Q65" s="16" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R65" s="79"/>
+    </row>
+    <row r="66" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A66" s="32">
         <v>63</v>
       </c>
@@ -8540,8 +8622,9 @@
       <c r="Q66" s="16" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R66" s="79"/>
+    </row>
+    <row r="67" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A67" s="32">
         <v>64</v>
       </c>
@@ -8592,8 +8675,9 @@
       <c r="Q67" s="16" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R67" s="79"/>
+    </row>
+    <row r="68" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A68" s="32">
         <v>65</v>
       </c>
@@ -8645,8 +8729,9 @@
       <c r="Q68" s="16" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R68" s="79"/>
+    </row>
+    <row r="69" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A69" s="32">
         <v>66</v>
       </c>
@@ -8697,8 +8782,9 @@
       <c r="Q69" s="16" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R69" s="79"/>
+    </row>
+    <row r="70" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A70" s="32">
         <v>67</v>
       </c>
@@ -8749,8 +8835,9 @@
       <c r="Q70" s="16" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R70" s="79"/>
+    </row>
+    <row r="71" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A71" s="32">
         <v>68</v>
       </c>
@@ -8804,8 +8891,9 @@
       <c r="Q71" s="16" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="R71" s="79"/>
+    </row>
+    <row r="72" spans="1:18" s="35" customFormat="1" ht="96">
       <c r="A72" s="32">
         <v>69</v>
       </c>
@@ -8859,8 +8947,9 @@
       <c r="Q72" s="16" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="35" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="R72" s="79"/>
+    </row>
+    <row r="73" spans="1:18" s="35" customFormat="1" ht="80">
       <c r="A73" s="32">
         <v>70</v>
       </c>
@@ -8914,8 +9003,9 @@
       <c r="Q73" s="16" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="35" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="R73" s="79"/>
+    </row>
+    <row r="74" spans="1:18" s="35" customFormat="1" ht="80">
       <c r="A74" s="32">
         <v>71</v>
       </c>
@@ -8969,8 +9059,9 @@
       <c r="Q74" s="16" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R74" s="79"/>
+    </row>
+    <row r="75" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A75" s="32">
         <v>72</v>
       </c>
@@ -9024,8 +9115,9 @@
       <c r="Q75" s="16" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R75" s="79"/>
+    </row>
+    <row r="76" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A76" s="32">
         <v>73</v>
       </c>
@@ -9079,8 +9171,9 @@
       <c r="Q76" s="16" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R76" s="79"/>
+    </row>
+    <row r="77" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A77" s="32">
         <v>74</v>
       </c>
@@ -9134,8 +9227,9 @@
       <c r="Q77" s="16" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R77" s="79"/>
+    </row>
+    <row r="78" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A78" s="32">
         <v>75</v>
       </c>
@@ -9189,8 +9283,9 @@
       <c r="Q78" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R78" s="79"/>
+    </row>
+    <row r="79" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A79" s="32">
         <v>76</v>
       </c>
@@ -9244,8 +9339,9 @@
       <c r="Q79" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R79" s="79"/>
+    </row>
+    <row r="80" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A80" s="32">
         <v>77</v>
       </c>
@@ -9299,8 +9395,9 @@
       <c r="Q80" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R80" s="79"/>
+    </row>
+    <row r="81" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A81" s="32">
         <v>78</v>
       </c>
@@ -9354,8 +9451,9 @@
       <c r="Q81" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" s="35" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="R81" s="79"/>
+    </row>
+    <row r="82" spans="1:18" s="35" customFormat="1" ht="80">
       <c r="A82" s="32">
         <v>79</v>
       </c>
@@ -9409,8 +9507,9 @@
       <c r="Q82" s="16" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R82" s="79"/>
+    </row>
+    <row r="83" spans="1:18" s="35" customFormat="1" ht="32">
       <c r="A83" s="32">
         <v>80</v>
       </c>
@@ -9463,8 +9562,9 @@
         <v>329</v>
       </c>
       <c r="Q83" s="16"/>
-    </row>
-    <row r="84" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R83" s="79"/>
+    </row>
+    <row r="84" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A84" s="32">
         <v>81</v>
       </c>
@@ -9516,8 +9616,9 @@
         <v>329</v>
       </c>
       <c r="Q84" s="16"/>
-    </row>
-    <row r="85" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R84" s="79"/>
+    </row>
+    <row r="85" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A85" s="32">
         <v>82</v>
       </c>
@@ -9571,8 +9672,9 @@
       <c r="Q85" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R85" s="79"/>
+    </row>
+    <row r="86" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A86" s="32">
         <v>83</v>
       </c>
@@ -9624,8 +9726,9 @@
         <v>329</v>
       </c>
       <c r="Q86" s="16"/>
-    </row>
-    <row r="87" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R86" s="79"/>
+    </row>
+    <row r="87" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A87" s="32">
         <v>84</v>
       </c>
@@ -9677,8 +9780,9 @@
         <v>329</v>
       </c>
       <c r="Q87" s="16"/>
-    </row>
-    <row r="88" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R87" s="79"/>
+    </row>
+    <row r="88" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A88" s="32">
         <v>85</v>
       </c>
@@ -9730,8 +9834,9 @@
         <v>329</v>
       </c>
       <c r="Q88" s="16"/>
-    </row>
-    <row r="89" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R88" s="79"/>
+    </row>
+    <row r="89" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A89" s="32">
         <v>86</v>
       </c>
@@ -9782,8 +9887,9 @@
       <c r="P89" s="61" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R89" s="80"/>
+    </row>
+    <row r="90" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A90" s="32">
         <v>87</v>
       </c>
@@ -9837,8 +9943,9 @@
       <c r="Q90" s="16" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R90" s="79"/>
+    </row>
+    <row r="91" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A91" s="32">
         <v>88</v>
       </c>
@@ -9892,8 +9999,9 @@
       <c r="Q91" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R91" s="79"/>
+    </row>
+    <row r="92" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A92" s="32">
         <v>89</v>
       </c>
@@ -9947,8 +10055,9 @@
       <c r="Q92" s="16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R92" s="79"/>
+    </row>
+    <row r="93" spans="1:18" s="35" customFormat="1" ht="38.25" customHeight="1">
       <c r="A93" s="32">
         <v>90</v>
       </c>
@@ -10002,8 +10111,9 @@
       <c r="Q93" s="16" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R93" s="79"/>
+    </row>
+    <row r="94" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A94" s="32">
         <v>91</v>
       </c>
@@ -10047,8 +10157,9 @@
         <v>329</v>
       </c>
       <c r="Q94" s="16"/>
-    </row>
-    <row r="95" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R94" s="79"/>
+    </row>
+    <row r="95" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A95" s="32">
         <v>92</v>
       </c>
@@ -10092,8 +10203,9 @@
         <v>329</v>
       </c>
       <c r="Q95" s="16"/>
-    </row>
-    <row r="96" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R95" s="79"/>
+    </row>
+    <row r="96" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A96" s="32">
         <v>93</v>
       </c>
@@ -10137,8 +10249,9 @@
         <v>329</v>
       </c>
       <c r="Q96" s="16"/>
-    </row>
-    <row r="97" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R96" s="79"/>
+    </row>
+    <row r="97" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A97" s="32">
         <v>94</v>
       </c>
@@ -10182,8 +10295,9 @@
         <v>329</v>
       </c>
       <c r="Q97" s="16"/>
-    </row>
-    <row r="98" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R97" s="79"/>
+    </row>
+    <row r="98" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A98" s="32">
         <v>95</v>
       </c>
@@ -10227,8 +10341,9 @@
         <v>329</v>
       </c>
       <c r="Q98" s="16"/>
-    </row>
-    <row r="99" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R98" s="79"/>
+    </row>
+    <row r="99" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A99" s="32">
         <v>96</v>
       </c>
@@ -10272,8 +10387,9 @@
         <v>329</v>
       </c>
       <c r="Q99" s="16"/>
-    </row>
-    <row r="100" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R99" s="79"/>
+    </row>
+    <row r="100" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A100" s="32">
         <v>97</v>
       </c>
@@ -10317,8 +10433,9 @@
         <v>329</v>
       </c>
       <c r="Q100" s="16"/>
-    </row>
-    <row r="101" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R100" s="79"/>
+    </row>
+    <row r="101" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A101" s="32">
         <v>98</v>
       </c>
@@ -10362,8 +10479,9 @@
         <v>329</v>
       </c>
       <c r="Q101" s="16"/>
-    </row>
-    <row r="102" spans="1:17" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R101" s="79"/>
+    </row>
+    <row r="102" spans="1:18" s="35" customFormat="1" ht="48">
       <c r="A102" s="32">
         <v>99</v>
       </c>
@@ -10417,8 +10535,9 @@
       <c r="Q102" s="16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R102" s="79"/>
+    </row>
+    <row r="103" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A103" s="32">
         <v>100</v>
       </c>
@@ -10470,8 +10589,9 @@
         <v>329</v>
       </c>
       <c r="Q103" s="16"/>
-    </row>
-    <row r="104" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R103" s="79"/>
+    </row>
+    <row r="104" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A104" s="32">
         <v>101</v>
       </c>
@@ -10523,8 +10643,9 @@
         <v>329</v>
       </c>
       <c r="Q104" s="16"/>
-    </row>
-    <row r="105" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R104" s="79"/>
+    </row>
+    <row r="105" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A105" s="32">
         <v>102</v>
       </c>
@@ -10576,8 +10697,9 @@
         <v>329</v>
       </c>
       <c r="Q105" s="16"/>
-    </row>
-    <row r="106" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R105" s="79"/>
+    </row>
+    <row r="106" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A106" s="32">
         <v>103</v>
       </c>
@@ -10629,8 +10751,9 @@
         <v>329</v>
       </c>
       <c r="Q106" s="16"/>
-    </row>
-    <row r="107" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R106" s="79"/>
+    </row>
+    <row r="107" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A107" s="32">
         <v>104</v>
       </c>
@@ -10683,8 +10806,9 @@
         <v>329</v>
       </c>
       <c r="Q107" s="16"/>
-    </row>
-    <row r="108" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R107" s="79"/>
+    </row>
+    <row r="108" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A108" s="32">
         <v>105</v>
       </c>
@@ -10736,8 +10860,9 @@
         <v>329</v>
       </c>
       <c r="Q108" s="16"/>
-    </row>
-    <row r="109" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R108" s="79"/>
+    </row>
+    <row r="109" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A109" s="32">
         <v>106</v>
       </c>
@@ -10789,8 +10914,9 @@
         <v>329</v>
       </c>
       <c r="Q109" s="16"/>
-    </row>
-    <row r="110" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R109" s="79"/>
+    </row>
+    <row r="110" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A110" s="32">
         <v>107</v>
       </c>
@@ -10842,8 +10968,9 @@
         <v>329</v>
       </c>
       <c r="Q110" s="16"/>
-    </row>
-    <row r="111" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R110" s="79"/>
+    </row>
+    <row r="111" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A111" s="32">
         <v>108</v>
       </c>
@@ -10895,8 +11022,9 @@
         <v>329</v>
       </c>
       <c r="Q111" s="16"/>
-    </row>
-    <row r="112" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R111" s="79"/>
+    </row>
+    <row r="112" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A112" s="32">
         <v>109</v>
       </c>
@@ -10948,8 +11076,9 @@
         <v>329</v>
       </c>
       <c r="Q112" s="16"/>
-    </row>
-    <row r="113" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R112" s="79"/>
+    </row>
+    <row r="113" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A113" s="32">
         <v>110</v>
       </c>
@@ -11001,8 +11130,9 @@
         <v>329</v>
       </c>
       <c r="Q113" s="16"/>
-    </row>
-    <row r="114" spans="1:17" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R113" s="79"/>
+    </row>
+    <row r="114" spans="1:18" s="35" customFormat="1" ht="58.5" customHeight="1">
       <c r="A114" s="32">
         <v>111</v>
       </c>
@@ -11056,8 +11186,9 @@
       <c r="Q114" s="16" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="R114" s="79"/>
+    </row>
+    <row r="115" spans="1:18" s="35" customFormat="1" ht="96">
       <c r="A115" s="32">
         <v>112</v>
       </c>
@@ -11112,8 +11243,9 @@
       <c r="Q115" s="48" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R115" s="79"/>
+    </row>
+    <row r="116" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A116" s="32">
         <v>113</v>
       </c>
@@ -11165,8 +11297,9 @@
         <v>329</v>
       </c>
       <c r="Q116" s="16"/>
-    </row>
-    <row r="117" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R116" s="79"/>
+    </row>
+    <row r="117" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A117" s="32">
         <v>114</v>
       </c>
@@ -11213,8 +11346,9 @@
         <v>329</v>
       </c>
       <c r="Q117" s="16"/>
-    </row>
-    <row r="118" spans="1:17" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="R117" s="79"/>
+    </row>
+    <row r="118" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A118" s="32">
         <v>115</v>
       </c>
@@ -11261,8 +11395,9 @@
         <v>329</v>
       </c>
       <c r="Q118" s="16"/>
-    </row>
-    <row r="119" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R118" s="79"/>
+    </row>
+    <row r="119" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A119" s="32">
         <v>116</v>
       </c>
@@ -11309,8 +11444,9 @@
         <v>329</v>
       </c>
       <c r="Q119" s="16"/>
-    </row>
-    <row r="120" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R119" s="79"/>
+    </row>
+    <row r="120" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A120" s="32">
         <v>117</v>
       </c>
@@ -11357,8 +11493,9 @@
         <v>329</v>
       </c>
       <c r="Q120" s="16"/>
-    </row>
-    <row r="121" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R120" s="79"/>
+    </row>
+    <row r="121" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A121" s="32">
         <v>118</v>
       </c>
@@ -11405,8 +11542,9 @@
         <v>329</v>
       </c>
       <c r="Q121" s="16"/>
-    </row>
-    <row r="122" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R121" s="79"/>
+    </row>
+    <row r="122" spans="1:18" s="35" customFormat="1" ht="21">
       <c r="A122" s="32">
         <v>119</v>
       </c>
@@ -11453,8 +11591,9 @@
         <v>329</v>
       </c>
       <c r="Q122" s="16"/>
-    </row>
-    <row r="123" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R122" s="79"/>
+    </row>
+    <row r="123" spans="1:18" ht="35.5" customHeight="1">
       <c r="A123" s="67" t="s">
         <v>366</v>
       </c>
@@ -11474,58 +11613,58 @@
       <c r="O123" s="67"/>
       <c r="P123" s="67"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="37"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:6">
       <c r="F150" s="65">
         <f>120*0.1/87</f>
         <v>0.13793103448275862</v>
@@ -11556,15 +11695,15 @@
       <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11578,7 +11717,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="50" t="s">
         <v>185</v>
       </c>
@@ -11592,7 +11731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="50" t="s">
         <v>30</v>
       </c>
@@ -11606,7 +11745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="50" t="s">
         <v>97</v>
       </c>
@@ -11620,7 +11759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="50" t="s">
         <v>143</v>
       </c>
@@ -11634,7 +11773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="50" t="s">
         <v>74</v>
       </c>
@@ -11648,7 +11787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="50" t="s">
         <v>62</v>
       </c>
@@ -11662,7 +11801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="50" t="s">
         <v>219</v>
       </c>
@@ -11676,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
@@ -11690,7 +11829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
         <v>282</v>
       </c>
@@ -11704,7 +11843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="50" t="s">
         <v>43</v>
       </c>
@@ -11718,7 +11857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="50" t="s">
         <v>317</v>
       </c>
@@ -11750,37 +11889,37 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="49" t="s">
         <v>316</v>
       </c>
@@ -11788,7 +11927,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="50" t="s">
         <v>182</v>
       </c>
@@ -11796,7 +11935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="51" t="s">
         <v>185</v>
       </c>
@@ -11804,7 +11943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -11812,7 +11951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="51" t="s">
         <v>30</v>
       </c>
@@ -11820,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="51" t="s">
         <v>9</v>
       </c>
@@ -11828,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="50" t="s">
         <v>31</v>
       </c>
@@ -11836,7 +11975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="51" t="s">
         <v>30</v>
       </c>
@@ -11844,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="51" t="s">
         <v>97</v>
       </c>
@@ -11852,7 +11991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="51" t="s">
         <v>282</v>
       </c>
@@ -11860,7 +11999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="50" t="s">
         <v>10</v>
       </c>
@@ -11868,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
@@ -11876,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="50" t="s">
         <v>60</v>
       </c>
@@ -11884,7 +12023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="51" t="s">
         <v>143</v>
       </c>
@@ -11892,7 +12031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="51" t="s">
         <v>62</v>
       </c>
@@ -11900,7 +12039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="50" t="s">
         <v>72</v>
       </c>
@@ -11908,7 +12047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="51" t="s">
         <v>185</v>
       </c>
@@ -11916,7 +12055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="51" t="s">
         <v>97</v>
       </c>
@@ -11924,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="51" t="s">
         <v>143</v>
       </c>
@@ -11932,7 +12071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="51" t="s">
         <v>74</v>
       </c>
@@ -11940,7 +12079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="50" t="s">
         <v>40</v>
       </c>
@@ -11948,7 +12087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="51" t="s">
         <v>185</v>
       </c>
@@ -11956,7 +12095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="51" t="s">
         <v>43</v>
       </c>
@@ -11964,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="50" t="s">
         <v>34</v>
       </c>
@@ -11972,7 +12111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="51" t="s">
         <v>30</v>
       </c>
@@ -11980,7 +12119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="50" t="s">
         <v>99</v>
       </c>
@@ -11988,7 +12127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="51" t="s">
         <v>97</v>
       </c>
@@ -11996,7 +12135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="50" t="s">
         <v>200</v>
       </c>
@@ -12004,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="51" t="s">
         <v>185</v>
       </c>
@@ -12012,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="50" t="s">
         <v>11</v>
       </c>
@@ -12020,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="51" t="s">
         <v>9</v>
       </c>
@@ -12028,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="50" t="s">
         <v>14</v>
       </c>
@@ -12036,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="51" t="s">
         <v>9</v>
       </c>
@@ -12044,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="50" t="s">
         <v>39</v>
       </c>
@@ -12052,7 +12191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="51" t="s">
         <v>185</v>
       </c>
@@ -12060,7 +12199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="51" t="s">
         <v>30</v>
       </c>
@@ -12068,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="51" t="s">
         <v>97</v>
       </c>
@@ -12076,7 +12215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="51" t="s">
         <v>143</v>
       </c>
@@ -12084,7 +12223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="50" t="s">
         <v>15</v>
       </c>
@@ -12092,7 +12231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="51" t="s">
         <v>97</v>
       </c>
@@ -12100,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="51" t="s">
         <v>219</v>
       </c>
@@ -12108,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="51" t="s">
         <v>9</v>
       </c>
@@ -12116,7 +12255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="50" t="s">
         <v>106</v>
       </c>
@@ -12124,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="51" t="s">
         <v>97</v>
       </c>
@@ -12132,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="50" t="s">
         <v>19</v>
       </c>
@@ -12140,7 +12279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="51" t="s">
         <v>185</v>
       </c>
@@ -12148,7 +12287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="51" t="s">
         <v>30</v>
       </c>
@@ -12156,7 +12295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="51" t="s">
         <v>143</v>
       </c>
@@ -12164,7 +12303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="51" t="s">
         <v>9</v>
       </c>
@@ -12172,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="50" t="s">
         <v>181</v>
       </c>
@@ -12180,7 +12319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="51" t="s">
         <v>143</v>
       </c>
@@ -12188,7 +12327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="50" t="s">
         <v>108</v>
       </c>
@@ -12196,7 +12335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="51" t="s">
         <v>185</v>
       </c>
@@ -12204,7 +12343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="51" t="s">
         <v>97</v>
       </c>
@@ -12212,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="50" t="s">
         <v>110</v>
       </c>
@@ -12220,7 +12359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="51" t="s">
         <v>185</v>
       </c>
@@ -12228,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="51" t="s">
         <v>97</v>
       </c>
@@ -12236,7 +12375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="50" t="s">
         <v>22</v>
       </c>
@@ -12244,7 +12383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="51" t="s">
         <v>30</v>
       </c>
@@ -12252,7 +12391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="51" t="s">
         <v>9</v>
       </c>
@@ -12260,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="50" t="s">
         <v>112</v>
       </c>
@@ -12268,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="51" t="s">
         <v>97</v>
       </c>
@@ -12276,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="50" t="s">
         <v>25</v>
       </c>
@@ -12284,7 +12423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="51" t="s">
         <v>30</v>
       </c>
@@ -12292,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="51" t="s">
         <v>9</v>
       </c>
@@ -12300,7 +12439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="50" t="s">
         <v>54</v>
       </c>
@@ -12308,7 +12447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="51" t="s">
         <v>30</v>
       </c>
@@ -12316,7 +12455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="51" t="s">
         <v>97</v>
       </c>
@@ -12324,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="51" t="s">
         <v>143</v>
       </c>
@@ -12332,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="50" t="s">
         <v>227</v>
       </c>
@@ -12340,7 +12479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="51" t="s">
         <v>185</v>
       </c>
@@ -12348,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="50" t="s">
         <v>115</v>
       </c>
@@ -12356,7 +12495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="51" t="s">
         <v>97</v>
       </c>
@@ -12364,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="51" t="s">
         <v>9</v>
       </c>
@@ -12372,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="50" t="s">
         <v>317</v>
       </c>
@@ -12398,12 +12537,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="64">
       <c r="B3" s="17" t="s">
         <v>297</v>
       </c>
@@ -12423,7 +12562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="16">
       <c r="B4" s="16" t="s">
         <v>284</v>
       </c>
@@ -12443,7 +12582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="16">
       <c r="B5" s="16" t="s">
         <v>285</v>
       </c>
@@ -12463,7 +12602,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="16">
       <c r="B6" s="16" t="s">
         <v>286</v>
       </c>
@@ -12483,7 +12622,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="16">
       <c r="B7" s="16" t="s">
         <v>287</v>
       </c>
@@ -12503,7 +12642,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="16">
       <c r="B8" s="16" t="s">
         <v>288</v>
       </c>
@@ -12523,7 +12662,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="16">
       <c r="B9" s="16" t="s">
         <v>289</v>
       </c>
@@ -12543,7 +12682,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="16">
       <c r="B10" s="16" t="s">
         <v>291</v>
       </c>
@@ -12563,7 +12702,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="16">
       <c r="B11" s="16" t="s">
         <v>292</v>
       </c>
@@ -12583,7 +12722,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="16">
       <c r="B12" s="16" t="s">
         <v>293</v>
       </c>
@@ -12604,7 +12743,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="16">
       <c r="B13" s="16" t="s">
         <v>294</v>
       </c>
@@ -12618,7 +12757,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="16">
       <c r="B14" s="17" t="s">
         <v>270</v>
       </c>
@@ -12662,18 +12801,18 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12696,7 +12835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="48">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -12719,7 +12858,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48">
       <c r="A3" s="2" t="s">
         <v>135</v>
       </c>
@@ -12742,7 +12881,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -12765,7 +12904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="32" hidden="1">
       <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
@@ -12788,7 +12927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
       <c r="A6" s="68" t="s">
         <v>246</v>
       </c>
@@ -12799,7 +12938,7 @@
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32" hidden="1">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -12822,7 +12961,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" hidden="1">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -12845,7 +12984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32" hidden="1">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -12868,7 +13007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32" hidden="1">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -12891,7 +13030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32" hidden="1">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -12914,7 +13053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32" hidden="1">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -12937,7 +13076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" hidden="1">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -12960,7 +13099,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" hidden="1">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -12983,7 +13122,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" hidden="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -13006,7 +13145,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" hidden="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -13029,7 +13168,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" hidden="1">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -13052,7 +13191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="32" hidden="1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -13075,7 +13214,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32" hidden="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -13098,7 +13237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32" hidden="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13121,7 +13260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="2" t="s">
         <v>181</v>
       </c>
@@ -13144,7 +13283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32" hidden="1">
       <c r="A22" s="2" t="s">
         <v>181</v>
       </c>
@@ -13167,7 +13306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="2" t="s">
         <v>181</v>
       </c>
@@ -13190,7 +13329,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="32" hidden="1">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -13245,17 +13384,17 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="71" t="s">
         <v>238</v>
       </c>
@@ -13266,7 +13405,7 @@
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13289,7 +13428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="70" t="s">
         <v>247</v>
       </c>
@@ -13300,7 +13439,7 @@
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -13323,7 +13462,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -13346,7 +13485,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -13369,7 +13508,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="70" t="s">
         <v>248</v>
       </c>
@@ -13380,7 +13519,7 @@
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="32">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -13403,7 +13542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -13426,7 +13565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
@@ -13449,7 +13588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -13472,7 +13611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -13495,7 +13634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -13518,7 +13657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13541,7 +13680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -13564,7 +13703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
@@ -13587,7 +13726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -13610,7 +13749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="70" t="s">
         <v>249</v>
       </c>
@@ -13621,7 +13760,7 @@
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13644,7 +13783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -13667,7 +13806,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="32">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -13690,7 +13829,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13713,7 +13852,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="70" t="s">
         <v>250</v>
       </c>
@@ -13724,7 +13863,7 @@
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="64">
       <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
@@ -13747,7 +13886,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="64">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -13770,7 +13909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="64">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -13793,7 +13932,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="64">
       <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
@@ -13816,7 +13955,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="64">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
@@ -13864,13 +14003,13 @@
       <selection activeCell="D7" sqref="D7:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>244</v>
       </c>
@@ -13878,7 +14017,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
@@ -13886,7 +14025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -13894,7 +14033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -13902,7 +14041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>239</v>
       </c>
@@ -13910,7 +14049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>240</v>
       </c>
@@ -13918,7 +14057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>241</v>
       </c>
@@ -13930,7 +14069,7 @@
       </c>
       <c r="E7" s="74"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="75" t="s">
@@ -13938,7 +14077,7 @@
       </c>
       <c r="E8" s="75"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
@@ -13952,7 +14091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
@@ -13966,7 +14105,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>219</v>
       </c>
@@ -13978,7 +14117,7 @@
       </c>
       <c r="E11" s="76"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
         <v>256</v>
       </c>
@@ -13986,7 +14125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
         <v>257</v>
       </c>
@@ -13994,7 +14133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
         <v>258</v>
       </c>
@@ -14002,7 +14141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
         <v>259</v>
       </c>
@@ -14010,23 +14149,23 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="3" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5">
       <c r="D17" s="77" t="s">
         <v>239</v>
       </c>
       <c r="E17" s="77"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5">
       <c r="D18" s="78" t="s">
         <v>252</v>
       </c>
       <c r="E18" s="78"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>254</v>
       </c>
@@ -14034,7 +14173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>260</v>
       </c>
@@ -14042,13 +14181,13 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5">
       <c r="D21" s="73" t="s">
         <v>255</v>
       </c>
       <c r="E21" s="73"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5">
       <c r="D22" s="13" t="s">
         <v>257</v>
       </c>
@@ -14056,7 +14195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5">
       <c r="D23" s="13" t="s">
         <v>258</v>
       </c>
@@ -14064,7 +14203,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5">
       <c r="D24" s="13" t="s">
         <v>259</v>
       </c>

--- a/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
+++ b/Infraestructura/MatrizInfraestructurasNuevas_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Infraestructura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D020498-5246-A94E-9D71-ECFEC8081DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70374E-83BC-4C96-9E94-E6333B860E03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja3!$A$1:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz!$A$2:$R$123</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
@@ -36,6 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1176,10 +1177,6 @@
     <t xml:space="preserve">El Fondo de Adaptación reporta que la dotación la entrega la Gobernación de Bolíva